--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="585">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2395,6 +2395,119 @@
   </si>
   <si>
     <t>RD-机智云STM32智能硬件开发.pdf</t>
+  </si>
+  <si>
+    <t>RD-Quadrino GPS模块.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\3-传感测量\7-GPS定位</t>
+  </si>
+  <si>
+    <t>物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\物联网</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物联网全栈教程-从云端到设备.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-2.4GHz手柄遥控器原理图.pdf</t>
+  </si>
+  <si>
+    <t>RD-5A线性稳压电源模块.pdf</t>
+  </si>
+  <si>
+    <t>RD-为什么一般用PMOS做上管NMOS做下管.pdf</t>
+  </si>
+  <si>
+    <t>RD-区分PMOS管和NMOS管的巧妙记忆方法.pdf</t>
+  </si>
+  <si>
+    <t>RD-pmos导通条件详解-KIA MOS管.pdf</t>
+  </si>
+  <si>
+    <t>RD-KIA2301_PMOS数据手册分析.pdf</t>
+  </si>
+  <si>
+    <t>RD-I2C Tools - Linux i2c Wiki.pdf</t>
+  </si>
+  <si>
+    <t>I2C子系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\1-软件技术\2-Linux内核驱动\4-I2C子系统</t>
+  </si>
+  <si>
+    <t>RD-interfacing_i2c_devices_to_your_system.pdf</t>
+  </si>
+  <si>
+    <t>RD-i2c-tools的使用方法及举例.pdf</t>
+  </si>
+  <si>
+    <t>RD-i2cdetect i2cdump i2cget i2cset用法.pdf</t>
+  </si>
+  <si>
+    <t>其他单片机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-瑞萨电子低功耗MCU实战手册.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\6-单片机\其他单片机</t>
+  </si>
+  <si>
+    <t>STM32 WIFI Linux 安卓智能控制开发板应用手册.pdf</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2694,41 +2807,128 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2736,91 +2936,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3142,10 +3267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:A96"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3161,15 +3286,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3195,13 +3320,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="93" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3218,9 +3343,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3235,22 +3360,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="93" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3267,9 +3392,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3284,9 +3409,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3301,9 +3426,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3318,9 +3443,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3335,131 +3460,131 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="90" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43819</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G15" s="105"/>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E17" s="4">
         <v>43780</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="92" t="s">
+    <row r="18" spans="1:7" s="8" customFormat="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1">
+      <c r="A19" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B19" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E18" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18" s="98"/>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="E19" s="4">
         <v>43810</v>
@@ -3467,29 +3592,27 @@
       <c r="F19" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G19" s="98"/>
+      <c r="G19" s="103" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E20" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G20" s="98"/>
+        <v>407</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E21" s="4">
         <v>43810</v>
@@ -3497,14 +3620,14 @@
       <c r="F21" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G21" s="98"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E22" s="4">
         <v>43810</v>
@@ -3512,14 +3635,14 @@
       <c r="F22" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G22" s="98"/>
+      <c r="G22" s="104"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="94"/>
       <c r="B23" s="94"/>
       <c r="C23" s="94"/>
       <c r="D23" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E23" s="4">
         <v>43810</v>
@@ -3527,14 +3650,14 @@
       <c r="F23" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G23" s="98"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="94"/>
       <c r="B24" s="94"/>
       <c r="C24" s="94"/>
       <c r="D24" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E24" s="4">
         <v>43810</v>
@@ -3542,14 +3665,14 @@
       <c r="F24" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G24" s="98"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="94"/>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E25" s="4">
         <v>43810</v>
@@ -3557,14 +3680,14 @@
       <c r="F25" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="98"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="94"/>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
       <c r="D26" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E26" s="4">
         <v>43810</v>
@@ -3572,14 +3695,14 @@
       <c r="F26" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G26" s="98"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
       <c r="A27" s="94"/>
       <c r="B27" s="94"/>
       <c r="C27" s="94"/>
       <c r="D27" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E27" s="4">
         <v>43810</v>
@@ -3587,14 +3710,14 @@
       <c r="F27" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G27" s="98"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E28" s="4">
         <v>43810</v>
@@ -3602,376 +3725,374 @@
       <c r="F28" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="96"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G30" s="101"/>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G31" s="101"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G32" s="101"/>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1">
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="102"/>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B35" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C35" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E35" s="4">
         <v>43789</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="89" t="s">
+      <c r="G35" s="103" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="5" t="s">
+    <row r="36" spans="1:7" s="8" customFormat="1">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E36" s="4">
         <v>43789</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="90"/>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="90"/>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E34" s="4">
-        <v>43811</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="G34" s="91"/>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="4">
-        <v>43790</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="89" t="s">
-        <v>129</v>
-      </c>
+      <c r="G36" s="104"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
       <c r="A37" s="93"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
       <c r="D37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="104"/>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="104"/>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43811</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" s="105"/>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1">
+      <c r="A41" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43790</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1">
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E42" s="4">
         <v>43790</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="90"/>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="5" t="s">
+      <c r="G42" s="104"/>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="E38" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="91"/>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1">
-      <c r="A40" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="4">
-        <v>43780</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="4">
-        <v>43782</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="90"/>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="90"/>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="E43" s="4">
         <v>43810</v>
       </c>
-      <c r="F43" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G43" s="90"/>
+      <c r="F43" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="105"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E44" s="4">
-        <v>43810</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="G44" s="96"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
+      <c r="A45" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43780</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="103" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>344</v>
-      </c>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E46" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>347</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43782</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="104"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
       <c r="A47" s="94"/>
       <c r="B47" s="94"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
+      <c r="G47" s="104"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
       <c r="A48" s="94"/>
       <c r="B48" s="94"/>
-      <c r="C48" s="92" t="s">
-        <v>110</v>
-      </c>
+      <c r="C48" s="94"/>
       <c r="D48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="7">
-        <v>43789</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="88" t="s">
-        <v>104</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" s="104"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="93"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="7">
-        <v>43789</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="88"/>
+        <v>425</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43810</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" s="102"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="7">
-        <v>43789</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="88"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>344</v>
+      </c>
       <c r="D51" s="5" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="E51" s="7">
-        <v>43789</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="88"/>
+        <v>43805</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
       <c r="A52" s="94"/>
       <c r="B52" s="94"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="7">
-        <v>43789</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="88"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
       <c r="A53" s="94"/>
       <c r="B53" s="94"/>
-      <c r="C53" s="93"/>
+      <c r="C53" s="90" t="s">
+        <v>110</v>
+      </c>
       <c r="D53" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E53" s="7">
         <v>43789</v>
@@ -3979,855 +4100,934 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="88"/>
+      <c r="G53" s="93" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="94"/>
       <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="E54" s="7">
+        <v>43789</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="93"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
       <c r="A55" s="94"/>
       <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="E55" s="7">
+        <v>43789</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
       <c r="A56" s="94"/>
       <c r="B56" s="94"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="7">
+        <v>43789</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="93"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
       <c r="A57" s="94"/>
       <c r="B57" s="94"/>
-      <c r="C57" s="92" t="s">
-        <v>351</v>
-      </c>
+      <c r="C57" s="91"/>
       <c r="D57" s="5" t="s">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="E57" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G57" s="89" t="s">
-        <v>353</v>
-      </c>
+        <v>43789</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="93"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="94"/>
       <c r="B58" s="94"/>
-      <c r="C58" s="93"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="90"/>
+        <v>109</v>
+      </c>
+      <c r="E58" s="7">
+        <v>43789</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="93"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
       <c r="A59" s="94"/>
       <c r="B59" s="94"/>
       <c r="C59" s="94"/>
       <c r="D59" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="G59" s="90"/>
+        <v>113</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
       <c r="A60" s="94"/>
       <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E60" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G60" s="90"/>
+        <v>114</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
       <c r="A61" s="94"/>
       <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E61" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G61" s="91"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
       <c r="A62" s="94"/>
       <c r="B62" s="94"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
+      <c r="C62" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E62" s="7">
+        <v>43805</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
       <c r="A63" s="94"/>
       <c r="B63" s="94"/>
-      <c r="C63" s="45" t="s">
-        <v>348</v>
-      </c>
+      <c r="C63" s="91"/>
       <c r="D63" s="5" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
+      <c r="G63" s="104"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
       <c r="A64" s="94"/>
       <c r="B64" s="94"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="51"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" s="7">
+        <v>43805</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" s="104"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
       <c r="A65" s="94"/>
       <c r="B65" s="94"/>
-      <c r="C65" s="92" t="s">
-        <v>388</v>
-      </c>
+      <c r="C65" s="94"/>
       <c r="D65" s="5" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="E65" s="7">
-        <v>43807</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="G65" s="89" t="s">
-        <v>391</v>
-      </c>
+        <v>43805</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G65" s="104"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="94"/>
       <c r="B66" s="94"/>
-      <c r="C66" s="93"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="5" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="E66" s="7">
-        <v>43807</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G66" s="90"/>
+        <v>43805</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="105"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
       <c r="A67" s="94"/>
       <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E67" s="7">
-        <v>43807</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G67" s="90"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="94"/>
       <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
+      <c r="C68" s="45" t="s">
+        <v>348</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E68" s="7">
-        <v>43807</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G68" s="98"/>
+        <v>349</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="95"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E69" s="7">
-        <v>43807</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G69" s="98"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="95"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="90" t="s">
+        <v>388</v>
+      </c>
       <c r="D70" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E70" s="7">
         <v>43807</v>
       </c>
       <c r="F70" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G70" s="103" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="8" customFormat="1">
+      <c r="A71" s="94"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" s="7">
+        <v>43807</v>
+      </c>
+      <c r="F71" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="96"/>
-    </row>
-    <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="104"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>320</v>
-      </c>
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="4">
-        <v>43777</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>321</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E72" s="7">
+        <v>43807</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G72" s="104"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="94"/>
       <c r="B73" s="94"/>
-      <c r="C73" s="92" t="s">
-        <v>476</v>
-      </c>
+      <c r="C73" s="94"/>
       <c r="D73" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="E73" s="4">
-        <v>43816</v>
-      </c>
-      <c r="F73" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="G73" s="89" t="s">
-        <v>480</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E73" s="7">
+        <v>43807</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="101"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="94"/>
       <c r="D74" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E74" s="4">
-        <v>43816</v>
-      </c>
-      <c r="F74" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="G74" s="91"/>
+        <v>396</v>
+      </c>
+      <c r="E74" s="7">
+        <v>43807</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G74" s="101"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="92" t="s">
-        <v>322</v>
-      </c>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E75" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F75" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G75" s="89" t="s">
-        <v>483</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="E75" s="7">
+        <v>43807</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G75" s="102"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
-      <c r="A76" s="94"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E76" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F76" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G76" s="90"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
+      <c r="A77" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>320</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>484</v>
+        <v>32</v>
       </c>
       <c r="E77" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F77" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G77" s="90"/>
+        <v>43777</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
       <c r="A78" s="94"/>
       <c r="B78" s="94"/>
-      <c r="C78" s="95"/>
+      <c r="C78" s="90" t="s">
+        <v>476</v>
+      </c>
       <c r="D78" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43816</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>479</v>
+      </c>
+      <c r="G78" s="103" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1">
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43816</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>479</v>
+      </c>
+      <c r="G79" s="105"/>
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1">
+      <c r="A80" s="94"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="90" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F80" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G80" s="103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1">
+      <c r="A81" s="94"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G81" s="104"/>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1">
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F82" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G82" s="104"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1">
+      <c r="A83" s="94"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="E78" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F78" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G78" s="96"/>
-    </row>
-    <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="95"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E79" s="73" t="s">
-        <v>488</v>
-      </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="55"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>488</v>
-      </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="87"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-    </row>
-    <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E82" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" s="101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="93"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="E83" s="4">
         <v>43817</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G83" s="102"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1">
+      <c r="A84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="F84" s="67"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1">
+      <c r="A85" s="55"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="E85" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="F85" s="55"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1">
+      <c r="A86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1">
+      <c r="A87" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" s="99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1">
+      <c r="A88" s="91"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G83" s="102"/>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="93"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="5" t="s">
+      <c r="G88" s="100"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1">
+      <c r="A89" s="91"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E89" s="4">
         <v>43788</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="102"/>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1">
-      <c r="A85" s="93"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="3" t="s">
+      <c r="G89" s="100"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1">
+      <c r="A90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E90" s="4">
         <v>43817</v>
       </c>
-      <c r="F85" s="71" t="s">
+      <c r="F90" s="69" t="s">
         <v>506</v>
       </c>
-      <c r="G85" s="98"/>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="3" t="s">
+      <c r="G90" s="101"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1">
+      <c r="A91" s="91"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E91" s="4">
         <v>43818</v>
       </c>
-      <c r="F86" s="75" t="s">
+      <c r="F91" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="G86" s="98"/>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="93"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="3" t="s">
+      <c r="G91" s="101"/>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1">
+      <c r="A92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E92" s="4">
         <v>43818</v>
       </c>
-      <c r="F87" s="75" t="s">
+      <c r="F92" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="G87" s="98"/>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="93"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="3" t="s">
+      <c r="G92" s="101"/>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1">
+      <c r="A93" s="91"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E93" s="4">
         <v>43818</v>
       </c>
-      <c r="F88" s="75" t="s">
+      <c r="F93" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="G88" s="96"/>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="93"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="13" t="s">
+      <c r="G93" s="102"/>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1">
+      <c r="A94" s="91"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E94" s="4">
         <v>43790</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F94" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G94" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="93"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="92" t="s">
+    <row r="95" spans="1:7" s="8" customFormat="1">
+      <c r="A95" s="91"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E95" s="4">
         <v>43797</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F95" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G95" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="93"/>
-      <c r="B91" s="93"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="3" t="s">
+    <row r="96" spans="1:7" s="8" customFormat="1">
+      <c r="A96" s="91"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
-    </row>
-    <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="93"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="23" t="s">
+      <c r="E96" s="4"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1">
+      <c r="A97" s="91"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E97" s="4">
         <v>43798</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="F97" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G97" s="25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="94"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="92" t="s">
+    <row r="98" spans="1:7" s="8" customFormat="1">
+      <c r="A98" s="94"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="25"/>
-    </row>
-    <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="5" t="s">
+      <c r="E98" s="4"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1">
+      <c r="A99" s="94"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="25"/>
-    </row>
-    <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="5" t="s">
+      <c r="E99" s="4"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="25"/>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1">
+      <c r="A100" s="94"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="95"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="34" t="s">
+      <c r="E100" s="4"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1">
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E101" s="4">
         <v>43802</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F101" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G101" s="25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="87"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="87"/>
-      <c r="G97" s="87"/>
-    </row>
-    <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="92" t="s">
+    <row r="102" spans="1:7" s="8" customFormat="1">
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1">
+      <c r="A103" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B103" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E103" s="4">
         <v>43782</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3" t="s">
+    <row r="104" spans="1:7" s="8" customFormat="1">
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E104" s="4">
         <v>43782</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="93"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="12" t="s">
+    <row r="105" spans="1:7" s="8" customFormat="1">
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E105" s="4">
         <v>43782</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F105" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="93"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="88" t="s">
+    <row r="106" spans="1:7" s="8" customFormat="1">
+      <c r="A106" s="91"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="5" t="s">
+      <c r="E106" s="4"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="93"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="5" t="s">
+    <row r="107" spans="1:7" s="8" customFormat="1">
+      <c r="A107" s="91"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="92" t="s">
+      <c r="E107" s="4"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="92" t="s">
+      <c r="B109" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="92" t="s">
+      <c r="C109" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E109" s="4">
         <v>43797</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F109" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G109" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="93"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
-      <c r="D105" s="21" t="s">
+    <row r="110" spans="1:7">
+      <c r="A110" s="91"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E110" s="4">
         <v>43797</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="F110" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="93"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="6" t="s">
+    <row r="111" spans="1:7">
+      <c r="A111" s="91"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E111" s="4">
         <v>43797</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F111" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="93"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="93"/>
-      <c r="D107" s="6" t="s">
+    <row r="112" spans="1:7">
+      <c r="A112" s="91"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E112" s="4">
         <v>43797</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F112" s="12" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A82:A96"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="C82:C88"/>
-    <mergeCell ref="G82:G88"/>
-    <mergeCell ref="G14:G28"/>
-    <mergeCell ref="C14:C28"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="A14:A28"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="A46:A69"/>
-    <mergeCell ref="B46:B69"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A72:A79"/>
+  <mergeCells count="57">
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A50:G50"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="G19:G33"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4839,10 +5039,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4858,15 +5058,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -4892,13 +5092,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="90" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4910,14 +5110,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="103" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="93"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="5" t="s">
         <v>259</v>
       </c>
@@ -4927,12 +5127,12 @@
       <c r="F4" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="90"/>
+      <c r="G4" s="104"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="97"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="5" t="s">
         <v>261</v>
       </c>
@@ -4942,12 +5142,12 @@
       <c r="F5" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="92" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="90" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4959,13 +5159,13 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="103" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="94"/>
       <c r="D7" s="5" t="s">
         <v>538</v>
@@ -4973,14 +5173,14 @@
       <c r="E7" s="4">
         <v>43818</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="78" t="s">
         <v>539</v>
       </c>
-      <c r="G7" s="98"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="94"/>
       <c r="D8" s="5" t="s">
         <v>540</v>
@@ -4988,14 +5188,14 @@
       <c r="E8" s="4">
         <v>43818</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="78" t="s">
         <v>539</v>
       </c>
-      <c r="G8" s="98"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="94"/>
       <c r="D9" s="5" t="s">
         <v>541</v>
@@ -5003,92 +5203,92 @@
       <c r="E9" s="4">
         <v>43818</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="78" t="s">
         <v>539</v>
       </c>
-      <c r="G9" s="98"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="82" t="s">
         <v>542</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="98"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="94"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="82" t="s">
         <v>543</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="98"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="94"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="82" t="s">
         <v>544</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="98"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="94"/>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="82" t="s">
         <v>545</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="98"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="94"/>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="82" t="s">
         <v>546</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="98"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="94"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="82" t="s">
         <v>547</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="98"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="82" t="s">
         <v>548</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="102"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="94"/>
       <c r="B17" s="94"/>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="97" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5100,14 +5300,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="94"/>
       <c r="B18" s="94"/>
-      <c r="C18" s="100"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5117,12 +5317,12 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="91"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="94"/>
       <c r="B19" s="94"/>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="97" t="s">
         <v>224</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -5134,7 +5334,7 @@
       <c r="F19" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="103" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5151,1299 +5351,1299 @@
       <c r="F20" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="98"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="94"/>
       <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E21" s="4">
         <v>43818</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="G21" s="96"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="94"/>
       <c r="B22" s="94"/>
-      <c r="C22" s="99" t="s">
-        <v>242</v>
-      </c>
+      <c r="C22" s="94"/>
       <c r="D22" s="5" t="s">
-        <v>227</v>
+        <v>570</v>
       </c>
       <c r="E22" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>228</v>
-      </c>
+        <v>43819</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G22" s="101"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="94"/>
       <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="5"/>
+        <v>571</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="94"/>
       <c r="B24" s="94"/>
-      <c r="C24" s="92" t="s">
-        <v>240</v>
-      </c>
+      <c r="C24" s="94"/>
       <c r="D24" s="5" t="s">
-        <v>239</v>
+        <v>572</v>
       </c>
       <c r="E24" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>241</v>
-      </c>
+        <v>43819</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="94"/>
       <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="5" t="s">
-        <v>243</v>
+        <v>573</v>
       </c>
       <c r="E25" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="90"/>
+        <v>43819</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G25" s="102"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="94"/>
       <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="C26" s="97" t="s">
+        <v>242</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E26" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="90"/>
+        <v>43800</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="94"/>
       <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="90"/>
+        <v>237</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="94"/>
       <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="C28" s="90" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E28" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="90"/>
+        <v>43800</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="103" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="94"/>
       <c r="B29" s="94"/>
       <c r="C29" s="94"/>
       <c r="D29" s="5" t="s">
-        <v>373</v>
+        <v>243</v>
       </c>
       <c r="E29" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="G29" s="98"/>
+        <v>43801</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="104"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="94"/>
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
       <c r="D30" s="5" t="s">
-        <v>502</v>
+        <v>245</v>
       </c>
       <c r="E30" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="G30" s="98"/>
+        <v>43801</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="104"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="94"/>
       <c r="B31" s="94"/>
       <c r="C31" s="94"/>
       <c r="D31" s="5" t="s">
-        <v>504</v>
+        <v>246</v>
       </c>
       <c r="E31" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="G31" s="98"/>
+        <v>43801</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="104"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="94"/>
       <c r="B32" s="94"/>
       <c r="C32" s="94"/>
       <c r="D32" s="5" t="s">
-        <v>505</v>
+        <v>247</v>
       </c>
       <c r="E32" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>506</v>
-      </c>
-      <c r="G32" s="98"/>
+        <v>43801</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="104"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="94"/>
       <c r="B33" s="94"/>
       <c r="C33" s="94"/>
       <c r="D33" s="5" t="s">
-        <v>507</v>
+        <v>373</v>
       </c>
       <c r="E33" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="G33" s="98"/>
+        <v>43805</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" s="101"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="94"/>
       <c r="B34" s="94"/>
       <c r="C34" s="94"/>
       <c r="D34" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E34" s="4">
         <v>43817</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="G34" s="98"/>
+      <c r="G34" s="101"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="94"/>
       <c r="B35" s="94"/>
       <c r="C35" s="94"/>
       <c r="D35" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E35" s="4">
         <v>43817</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="G35" s="98"/>
+      <c r="G35" s="101"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="94"/>
       <c r="B36" s="94"/>
       <c r="C36" s="94"/>
       <c r="D36" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E36" s="4">
         <v>43817</v>
       </c>
-      <c r="F36" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="G36" s="98"/>
+      <c r="F36" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="G36" s="101"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="94"/>
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="D37" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="G37" s="98"/>
+      <c r="G37" s="101"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="94"/>
       <c r="B38" s="94"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="75"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G38" s="101"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="94"/>
       <c r="B39" s="94"/>
-      <c r="C39" s="92" t="s">
-        <v>262</v>
-      </c>
+      <c r="C39" s="94"/>
       <c r="D39" s="5" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
       <c r="E39" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="89" t="s">
-        <v>283</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G39" s="101"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="94"/>
       <c r="B40" s="94"/>
-      <c r="C40" s="93"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="5" t="s">
-        <v>265</v>
+        <v>510</v>
       </c>
       <c r="E40" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="90"/>
+        <v>43817</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G40" s="101"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="94"/>
       <c r="B41" s="94"/>
       <c r="C41" s="94"/>
       <c r="D41" s="5" t="s">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="E41" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G41" s="90"/>
+        <v>43817</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G41" s="101"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="94"/>
       <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="91"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="73"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="94"/>
       <c r="B43" s="94"/>
-      <c r="C43" s="92" t="s">
-        <v>281</v>
+      <c r="C43" s="90" t="s">
+        <v>262</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E43" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43" s="89" t="s">
-        <v>282</v>
+        <v>43801</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="103" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="94"/>
       <c r="B44" s="94"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E44" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" s="90"/>
+        <v>43801</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="104"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="94"/>
       <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E45" s="4">
         <v>43802</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="96"/>
+      <c r="F45" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="104"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="94"/>
       <c r="B46" s="94"/>
-      <c r="C46" s="34" t="s">
-        <v>285</v>
-      </c>
+      <c r="C46" s="95"/>
       <c r="D46" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E46" s="4">
         <v>43802</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="34"/>
+      <c r="F46" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" s="105"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="94"/>
       <c r="B47" s="94"/>
-      <c r="C47" s="92" t="s">
-        <v>289</v>
+      <c r="C47" s="90" t="s">
+        <v>281</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E47" s="4">
         <v>43802</v>
       </c>
-      <c r="F47" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G47" s="34"/>
+      <c r="F47" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="103" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="94"/>
       <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E48" s="4">
         <v>43802</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G48" s="34"/>
+      <c r="F48" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="104"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="94"/>
       <c r="B49" s="94"/>
-      <c r="C49" s="92" t="s">
-        <v>339</v>
-      </c>
+      <c r="C49" s="95"/>
       <c r="D49" s="5" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E49" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>338</v>
-      </c>
+        <v>43802</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="102"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="94"/>
       <c r="B50" s="94"/>
-      <c r="C50" s="97"/>
+      <c r="C50" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="D50" s="5" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="E50" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G50" s="91"/>
+        <v>43802</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="94"/>
       <c r="B51" s="94"/>
-      <c r="C51" s="92" t="s">
-        <v>359</v>
+      <c r="C51" s="90" t="s">
+        <v>289</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="E51" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G51" s="89" t="s">
-        <v>363</v>
-      </c>
+        <v>43802</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="94"/>
       <c r="B52" s="94"/>
-      <c r="C52" s="93"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="5" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="E52" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G52" s="90"/>
+        <v>43802</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="94"/>
       <c r="B53" s="94"/>
-      <c r="C53" s="93"/>
+      <c r="C53" s="90" t="s">
+        <v>339</v>
+      </c>
       <c r="D53" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E53" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G53" s="90"/>
+        <v>43804</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" s="103" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="94"/>
       <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="5" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="E54" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="G54" s="98"/>
+        <v>43804</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G54" s="105"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="94"/>
       <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
+      <c r="C55" s="90" t="s">
+        <v>359</v>
+      </c>
       <c r="D55" s="5" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="E55" s="4">
-        <v>43806</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="G55" s="96"/>
+        <v>43805</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" s="103" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="94"/>
       <c r="B56" s="94"/>
-      <c r="C56" s="105" t="s">
-        <v>439</v>
-      </c>
+      <c r="C56" s="91"/>
       <c r="D56" s="5" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="E56" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G56" s="89" t="s">
-        <v>445</v>
-      </c>
+        <v>43805</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" s="104"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="94"/>
       <c r="B57" s="94"/>
-      <c r="C57" s="106"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="5" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="E57" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F57" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G57" s="91"/>
+        <v>43805</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="104"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="94"/>
       <c r="B58" s="94"/>
-      <c r="C58" s="105" t="s">
-        <v>450</v>
-      </c>
+      <c r="C58" s="94"/>
       <c r="D58" s="5" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="E58" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G58" s="89" t="s">
-        <v>448</v>
-      </c>
+        <v>43805</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G58" s="101"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="94"/>
       <c r="B59" s="94"/>
-      <c r="C59" s="106"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="5" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="E59" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F59" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G59" s="91"/>
+        <v>43806</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" s="102"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="94"/>
       <c r="B60" s="94"/>
-      <c r="C60" s="107" t="s">
-        <v>492</v>
+      <c r="C60" s="111" t="s">
+        <v>439</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="E60" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G60" s="89" t="s">
-        <v>494</v>
+        <v>43812</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G60" s="103" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="94"/>
       <c r="B61" s="94"/>
-      <c r="C61" s="108"/>
+      <c r="C61" s="112"/>
       <c r="D61" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E61" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61" s="105"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="94"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="94"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E63" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" s="105"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="94"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="109" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" s="103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="94"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E65" s="4">
         <v>43817</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F65" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="G61" s="90"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="95"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="5" t="s">
+      <c r="G65" s="104"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="95"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E66" s="4">
         <v>43817</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F66" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="G62" s="96"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="99" t="s">
+      <c r="G66" s="102"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="99" t="s">
+      <c r="B68" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="93" t="s">
+      <c r="C68" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E68" s="7">
         <v>43812</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F68" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="3" t="s">
+    <row r="69" spans="1:7">
+      <c r="A69" s="98"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E69" s="4">
         <v>43802</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G69" s="103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="92" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="98"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E70" s="4">
         <v>43777</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F70" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="G66" s="90"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="4">
-        <v>43777</v>
-      </c>
-      <c r="F67" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G67" s="98"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E68" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F68" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G68" s="98"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E69" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F69" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G69" s="98"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E70" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F70" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G70" s="96"/>
+      <c r="G70" s="104"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="94"/>
       <c r="B71" s="94"/>
-      <c r="C71" s="69" t="s">
-        <v>451</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43777</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" s="101"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="95"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>473</v>
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="E72" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F72" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>474</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" s="101"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="G73" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F73" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" s="101"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="100"/>
-      <c r="B74" s="100"/>
-      <c r="D74" s="3" t="s">
-        <v>41</v>
+      <c r="A74" s="94"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="E74" s="4">
-        <v>43782</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="F74" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G74" s="102"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="94"/>
       <c r="B75" s="94"/>
-      <c r="D75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="C75" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="95"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F76" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="G77" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="98"/>
+      <c r="B78" s="98"/>
+      <c r="D78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43782</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="94"/>
-      <c r="B76" s="94"/>
-      <c r="D76" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="92" t="s">
-        <v>549</v>
-      </c>
-      <c r="D77" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="89" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="85" t="s">
-        <v>551</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="90"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="94"/>
       <c r="B79" s="94"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="85" t="s">
-        <v>552</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="90"/>
+      <c r="D79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="94"/>
       <c r="B80" s="94"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="90"/>
+      <c r="D80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="94"/>
       <c r="B81" s="94"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="85" t="s">
-        <v>554</v>
+      <c r="C81" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="D81" s="83" t="s">
+        <v>550</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="90"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="103" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="95"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="85" t="s">
-        <v>555</v>
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="83" t="s">
+        <v>551</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="91"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="104"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="89" t="s">
-        <v>139</v>
-      </c>
+      <c r="A83" s="94"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="83" t="s">
+        <v>552</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="104"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="94"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="90"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="104"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="94"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="7">
+      <c r="B85" s="94"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="83" t="s">
+        <v>554</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="104"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="83" t="s">
+        <v>555</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="105"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="7">
         <v>43788</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="90"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="94"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="7">
-        <v>43794</v>
-      </c>
-      <c r="F86" s="80" t="s">
-        <v>557</v>
-      </c>
-      <c r="G86" s="91"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="94"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="95"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="5"/>
+      <c r="F87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" s="103" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="94"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="1"/>
-      <c r="G88" s="101" t="s">
-        <v>51</v>
-      </c>
+      <c r="B88" s="91"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="104"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="94"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G89" s="102"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="104"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="94"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G90" s="102"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="7">
+        <v>43794</v>
+      </c>
+      <c r="F90" s="78" t="s">
+        <v>557</v>
+      </c>
+      <c r="G90" s="105"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="94"/>
       <c r="B91" s="94"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="4">
-        <v>43787</v>
-      </c>
-      <c r="G91" s="102"/>
+      <c r="C91" s="95"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="94"/>
       <c r="B92" s="94"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="G92" s="102"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="99" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="94"/>
       <c r="B93" s="94"/>
-      <c r="C93" s="100"/>
+      <c r="C93" s="97" t="s">
+        <v>52</v>
+      </c>
       <c r="D93" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="E93" s="4">
+        <v>43787</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G93" s="102"/>
+        <v>54</v>
+      </c>
+      <c r="G93" s="100"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="94"/>
       <c r="B94" s="94"/>
-      <c r="C94" s="100"/>
+      <c r="C94" s="98"/>
       <c r="D94" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E94" s="4">
-        <v>43788</v>
-      </c>
-      <c r="G94" s="102"/>
+        <v>43787</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="100"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="94"/>
       <c r="B95" s="94"/>
-      <c r="C95" s="100"/>
+      <c r="C95" s="98"/>
       <c r="D95" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G95" s="104"/>
+        <v>56</v>
+      </c>
+      <c r="E95" s="4">
+        <v>43787</v>
+      </c>
+      <c r="G95" s="100"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="94"/>
       <c r="B96" s="94"/>
-      <c r="C96" s="103"/>
+      <c r="C96" s="98"/>
       <c r="D96" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F96" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="G96" s="100"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="94"/>
       <c r="B97" s="94"/>
-      <c r="D97" s="5"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="89" t="s">
-        <v>298</v>
-      </c>
+      <c r="F97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97" s="100"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="94"/>
       <c r="B98" s="94"/>
-      <c r="C98" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G98" s="98"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="4">
+        <v>43788</v>
+      </c>
+      <c r="G98" s="100"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="94"/>
       <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G99" s="98"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="107"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="94"/>
       <c r="B100" s="94"/>
-      <c r="C100" s="94"/>
+      <c r="C100" s="108"/>
       <c r="D100" s="5" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="E100" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G100" s="98"/>
+        <v>43788</v>
+      </c>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="94"/>
       <c r="B101" s="94"/>
-      <c r="C101" s="94"/>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E101" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G101" s="96"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="103" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="94"/>
       <c r="B102" s="94"/>
-      <c r="C102" s="95"/>
+      <c r="C102" s="97" t="s">
+        <v>135</v>
+      </c>
       <c r="D102" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E102" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F102" s="75" t="s">
-        <v>519</v>
-      </c>
-      <c r="G102" s="36"/>
+        <v>136</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G102" s="101"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="94"/>
       <c r="B103" s="94"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="101" t="s">
-        <v>258</v>
-      </c>
+      <c r="C103" s="94"/>
+      <c r="D103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G103" s="101"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="94"/>
       <c r="B104" s="94"/>
-      <c r="C104" s="92" t="s">
-        <v>249</v>
-      </c>
+      <c r="C104" s="94"/>
       <c r="D104" s="5" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="E104" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G104" s="102"/>
+        <v>43802</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G104" s="101"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="94"/>
       <c r="B105" s="94"/>
-      <c r="C105" s="93"/>
+      <c r="C105" s="94"/>
       <c r="D105" s="5" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E105" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>244</v>
+        <v>43802</v>
+      </c>
+      <c r="F105" s="42" t="s">
+        <v>341</v>
       </c>
       <c r="G105" s="102"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="94"/>
       <c r="B106" s="94"/>
-      <c r="C106" s="93"/>
+      <c r="C106" s="95"/>
       <c r="D106" s="5" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="E106" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G106" s="102"/>
+        <v>43804</v>
+      </c>
+      <c r="F106" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="G106" s="36"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="94"/>
       <c r="B107" s="94"/>
-      <c r="C107" s="93"/>
-      <c r="D107" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G107" s="102"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="99" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="94"/>
       <c r="B108" s="94"/>
-      <c r="C108" s="93"/>
+      <c r="C108" s="90" t="s">
+        <v>249</v>
+      </c>
       <c r="D108" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E108" s="4">
         <v>43801</v>
@@ -6451,14 +6651,14 @@
       <c r="F108" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G108" s="102"/>
+      <c r="G108" s="100"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="94"/>
       <c r="B109" s="94"/>
-      <c r="C109" s="93"/>
+      <c r="C109" s="91"/>
       <c r="D109" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E109" s="4">
         <v>43801</v>
@@ -6466,1327 +6666,1504 @@
       <c r="F109" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G109" s="102"/>
+      <c r="G109" s="100"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="94"/>
       <c r="B110" s="94"/>
-      <c r="C110" s="94"/>
+      <c r="C110" s="91"/>
       <c r="D110" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E110" s="4">
         <v>43801</v>
       </c>
-      <c r="F110" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="104"/>
+      <c r="F110" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G110" s="100"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="94"/>
       <c r="B111" s="94"/>
-      <c r="C111" s="95"/>
+      <c r="C111" s="91"/>
       <c r="D111" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E111" s="4">
         <v>43801</v>
       </c>
-      <c r="F111" s="75" t="s">
-        <v>519</v>
-      </c>
-      <c r="G111" s="38"/>
+      <c r="F111" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G111" s="100"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="94"/>
       <c r="B112" s="94"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="83"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="100"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="95"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="A113" s="94"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="91"/>
       <c r="D113" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
+        <v>255</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G113" s="100"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="46"/>
+      <c r="A114" s="94"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="107"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="94"/>
       <c r="B115" s="94"/>
-      <c r="C115" s="92" t="s">
-        <v>367</v>
-      </c>
+      <c r="C115" s="95"/>
       <c r="D115" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E115" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F115" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="G115" s="89" t="s">
-        <v>366</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E115" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F115" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="G115" s="38"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="94"/>
       <c r="B116" s="94"/>
-      <c r="C116" s="97"/>
-      <c r="D116" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E116" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G116" s="96"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="81"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="94"/>
-      <c r="B117" s="94"/>
-      <c r="C117" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E117" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="101" t="s">
-        <v>57</v>
-      </c>
+      <c r="A117" s="95"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="94"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>60</v>
+      <c r="A118" s="86"/>
+      <c r="B118" s="86"/>
+      <c r="C118" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="E118" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="98"/>
+        <v>43819</v>
+      </c>
+      <c r="F118" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="94"/>
-      <c r="B119" s="94"/>
-      <c r="C119" s="94"/>
-      <c r="D119" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E119" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F119" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="G119" s="98"/>
+      <c r="A119" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="46"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="94"/>
       <c r="B120" s="94"/>
-      <c r="C120" s="94"/>
-      <c r="D120" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E120" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F120" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="G120" s="98"/>
+      <c r="C120" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E120" s="7">
+        <v>43805</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G120" s="103" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="94"/>
       <c r="B121" s="94"/>
-      <c r="C121" s="94"/>
-      <c r="D121" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E121" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F121" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="G121" s="98"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E121" s="7">
+        <v>43805</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="102"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="94"/>
       <c r="B122" s="94"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="75"/>
-      <c r="G122" s="98"/>
+      <c r="C122" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="99" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="94"/>
       <c r="B123" s="94"/>
-      <c r="C123" s="94"/>
-      <c r="D123" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="98"/>
+      <c r="C123" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E123" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="101"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="94"/>
       <c r="B124" s="94"/>
       <c r="C124" s="94"/>
-      <c r="D124" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="75"/>
-      <c r="G124" s="98"/>
+      <c r="D124" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E124" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F124" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G124" s="101"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="94"/>
       <c r="B125" s="94"/>
       <c r="C125" s="94"/>
-      <c r="D125" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="75"/>
-      <c r="G125" s="98"/>
+      <c r="D125" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E125" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F125" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G125" s="101"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="94"/>
       <c r="B126" s="94"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="98"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E126" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F126" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G126" s="101"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="94"/>
       <c r="B127" s="94"/>
-      <c r="C127" s="74"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="50" t="s">
+        <v>523</v>
+      </c>
       <c r="E127" s="4"/>
-      <c r="G127" s="76"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="101"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="94"/>
       <c r="B128" s="94"/>
-      <c r="C128" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="101" t="s">
-        <v>99</v>
-      </c>
+      <c r="C128" s="94"/>
+      <c r="D128" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="101"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="94"/>
       <c r="B129" s="94"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E129" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="98"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="101"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="94"/>
       <c r="B130" s="94"/>
-      <c r="C130" s="100"/>
-      <c r="D130" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E130" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G130" s="98"/>
+      <c r="C130" s="94"/>
+      <c r="D130" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="101"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="94"/>
       <c r="B131" s="94"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E131" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F131" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="G131" s="98"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="101"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="94"/>
       <c r="B132" s="94"/>
-      <c r="C132" s="100"/>
-      <c r="D132" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E132" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F132" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="G132" s="98"/>
+      <c r="C132" s="72"/>
+      <c r="E132" s="4"/>
+      <c r="G132" s="74"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="94"/>
       <c r="B133" s="94"/>
-      <c r="C133" s="94"/>
+      <c r="C133" s="97" t="s">
+        <v>100</v>
+      </c>
       <c r="D133" s="3" t="s">
-        <v>371</v>
+        <v>98</v>
       </c>
       <c r="E133" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F133" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G133" s="98"/>
+        <v>43789</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="99" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="94"/>
       <c r="B134" s="94"/>
-      <c r="C134" s="94"/>
+      <c r="C134" s="98"/>
       <c r="D134" s="3" t="s">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="E134" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F134" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G134" s="98"/>
+        <v>43789</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="101"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="94"/>
       <c r="B135" s="94"/>
-      <c r="C135" s="95"/>
+      <c r="C135" s="98"/>
       <c r="D135" s="3" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="E135" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F135" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="G135" s="96"/>
+        <v>43818</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G135" s="101"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="94"/>
       <c r="B136" s="94"/>
-      <c r="C136" s="92" t="s">
-        <v>533</v>
-      </c>
+      <c r="C136" s="98"/>
       <c r="D136" s="3" t="s">
-        <v>534</v>
+        <v>248</v>
       </c>
       <c r="E136" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F136" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="G136" s="101" t="s">
-        <v>536</v>
-      </c>
+        <v>43789</v>
+      </c>
+      <c r="F136" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G136" s="101"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="94"/>
       <c r="B137" s="94"/>
-      <c r="C137" s="93"/>
+      <c r="C137" s="98"/>
       <c r="D137" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E137" s="4">
         <v>43818</v>
       </c>
-      <c r="F137" s="77" t="s">
+      <c r="F137" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="G137" s="102"/>
+      <c r="G137" s="101"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="95"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="95"/>
+      <c r="A138" s="94"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="94"/>
       <c r="D138" s="3" t="s">
-        <v>537</v>
+        <v>371</v>
       </c>
       <c r="E138" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F138" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="G138" s="96"/>
+        <v>43805</v>
+      </c>
+      <c r="F138" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G138" s="101"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="1"/>
+      <c r="A139" s="94"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="94"/>
+      <c r="D139" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E139" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F139" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G139" s="101"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="B140" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>84</v>
+      <c r="A140" s="94"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="95"/>
+      <c r="D140" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="E140" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G140" s="101" t="s">
-        <v>85</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="F140" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G140" s="102"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="94"/>
       <c r="B141" s="94"/>
-      <c r="C141" s="100"/>
-      <c r="D141" s="5" t="s">
-        <v>86</v>
+      <c r="C141" s="90" t="s">
+        <v>533</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="E141" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G141" s="98"/>
+        <v>43818</v>
+      </c>
+      <c r="F141" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="G141" s="99" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="94"/>
       <c r="B142" s="94"/>
-      <c r="C142" s="100"/>
-      <c r="D142" s="5" t="s">
-        <v>87</v>
+      <c r="C142" s="91"/>
+      <c r="D142" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="E142" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F142" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="G142" s="100"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="95"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E143" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F143" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="G143" s="102"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="C144" s="63"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E145" s="4">
         <v>43788</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G142" s="98"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="94"/>
-      <c r="B143" s="94"/>
-      <c r="C143" s="100"/>
-      <c r="D143" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E143" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G143" s="96"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="94"/>
-      <c r="B144" s="94"/>
-      <c r="C144" s="95"/>
-      <c r="D144" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E144" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F144" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="94"/>
-      <c r="B145" s="94"/>
-      <c r="C145" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E145" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F145" s="26"/>
-      <c r="G145" s="101" t="s">
-        <v>400</v>
+      <c r="G145" s="99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="94"/>
       <c r="B146" s="94"/>
-      <c r="C146" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F146" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="G146" s="102"/>
+      <c r="C146" s="98"/>
+      <c r="D146" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G146" s="101"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="94"/>
       <c r="B147" s="94"/>
-      <c r="C147" s="94"/>
-      <c r="D147" s="3" t="s">
-        <v>398</v>
+      <c r="C147" s="98"/>
+      <c r="D147" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E147" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F147" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="G147" s="98"/>
+        <v>43788</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G147" s="101"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="94"/>
       <c r="B148" s="94"/>
-      <c r="C148" s="94"/>
-      <c r="D148" s="3" t="s">
-        <v>401</v>
+      <c r="C148" s="98"/>
+      <c r="D148" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E148" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F148" s="59" t="s">
-        <v>430</v>
-      </c>
-      <c r="G148" s="98"/>
+        <v>43788</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G148" s="102"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="94"/>
       <c r="B149" s="94"/>
-      <c r="C149" s="94"/>
+      <c r="C149" s="95"/>
       <c r="D149" s="5" t="s">
-        <v>429</v>
+        <v>219</v>
       </c>
       <c r="E149" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F149" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="G149" s="96"/>
+        <v>43800</v>
+      </c>
+      <c r="F149" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="94"/>
       <c r="B150" s="94"/>
-      <c r="C150" s="95"/>
-      <c r="D150" s="5" t="s">
-        <v>431</v>
+      <c r="C150" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="E150" s="4">
-        <v>43811</v>
-      </c>
-      <c r="F150" s="59"/>
-      <c r="G150" s="78"/>
+        <v>43797</v>
+      </c>
+      <c r="F150" s="26"/>
+      <c r="G150" s="99" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="94"/>
       <c r="B151" s="94"/>
-      <c r="C151" s="79"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="48" t="s">
+      <c r="C151" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F151" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="G151" s="100"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="94"/>
+      <c r="B152" s="94"/>
+      <c r="C152" s="94"/>
+      <c r="D152" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E152" s="4">
+        <v>43808</v>
+      </c>
+      <c r="F152" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="G152" s="101"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="94"/>
+      <c r="B153" s="94"/>
+      <c r="C153" s="94"/>
+      <c r="D153" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E153" s="4">
+        <v>43808</v>
+      </c>
+      <c r="F153" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="G153" s="101"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="94"/>
+      <c r="B154" s="94"/>
+      <c r="C154" s="94"/>
+      <c r="D154" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43808</v>
+      </c>
+      <c r="F154" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G154" s="102"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43811</v>
+      </c>
+      <c r="F155" s="59"/>
+      <c r="G155" s="76"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="94"/>
+      <c r="B156" s="94"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G156" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="95"/>
-      <c r="B152" s="95"/>
-      <c r="C152" s="48" t="s">
+    <row r="157" spans="1:7">
+      <c r="A157" s="95"/>
+      <c r="B157" s="95"/>
+      <c r="C157" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D157" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E157" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="99" t="s">
+    <row r="158" spans="1:7">
+      <c r="A158" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="B153" s="99" t="s">
+      <c r="B158" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="100"/>
-      <c r="B154" s="100"/>
-      <c r="C154" s="43" t="s">
+    <row r="159" spans="1:7">
+      <c r="A159" s="98"/>
+      <c r="B159" s="98"/>
+      <c r="C159" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E159" s="4">
         <v>43817</v>
       </c>
-      <c r="F154" s="69" t="s">
+      <c r="F159" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="G154" s="70" t="s">
+      <c r="G159" s="68" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="100"/>
-      <c r="B155" s="100"/>
-      <c r="C155" s="99" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" s="98"/>
+      <c r="B160" s="98"/>
+      <c r="C160" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E160" s="4">
         <v>43797</v>
       </c>
-      <c r="F155" s="37" t="s">
+      <c r="F160" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="G155" s="101" t="s">
+      <c r="G160" s="99" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="100"/>
-      <c r="B156" s="100"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="3" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="98"/>
+      <c r="B161" s="98"/>
+      <c r="C161" s="94"/>
+      <c r="D161" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E161" s="4">
         <v>43803</v>
       </c>
-      <c r="F156" s="39" t="s">
+      <c r="F161" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G156" s="98"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="100"/>
-      <c r="B157" s="100"/>
-      <c r="C157" s="94"/>
-      <c r="D157" s="3" t="s">
+      <c r="G161" s="101"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="98"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="94"/>
+      <c r="D162" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E162" s="4">
         <v>43804</v>
       </c>
-      <c r="F157" s="39" t="s">
+      <c r="F162" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G157" s="98"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="100"/>
-      <c r="B158" s="100"/>
-      <c r="C158" s="94"/>
-      <c r="D158" s="3" t="s">
+      <c r="G162" s="101"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="98"/>
+      <c r="B163" s="98"/>
+      <c r="C163" s="94"/>
+      <c r="D163" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E163" s="4">
         <v>43804</v>
       </c>
-      <c r="F158" s="39" t="s">
+      <c r="F163" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G158" s="98"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="100"/>
-      <c r="B159" s="100"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="3" t="s">
+      <c r="G163" s="101"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="98"/>
+      <c r="B164" s="98"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E164" s="4">
         <v>43804</v>
       </c>
-      <c r="F159" s="82" t="s">
+      <c r="F164" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="G159" s="98"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="100"/>
-      <c r="B160" s="100"/>
-      <c r="C160" s="81"/>
-      <c r="D160" s="3" t="s">
+      <c r="G164" s="101"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="98"/>
+      <c r="B165" s="98"/>
+      <c r="C165" s="79"/>
+      <c r="D165" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E165" s="4">
         <v>43819</v>
       </c>
-      <c r="F160" s="82" t="s">
+      <c r="F165" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="G160" s="98"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="100"/>
-      <c r="B161" s="100"/>
-      <c r="C161" s="39" t="s">
+      <c r="G165" s="101"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="98"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="87"/>
+      <c r="D166" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="84"/>
+      <c r="G166" s="88"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="98"/>
+      <c r="B167" s="98"/>
+      <c r="C167" s="89" t="s">
+        <v>581</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E167" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F167" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G167" s="88" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="98"/>
+      <c r="B168" s="98"/>
+      <c r="C168" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="39"/>
-      <c r="G161" s="98"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="100"/>
-      <c r="B162" s="100"/>
-      <c r="C162" s="43" t="s">
+      <c r="E168" s="4"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="88"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="98"/>
+      <c r="B169" s="98"/>
+      <c r="C169" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="39"/>
-      <c r="G162" s="41"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="100"/>
-      <c r="B163" s="100"/>
-      <c r="C163" s="43" t="s">
+      <c r="E169" s="4"/>
+      <c r="F169" s="39"/>
+      <c r="G169" s="41"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="98"/>
+      <c r="B170" s="98"/>
+      <c r="C170" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="2" t="s">
+      <c r="E170" s="4"/>
+      <c r="F170" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G163" s="99" t="s">
+      <c r="G170" s="97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="100"/>
-      <c r="B164" s="100"/>
-      <c r="C164" s="99" t="s">
+    <row r="171" spans="1:7">
+      <c r="A171" s="98"/>
+      <c r="B171" s="98"/>
+      <c r="C171" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E171" s="4">
         <v>43799</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G164" s="100"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="100"/>
-      <c r="B165" s="100"/>
-      <c r="C165" s="100"/>
-      <c r="D165" s="3" t="s">
+      <c r="G171" s="98"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="98"/>
+      <c r="B172" s="98"/>
+      <c r="C172" s="98"/>
+      <c r="D172" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E172" s="4">
         <v>43799</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G165" s="100"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="100"/>
-      <c r="B166" s="100"/>
-      <c r="C166" s="100"/>
-      <c r="D166" s="3" t="s">
+      <c r="G172" s="98"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="98"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="98"/>
+      <c r="D173" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E173" s="4">
         <v>43799</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="99" t="s">
+      <c r="G173" s="97" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="100"/>
-      <c r="B167" s="94"/>
-      <c r="C167" s="99" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" s="98"/>
+      <c r="B174" s="94"/>
+      <c r="C174" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E174" s="4">
         <v>43799</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="100"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="100"/>
-      <c r="B168" s="94"/>
-      <c r="C168" s="100"/>
-      <c r="D168" s="3" t="s">
+      <c r="G174" s="98"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="98"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E175" s="4">
         <v>43799</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="100"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="100"/>
-      <c r="B169" s="94"/>
-      <c r="C169" s="100"/>
-      <c r="D169" s="3" t="s">
+      <c r="G175" s="98"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="98"/>
+      <c r="B176" s="94"/>
+      <c r="C176" s="98"/>
+      <c r="D176" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E176" s="4">
         <v>43799</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="95"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="94"/>
-      <c r="B170" s="94"/>
-      <c r="C170" s="94"/>
-      <c r="D170" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E170" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="94"/>
-      <c r="B171" s="94"/>
-      <c r="C171" s="94"/>
-      <c r="D171" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E171" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="94"/>
-      <c r="B172" s="94"/>
-      <c r="C172" s="95"/>
-      <c r="D172" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E172" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="94"/>
-      <c r="B173" s="94"/>
-      <c r="C173" s="99" t="s">
-        <v>323</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="94"/>
-      <c r="B174" s="94"/>
-      <c r="C174" s="103"/>
-      <c r="D174" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="94"/>
-      <c r="B175" s="94"/>
-      <c r="C175" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E175" s="4">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="94"/>
-      <c r="B176" s="94"/>
-      <c r="C176" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E176" s="7">
-        <v>43812</v>
-      </c>
-      <c r="F176" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="G176" s="95"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="94"/>
       <c r="B177" s="94"/>
-      <c r="C177" s="92" t="s">
-        <v>468</v>
-      </c>
+      <c r="C177" s="94"/>
       <c r="D177" s="3" t="s">
-        <v>469</v>
+        <v>215</v>
       </c>
       <c r="E177" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G177" s="89" t="s">
-        <v>470</v>
+        <v>43800</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="94"/>
       <c r="B178" s="94"/>
-      <c r="C178" s="93"/>
+      <c r="C178" s="94"/>
       <c r="D178" s="3" t="s">
-        <v>471</v>
+        <v>216</v>
       </c>
       <c r="E178" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F178" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="G178" s="90"/>
+        <v>43800</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="95"/>
-      <c r="B179" s="95"/>
+      <c r="A179" s="94"/>
+      <c r="B179" s="94"/>
       <c r="C179" s="95"/>
       <c r="D179" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E179" s="4">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="94"/>
+      <c r="B180" s="94"/>
+      <c r="C180" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="94"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="108"/>
+      <c r="D181" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="94"/>
+      <c r="B182" s="94"/>
+      <c r="C182" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="94"/>
+      <c r="B183" s="94"/>
+      <c r="C183" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E183" s="7">
+        <v>43812</v>
+      </c>
+      <c r="F183" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="94"/>
+      <c r="B184" s="94"/>
+      <c r="C184" s="90" t="s">
+        <v>468</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G184" s="103" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="94"/>
+      <c r="B185" s="94"/>
+      <c r="C185" s="91"/>
+      <c r="D185" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F185" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G185" s="104"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="95"/>
+      <c r="B186" s="95"/>
+      <c r="C186" s="95"/>
+      <c r="D186" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E186" s="4">
         <v>43815</v>
       </c>
-      <c r="F179" s="64" t="s">
+      <c r="F186" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="G179" s="96"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="C180" s="33" t="s">
+      <c r="G186" s="102"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="C187" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E187" s="4">
         <v>43802</v>
       </c>
-      <c r="F180" s="33" t="s">
+      <c r="F187" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="B181" s="2" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" s="86"/>
+      <c r="C188" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E188" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B189" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="C181" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E181" s="4">
-        <v>43802</v>
-      </c>
-      <c r="G181" s="3" t="s">
+      <c r="C189" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="C182" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="D183" s="3" t="s">
+    <row r="190" spans="1:7">
+      <c r="A190" s="94"/>
+      <c r="B190" s="94"/>
+      <c r="C190" s="108"/>
+      <c r="D190" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="C184" s="2" t="s">
+    <row r="191" spans="1:7">
+      <c r="A191" s="94"/>
+      <c r="B191" s="94"/>
+      <c r="C191" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="D185" s="3" t="s">
+    <row r="192" spans="1:7">
+      <c r="A192" s="94"/>
+      <c r="B192" s="94"/>
+      <c r="C192" s="108"/>
+      <c r="D192" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="C186" s="2" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="94"/>
+      <c r="B193" s="94"/>
+      <c r="C193" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B187" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="C188" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D188" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="E188" s="49" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="99" t="s">
-        <v>453</v>
-      </c>
-      <c r="B190" s="99" t="s">
-        <v>459</v>
-      </c>
-      <c r="C190" s="99" t="s">
-        <v>454</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E190" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G190" s="101" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="100"/>
-      <c r="B191" s="100"/>
-      <c r="C191" s="100"/>
-      <c r="D191" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E191" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G191" s="102"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="100"/>
-      <c r="B192" s="100"/>
-      <c r="C192" s="103"/>
-      <c r="D192" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E192" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G192" s="104"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="100"/>
-      <c r="B193" s="100"/>
-      <c r="C193" s="67"/>
-      <c r="D193" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E193" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F193" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="G193" s="66"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="94"/>
       <c r="B194" s="94"/>
-      <c r="C194" s="92" t="s">
+      <c r="C194" s="108"/>
+      <c r="D194" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="95"/>
+      <c r="B195" s="95"/>
+      <c r="C195" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E195" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F195" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="D196" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E196" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="97" t="s">
+        <v>453</v>
+      </c>
+      <c r="B198" s="97" t="s">
+        <v>459</v>
+      </c>
+      <c r="C198" s="97" t="s">
+        <v>454</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E198" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G198" s="99" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="98"/>
+      <c r="B199" s="98"/>
+      <c r="C199" s="98"/>
+      <c r="D199" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E199" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G199" s="100"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="98"/>
+      <c r="B200" s="98"/>
+      <c r="C200" s="98"/>
+      <c r="D200" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G200" s="100"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="98"/>
+      <c r="B201" s="98"/>
+      <c r="C201" s="94"/>
+      <c r="D201" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E201" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F201" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="G201" s="101"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="98"/>
+      <c r="B202" s="98"/>
+      <c r="C202" s="95"/>
+      <c r="D202" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E202" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F202" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G202" s="102"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="94"/>
+      <c r="B203" s="94"/>
+      <c r="C203" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E203" s="4">
         <v>43815</v>
       </c>
-      <c r="F194" s="64" t="s">
+      <c r="F203" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="G194" s="101" t="s">
+      <c r="G203" s="99" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="94"/>
-      <c r="B195" s="94"/>
-      <c r="C195" s="94"/>
-      <c r="D195" s="3" t="s">
+    <row r="204" spans="1:7">
+      <c r="A204" s="94"/>
+      <c r="B204" s="94"/>
+      <c r="C204" s="94"/>
+      <c r="D204" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E204" s="4">
         <v>43815</v>
       </c>
-      <c r="F195" s="64" t="s">
+      <c r="F204" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="G195" s="102"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="95"/>
-      <c r="B196" s="95"/>
-      <c r="C196" s="95"/>
-      <c r="D196" s="3" t="s">
+      <c r="G204" s="100"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="94"/>
+      <c r="B205" s="94"/>
+      <c r="C205" s="94"/>
+      <c r="D205" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E205" s="4">
         <v>43815</v>
       </c>
-      <c r="F196" s="64" t="s">
+      <c r="F205" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="G196" s="104"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="D197" s="2"/>
+      <c r="G205" s="100"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="95"/>
+      <c r="B206" s="95"/>
+      <c r="C206" s="95"/>
+      <c r="D206" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E206" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F206" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="G206" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B140:B152"/>
-    <mergeCell ref="A140:A152"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="B114:B138"/>
-    <mergeCell ref="A114:A138"/>
+  <mergeCells count="86">
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="B198:B206"/>
+    <mergeCell ref="A198:A206"/>
+    <mergeCell ref="G203:G206"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="G160:G165"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="G198:G202"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="A158:A186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="B158:B186"/>
+    <mergeCell ref="G170:G172"/>
+    <mergeCell ref="G173:G176"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="A189:A195"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="G150:G154"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="G141:G143"/>
+    <mergeCell ref="G107:G114"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="G133:G140"/>
+    <mergeCell ref="G122:G131"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B87:B117"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="C28:C41"/>
+    <mergeCell ref="G28:G41"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="A87:A117"/>
+    <mergeCell ref="C122:C131"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B62"/>
-    <mergeCell ref="A3:A62"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="B3:B66"/>
+    <mergeCell ref="A3:A66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="G6:G16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="G128:G135"/>
-    <mergeCell ref="G117:G126"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B83:B113"/>
-    <mergeCell ref="C128:C135"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="C24:C37"/>
-    <mergeCell ref="G24:G37"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="A83:A113"/>
-    <mergeCell ref="C117:C126"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="G103:G110"/>
-    <mergeCell ref="C104:C111"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G88:G95"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C167:C172"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="G145:G149"/>
-    <mergeCell ref="C146:C150"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A153:A179"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="G177:G179"/>
-    <mergeCell ref="B153:B179"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="G166:G169"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="G190:G192"/>
-    <mergeCell ref="G194:G196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="B190:B196"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B145:B157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="B119:B143"/>
+    <mergeCell ref="A119:A143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7815,10 +8192,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="115" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -7830,13 +8207,13 @@
       <c r="F1" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="113" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
       <c r="D2" s="18" t="s">
         <v>234</v>
       </c>
@@ -7846,11 +8223,11 @@
       <c r="F2" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
       <c r="D3" s="29" t="s">
         <v>236</v>
       </c>
@@ -7860,11 +8237,11 @@
       <c r="F3" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
       <c r="D4" s="29" t="s">
         <v>238</v>
       </c>
@@ -7874,7 +8251,7 @@
       <c r="F4" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="110"/>
+      <c r="G4" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7908,13 +8285,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="117" t="s">
         <v>276</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -7963,7 +8340,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="118" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -7971,25 +8348,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="115"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="16" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="116"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="115" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -7997,33 +8374,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -8031,7 +8408,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="118" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -8041,7 +8418,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="115"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -8049,7 +8426,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="116"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -8063,10 +8440,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="117" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="15" t="s">

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="612">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,7 +2507,109 @@
     <t>D:\A-超级智库\PlanB\2-硬件技术\6-单片机\其他单片机</t>
   </si>
   <si>
-    <t>STM32 WIFI Linux 安卓智能控制开发板应用手册.pdf</t>
+    <t>RD-删繁就简-单片机入门到精通.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机外围电路设计.pdf</t>
+  </si>
+  <si>
+    <t>51系列单片机设计实例.pdf</t>
+  </si>
+  <si>
+    <t>单片机典型模块设计实例导航.pdf</t>
+  </si>
+  <si>
+    <t>单片机高级教程-应用与设计.pdf</t>
+  </si>
+  <si>
+    <t>RD-单片机时间片轮转调度架构.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-单片机并行任务调度.pdf</t>
+  </si>
+  <si>
+    <t>RD-Vishay-铝电解电容_SMD_0.1uF~2200uF选型表.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通信接口/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SPI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-详解SPI中的极性CPOL和相位CPHA.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\6-单片机\通信接口\SPI</t>
+  </si>
+  <si>
+    <t>RD-继电器驱动电路.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\0-基础元件\继电器</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\0-基础元件\干簧管</t>
+  </si>
+  <si>
+    <t>微型打印机</t>
+  </si>
+  <si>
+    <t>RD-嵌入式热敏打印机开发手册.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\0-基础元件\微型打印机</t>
+  </si>
+  <si>
+    <t>RD-PT486F-H_热敏打印机.pdf</t>
+  </si>
+  <si>
+    <t>RD-从工程实践出发快速学习液晶驱动_V1.0.pdf</t>
+  </si>
+  <si>
+    <t>RD-电路板级的电磁兼容设计-飞思卡尔半导体.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC电磁兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\11-认证测试\EMC电磁兼容</t>
   </si>
 </sst>
 </file>
@@ -2622,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2795,47 +2897,182 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2843,97 +3080,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2942,12 +3092,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2958,9 +3102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3269,7 +3410,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
@@ -3286,15 +3427,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3320,13 +3461,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="103" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3343,9 +3484,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3360,22 +3501,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="103" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3392,9 +3533,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3409,9 +3550,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3426,9 +3567,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3443,9 +3584,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3460,18 +3601,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="84"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="90" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="100" t="s">
         <v>575</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3480,66 +3621,66 @@
       <c r="E12" s="4">
         <v>43819</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="82" t="s">
         <v>576</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="113" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="5" t="s">
         <v>578</v>
       </c>
       <c r="E13" s="4">
         <v>43819</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G13" s="104"/>
+      <c r="G13" s="114"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="5" t="s">
         <v>579</v>
       </c>
       <c r="E14" s="7">
         <v>43819</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G14" s="104"/>
+      <c r="G14" s="114"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="5" t="s">
         <v>580</v>
       </c>
       <c r="E15" s="4">
         <v>43819</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G15" s="105"/>
+      <c r="G15" s="115"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -3574,13 +3715,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="100" t="s">
         <v>423</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="100" t="s">
         <v>406</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3592,25 +3733,25 @@
       <c r="F19" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="113" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="5" t="s">
         <v>407</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="104"/>
+      <c r="G20" s="114"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="5" t="s">
         <v>408</v>
       </c>
@@ -3620,12 +3761,12 @@
       <c r="F21" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G21" s="104"/>
+      <c r="G21" s="114"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="5" t="s">
         <v>409</v>
       </c>
@@ -3635,12 +3776,12 @@
       <c r="F22" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G22" s="104"/>
+      <c r="G22" s="114"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="5" t="s">
         <v>412</v>
       </c>
@@ -3650,12 +3791,12 @@
       <c r="F23" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G23" s="101"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="5" t="s">
         <v>411</v>
       </c>
@@ -3665,12 +3806,12 @@
       <c r="F24" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G24" s="101"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="5" t="s">
         <v>413</v>
       </c>
@@ -3680,12 +3821,12 @@
       <c r="F25" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="5" t="s">
         <v>414</v>
       </c>
@@ -3695,12 +3836,12 @@
       <c r="F26" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="5" t="s">
         <v>415</v>
       </c>
@@ -3710,12 +3851,12 @@
       <c r="F27" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G27" s="101"/>
+      <c r="G27" s="111"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="5" t="s">
         <v>416</v>
       </c>
@@ -3725,12 +3866,12 @@
       <c r="F28" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="101"/>
+      <c r="G28" s="111"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="5" t="s">
         <v>417</v>
       </c>
@@ -3740,12 +3881,12 @@
       <c r="F29" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G29" s="101"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="5" t="s">
         <v>418</v>
       </c>
@@ -3755,12 +3896,12 @@
       <c r="F30" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G30" s="101"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="5" t="s">
         <v>419</v>
       </c>
@@ -3770,12 +3911,12 @@
       <c r="F31" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G31" s="101"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="5" t="s">
         <v>420</v>
       </c>
@@ -3785,12 +3926,12 @@
       <c r="F32" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="101"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="5" t="s">
         <v>421</v>
       </c>
@@ -3800,7 +3941,7 @@
       <c r="F33" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G33" s="102"/>
+      <c r="G33" s="112"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -3812,13 +3953,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="103" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3830,14 +3971,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="113" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3847,12 +3988,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="104"/>
+      <c r="G36" s="114"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -3862,12 +4003,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="104"/>
+      <c r="G37" s="114"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -3877,7 +4018,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="104"/>
+      <c r="G38" s="114"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -3892,7 +4033,7 @@
       <c r="F39" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="115"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -3904,13 +4045,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="100" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3922,14 +4063,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="103" t="s">
+      <c r="G41" s="113" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -3939,7 +4080,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="104"/>
+      <c r="G42" s="114"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -3954,7 +4095,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="105"/>
+      <c r="G43" s="115"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -3966,13 +4107,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="100" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3984,14 +4125,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="113" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="94"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4001,23 +4142,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="104"/>
+      <c r="G46" s="114"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
       <c r="D47" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="104"/>
+      <c r="G47" s="114"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
       <c r="D48" s="5" t="s">
         <v>424</v>
       </c>
@@ -4027,12 +4168,12 @@
       <c r="F48" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="G48" s="104"/>
+      <c r="G48" s="114"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
       <c r="D49" s="5" t="s">
         <v>425</v>
       </c>
@@ -4042,22 +4183,22 @@
       <c r="F49" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="G49" s="102"/>
+      <c r="G49" s="112"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="100" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -4077,8 +4218,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -4086,9 +4227,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="90" t="s">
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="100" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4100,14 +4241,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="103" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="91"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4117,12 +4258,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="93"/>
+      <c r="G54" s="103"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="91"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4132,12 +4273,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="93"/>
+      <c r="G55" s="103"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="91"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4147,12 +4288,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="93"/>
+      <c r="G56" s="103"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="91"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4162,12 +4303,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="93"/>
+      <c r="G57" s="103"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="91"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4177,12 +4318,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="93"/>
+      <c r="G58" s="103"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -4191,9 +4332,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -4202,8 +4343,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -4211,9 +4352,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="90" t="s">
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="100" t="s">
         <v>351</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4225,25 +4366,25 @@
       <c r="F62" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="G62" s="103" t="s">
+      <c r="G62" s="113" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="91"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="5" t="s">
         <v>354</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="104"/>
+      <c r="G63" s="114"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="5" t="s">
         <v>355</v>
       </c>
@@ -4253,12 +4394,12 @@
       <c r="F64" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="G64" s="104"/>
+      <c r="G64" s="114"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="5" t="s">
         <v>357</v>
       </c>
@@ -4268,12 +4409,12 @@
       <c r="F65" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="G65" s="104"/>
+      <c r="G65" s="114"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="94"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="95"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="5" t="s">
         <v>358</v>
       </c>
@@ -4283,11 +4424,11 @@
       <c r="F66" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="G66" s="105"/>
+      <c r="G66" s="115"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -4295,8 +4436,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="45" t="s">
         <v>348</v>
       </c>
@@ -4308,8 +4449,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
+      <c r="A69" s="104"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -4317,9 +4458,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="90" t="s">
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="100" t="s">
         <v>388</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4331,14 +4472,14 @@
       <c r="F70" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="G70" s="103" t="s">
+      <c r="G70" s="113" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="91"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="5" t="s">
         <v>392</v>
       </c>
@@ -4348,12 +4489,12 @@
       <c r="F71" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G71" s="104"/>
+      <c r="G71" s="114"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
       <c r="D72" s="5" t="s">
         <v>395</v>
       </c>
@@ -4363,12 +4504,12 @@
       <c r="F72" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G72" s="104"/>
+      <c r="G72" s="114"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="5" t="s">
         <v>394</v>
       </c>
@@ -4378,12 +4519,12 @@
       <c r="F73" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="101"/>
+      <c r="G73" s="111"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="95"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="94"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="104"/>
       <c r="D74" s="5" t="s">
         <v>396</v>
       </c>
@@ -4393,12 +4534,12 @@
       <c r="F74" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G74" s="101"/>
+      <c r="G74" s="111"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="95"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="5" t="s">
         <v>397</v>
       </c>
@@ -4408,7 +4549,7 @@
       <c r="F75" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="G75" s="102"/>
+      <c r="G75" s="112"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -4420,10 +4561,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="100" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -4443,9 +4584,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="90" t="s">
+      <c r="A78" s="104"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="100" t="s">
         <v>476</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4454,32 +4595,32 @@
       <c r="E78" s="4">
         <v>43816</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="65" t="s">
         <v>479</v>
       </c>
-      <c r="G78" s="103" t="s">
+      <c r="G78" s="113" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="95"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="105"/>
       <c r="D79" s="5" t="s">
         <v>477</v>
       </c>
       <c r="E79" s="4">
         <v>43816</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="F79" s="65" t="s">
         <v>479</v>
       </c>
-      <c r="G79" s="105"/>
+      <c r="G79" s="115"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="90" t="s">
+      <c r="A80" s="104"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="100" t="s">
         <v>322</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -4488,103 +4629,103 @@
       <c r="E80" s="4">
         <v>43817</v>
       </c>
-      <c r="F80" s="67" t="s">
+      <c r="F80" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G80" s="103" t="s">
+      <c r="G80" s="113" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="91"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="5" t="s">
         <v>485</v>
       </c>
       <c r="E81" s="4">
         <v>43817</v>
       </c>
-      <c r="F81" s="67" t="s">
+      <c r="F81" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G81" s="104"/>
+      <c r="G81" s="114"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
       <c r="D82" s="5" t="s">
         <v>484</v>
       </c>
       <c r="E82" s="4">
         <v>43817</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G82" s="104"/>
+      <c r="G82" s="114"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="95"/>
+      <c r="A83" s="104"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="5" t="s">
         <v>486</v>
       </c>
       <c r="E83" s="4">
         <v>43817</v>
       </c>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G83" s="102"/>
+      <c r="G83" s="112"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="95"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="90" t="s">
+      <c r="A84" s="105"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="100" t="s">
         <v>402</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E84" s="71" t="s">
+      <c r="E84" s="69" t="s">
         <v>488</v>
       </c>
-      <c r="F84" s="67"/>
+      <c r="F84" s="66"/>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="70" t="s">
+      <c r="B85" s="105"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="E85" s="71" t="s">
+      <c r="E85" s="69" t="s">
         <v>488</v>
       </c>
       <c r="F85" s="55"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="96"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
+      <c r="A86" s="106"/>
+      <c r="B86" s="106"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="106"/>
+      <c r="G86" s="106"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4596,14 +4737,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="99" t="s">
+      <c r="G87" s="109" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="91"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="98"/>
+      <c r="A88" s="101"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="108"/>
       <c r="D88" s="3" t="s">
         <v>513</v>
       </c>
@@ -4613,12 +4754,12 @@
       <c r="F88" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G88" s="100"/>
+      <c r="G88" s="110"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="91"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="98"/>
+      <c r="A89" s="101"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="108"/>
       <c r="D89" s="5" t="s">
         <v>516</v>
       </c>
@@ -4628,71 +4769,71 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="100"/>
+      <c r="G89" s="110"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="91"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="94"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="104"/>
       <c r="D90" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E90" s="4">
         <v>43817</v>
       </c>
-      <c r="F90" s="69" t="s">
+      <c r="F90" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="G90" s="101"/>
+      <c r="G90" s="111"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="91"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="94"/>
+      <c r="A91" s="101"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="3" t="s">
         <v>515</v>
       </c>
       <c r="E91" s="4">
         <v>43818</v>
       </c>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G91" s="101"/>
+      <c r="G91" s="111"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="91"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="94"/>
+      <c r="A92" s="101"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="104"/>
       <c r="D92" s="3" t="s">
         <v>517</v>
       </c>
       <c r="E92" s="4">
         <v>43818</v>
       </c>
-      <c r="F92" s="73" t="s">
+      <c r="F92" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G92" s="101"/>
+      <c r="G92" s="111"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="91"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="95"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="3" t="s">
         <v>518</v>
       </c>
       <c r="E93" s="4">
         <v>43818</v>
       </c>
-      <c r="F93" s="73" t="s">
+      <c r="F93" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G93" s="102"/>
+      <c r="G93" s="112"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="91"/>
-      <c r="B94" s="91"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="101"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -4710,9 +4851,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="91"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="90" t="s">
+      <c r="A95" s="101"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="100" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4729,9 +4870,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="91"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="92"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -4740,8 +4881,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="91"/>
-      <c r="B97" s="91"/>
+      <c r="A97" s="101"/>
+      <c r="B97" s="101"/>
       <c r="C97" s="23" t="s">
         <v>197</v>
       </c>
@@ -4759,9 +4900,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="94"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="90" t="s">
+      <c r="A98" s="104"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="100" t="s">
         <v>200</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -4772,9 +4913,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="91"/>
+      <c r="A99" s="104"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="101"/>
       <c r="D99" s="5" t="s">
         <v>202</v>
       </c>
@@ -4783,9 +4924,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="94"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="92"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="5" t="s">
         <v>203</v>
       </c>
@@ -4794,8 +4935,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="95"/>
-      <c r="B101" s="95"/>
+      <c r="A101" s="105"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="34" t="s">
         <v>301</v>
       </c>
@@ -4813,19 +4954,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="96"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
-      <c r="G102" s="96"/>
+      <c r="A102" s="106"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="90" t="s">
+      <c r="A103" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="100" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -4843,8 +4984,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="91"/>
-      <c r="B104" s="91"/>
+      <c r="A104" s="101"/>
+      <c r="B104" s="101"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -4860,8 +5001,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="91"/>
-      <c r="B105" s="91"/>
+      <c r="A105" s="101"/>
+      <c r="B105" s="101"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -4879,9 +5020,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="91"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="93" t="s">
+      <c r="A106" s="101"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="103" t="s">
         <v>194</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -4894,9 +5035,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="91"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="93"/>
+      <c r="A107" s="101"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="103"/>
       <c r="D107" s="5" t="s">
         <v>193</v>
       </c>
@@ -4905,13 +5046,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="90" t="s">
+      <c r="A109" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="90" t="s">
+      <c r="B109" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="90" t="s">
+      <c r="C109" s="100" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -4928,9 +5069,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="91"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="91"/>
+      <c r="A110" s="101"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -4942,9 +5083,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="91"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="91"/>
+      <c r="A111" s="101"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -4956,9 +5097,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="91"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="91"/>
+      <c r="A112" s="101"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -4989,6 +5130,10 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G19:G33"/>
+    <mergeCell ref="C19:C33"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="G53:G58"/>
     <mergeCell ref="B77:B85"/>
@@ -4998,17 +5143,13 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="G78:G79"/>
     <mergeCell ref="A77:A84"/>
-    <mergeCell ref="A45:A49"/>
     <mergeCell ref="G62:G66"/>
     <mergeCell ref="C62:C66"/>
-    <mergeCell ref="G45:G49"/>
     <mergeCell ref="A51:A74"/>
     <mergeCell ref="B51:B74"/>
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="C53:C60"/>
-    <mergeCell ref="G19:G33"/>
-    <mergeCell ref="C19:C33"/>
     <mergeCell ref="B19:B33"/>
     <mergeCell ref="A19:A33"/>
     <mergeCell ref="G35:G39"/>
@@ -5039,10 +5180,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5058,15 +5199,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5092,13 +5233,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="100" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5110,14 +5251,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="91"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="5" t="s">
         <v>259</v>
       </c>
@@ -5127,12 +5268,12 @@
       <c r="F4" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="104"/>
+      <c r="G4" s="114"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="92"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="5" t="s">
         <v>261</v>
       </c>
@@ -5142,12 +5283,12 @@
       <c r="F5" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="90" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5159,136 +5300,136 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="113" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="94"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="5" t="s">
         <v>538</v>
       </c>
       <c r="E7" s="4">
         <v>43818</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="G7" s="101"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="5" t="s">
         <v>540</v>
       </c>
       <c r="E8" s="4">
         <v>43818</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="G8" s="101"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="94"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="5" t="s">
         <v>541</v>
       </c>
       <c r="E9" s="4">
         <v>43818</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="G9" s="101"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="82" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="80" t="s">
         <v>542</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="101"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="82" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="80" t="s">
         <v>543</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="101"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="111"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="82" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="80" t="s">
         <v>544</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="101"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="111"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="82" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="80" t="s">
         <v>545</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="101"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="82" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="80" t="s">
         <v>546</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="101"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="82" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="80" t="s">
         <v>547</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="101"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="82" t="s">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="80" t="s">
         <v>548</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="102"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="97" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="107" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5300,14 +5441,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="113" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5317,33 +5458,31 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="105"/>
+      <c r="G18" s="115"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="97" t="s">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="E20" s="4">
         <v>43800</v>
@@ -5351,153 +5490,155 @@
       <c r="F20" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="113" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="111"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>43818</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F22" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="111"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>561</v>
-      </c>
-      <c r="G22" s="101"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="E23" s="4">
         <v>43819</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G23" s="101"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E24" s="4">
         <v>43819</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G24" s="101"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E25" s="4">
         <v>43819</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G25" s="102"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="97" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26" s="112"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>43800</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="5" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="90" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>43800</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F29" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G29" s="113" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="5" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E29" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="104"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E30" s="4">
         <v>43801</v>
@@ -5505,29 +5646,29 @@
       <c r="F30" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="104"/>
+      <c r="G30" s="114"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E31" s="4">
         <v>43801</v>
       </c>
-      <c r="F31" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="104"/>
+      <c r="F31" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="114"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="4">
         <v>43801</v>
@@ -5535,177 +5676,175 @@
       <c r="F32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="104"/>
+      <c r="G32" s="114"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="114"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>43805</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F34" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="G33" s="101"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="111"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="E34" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F34" s="69" t="s">
-        <v>503</v>
-      </c>
-      <c r="G34" s="101"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="E35" s="4">
         <v>43817</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="G35" s="101"/>
+      <c r="G35" s="111"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E36" s="4">
         <v>43817</v>
       </c>
-      <c r="F36" s="69" t="s">
-        <v>506</v>
-      </c>
-      <c r="G36" s="101"/>
+      <c r="F36" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G36" s="111"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
-      <c r="F37" s="69" t="s">
-        <v>503</v>
-      </c>
-      <c r="G37" s="101"/>
+      <c r="F37" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E38" s="4">
         <v>43817</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="G38" s="101"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E39" s="4">
         <v>43817</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="G39" s="101"/>
+      <c r="G39" s="111"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E40" s="4">
         <v>43817</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="G40" s="101"/>
+      <c r="G40" s="111"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
       <c r="D41" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E41" s="4">
         <v>43817</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="G41" s="101"/>
+      <c r="G41" s="111"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="73"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G42" s="111"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="90" t="s">
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="71"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="E43" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G43" s="103" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="E44" s="4">
         <v>43801</v>
@@ -5713,29 +5852,31 @@
       <c r="F44" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G44" s="104"/>
+      <c r="G44" s="113" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="114"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="E45" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G45" s="104"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E46" s="4">
         <v>43802</v>
@@ -5743,16 +5884,14 @@
       <c r="F46" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G46" s="105"/>
+      <c r="G46" s="114"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="90" t="s">
-        <v>281</v>
-      </c>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
       <c r="D47" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47" s="4">
         <v>43802</v>
@@ -5760,16 +5899,16 @@
       <c r="F47" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G47" s="103" t="s">
-        <v>282</v>
-      </c>
+      <c r="G47" s="115"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="91"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="100" t="s">
+        <v>281</v>
+      </c>
       <c r="D48" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48" s="4">
         <v>43802</v>
@@ -5777,48 +5916,48 @@
       <c r="F48" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G48" s="104"/>
+      <c r="G48" s="113" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E49" s="4">
         <v>43802</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="102"/>
+      <c r="F49" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="114"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="34" t="s">
-        <v>285</v>
-      </c>
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E50" s="4">
         <v>43802</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G50" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="G50" s="112"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="90" t="s">
-        <v>289</v>
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="100" t="s">
+        <v>285</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E51" s="4">
         <v>43802</v>
@@ -5826,97 +5965,101 @@
       <c r="F51" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G51" s="34"/>
+      <c r="G51" s="113" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F52" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="G52" s="112"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E54" s="4">
         <v>43802</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F54" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G52" s="34"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="90" t="s">
+      <c r="G54" s="118"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E55" s="4">
         <v>43804</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F55" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G55" s="113" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="5" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E56" s="4">
         <v>43804</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F56" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="G54" s="105"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="90" t="s">
+      <c r="G56" s="115"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="E55" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G55" s="103" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E56" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G56" s="104"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="E57" s="4">
         <v>43805</v>
@@ -5924,786 +6067,792 @@
       <c r="F57" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="G57" s="104"/>
+      <c r="G57" s="113" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E58" s="4">
         <v>43805</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58" s="114"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G59" s="114"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F60" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="G58" s="101"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="5" t="s">
+      <c r="G60" s="111"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E61" s="4">
         <v>43806</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F61" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G59" s="102"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="111" t="s">
+      <c r="G61" s="112"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="123" t="s">
         <v>439</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="E60" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G60" s="103" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="E61" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G61" s="105"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="111" t="s">
-        <v>450</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="E62" s="4">
         <v>43812</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="62" t="s">
         <v>444</v>
       </c>
-      <c r="G62" s="103" t="s">
-        <v>448</v>
+      <c r="G62" s="113" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E63" s="4">
         <v>43812</v>
       </c>
-      <c r="F63" s="63" t="s">
+      <c r="F63" s="62" t="s">
         <v>444</v>
       </c>
-      <c r="G63" s="105"/>
+      <c r="G63" s="115"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="109" t="s">
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="123" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G64" s="113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" s="115"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="125" t="s">
         <v>492</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E64" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F64" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G64" s="103" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E65" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F65" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G65" s="104"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="95"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="E66" s="4">
         <v>43817</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G66" s="102"/>
+      <c r="G66" s="113" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E67" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F67" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G67" s="114"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" s="112"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="119" t="s">
+        <v>601</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F69" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G69" s="120" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="91"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F70" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G70" s="112"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B72" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="91" t="s">
+      <c r="C72" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E72" s="7">
         <v>43812</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F72" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="98"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="3" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E73" s="4">
         <v>43802</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="103" t="s">
+      <c r="G73" s="113" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="98"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="90" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="108"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E74" s="4">
         <v>43777</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F74" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="G70" s="104"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="5" t="s">
+      <c r="G74" s="114"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="104"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E75" s="4">
         <v>43777</v>
       </c>
-      <c r="F71" s="67" t="s">
+      <c r="F75" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G71" s="101"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="5" t="s">
+      <c r="G75" s="111"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="104"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E76" s="4">
         <v>43817</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F76" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G72" s="101"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="5" t="s">
+      <c r="G76" s="111"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="104"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E77" s="4">
         <v>43817</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F77" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G73" s="101"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="5" t="s">
+      <c r="G77" s="111"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="104"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E78" s="4">
         <v>43817</v>
       </c>
-      <c r="F74" s="67" t="s">
+      <c r="F78" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="G74" s="102"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="67" t="s">
+      <c r="G78" s="112"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="104"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="95"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="64" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="64"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E80" s="4">
         <v>43815</v>
       </c>
-      <c r="F76" s="64" t="s">
+      <c r="F80" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="97" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="97" t="s">
+      <c r="B81" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="G77" s="3" t="s">
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="G81" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="98"/>
-      <c r="B78" s="98"/>
-      <c r="D78" s="3" t="s">
+    <row r="82" spans="1:7">
+      <c r="A82" s="108"/>
+      <c r="B82" s="108"/>
+      <c r="D82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E82" s="4">
         <v>43782</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94"/>
-      <c r="D79" s="3" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="104"/>
+      <c r="B83" s="104"/>
+      <c r="D83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E83" s="4">
         <v>43797</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="D80" s="3" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" s="104"/>
+      <c r="B84" s="104"/>
+      <c r="D84" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E84" s="4">
         <v>43797</v>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="90" t="s">
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="104"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="100" t="s">
         <v>549</v>
       </c>
-      <c r="D81" s="83" t="s">
+      <c r="D85" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="103" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="113" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="83" t="s">
+    <row r="86" spans="1:7">
+      <c r="A86" s="104"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="104"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="83" t="s">
+      <c r="E86" s="4"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="114"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="104"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="81" t="s">
         <v>552</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="104"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="94"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="83" t="s">
+      <c r="E87" s="4"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="114"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="104"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="104"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="94"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="83" t="s">
+      <c r="E88" s="4"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="114"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="104"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="104"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="95"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="83" t="s">
+      <c r="E89" s="4"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="114"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="105"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="105"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="97" t="s">
+      <c r="E90" s="4"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="115"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B91" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="90" t="s">
+      <c r="C91" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E91" s="7">
         <v>43788</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="103" t="s">
+      <c r="G91" s="113" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="94"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="5" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="104"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E92" s="7">
         <v>43788</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G88" s="104"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="94"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="5" t="s">
+      <c r="G92" s="114"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="104"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E93" s="7">
         <v>43788</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F93" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G89" s="104"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="94"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="5" t="s">
+      <c r="G93" s="114"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="104"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E94" s="7">
         <v>43794</v>
       </c>
-      <c r="F90" s="78" t="s">
+      <c r="F94" s="76" t="s">
         <v>557</v>
       </c>
-      <c r="G90" s="105"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="94"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="95"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="94"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="1"/>
-      <c r="G92" s="99" t="s">
+      <c r="G94" s="115"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="104"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="105"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="104"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="94"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="97" t="s">
+    <row r="97" spans="1:7">
+      <c r="A97" s="104"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E97" s="4">
         <v>43787</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G93" s="100"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="94"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="3" t="s">
+      <c r="G97" s="110"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="104"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E98" s="4">
         <v>43787</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G94" s="100"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="94"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="3" t="s">
+      <c r="G98" s="110"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="104"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E99" s="4">
         <v>43787</v>
       </c>
-      <c r="G95" s="100"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="94"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="G96" s="100"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="94"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" s="100"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="94"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E98" s="4">
-        <v>43788</v>
-      </c>
-      <c r="G98" s="100"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G99" s="107"/>
+      <c r="G99" s="110"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="94"/>
-      <c r="B100" s="94"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="108"/>
       <c r="D100" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="G100" s="110"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="104"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" s="110"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="104"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43788</v>
+      </c>
+      <c r="G102" s="110"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="104"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" s="121"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="104"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E104" s="4">
         <v>43788</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="94"/>
-      <c r="B101" s="94"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="103" t="s">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="104"/>
+      <c r="B105" s="104"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="94"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="97" t="s">
+    <row r="106" spans="1:7">
+      <c r="A106" s="104"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="33" t="s">
+      <c r="E106" s="4"/>
+      <c r="F106" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G102" s="101"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="94"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="94"/>
-      <c r="D103" s="5" t="s">
+      <c r="G106" s="111"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="104"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E107" s="4">
         <v>43802</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="F107" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G103" s="101"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="94"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="5" t="s">
+      <c r="G107" s="111"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="104"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E108" s="4">
         <v>43802</v>
       </c>
-      <c r="F104" s="33" t="s">
+      <c r="F108" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G104" s="101"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="94"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="5" t="s">
+      <c r="G108" s="111"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="104"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E109" s="4">
         <v>43802</v>
       </c>
-      <c r="F105" s="42" t="s">
+      <c r="F109" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="G105" s="102"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="94"/>
-      <c r="B106" s="94"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="5" t="s">
+      <c r="G109" s="112"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="104"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E110" s="4">
         <v>43804</v>
       </c>
-      <c r="F106" s="73" t="s">
+      <c r="F110" s="71" t="s">
         <v>519</v>
       </c>
-      <c r="G106" s="36"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="94"/>
-      <c r="B107" s="94"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="99" t="s">
+      <c r="G110" s="36"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="104"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="109" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="94"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="90" t="s">
+    <row r="112" spans="1:7">
+      <c r="A112" s="104"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="E108" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G108" s="100"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="94"/>
-      <c r="B109" s="94"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E109" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G109" s="100"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="94"/>
-      <c r="B110" s="94"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E110" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G110" s="100"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="94"/>
-      <c r="B111" s="94"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G111" s="100"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="94"/>
-      <c r="B112" s="94"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E112" s="4">
         <v>43801</v>
@@ -6711,14 +6860,14 @@
       <c r="F112" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G112" s="100"/>
+      <c r="G112" s="110"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="94"/>
-      <c r="B113" s="94"/>
-      <c r="C113" s="91"/>
+      <c r="A113" s="104"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E113" s="4">
         <v>43801</v>
@@ -6726,1444 +6875,1666 @@
       <c r="F113" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G113" s="100"/>
+      <c r="G113" s="110"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="94"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="94"/>
+      <c r="A114" s="104"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E114" s="4">
         <v>43801</v>
       </c>
-      <c r="F114" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="107"/>
+      <c r="F114" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G114" s="110"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="94"/>
-      <c r="B115" s="94"/>
-      <c r="C115" s="95"/>
+      <c r="A115" s="104"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E115" s="4">
         <v>43801</v>
       </c>
-      <c r="F115" s="73" t="s">
+      <c r="F115" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G115" s="110"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="104"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G116" s="110"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="104"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="110"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="104"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="121"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="104"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F119" s="71" t="s">
         <v>519</v>
       </c>
-      <c r="G115" s="38"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="94"/>
-      <c r="B116" s="94"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="81"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="95"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="2" t="s">
+      <c r="G119" s="38"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="104"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="79"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="105"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="86"/>
-      <c r="B118" s="86"/>
-      <c r="C118" s="2" t="s">
+      <c r="E121" s="4"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="84"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E122" s="4">
         <v>43819</v>
       </c>
-      <c r="F118" s="84" t="s">
+      <c r="F122" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G122" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="90" t="s">
+    <row r="123" spans="1:7">
+      <c r="A123" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="90" t="s">
+      <c r="B123" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C119" s="63"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="63"/>
-      <c r="F119" s="46"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="94"/>
-      <c r="B120" s="94"/>
-      <c r="C120" s="90" t="s">
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="46"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="104"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E124" s="7">
         <v>43805</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F124" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="G120" s="103" t="s">
+      <c r="G124" s="113" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="94"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="5" t="s">
+    <row r="125" spans="1:7">
+      <c r="A125" s="104"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E125" s="7">
         <v>43805</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G121" s="102"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="94"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="90" t="s">
+      <c r="G125" s="112"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="104"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E126" s="4">
         <v>43788</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="99" t="s">
+      <c r="G126" s="109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="94"/>
-      <c r="B123" s="94"/>
-      <c r="C123" s="91" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="104"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E127" s="4">
         <v>43788</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="101"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="94"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="94"/>
-      <c r="D124" s="3" t="s">
+      <c r="G127" s="111"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="104"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E128" s="4">
         <v>43818</v>
       </c>
-      <c r="F124" s="73" t="s">
+      <c r="F128" s="71" t="s">
         <v>521</v>
       </c>
-      <c r="G124" s="101"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="94"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="94"/>
-      <c r="D125" s="3" t="s">
+      <c r="G128" s="111"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="104"/>
+      <c r="B129" s="104"/>
+      <c r="C129" s="104"/>
+      <c r="D129" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E129" s="4">
         <v>43818</v>
       </c>
-      <c r="F125" s="73" t="s">
+      <c r="F129" s="71" t="s">
         <v>521</v>
       </c>
-      <c r="G125" s="101"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="94"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="94"/>
-      <c r="D126" s="3" t="s">
+      <c r="G129" s="111"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="104"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E130" s="4">
         <v>43818</v>
       </c>
-      <c r="F126" s="73" t="s">
+      <c r="F130" s="71" t="s">
         <v>521</v>
       </c>
-      <c r="G126" s="101"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="94"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="50" t="s">
+      <c r="G130" s="111"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="104"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="101"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="94"/>
-      <c r="B128" s="94"/>
-      <c r="C128" s="94"/>
-      <c r="D128" s="50" t="s">
+      <c r="E131" s="4"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="111"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="104"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="101"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="94"/>
-      <c r="B129" s="94"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="50" t="s">
+      <c r="E132" s="4"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="111"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="104"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="101"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="94"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="94"/>
-      <c r="D130" s="50" t="s">
+      <c r="E133" s="4"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="111"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="104"/>
+      <c r="B134" s="104"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="101"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="94"/>
-      <c r="B131" s="94"/>
-      <c r="C131" s="95"/>
-      <c r="D131" s="50" t="s">
+      <c r="E134" s="4"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="111"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="104"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="101"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="94"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="72"/>
-      <c r="E132" s="4"/>
-      <c r="G132" s="74"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="94"/>
-      <c r="B133" s="94"/>
-      <c r="C133" s="97" t="s">
+      <c r="E135" s="4"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="111"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="104"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="70"/>
+      <c r="E136" s="4"/>
+      <c r="G136" s="72"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="104"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E137" s="4">
         <v>43789</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="99" t="s">
+      <c r="G137" s="109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="94"/>
-      <c r="B134" s="94"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="3" t="s">
+    <row r="138" spans="1:7">
+      <c r="A138" s="104"/>
+      <c r="B138" s="104"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E138" s="4">
         <v>43789</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="101"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="94"/>
-      <c r="B135" s="94"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="3" t="s">
+      <c r="G138" s="111"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="104"/>
+      <c r="B139" s="104"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E139" s="4">
         <v>43818</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G135" s="101"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="94"/>
-      <c r="B136" s="94"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="3" t="s">
+      <c r="G139" s="111"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="104"/>
+      <c r="B140" s="104"/>
+      <c r="C140" s="108"/>
+      <c r="D140" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E140" s="4">
         <v>43789</v>
       </c>
-      <c r="F136" s="46" t="s">
+      <c r="F140" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="G136" s="101"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="94"/>
-      <c r="B137" s="94"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="3" t="s">
+      <c r="G140" s="111"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="104"/>
+      <c r="B141" s="104"/>
+      <c r="C141" s="108"/>
+      <c r="D141" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="E137" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F137" s="75" t="s">
-        <v>530</v>
-      </c>
-      <c r="G137" s="101"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="94"/>
-      <c r="B138" s="94"/>
-      <c r="C138" s="94"/>
-      <c r="D138" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E138" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F138" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G138" s="101"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="94"/>
-      <c r="B139" s="94"/>
-      <c r="C139" s="94"/>
-      <c r="D139" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E139" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F139" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G139" s="101"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="94"/>
-      <c r="B140" s="94"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E140" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F140" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G140" s="102"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="94"/>
-      <c r="B141" s="94"/>
-      <c r="C141" s="90" t="s">
-        <v>533</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="E141" s="4">
         <v>43818</v>
       </c>
-      <c r="F141" s="75" t="s">
+      <c r="F141" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="G141" s="99" t="s">
+      <c r="G141" s="111"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="104"/>
+      <c r="B142" s="104"/>
+      <c r="C142" s="104"/>
+      <c r="D142" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E142" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F142" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G142" s="111"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="104"/>
+      <c r="B143" s="104"/>
+      <c r="C143" s="104"/>
+      <c r="D143" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E143" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F143" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G143" s="111"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="104"/>
+      <c r="B144" s="104"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E144" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F144" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G144" s="112"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="104"/>
+      <c r="B145" s="104"/>
+      <c r="C145" s="100" t="s">
+        <v>533</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E145" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F145" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="G145" s="109" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="94"/>
-      <c r="B142" s="94"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="3" t="s">
+    <row r="146" spans="1:7">
+      <c r="A146" s="104"/>
+      <c r="B146" s="104"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E146" s="4">
         <v>43818</v>
       </c>
-      <c r="F142" s="75" t="s">
+      <c r="F146" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="G142" s="100"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="95"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="3" t="s">
+      <c r="G146" s="110"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="105"/>
+      <c r="B147" s="105"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E147" s="4">
         <v>43818</v>
       </c>
-      <c r="F143" s="75" t="s">
+      <c r="F147" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="102"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="C144" s="63"/>
-      <c r="D144" s="63"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="97" t="s">
+      <c r="G147" s="112"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B145" s="97" t="s">
+      <c r="B149" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C145" s="97" t="s">
+      <c r="C149" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E149" s="4">
         <v>43788</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G145" s="99" t="s">
+      <c r="G149" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="94"/>
-      <c r="B146" s="94"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="5" t="s">
+    <row r="150" spans="1:7">
+      <c r="A150" s="104"/>
+      <c r="B150" s="104"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E150" s="4">
         <v>43788</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G146" s="101"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="94"/>
-      <c r="B147" s="94"/>
-      <c r="C147" s="98"/>
-      <c r="D147" s="5" t="s">
+      <c r="G150" s="111"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="104"/>
+      <c r="B151" s="104"/>
+      <c r="C151" s="108"/>
+      <c r="D151" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E151" s="4">
         <v>43788</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G147" s="101"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="94"/>
-      <c r="B148" s="94"/>
-      <c r="C148" s="98"/>
-      <c r="D148" s="5" t="s">
+      <c r="G151" s="111"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="104"/>
+      <c r="B152" s="104"/>
+      <c r="C152" s="108"/>
+      <c r="D152" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E152" s="4">
         <v>43788</v>
       </c>
-      <c r="F148" s="26" t="s">
+      <c r="F152" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G148" s="102"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="94"/>
-      <c r="B149" s="94"/>
-      <c r="C149" s="95"/>
-      <c r="D149" s="5" t="s">
+      <c r="G152" s="112"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="104"/>
+      <c r="B153" s="104"/>
+      <c r="C153" s="105"/>
+      <c r="D153" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E153" s="4">
         <v>43800</v>
       </c>
-      <c r="F149" s="48" t="s">
+      <c r="F153" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G153" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="94"/>
-      <c r="B150" s="94"/>
-      <c r="C150" s="33" t="s">
+    <row r="154" spans="1:7">
+      <c r="A154" s="104"/>
+      <c r="B154" s="104"/>
+      <c r="C154" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E154" s="4">
         <v>43797</v>
       </c>
-      <c r="F150" s="26"/>
-      <c r="G150" s="99" t="s">
+      <c r="F154" s="26"/>
+      <c r="G154" s="109" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="94"/>
-      <c r="B151" s="94"/>
-      <c r="C151" s="90" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" s="104"/>
+      <c r="B155" s="104"/>
+      <c r="C155" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F151" s="54" t="s">
+      <c r="F155" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G151" s="100"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="94"/>
-      <c r="B152" s="94"/>
-      <c r="C152" s="94"/>
-      <c r="D152" s="3" t="s">
+      <c r="G155" s="110"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="104"/>
+      <c r="B156" s="104"/>
+      <c r="C156" s="104"/>
+      <c r="D156" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E156" s="4">
         <v>43808</v>
       </c>
-      <c r="F152" s="54" t="s">
+      <c r="F156" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G152" s="101"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="94"/>
-      <c r="B153" s="94"/>
-      <c r="C153" s="94"/>
-      <c r="D153" s="3" t="s">
+      <c r="G156" s="111"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="104"/>
+      <c r="B157" s="104"/>
+      <c r="C157" s="104"/>
+      <c r="D157" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E157" s="4">
         <v>43808</v>
       </c>
-      <c r="F153" s="59" t="s">
+      <c r="F157" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="G153" s="101"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="94"/>
-      <c r="B154" s="94"/>
-      <c r="C154" s="94"/>
-      <c r="D154" s="5" t="s">
+      <c r="G157" s="111"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="104"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="104"/>
+      <c r="D158" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E158" s="4">
         <v>43808</v>
       </c>
-      <c r="F154" s="59" t="s">
+      <c r="F158" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="G154" s="102"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="94"/>
-      <c r="B155" s="94"/>
-      <c r="C155" s="95"/>
-      <c r="D155" s="5" t="s">
+      <c r="G158" s="112"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="104"/>
+      <c r="B159" s="104"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E159" s="4">
         <v>43811</v>
       </c>
-      <c r="F155" s="59"/>
-      <c r="G155" s="76"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="94"/>
-      <c r="B156" s="94"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="48" t="s">
+      <c r="F159" s="59"/>
+      <c r="G159" s="74"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="104"/>
+      <c r="B160" s="104"/>
+      <c r="C160" s="75"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G160" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="95"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="48" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="105"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E161" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="97" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="B158" s="97" t="s">
+      <c r="B162" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="98"/>
-      <c r="B159" s="98"/>
-      <c r="C159" s="43" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" s="108"/>
+      <c r="B163" s="108"/>
+      <c r="C163" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E163" s="4">
         <v>43817</v>
       </c>
-      <c r="F159" s="67" t="s">
+      <c r="F163" s="66" t="s">
         <v>490</v>
       </c>
-      <c r="G159" s="68" t="s">
+      <c r="G163" s="109" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="98"/>
-      <c r="B160" s="98"/>
-      <c r="C160" s="97" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" s="108"/>
+      <c r="B164" s="108"/>
+      <c r="C164" s="101"/>
+      <c r="D164" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E164" s="4">
+        <v>43820</v>
+      </c>
+      <c r="F164" s="88" t="s">
+        <v>585</v>
+      </c>
+      <c r="G164" s="111"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="108"/>
+      <c r="B165" s="108"/>
+      <c r="C165" s="104"/>
+      <c r="D165" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E165" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F165" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G165" s="111"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="108"/>
+      <c r="B166" s="108"/>
+      <c r="C166" s="104"/>
+      <c r="D166" s="98" t="s">
+        <v>586</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="89"/>
+      <c r="G166" s="111"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="108"/>
+      <c r="B167" s="108"/>
+      <c r="C167" s="104"/>
+      <c r="D167" s="98" t="s">
+        <v>587</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="89"/>
+      <c r="G167" s="111"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="108"/>
+      <c r="B168" s="108"/>
+      <c r="C168" s="104"/>
+      <c r="D168" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="111"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="108"/>
+      <c r="B169" s="108"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="98" t="s">
+        <v>589</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="89"/>
+      <c r="G169" s="111"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="108"/>
+      <c r="B170" s="108"/>
+      <c r="C170" s="90"/>
+      <c r="D170" s="98"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="94"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="108"/>
+      <c r="B171" s="108"/>
+      <c r="C171" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E171" s="4">
         <v>43797</v>
       </c>
-      <c r="F160" s="37" t="s">
+      <c r="F171" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="G160" s="99" t="s">
+      <c r="G171" s="109" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="98"/>
-      <c r="B161" s="98"/>
-      <c r="C161" s="94"/>
-      <c r="D161" s="3" t="s">
+    <row r="172" spans="1:7">
+      <c r="A172" s="108"/>
+      <c r="B172" s="108"/>
+      <c r="C172" s="104"/>
+      <c r="D172" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E172" s="4">
         <v>43803</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F172" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G161" s="101"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="98"/>
-      <c r="B162" s="98"/>
-      <c r="C162" s="94"/>
-      <c r="D162" s="3" t="s">
+      <c r="G172" s="111"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="108"/>
+      <c r="B173" s="108"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E173" s="4">
         <v>43804</v>
       </c>
-      <c r="F162" s="39" t="s">
+      <c r="F173" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G162" s="101"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="98"/>
-      <c r="B163" s="98"/>
-      <c r="C163" s="94"/>
-      <c r="D163" s="3" t="s">
+      <c r="G173" s="111"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="108"/>
+      <c r="B174" s="108"/>
+      <c r="C174" s="104"/>
+      <c r="D174" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E174" s="4">
         <v>43804</v>
       </c>
-      <c r="F163" s="39" t="s">
+      <c r="F174" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G163" s="101"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="98"/>
-      <c r="B164" s="98"/>
-      <c r="C164" s="95"/>
-      <c r="D164" s="3" t="s">
+      <c r="G174" s="111"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="108"/>
+      <c r="B175" s="108"/>
+      <c r="C175" s="105"/>
+      <c r="D175" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E175" s="4">
         <v>43804</v>
       </c>
-      <c r="F164" s="80" t="s">
+      <c r="F175" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="G164" s="101"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="98"/>
-      <c r="B165" s="98"/>
-      <c r="C165" s="79"/>
-      <c r="D165" s="3" t="s">
+      <c r="G175" s="111"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="108"/>
+      <c r="B176" s="108"/>
+      <c r="C176" s="77"/>
+      <c r="D176" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E176" s="4">
         <v>43819</v>
       </c>
-      <c r="F165" s="80" t="s">
+      <c r="F176" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="G165" s="101"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="98"/>
-      <c r="B166" s="98"/>
-      <c r="C166" s="87"/>
-      <c r="D166" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="84"/>
-      <c r="G166" s="88"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="98"/>
-      <c r="B167" s="98"/>
-      <c r="C167" s="89" t="s">
+      <c r="G176" s="111"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="108"/>
+      <c r="B177" s="108"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="99"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="86"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="108"/>
+      <c r="B178" s="108"/>
+      <c r="C178" s="87" t="s">
         <v>581</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E178" s="4">
         <v>43819</v>
       </c>
-      <c r="F167" s="84" t="s">
+      <c r="F178" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G167" s="88" t="s">
+      <c r="G178" s="86" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="98"/>
-      <c r="B168" s="98"/>
-      <c r="C168" s="39" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" s="108"/>
+      <c r="B179" s="108"/>
+      <c r="C179" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="88"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="98"/>
-      <c r="B169" s="98"/>
-      <c r="C169" s="43" t="s">
+      <c r="E179" s="4"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="86"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="108"/>
+      <c r="B180" s="108"/>
+      <c r="C180" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="E169" s="4"/>
-      <c r="F169" s="39"/>
-      <c r="G169" s="41"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="98"/>
-      <c r="B170" s="98"/>
-      <c r="C170" s="43" t="s">
+      <c r="E180" s="4"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="41"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="108"/>
+      <c r="B181" s="108"/>
+      <c r="C181" s="43" t="s">
         <v>334</v>
-      </c>
-      <c r="E170" s="4"/>
-      <c r="F170" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G170" s="97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="98"/>
-      <c r="B171" s="98"/>
-      <c r="C171" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E171" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G171" s="98"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="98"/>
-      <c r="B172" s="98"/>
-      <c r="C172" s="98"/>
-      <c r="D172" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E172" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G172" s="98"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="98"/>
-      <c r="B173" s="98"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E173" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="97" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="98"/>
-      <c r="B174" s="94"/>
-      <c r="C174" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E174" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="98"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="98"/>
-      <c r="B175" s="94"/>
-      <c r="C175" s="98"/>
-      <c r="D175" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E175" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="98"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="98"/>
-      <c r="B176" s="94"/>
-      <c r="C176" s="98"/>
-      <c r="D176" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E176" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="95"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="94"/>
-      <c r="B177" s="94"/>
-      <c r="C177" s="94"/>
-      <c r="D177" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E177" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="94"/>
-      <c r="B178" s="94"/>
-      <c r="C178" s="94"/>
-      <c r="D178" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E178" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="94"/>
-      <c r="B179" s="94"/>
-      <c r="C179" s="95"/>
-      <c r="D179" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E179" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="94"/>
-      <c r="B180" s="94"/>
-      <c r="C180" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="94"/>
-      <c r="B181" s="94"/>
-      <c r="C181" s="108"/>
-      <c r="D181" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G181" s="107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="108"/>
+      <c r="B182" s="108"/>
+      <c r="C182" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G182" s="108"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="108"/>
+      <c r="B183" s="108"/>
+      <c r="C183" s="108"/>
+      <c r="D183" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G183" s="108"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="108"/>
+      <c r="B184" s="108"/>
+      <c r="C184" s="108"/>
+      <c r="D184" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="108"/>
+      <c r="B185" s="104"/>
+      <c r="C185" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="108"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="108"/>
+      <c r="B186" s="104"/>
+      <c r="C186" s="108"/>
+      <c r="D186" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="108"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="108"/>
+      <c r="B187" s="104"/>
+      <c r="C187" s="108"/>
+      <c r="D187" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E187" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="105"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="104"/>
+      <c r="B188" s="104"/>
+      <c r="C188" s="104"/>
+      <c r="D188" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E188" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="104"/>
+      <c r="B189" s="104"/>
+      <c r="C189" s="104"/>
+      <c r="D189" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E189" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="104"/>
+      <c r="B190" s="104"/>
+      <c r="C190" s="105"/>
+      <c r="D190" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E190" s="4">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="104"/>
+      <c r="B191" s="104"/>
+      <c r="C191" s="107" t="s">
+        <v>323</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="104"/>
+      <c r="B192" s="104"/>
+      <c r="C192" s="122"/>
+      <c r="D192" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="94"/>
-      <c r="B182" s="94"/>
-      <c r="C182" s="40" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="104"/>
+      <c r="B193" s="104"/>
+      <c r="C193" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D193" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E193" s="4">
         <v>43804</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="94"/>
-      <c r="B183" s="94"/>
-      <c r="C183" s="62" t="s">
+    <row r="194" spans="1:7">
+      <c r="A194" s="104"/>
+      <c r="B194" s="104"/>
+      <c r="C194" s="100" t="s">
         <v>438</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D194" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E194" s="7">
         <v>43812</v>
       </c>
-      <c r="F183" s="63" t="s">
+      <c r="F194" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G194" s="109" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="94"/>
-      <c r="B184" s="94"/>
-      <c r="C184" s="90" t="s">
+    <row r="195" spans="1:7">
+      <c r="A195" s="104"/>
+      <c r="B195" s="104"/>
+      <c r="C195" s="104"/>
+      <c r="D195" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E195" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F195" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G195" s="111"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="104"/>
+      <c r="B196" s="104"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E196" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F196" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G196" s="112"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="104"/>
+      <c r="B197" s="104"/>
+      <c r="C197" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E197" s="4">
         <v>43815</v>
       </c>
-      <c r="F184" s="33" t="s">
+      <c r="F197" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="G184" s="103" t="s">
+      <c r="G197" s="113" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="94"/>
-      <c r="B185" s="94"/>
-      <c r="C185" s="91"/>
-      <c r="D185" s="3" t="s">
+    <row r="198" spans="1:7">
+      <c r="A198" s="104"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="101"/>
+      <c r="D198" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="E185" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F185" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="G185" s="104"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="95"/>
-      <c r="B186" s="95"/>
-      <c r="C186" s="95"/>
-      <c r="D186" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E186" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F186" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="G186" s="102"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="C187" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E187" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F187" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="86"/>
-      <c r="C188" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E188" s="4">
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B189" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="C189" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="94"/>
-      <c r="B190" s="94"/>
-      <c r="C190" s="108"/>
-      <c r="D190" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="94"/>
-      <c r="B191" s="94"/>
-      <c r="C191" s="97" t="s">
-        <v>312</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="94"/>
-      <c r="B192" s="94"/>
-      <c r="C192" s="108"/>
-      <c r="D192" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="94"/>
-      <c r="B193" s="94"/>
-      <c r="C193" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="94"/>
-      <c r="B194" s="94"/>
-      <c r="C194" s="108"/>
-      <c r="D194" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="95"/>
-      <c r="B195" s="95"/>
-      <c r="C195" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E195" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F195" s="84" t="s">
-        <v>567</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B196" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C196" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D196" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="E196" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="B198" s="97" t="s">
-        <v>459</v>
-      </c>
-      <c r="C198" s="97" t="s">
-        <v>454</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="E198" s="4">
         <v>43815</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F198" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="G198" s="99" t="s">
-        <v>460</v>
-      </c>
+      <c r="G198" s="114"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="98"/>
-      <c r="B199" s="98"/>
-      <c r="C199" s="98"/>
+      <c r="A199" s="105"/>
+      <c r="B199" s="105"/>
+      <c r="C199" s="105"/>
       <c r="D199" s="3" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E199" s="4">
         <v>43815</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F199" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="G199" s="100"/>
+      <c r="G199" s="112"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="98"/>
-      <c r="B200" s="98"/>
-      <c r="C200" s="98"/>
+      <c r="A200" s="91"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="97" t="s">
+        <v>594</v>
+      </c>
       <c r="D200" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F200" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G200" s="95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="C201" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E201" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F201" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="84"/>
+      <c r="C202" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E202" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B203" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="104"/>
+      <c r="B204" s="104"/>
+      <c r="C204" s="122"/>
+      <c r="D204" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="104"/>
+      <c r="B205" s="104"/>
+      <c r="C205" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="104"/>
+      <c r="B206" s="104"/>
+      <c r="C206" s="122"/>
+      <c r="D206" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="104"/>
+      <c r="B207" s="104"/>
+      <c r="C207" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="104"/>
+      <c r="B208" s="104"/>
+      <c r="C208" s="122"/>
+      <c r="D208" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="105"/>
+      <c r="B209" s="105"/>
+      <c r="C209" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E209" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F209" s="82" t="s">
+        <v>567</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="D210" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E210" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="107" t="s">
+        <v>453</v>
+      </c>
+      <c r="B212" s="107" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" s="107" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G212" s="109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="108"/>
+      <c r="B213" s="108"/>
+      <c r="C213" s="108"/>
+      <c r="D213" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G213" s="110"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="108"/>
+      <c r="B214" s="108"/>
+      <c r="C214" s="108"/>
+      <c r="D214" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E214" s="4">
         <v>43815</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G200" s="100"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="98"/>
-      <c r="B201" s="98"/>
-      <c r="C201" s="94"/>
-      <c r="D201" s="3" t="s">
+      <c r="G214" s="110"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="108"/>
+      <c r="B215" s="108"/>
+      <c r="C215" s="104"/>
+      <c r="D215" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E215" s="4">
         <v>43815</v>
       </c>
-      <c r="F201" s="64" t="s">
+      <c r="F215" s="63" t="s">
         <v>463</v>
       </c>
-      <c r="G201" s="101"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="98"/>
-      <c r="B202" s="98"/>
-      <c r="C202" s="95"/>
-      <c r="D202" s="3" t="s">
+      <c r="G215" s="111"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="108"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="105"/>
+      <c r="D216" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E216" s="4">
         <v>43819</v>
       </c>
-      <c r="F202" s="84" t="s">
+      <c r="F216" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="G202" s="102"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="94"/>
-      <c r="B203" s="94"/>
-      <c r="C203" s="90" t="s">
+      <c r="G216" s="112"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="104"/>
+      <c r="B217" s="104"/>
+      <c r="C217" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E217" s="4">
         <v>43815</v>
       </c>
-      <c r="F203" s="64" t="s">
+      <c r="F217" s="63" t="s">
         <v>463</v>
       </c>
-      <c r="G203" s="99" t="s">
+      <c r="G217" s="109" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="94"/>
-      <c r="B204" s="94"/>
-      <c r="C204" s="94"/>
-      <c r="D204" s="3" t="s">
+    <row r="218" spans="1:7">
+      <c r="A218" s="104"/>
+      <c r="B218" s="104"/>
+      <c r="C218" s="104"/>
+      <c r="D218" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E218" s="4">
         <v>43815</v>
       </c>
-      <c r="F204" s="64" t="s">
+      <c r="F218" s="63" t="s">
         <v>463</v>
       </c>
-      <c r="G204" s="100"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="94"/>
-      <c r="B205" s="94"/>
-      <c r="C205" s="94"/>
-      <c r="D205" s="3" t="s">
+      <c r="G218" s="110"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="104"/>
+      <c r="B219" s="104"/>
+      <c r="C219" s="104"/>
+      <c r="D219" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E219" s="4">
         <v>43815</v>
       </c>
-      <c r="F205" s="64" t="s">
+      <c r="F219" s="63" t="s">
         <v>463</v>
       </c>
-      <c r="G205" s="100"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="95"/>
-      <c r="B206" s="95"/>
-      <c r="C206" s="95"/>
-      <c r="D206" s="3" t="s">
+      <c r="G219" s="110"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="105"/>
+      <c r="B220" s="105"/>
+      <c r="C220" s="105"/>
+      <c r="D220" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E220" s="4">
         <v>43819</v>
       </c>
-      <c r="F206" s="84" t="s">
+      <c r="F220" s="82" t="s">
         <v>567</v>
       </c>
-      <c r="G206" s="102"/>
+      <c r="G220" s="112"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E221" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>611</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="B198:B206"/>
-    <mergeCell ref="A198:A206"/>
-    <mergeCell ref="G203:G206"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="G160:G165"/>
-    <mergeCell ref="C189:C190"/>
+  <mergeCells count="95">
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="G111:G118"/>
+    <mergeCell ref="C112:C119"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="B212:B220"/>
+    <mergeCell ref="A212:A220"/>
+    <mergeCell ref="G217:G220"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="A162:A199"/>
+    <mergeCell ref="B162:B199"/>
+    <mergeCell ref="A203:A209"/>
+    <mergeCell ref="C182:C184"/>
     <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="G198:G202"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="A158:A186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="G184:G186"/>
-    <mergeCell ref="B158:B186"/>
-    <mergeCell ref="G170:G172"/>
-    <mergeCell ref="G173:G176"/>
-    <mergeCell ref="B189:B195"/>
-    <mergeCell ref="A189:A195"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="G150:G154"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="G141:G143"/>
-    <mergeCell ref="G107:G114"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="G133:G140"/>
-    <mergeCell ref="G122:G131"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B87:B117"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="G28:G41"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="A87:A117"/>
-    <mergeCell ref="C122:C131"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="A123:A147"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="G181:G183"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="B203:B209"/>
+    <mergeCell ref="G154:G158"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="G85:G90"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="G137:G144"/>
+    <mergeCell ref="G126:G135"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B91:B121"/>
+    <mergeCell ref="C137:C144"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="G29:G42"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="G96:G103"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="A91:A121"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="A149:A161"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="B123:B147"/>
+    <mergeCell ref="B149:B161"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="C124:C125"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B66"/>
-    <mergeCell ref="A3:A66"/>
+    <mergeCell ref="B3:B68"/>
+    <mergeCell ref="A3:A68"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G48:G50"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="G6:G16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B145:B157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="B119:B143"/>
-    <mergeCell ref="A119:A143"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="G194:G196"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="G163:G169"/>
+    <mergeCell ref="G73:G78"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="C66:C68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8192,10 +8563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="129" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -8207,13 +8578,13 @@
       <c r="F1" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="127" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
       <c r="D2" s="18" t="s">
         <v>234</v>
       </c>
@@ -8223,11 +8594,11 @@
       <c r="F2" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="114"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
       <c r="D3" s="29" t="s">
         <v>236</v>
       </c>
@@ -8237,11 +8608,11 @@
       <c r="F3" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="114"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="D4" s="29" t="s">
         <v>238</v>
       </c>
@@ -8251,7 +8622,7 @@
       <c r="F4" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="114"/>
+      <c r="G4" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8285,13 +8656,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>276</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -8304,13 +8675,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="105" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -8340,7 +8711,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="131" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -8348,25 +8719,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="119"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="16" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="120"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="129" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -8374,33 +8745,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -8408,7 +8779,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="131" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -8418,7 +8789,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="119"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -8426,7 +8797,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="120"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -8440,10 +8811,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="119" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -8463,8 +8834,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="15" t="s">
         <v>274</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="629">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,9 +1358,6 @@
   </si>
   <si>
     <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\LoRa劳拉</t>
-  </si>
-  <si>
-    <t>lora科普.pdf</t>
   </si>
   <si>
     <t>基于LoRa的组网设计方案.pdf</t>
@@ -2610,6 +2607,111 @@
   </si>
   <si>
     <t>D:\A-超级智库\PlanB\2-硬件技术\11-认证测试\EMC电磁兼容</t>
+  </si>
+  <si>
+    <t>激光窃听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 智能停车场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光雕刻机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-激光雕刻机.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\5-激光雕刻机</t>
+  </si>
+  <si>
+    <t>项目产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-XY结构激光雕刻机BOM及教程.pdf</t>
+  </si>
+  <si>
+    <t>RD-用光驱自制一台激光雕刻机.pdf</t>
+  </si>
+  <si>
+    <t>RD-数控CNC机台程序编写教程含常用G.M代码.pdf</t>
+  </si>
+  <si>
+    <t>RD-雕刻机数控代码自动生成的研究.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波测距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-超声波测距模块_HC-SR04_用户手册-V2.0.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\3-传感测量\8-超声波测距</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lora科普.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2724,7 +2826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3011,6 +3113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3020,17 +3125,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,23 +3167,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3074,18 +3191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3112,6 +3217,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,15 +3541,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3461,13 +3575,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="111" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3484,9 +3598,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3501,22 +3615,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="111" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3533,9 +3647,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3550,9 +3664,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3567,9 +3681,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="103"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3584,9 +3698,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3612,75 +3726,75 @@
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="104"/>
       <c r="B12" s="104"/>
-      <c r="C12" s="100" t="s">
-        <v>575</v>
+      <c r="C12" s="101" t="s">
+        <v>574</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E12" s="4">
         <v>43819</v>
       </c>
       <c r="F12" s="82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G12" s="106" t="s">
         <v>576</v>
-      </c>
-      <c r="G12" s="113" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
       <c r="A13" s="104"/>
       <c r="B13" s="104"/>
-      <c r="C13" s="101"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E13" s="4">
         <v>43819</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G13" s="114"/>
+        <v>560</v>
+      </c>
+      <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="104"/>
       <c r="B14" s="104"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E14" s="7">
         <v>43819</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G14" s="114"/>
+        <v>560</v>
+      </c>
+      <c r="G14" s="107"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="105"/>
       <c r="B15" s="105"/>
-      <c r="C15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E15" s="4">
         <v>43819</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G15" s="115"/>
+        <v>560</v>
+      </c>
+      <c r="G15" s="108"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -3715,231 +3829,231 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="100" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="100" t="s">
+      <c r="A19" s="101" t="s">
         <v>422</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>406</v>
+      <c r="B19" s="101" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>405</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E19" s="4">
         <v>43810</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>410</v>
+        <v>403</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="114"/>
+      <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E21" s="4">
         <v>43810</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="114"/>
+        <v>403</v>
+      </c>
+      <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E22" s="4">
         <v>43810</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G22" s="114"/>
+        <v>403</v>
+      </c>
+      <c r="G22" s="107"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="104"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
       <c r="D23" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E23" s="4">
         <v>43810</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
       <c r="D24" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E24" s="4">
         <v>43810</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G24" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="104"/>
       <c r="B25" s="104"/>
       <c r="C25" s="104"/>
       <c r="D25" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E25" s="4">
         <v>43810</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G25" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="104"/>
       <c r="B26" s="104"/>
       <c r="C26" s="104"/>
       <c r="D26" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E26" s="4">
         <v>43810</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G26" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
       <c r="A27" s="104"/>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
       <c r="D27" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E27" s="4">
         <v>43810</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G27" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
       <c r="A28" s="104"/>
       <c r="B28" s="104"/>
       <c r="C28" s="104"/>
       <c r="D28" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E28" s="4">
         <v>43810</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G28" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
       <c r="A29" s="104"/>
       <c r="B29" s="104"/>
       <c r="C29" s="104"/>
       <c r="D29" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E29" s="4">
         <v>43810</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G29" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
       <c r="A30" s="104"/>
       <c r="B30" s="104"/>
       <c r="C30" s="104"/>
       <c r="D30" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" s="4">
         <v>43810</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G30" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G30" s="113"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
       <c r="A31" s="104"/>
       <c r="B31" s="104"/>
       <c r="C31" s="104"/>
       <c r="D31" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E31" s="4">
         <v>43810</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
       <c r="A32" s="104"/>
       <c r="B32" s="104"/>
       <c r="C32" s="104"/>
       <c r="D32" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E32" s="4">
         <v>43810</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G32" s="111"/>
+        <v>403</v>
+      </c>
+      <c r="G32" s="113"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
       <c r="A33" s="105"/>
       <c r="B33" s="105"/>
       <c r="C33" s="105"/>
       <c r="D33" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E33" s="4">
         <v>43810</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G33" s="112"/>
     </row>
@@ -3953,13 +4067,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="111" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3971,14 +4085,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="113" t="s">
+      <c r="G35" s="106" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3988,12 +4102,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="114"/>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4003,12 +4117,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="114"/>
+      <c r="G37" s="107"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4018,22 +4132,22 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="114"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E39" s="4">
         <v>43811</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="G39" s="115"/>
+        <v>427</v>
+      </c>
+      <c r="G39" s="108"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4045,13 +4159,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="101" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4063,14 +4177,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="113" t="s">
+      <c r="G41" s="106" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4080,14 +4194,14 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="114"/>
+      <c r="G42" s="107"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
       <c r="D43" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E43" s="4">
         <v>43810</v>
@@ -4095,7 +4209,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="115"/>
+      <c r="G43" s="108"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4107,13 +4221,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="101" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4125,13 +4239,13 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="106" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="104"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
@@ -4142,79 +4256,79 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="114"/>
+      <c r="G46" s="107"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
       <c r="A47" s="104"/>
       <c r="B47" s="104"/>
       <c r="C47" s="104"/>
       <c r="D47" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="114"/>
+      <c r="G47" s="107"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
       <c r="A48" s="104"/>
       <c r="B48" s="104"/>
       <c r="C48" s="104"/>
       <c r="D48" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48" s="4">
         <v>43810</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="G48" s="114"/>
+        <v>403</v>
+      </c>
+      <c r="G48" s="107"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
       <c r="A49" s="105"/>
       <c r="B49" s="105"/>
       <c r="C49" s="105"/>
       <c r="D49" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E49" s="4">
         <v>43810</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G49" s="112"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="106"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="101" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="E51" s="7">
         <v>43805</v>
       </c>
       <c r="F51" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
@@ -4229,7 +4343,7 @@
     <row r="53" spans="1:7" s="8" customFormat="1">
       <c r="A53" s="104"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="100" t="s">
+      <c r="C53" s="101" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4241,14 +4355,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="111" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="104"/>
       <c r="B54" s="104"/>
-      <c r="C54" s="101"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4258,12 +4372,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="103"/>
+      <c r="G54" s="111"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
       <c r="A55" s="104"/>
       <c r="B55" s="104"/>
-      <c r="C55" s="101"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4273,12 +4387,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="103"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
       <c r="A56" s="104"/>
       <c r="B56" s="104"/>
-      <c r="C56" s="101"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4288,12 +4402,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="103"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
       <c r="A57" s="104"/>
       <c r="B57" s="104"/>
-      <c r="C57" s="101"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4303,12 +4417,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="103"/>
+      <c r="G57" s="111"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="104"/>
       <c r="B58" s="104"/>
-      <c r="C58" s="101"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4318,7 +4432,7 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="103"/>
+      <c r="G58" s="111"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
       <c r="A59" s="104"/>
@@ -4354,77 +4468,77 @@
     <row r="62" spans="1:7" s="8" customFormat="1">
       <c r="A62" s="104"/>
       <c r="B62" s="104"/>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="E62" s="7">
         <v>43805</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G62" s="113" t="s">
-        <v>353</v>
+        <v>345</v>
+      </c>
+      <c r="G62" s="106" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
-      <c r="C63" s="101"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="114"/>
+      <c r="G63" s="107"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
       <c r="A64" s="104"/>
       <c r="B64" s="104"/>
       <c r="C64" s="104"/>
       <c r="D64" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E64" s="7">
         <v>43805</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="G64" s="114"/>
+        <v>355</v>
+      </c>
+      <c r="G64" s="107"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
       <c r="A65" s="104"/>
       <c r="B65" s="104"/>
       <c r="C65" s="104"/>
       <c r="D65" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" s="7">
         <v>43805</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G65" s="114"/>
+        <v>345</v>
+      </c>
+      <c r="G65" s="107"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="105"/>
       <c r="D66" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E66" s="7">
         <v>43805</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G66" s="115"/>
+        <v>345</v>
+      </c>
+      <c r="G66" s="108"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
       <c r="A67" s="104"/>
@@ -4439,10 +4553,10 @@
       <c r="A68" s="104"/>
       <c r="B68" s="104"/>
       <c r="C68" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="44"/>
@@ -4460,94 +4574,94 @@
     <row r="70" spans="1:7" s="8" customFormat="1">
       <c r="A70" s="104"/>
       <c r="B70" s="104"/>
-      <c r="C70" s="100" t="s">
+      <c r="C70" s="101" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="E70" s="7">
         <v>43807</v>
       </c>
       <c r="F70" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" s="106" t="s">
         <v>390</v>
-      </c>
-      <c r="G70" s="113" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
       <c r="A71" s="104"/>
       <c r="B71" s="104"/>
-      <c r="C71" s="101"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E71" s="7">
         <v>43807</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G71" s="114"/>
+        <v>392</v>
+      </c>
+      <c r="G71" s="107"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
       <c r="A72" s="104"/>
       <c r="B72" s="104"/>
       <c r="C72" s="104"/>
       <c r="D72" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E72" s="7">
         <v>43807</v>
       </c>
       <c r="F72" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G72" s="114"/>
+        <v>392</v>
+      </c>
+      <c r="G72" s="107"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="104"/>
       <c r="B73" s="104"/>
       <c r="C73" s="104"/>
       <c r="D73" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E73" s="7">
         <v>43807</v>
       </c>
       <c r="F73" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G73" s="111"/>
+        <v>392</v>
+      </c>
+      <c r="G73" s="113"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
       <c r="A74" s="105"/>
       <c r="B74" s="105"/>
       <c r="C74" s="104"/>
       <c r="D74" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E74" s="7">
         <v>43807</v>
       </c>
       <c r="F74" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="G74" s="111"/>
+        <v>392</v>
+      </c>
+      <c r="G74" s="113"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
       <c r="C75" s="105"/>
       <c r="D75" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E75" s="7">
         <v>43807</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G75" s="112"/>
     </row>
@@ -4561,14 +4675,14 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="100" t="s">
+      <c r="B77" s="101" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>32</v>
@@ -4580,26 +4694,26 @@
         <v>7</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
       <c r="A78" s="104"/>
       <c r="B78" s="104"/>
-      <c r="C78" s="100" t="s">
-        <v>476</v>
+      <c r="C78" s="101" t="s">
+        <v>475</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E78" s="4">
         <v>43816</v>
       </c>
       <c r="F78" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="G78" s="106" t="s">
         <v>479</v>
-      </c>
-      <c r="G78" s="113" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
@@ -4607,91 +4721,91 @@
       <c r="B79" s="104"/>
       <c r="C79" s="105"/>
       <c r="D79" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E79" s="4">
         <v>43816</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>479</v>
-      </c>
-      <c r="G79" s="115"/>
+        <v>478</v>
+      </c>
+      <c r="G79" s="108"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
       <c r="A80" s="104"/>
       <c r="B80" s="104"/>
-      <c r="C80" s="100" t="s">
-        <v>322</v>
+      <c r="C80" s="101" t="s">
+        <v>321</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E80" s="4">
         <v>43817</v>
       </c>
       <c r="F80" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G80" s="106" t="s">
         <v>482</v>
-      </c>
-      <c r="G80" s="113" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
       <c r="A81" s="104"/>
       <c r="B81" s="104"/>
-      <c r="C81" s="101"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E81" s="4">
         <v>43817</v>
       </c>
       <c r="F81" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G81" s="114"/>
+        <v>481</v>
+      </c>
+      <c r="G81" s="107"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
       <c r="A82" s="104"/>
       <c r="B82" s="104"/>
       <c r="C82" s="104"/>
       <c r="D82" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E82" s="4">
         <v>43817</v>
       </c>
       <c r="F82" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G82" s="114"/>
+        <v>481</v>
+      </c>
+      <c r="G82" s="107"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
       <c r="A83" s="104"/>
       <c r="B83" s="104"/>
       <c r="C83" s="105"/>
       <c r="D83" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E83" s="4">
         <v>43817</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G83" s="112"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
       <c r="A84" s="105"/>
       <c r="B84" s="104"/>
-      <c r="C84" s="100" t="s">
+      <c r="C84" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="E84" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F84" s="66"/>
       <c r="G84" s="5"/>
@@ -4699,33 +4813,33 @@
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
       <c r="B85" s="105"/>
-      <c r="C85" s="102"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="69" t="s">
         <v>487</v>
-      </c>
-      <c r="E85" s="69" t="s">
-        <v>488</v>
       </c>
       <c r="F85" s="55"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="106"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="106"/>
-      <c r="G86" s="106"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="100" t="s">
+      <c r="B87" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="107" t="s">
+      <c r="C87" s="114" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4737,31 +4851,31 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="109" t="s">
+      <c r="G87" s="116" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="101"/>
-      <c r="B88" s="101"/>
-      <c r="C88" s="108"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="115"/>
       <c r="D88" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E88" s="4">
         <v>43817</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G88" s="110"/>
+        <v>513</v>
+      </c>
+      <c r="G88" s="117"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="101"/>
-      <c r="B89" s="101"/>
-      <c r="C89" s="108"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="115"/>
       <c r="D89" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E89" s="4">
         <v>43788</v>
@@ -4769,71 +4883,71 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="110"/>
+      <c r="G89" s="117"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="101"/>
-      <c r="B90" s="101"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="104"/>
       <c r="D90" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E90" s="4">
         <v>43817</v>
       </c>
       <c r="F90" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="G90" s="111"/>
+        <v>505</v>
+      </c>
+      <c r="G90" s="113"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
       <c r="C91" s="104"/>
       <c r="D91" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E91" s="4">
         <v>43818</v>
       </c>
       <c r="F91" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="G91" s="111"/>
+        <v>513</v>
+      </c>
+      <c r="G91" s="113"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="101"/>
-      <c r="B92" s="101"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="104"/>
       <c r="D92" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E92" s="4">
         <v>43818</v>
       </c>
       <c r="F92" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="G92" s="111"/>
+        <v>513</v>
+      </c>
+      <c r="G92" s="113"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="101"/>
-      <c r="B93" s="101"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="105"/>
       <c r="D93" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E93" s="4">
         <v>43818</v>
       </c>
       <c r="F93" s="71" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G93" s="112"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="101"/>
-      <c r="B94" s="101"/>
+      <c r="A94" s="102"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -4851,9 +4965,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="101"/>
-      <c r="B95" s="101"/>
-      <c r="C95" s="100" t="s">
+      <c r="A95" s="102"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="101" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4870,9 +4984,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="101"/>
-      <c r="B96" s="101"/>
-      <c r="C96" s="102"/>
+      <c r="A96" s="102"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="103"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -4881,8 +4995,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="101"/>
-      <c r="B97" s="101"/>
+      <c r="A97" s="102"/>
+      <c r="B97" s="102"/>
       <c r="C97" s="23" t="s">
         <v>197</v>
       </c>
@@ -4902,7 +5016,7 @@
     <row r="98" spans="1:7" s="8" customFormat="1">
       <c r="A98" s="104"/>
       <c r="B98" s="104"/>
-      <c r="C98" s="100" t="s">
+      <c r="C98" s="101" t="s">
         <v>200</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -4915,7 +5029,7 @@
     <row r="99" spans="1:7" s="8" customFormat="1">
       <c r="A99" s="104"/>
       <c r="B99" s="104"/>
-      <c r="C99" s="101"/>
+      <c r="C99" s="102"/>
       <c r="D99" s="5" t="s">
         <v>202</v>
       </c>
@@ -4926,7 +5040,7 @@
     <row r="100" spans="1:7" s="8" customFormat="1">
       <c r="A100" s="104"/>
       <c r="B100" s="104"/>
-      <c r="C100" s="102"/>
+      <c r="C100" s="103"/>
       <c r="D100" s="5" t="s">
         <v>203</v>
       </c>
@@ -4954,19 +5068,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="106"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
+      <c r="A102" s="110"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="100" t="s">
+      <c r="A103" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="100" t="s">
+      <c r="B103" s="101" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -4984,8 +5098,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="101"/>
-      <c r="B104" s="101"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="102"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5001,8 +5115,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="101"/>
-      <c r="B105" s="101"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="102"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5020,9 +5134,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="101"/>
-      <c r="B106" s="101"/>
-      <c r="C106" s="103" t="s">
+      <c r="A106" s="102"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="111" t="s">
         <v>194</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5035,9 +5149,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="101"/>
-      <c r="B107" s="101"/>
-      <c r="C107" s="103"/>
+      <c r="A107" s="102"/>
+      <c r="B107" s="102"/>
+      <c r="C107" s="111"/>
       <c r="D107" s="5" t="s">
         <v>193</v>
       </c>
@@ -5046,13 +5160,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="100" t="s">
+      <c r="B109" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="100" t="s">
+      <c r="C109" s="101" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5069,9 +5183,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="101"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
+      <c r="A110" s="102"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5083,9 +5197,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="101"/>
-      <c r="B111" s="101"/>
-      <c r="C111" s="101"/>
+      <c r="A111" s="102"/>
+      <c r="B111" s="102"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5097,9 +5211,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="101"/>
-      <c r="B112" s="101"/>
-      <c r="C112" s="101"/>
+      <c r="A112" s="102"/>
+      <c r="B112" s="102"/>
+      <c r="C112" s="102"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5112,12 +5226,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C53:C60"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5134,41 +5277,12 @@
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="G19:G33"/>
     <mergeCell ref="C19:C33"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A51:A74"/>
-    <mergeCell ref="B51:B74"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5180,10 +5294,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5199,15 +5313,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5233,13 +5347,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="101" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5251,14 +5365,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="106" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="101"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="5" t="s">
         <v>259</v>
       </c>
@@ -5268,12 +5382,12 @@
       <c r="F4" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="114"/>
+      <c r="G4" s="107"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="5" t="s">
         <v>261</v>
       </c>
@@ -5283,12 +5397,12 @@
       <c r="F5" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="115"/>
+      <c r="G5" s="108"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="100" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="101" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5300,127 +5414,127 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="106" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="104"/>
       <c r="D7" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E7" s="4">
         <v>43818</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="G7" s="111"/>
+        <v>538</v>
+      </c>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="104"/>
       <c r="D8" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E8" s="4">
         <v>43818</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="G8" s="111"/>
+        <v>538</v>
+      </c>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="104"/>
       <c r="D9" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E9" s="4">
         <v>43818</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="G9" s="111"/>
+        <v>538</v>
+      </c>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="104"/>
       <c r="D10" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="104"/>
       <c r="D11" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="104"/>
       <c r="D12" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="111"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="104"/>
       <c r="D13" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="111"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="104"/>
       <c r="D14" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="104"/>
       <c r="D15" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="105"/>
       <c r="D16" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
@@ -5429,7 +5543,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="104"/>
       <c r="B17" s="104"/>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="114" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5441,14 +5555,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="106" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="104"/>
       <c r="B18" s="104"/>
-      <c r="C18" s="108"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5458,27 +5572,27 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="115"/>
+      <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="104"/>
       <c r="B19" s="104"/>
       <c r="C19" s="93"/>
       <c r="D19" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E19" s="4">
         <v>43821</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="104"/>
       <c r="B20" s="104"/>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="114" t="s">
         <v>224</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -5490,7 +5604,7 @@
       <c r="F20" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="106" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5507,87 +5621,87 @@
       <c r="F21" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="111"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
       <c r="D22" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E22" s="4">
         <v>43818</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="G22" s="111"/>
+        <v>529</v>
+      </c>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="104"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
       <c r="D23" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E23" s="4">
         <v>43819</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G23" s="111"/>
+        <v>560</v>
+      </c>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
       <c r="D24" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E24" s="4">
         <v>43819</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G24" s="111"/>
+        <v>560</v>
+      </c>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="104"/>
       <c r="B25" s="104"/>
       <c r="C25" s="104"/>
       <c r="D25" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E25" s="4">
         <v>43819</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G25" s="111"/>
+        <v>560</v>
+      </c>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="104"/>
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
       <c r="D26" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E26" s="4">
         <v>43819</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G26" s="112"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="104"/>
       <c r="B27" s="104"/>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="114" t="s">
         <v>242</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -5617,7 +5731,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="104"/>
       <c r="B29" s="104"/>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="101" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5629,7 +5743,7 @@
       <c r="F29" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="113" t="s">
+      <c r="G29" s="106" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5646,7 +5760,7 @@
       <c r="F30" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="114"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="104"/>
@@ -5661,7 +5775,7 @@
       <c r="F31" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G31" s="114"/>
+      <c r="G31" s="107"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="104"/>
@@ -5676,7 +5790,7 @@
       <c r="F32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="114"/>
+      <c r="G32" s="107"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="104"/>
@@ -5691,142 +5805,142 @@
       <c r="F33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="114"/>
+      <c r="G33" s="107"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="104"/>
       <c r="B34" s="104"/>
       <c r="C34" s="104"/>
       <c r="D34" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E34" s="4">
         <v>43805</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="G34" s="111"/>
+        <v>373</v>
+      </c>
+      <c r="G34" s="113"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="104"/>
       <c r="B35" s="104"/>
       <c r="C35" s="104"/>
       <c r="D35" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E35" s="4">
         <v>43817</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G35" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G35" s="113"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="104"/>
       <c r="B36" s="104"/>
       <c r="C36" s="104"/>
       <c r="D36" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E36" s="4">
         <v>43817</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G36" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G36" s="113"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="104"/>
       <c r="B37" s="104"/>
       <c r="C37" s="104"/>
       <c r="D37" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="G37" s="111"/>
+        <v>505</v>
+      </c>
+      <c r="G37" s="113"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="104"/>
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
       <c r="D38" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E38" s="4">
         <v>43817</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G38" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="104"/>
       <c r="B39" s="104"/>
       <c r="C39" s="104"/>
       <c r="D39" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E39" s="4">
         <v>43817</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G39" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="104"/>
       <c r="B40" s="104"/>
       <c r="C40" s="104"/>
       <c r="D40" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E40" s="4">
         <v>43817</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G40" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="104"/>
       <c r="D41" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="4">
         <v>43817</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G41" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="104"/>
       <c r="B42" s="104"/>
       <c r="C42" s="104"/>
       <c r="D42" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E42" s="4">
         <v>43817</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="G42" s="111"/>
+        <v>502</v>
+      </c>
+      <c r="G42" s="113"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="104"/>
@@ -5840,7 +5954,7 @@
     <row r="44" spans="1:7">
       <c r="A44" s="104"/>
       <c r="B44" s="104"/>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="101" t="s">
         <v>262</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -5852,14 +5966,14 @@
       <c r="F44" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G44" s="113" t="s">
+      <c r="G44" s="106" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="104"/>
       <c r="B45" s="104"/>
-      <c r="C45" s="101"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="5" t="s">
         <v>265</v>
       </c>
@@ -5869,7 +5983,7 @@
       <c r="F45" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G45" s="114"/>
+      <c r="G45" s="107"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="104"/>
@@ -5884,7 +5998,7 @@
       <c r="F46" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G46" s="114"/>
+      <c r="G46" s="107"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="104"/>
@@ -5899,12 +6013,12 @@
       <c r="F47" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G47" s="115"/>
+      <c r="G47" s="108"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="104"/>
       <c r="B48" s="104"/>
-      <c r="C48" s="100" t="s">
+      <c r="C48" s="101" t="s">
         <v>281</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -5916,14 +6030,14 @@
       <c r="F48" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G48" s="113" t="s">
+      <c r="G48" s="106" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="104"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="101"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="5" t="s">
         <v>280</v>
       </c>
@@ -5933,7 +6047,7 @@
       <c r="F49" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="114"/>
+      <c r="G49" s="107"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="104"/>
@@ -5953,7 +6067,7 @@
     <row r="51" spans="1:7">
       <c r="A51" s="104"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="100" t="s">
+      <c r="C51" s="101" t="s">
         <v>285</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -5965,8 +6079,8 @@
       <c r="F51" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G51" s="113" t="s">
-        <v>599</v>
+      <c r="G51" s="106" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5974,20 +6088,20 @@
       <c r="B52" s="104"/>
       <c r="C52" s="105"/>
       <c r="D52" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E52" s="4">
         <v>43821</v>
       </c>
       <c r="F52" s="92" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G52" s="112"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="104"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="100" t="s">
+      <c r="C53" s="101" t="s">
         <v>289</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5999,8 +6113,8 @@
       <c r="F53" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="117" t="s">
-        <v>600</v>
+      <c r="G53" s="122" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6016,255 +6130,255 @@
       <c r="F54" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G54" s="118"/>
+      <c r="G54" s="123"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="104"/>
       <c r="B55" s="104"/>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="E55" s="4">
         <v>43804</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G55" s="113" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="G55" s="106" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="104"/>
       <c r="B56" s="104"/>
-      <c r="C56" s="102"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E56" s="4">
         <v>43804</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G56" s="115"/>
+        <v>340</v>
+      </c>
+      <c r="G56" s="108"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="104"/>
       <c r="B57" s="104"/>
-      <c r="C57" s="100" t="s">
+      <c r="C57" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="E57" s="4">
         <v>43805</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G57" s="113" t="s">
-        <v>363</v>
+        <v>345</v>
+      </c>
+      <c r="G57" s="106" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="104"/>
       <c r="B58" s="104"/>
-      <c r="C58" s="101"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E58" s="4">
         <v>43805</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G58" s="114"/>
+        <v>345</v>
+      </c>
+      <c r="G58" s="107"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="104"/>
       <c r="B59" s="104"/>
-      <c r="C59" s="101"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E59" s="4">
         <v>43805</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G59" s="114"/>
+        <v>345</v>
+      </c>
+      <c r="G59" s="107"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="104"/>
       <c r="B60" s="104"/>
       <c r="C60" s="104"/>
       <c r="D60" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E60" s="4">
         <v>43805</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="G60" s="111"/>
+        <v>364</v>
+      </c>
+      <c r="G60" s="113"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="104"/>
       <c r="B61" s="104"/>
       <c r="C61" s="105"/>
       <c r="D61" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E61" s="4">
         <v>43806</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G61" s="112"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="104"/>
       <c r="B62" s="104"/>
-      <c r="C62" s="123" t="s">
-        <v>439</v>
+      <c r="C62" s="120" t="s">
+        <v>438</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E62" s="4">
         <v>43812</v>
       </c>
       <c r="F62" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" s="106" t="s">
         <v>444</v>
-      </c>
-      <c r="G62" s="113" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
-      <c r="C63" s="124"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E63" s="4">
         <v>43812</v>
       </c>
       <c r="F63" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="G63" s="115"/>
+        <v>443</v>
+      </c>
+      <c r="G63" s="108"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="104"/>
       <c r="B64" s="104"/>
-      <c r="C64" s="123" t="s">
-        <v>450</v>
+      <c r="C64" s="120" t="s">
+        <v>449</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E64" s="4">
         <v>43812</v>
       </c>
       <c r="F64" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="G64" s="113" t="s">
-        <v>448</v>
+        <v>443</v>
+      </c>
+      <c r="G64" s="106" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="104"/>
       <c r="B65" s="104"/>
-      <c r="C65" s="124"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E65" s="4">
         <v>43812</v>
       </c>
       <c r="F65" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="G65" s="115"/>
+        <v>443</v>
+      </c>
+      <c r="G65" s="108"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
-      <c r="C66" s="125" t="s">
+      <c r="C66" s="126" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="E66" s="4">
         <v>43817</v>
       </c>
       <c r="F66" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G66" s="113" t="s">
-        <v>494</v>
+        <v>481</v>
+      </c>
+      <c r="G66" s="106" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="104"/>
       <c r="B67" s="104"/>
-      <c r="C67" s="126"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E67" s="4">
         <v>43817</v>
       </c>
       <c r="F67" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G67" s="114"/>
+        <v>481</v>
+      </c>
+      <c r="G67" s="107"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="105"/>
       <c r="B68" s="105"/>
       <c r="C68" s="105"/>
       <c r="D68" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" s="4">
         <v>43817</v>
       </c>
       <c r="F68" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G68" s="112"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="91"/>
       <c r="B69" s="91"/>
-      <c r="C69" s="119" t="s">
+      <c r="C69" s="124" t="s">
+        <v>600</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="E69" s="4">
         <v>43821</v>
       </c>
       <c r="F69" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G69" s="120" t="s">
-        <v>603</v>
+        <v>590</v>
+      </c>
+      <c r="G69" s="125" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6272,13 +6386,13 @@
       <c r="B70" s="91"/>
       <c r="C70" s="105"/>
       <c r="D70" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E70" s="4">
         <v>43821</v>
       </c>
       <c r="F70" s="92" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G70" s="112"/>
     </row>
@@ -6292,17 +6406,17 @@
       <c r="G71" s="30"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="102" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E72" s="7">
         <v>43812</v>
@@ -6315,8 +6429,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="105"/>
       <c r="D73" s="3" t="s">
         <v>6</v>
@@ -6327,14 +6441,14 @@
       <c r="F73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="113" t="s">
+      <c r="G73" s="106" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="108"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="100" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="101" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -6344,9 +6458,9 @@
         <v>43777</v>
       </c>
       <c r="F74" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="G74" s="114"/>
+        <v>363</v>
+      </c>
+      <c r="G74" s="107"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="104"/>
@@ -6359,52 +6473,52 @@
         <v>43777</v>
       </c>
       <c r="F75" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G75" s="111"/>
+        <v>481</v>
+      </c>
+      <c r="G75" s="113"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="104"/>
       <c r="B76" s="104"/>
       <c r="C76" s="104"/>
       <c r="D76" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E76" s="4">
         <v>43817</v>
       </c>
       <c r="F76" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G76" s="111"/>
+        <v>481</v>
+      </c>
+      <c r="G76" s="113"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="104"/>
       <c r="B77" s="104"/>
       <c r="C77" s="104"/>
       <c r="D77" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E77" s="4">
         <v>43817</v>
       </c>
       <c r="F77" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G77" s="111"/>
+        <v>481</v>
+      </c>
+      <c r="G77" s="113"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="104"/>
       <c r="B78" s="104"/>
       <c r="C78" s="105"/>
       <c r="D78" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E78" s="4">
         <v>43817</v>
       </c>
       <c r="F78" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G78" s="112"/>
     </row>
@@ -6412,7 +6526,7 @@
       <c r="A79" s="104"/>
       <c r="B79" s="104"/>
       <c r="C79" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4"/>
@@ -6423,26 +6537,26 @@
       <c r="A80" s="105"/>
       <c r="B80" s="105"/>
       <c r="C80" s="63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E80" s="4">
         <v>43815</v>
       </c>
       <c r="F80" s="63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="114" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="62"/>
@@ -6453,8 +6567,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="115"/>
       <c r="D82" s="3" t="s">
         <v>41</v>
       </c>
@@ -6493,81 +6607,81 @@
     <row r="85" spans="1:7">
       <c r="A85" s="104"/>
       <c r="B85" s="104"/>
-      <c r="C85" s="100" t="s">
+      <c r="C85" s="101" t="s">
+        <v>548</v>
+      </c>
+      <c r="D85" s="81" t="s">
         <v>549</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>550</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="76"/>
-      <c r="G85" s="113" t="s">
-        <v>556</v>
+      <c r="G85" s="106" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="104"/>
       <c r="B86" s="104"/>
-      <c r="C86" s="101"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="76"/>
-      <c r="G86" s="114"/>
+      <c r="G86" s="107"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="104"/>
       <c r="B87" s="104"/>
-      <c r="C87" s="101"/>
+      <c r="C87" s="102"/>
       <c r="D87" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="76"/>
-      <c r="G87" s="114"/>
+      <c r="G87" s="107"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="104"/>
       <c r="B88" s="104"/>
-      <c r="C88" s="101"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="76"/>
-      <c r="G88" s="114"/>
+      <c r="G88" s="107"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="104"/>
       <c r="B89" s="104"/>
-      <c r="C89" s="101"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="76"/>
-      <c r="G89" s="114"/>
+      <c r="G89" s="107"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="105"/>
       <c r="B90" s="105"/>
-      <c r="C90" s="102"/>
+      <c r="C90" s="103"/>
       <c r="D90" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="115"/>
+      <c r="G90" s="108"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="100" t="s">
+      <c r="B91" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="100" t="s">
+      <c r="C91" s="101" t="s">
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -6579,13 +6693,13 @@
       <c r="F91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="113" t="s">
+      <c r="G91" s="106" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="104"/>
-      <c r="B92" s="101"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="104"/>
       <c r="D92" s="5" t="s">
         <v>96</v>
@@ -6596,11 +6710,11 @@
       <c r="F92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G92" s="114"/>
+      <c r="G92" s="107"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="104"/>
-      <c r="B93" s="101"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="104"/>
       <c r="D93" s="5" t="s">
         <v>92</v>
@@ -6611,11 +6725,11 @@
       <c r="F93" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G93" s="114"/>
+      <c r="G93" s="107"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="104"/>
-      <c r="B94" s="101"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="104"/>
       <c r="D94" s="5" t="s">
         <v>137</v>
@@ -6624,9 +6738,9 @@
         <v>43794</v>
       </c>
       <c r="F94" s="76" t="s">
-        <v>557</v>
-      </c>
-      <c r="G94" s="115"/>
+        <v>556</v>
+      </c>
+      <c r="G94" s="108"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="104"/>
@@ -6641,14 +6755,14 @@
       <c r="C96" s="33"/>
       <c r="D96" s="5"/>
       <c r="E96" s="1"/>
-      <c r="G96" s="109" t="s">
+      <c r="G96" s="116" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="104"/>
       <c r="B97" s="104"/>
-      <c r="C97" s="107" t="s">
+      <c r="C97" s="114" t="s">
         <v>52</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -6660,12 +6774,12 @@
       <c r="F97" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G97" s="110"/>
+      <c r="G97" s="117"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="104"/>
       <c r="B98" s="104"/>
-      <c r="C98" s="108"/>
+      <c r="C98" s="115"/>
       <c r="D98" s="3" t="s">
         <v>55</v>
       </c>
@@ -6675,34 +6789,34 @@
       <c r="F98" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="110"/>
+      <c r="G98" s="117"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="104"/>
       <c r="B99" s="104"/>
-      <c r="C99" s="108"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E99" s="4">
         <v>43787</v>
       </c>
-      <c r="G99" s="110"/>
+      <c r="G99" s="117"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="104"/>
       <c r="B100" s="104"/>
-      <c r="C100" s="108"/>
+      <c r="C100" s="115"/>
       <c r="D100" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="G100" s="110"/>
+      <c r="G100" s="117"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="104"/>
       <c r="B101" s="104"/>
-      <c r="C101" s="108"/>
+      <c r="C101" s="115"/>
       <c r="D101" s="3" t="s">
         <v>63</v>
       </c>
@@ -6710,24 +6824,24 @@
       <c r="F101" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G101" s="110"/>
+      <c r="G101" s="117"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="104"/>
       <c r="B102" s="104"/>
-      <c r="C102" s="108"/>
+      <c r="C102" s="115"/>
       <c r="D102" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E102" s="4">
         <v>43788</v>
       </c>
-      <c r="G102" s="110"/>
+      <c r="G102" s="117"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="104"/>
       <c r="B103" s="104"/>
-      <c r="C103" s="108"/>
+      <c r="C103" s="115"/>
       <c r="D103" s="3" t="s">
         <v>78</v>
       </c>
@@ -6735,12 +6849,12 @@
       <c r="F103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G103" s="121"/>
+      <c r="G103" s="119"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="104"/>
       <c r="B104" s="104"/>
-      <c r="C104" s="122"/>
+      <c r="C104" s="118"/>
       <c r="D104" s="5" t="s">
         <v>76</v>
       </c>
@@ -6755,14 +6869,14 @@
       <c r="D105" s="5"/>
       <c r="E105" s="4"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="113" t="s">
+      <c r="G105" s="106" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="104"/>
       <c r="B106" s="104"/>
-      <c r="C106" s="107" t="s">
+      <c r="C106" s="114" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -6772,7 +6886,7 @@
       <c r="F106" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G106" s="111"/>
+      <c r="G106" s="113"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="104"/>
@@ -6787,7 +6901,7 @@
       <c r="F107" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G107" s="111"/>
+      <c r="G107" s="113"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="104"/>
@@ -6802,7 +6916,7 @@
       <c r="F108" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G108" s="111"/>
+      <c r="G108" s="113"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="104"/>
@@ -6815,7 +6929,7 @@
         <v>43802</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G109" s="112"/>
     </row>
@@ -6824,13 +6938,13 @@
       <c r="B110" s="104"/>
       <c r="C110" s="105"/>
       <c r="D110" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E110" s="4">
         <v>43804</v>
       </c>
       <c r="F110" s="71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G110" s="36"/>
     </row>
@@ -6841,14 +6955,14 @@
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
       <c r="F111" s="27"/>
-      <c r="G111" s="109" t="s">
+      <c r="G111" s="116" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="104"/>
       <c r="B112" s="104"/>
-      <c r="C112" s="100" t="s">
+      <c r="C112" s="101" t="s">
         <v>249</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -6860,12 +6974,12 @@
       <c r="F112" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G112" s="110"/>
+      <c r="G112" s="117"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="104"/>
       <c r="B113" s="104"/>
-      <c r="C113" s="101"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="5" t="s">
         <v>250</v>
       </c>
@@ -6875,12 +6989,12 @@
       <c r="F113" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G113" s="110"/>
+      <c r="G113" s="117"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="104"/>
       <c r="B114" s="104"/>
-      <c r="C114" s="101"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="5" t="s">
         <v>252</v>
       </c>
@@ -6890,12 +7004,12 @@
       <c r="F114" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G114" s="110"/>
+      <c r="G114" s="117"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="104"/>
       <c r="B115" s="104"/>
-      <c r="C115" s="101"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="5" t="s">
         <v>253</v>
       </c>
@@ -6905,12 +7019,12 @@
       <c r="F115" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G115" s="110"/>
+      <c r="G115" s="117"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="104"/>
       <c r="B116" s="104"/>
-      <c r="C116" s="101"/>
+      <c r="C116" s="102"/>
       <c r="D116" s="5" t="s">
         <v>254</v>
       </c>
@@ -6920,12 +7034,12 @@
       <c r="F116" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G116" s="110"/>
+      <c r="G116" s="117"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="104"/>
       <c r="B117" s="104"/>
-      <c r="C117" s="101"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="5" t="s">
         <v>255</v>
       </c>
@@ -6935,7 +7049,7 @@
       <c r="F117" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="G117" s="110"/>
+      <c r="G117" s="117"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="104"/>
@@ -6950,7 +7064,7 @@
       <c r="F118" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="121"/>
+      <c r="G118" s="119"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="104"/>
@@ -6963,7 +7077,7 @@
         <v>43801</v>
       </c>
       <c r="F119" s="71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -6977,101 +7091,101 @@
       <c r="G120" s="79"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="105"/>
-      <c r="B121" s="105"/>
+      <c r="A121" s="104"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="62"/>
       <c r="G121" s="62"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="84"/>
-      <c r="B122" s="84"/>
+      <c r="A122" s="104"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E122" s="4">
         <v>43819</v>
       </c>
       <c r="F122" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="100" t="s">
+      <c r="A123" s="105"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="100" t="s">
+        <v>624</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E123" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F123" s="100" t="s">
+        <v>616</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B123" s="100" t="s">
+      <c r="B124" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="46"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="104"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="100" t="s">
-        <v>367</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E124" s="7">
-        <v>43805</v>
-      </c>
-      <c r="F124" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="G124" s="113" t="s">
-        <v>366</v>
-      </c>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="46"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="104"/>
       <c r="B125" s="104"/>
-      <c r="C125" s="102"/>
+      <c r="C125" s="101" t="s">
+        <v>366</v>
+      </c>
       <c r="D125" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E125" s="7">
         <v>43805</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G125" s="112"/>
+      <c r="F125" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G125" s="106" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="104"/>
       <c r="B126" s="104"/>
-      <c r="C126" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E126" s="4">
-        <v>43788</v>
+      <c r="C126" s="103"/>
+      <c r="D126" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E126" s="7">
+        <v>43805</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="109" t="s">
-        <v>57</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G126" s="112"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="104"/>
@@ -7080,7 +7194,7 @@
         <v>58</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E127" s="4">
         <v>43788</v>
@@ -7088,140 +7202,142 @@
       <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="111"/>
+      <c r="G127" s="116" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="104"/>
       <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
+      <c r="C128" s="102" t="s">
+        <v>58</v>
+      </c>
       <c r="D128" s="3" t="s">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="E128" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F128" s="71" t="s">
-        <v>521</v>
-      </c>
-      <c r="G128" s="111"/>
+        <v>43788</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="113"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="104"/>
       <c r="B129" s="104"/>
       <c r="C129" s="104"/>
       <c r="D129" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E129" s="4">
         <v>43818</v>
       </c>
       <c r="F129" s="71" t="s">
-        <v>521</v>
-      </c>
-      <c r="G129" s="111"/>
+        <v>520</v>
+      </c>
+      <c r="G129" s="113"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="104"/>
       <c r="B130" s="104"/>
       <c r="C130" s="104"/>
       <c r="D130" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E130" s="4">
         <v>43818</v>
       </c>
       <c r="F130" s="71" t="s">
-        <v>521</v>
-      </c>
-      <c r="G130" s="111"/>
+        <v>520</v>
+      </c>
+      <c r="G130" s="113"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="104"/>
       <c r="B131" s="104"/>
       <c r="C131" s="104"/>
-      <c r="D131" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="111"/>
+      <c r="D131" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F131" s="71" t="s">
+        <v>520</v>
+      </c>
+      <c r="G131" s="113"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="104"/>
       <c r="B132" s="104"/>
       <c r="C132" s="104"/>
       <c r="D132" s="50" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="71"/>
-      <c r="G132" s="111"/>
+      <c r="G132" s="113"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="104"/>
       <c r="B133" s="104"/>
       <c r="C133" s="104"/>
       <c r="D133" s="50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="71"/>
-      <c r="G133" s="111"/>
+      <c r="G133" s="113"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="104"/>
       <c r="B134" s="104"/>
       <c r="C134" s="104"/>
       <c r="D134" s="50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="71"/>
-      <c r="G134" s="111"/>
+      <c r="G134" s="113"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="104"/>
       <c r="B135" s="104"/>
-      <c r="C135" s="105"/>
+      <c r="C135" s="104"/>
       <c r="D135" s="50" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="71"/>
-      <c r="G135" s="111"/>
+      <c r="G135" s="113"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="104"/>
       <c r="B136" s="104"/>
-      <c r="C136" s="70"/>
+      <c r="C136" s="105"/>
+      <c r="D136" s="50" t="s">
+        <v>527</v>
+      </c>
       <c r="E136" s="4"/>
-      <c r="G136" s="72"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="113"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="104"/>
       <c r="B137" s="104"/>
-      <c r="C137" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="109" t="s">
-        <v>99</v>
-      </c>
+      <c r="C137" s="70"/>
+      <c r="E137" s="4"/>
+      <c r="G137" s="72"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="104"/>
       <c r="B138" s="104"/>
-      <c r="C138" s="108"/>
+      <c r="C138" s="114" t="s">
+        <v>100</v>
+      </c>
       <c r="D138" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E138" s="4">
         <v>43789</v>
@@ -7229,182 +7345,182 @@
       <c r="F138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="111"/>
+      <c r="G138" s="116" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="104"/>
       <c r="B139" s="104"/>
-      <c r="C139" s="108"/>
+      <c r="C139" s="115"/>
       <c r="D139" s="3" t="s">
-        <v>529</v>
+        <v>101</v>
       </c>
       <c r="E139" s="4">
-        <v>43818</v>
+        <v>43789</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G139" s="111"/>
+        <v>5</v>
+      </c>
+      <c r="G139" s="113"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="104"/>
       <c r="B140" s="104"/>
-      <c r="C140" s="108"/>
+      <c r="C140" s="115"/>
       <c r="D140" s="3" t="s">
-        <v>248</v>
+        <v>528</v>
       </c>
       <c r="E140" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F140" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="G140" s="111"/>
+        <v>43818</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G140" s="113"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="104"/>
       <c r="B141" s="104"/>
-      <c r="C141" s="108"/>
+      <c r="C141" s="115"/>
       <c r="D141" s="3" t="s">
-        <v>531</v>
+        <v>248</v>
       </c>
       <c r="E141" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F141" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="G141" s="111"/>
+        <v>43789</v>
+      </c>
+      <c r="F141" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G141" s="113"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="104"/>
       <c r="B142" s="104"/>
-      <c r="C142" s="104"/>
+      <c r="C142" s="115"/>
       <c r="D142" s="3" t="s">
-        <v>371</v>
+        <v>530</v>
       </c>
       <c r="E142" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F142" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G142" s="111"/>
+        <v>43818</v>
+      </c>
+      <c r="F142" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="G142" s="113"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="104"/>
       <c r="B143" s="104"/>
       <c r="C143" s="104"/>
       <c r="D143" s="3" t="s">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="E143" s="4">
-        <v>43817</v>
+        <v>43805</v>
       </c>
       <c r="F143" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G143" s="111"/>
+        <v>481</v>
+      </c>
+      <c r="G143" s="113"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="104"/>
       <c r="B144" s="104"/>
-      <c r="C144" s="105"/>
+      <c r="C144" s="104"/>
       <c r="D144" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E144" s="4">
         <v>43817</v>
       </c>
       <c r="F144" s="66" t="s">
-        <v>482</v>
-      </c>
-      <c r="G144" s="112"/>
+        <v>481</v>
+      </c>
+      <c r="G144" s="113"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="104"/>
       <c r="B145" s="104"/>
-      <c r="C145" s="100" t="s">
-        <v>533</v>
-      </c>
+      <c r="C145" s="105"/>
       <c r="D145" s="3" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="E145" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F145" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="G145" s="109" t="s">
-        <v>536</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="F145" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G145" s="112"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="104"/>
       <c r="B146" s="104"/>
-      <c r="C146" s="101"/>
+      <c r="C146" s="101" t="s">
+        <v>532</v>
+      </c>
       <c r="D146" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E146" s="4">
         <v>43818</v>
       </c>
       <c r="F146" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="G146" s="110"/>
+        <v>529</v>
+      </c>
+      <c r="G146" s="116" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="105"/>
-      <c r="B147" s="105"/>
-      <c r="C147" s="105"/>
+      <c r="A147" s="104"/>
+      <c r="B147" s="104"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E147" s="4">
         <v>43818</v>
       </c>
       <c r="F147" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="G147" s="112"/>
+        <v>529</v>
+      </c>
+      <c r="G147" s="117"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="1"/>
+      <c r="A148" s="105"/>
+      <c r="B148" s="105"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E148" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F148" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="G148" s="112"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="107" t="s">
+      <c r="C149" s="62"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B149" s="107" t="s">
+      <c r="B150" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="107" t="s">
+      <c r="C150" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E149" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G149" s="109" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="104"/>
-      <c r="B150" s="104"/>
-      <c r="C150" s="108"/>
-      <c r="D150" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E150" s="4">
         <v>43788</v>
@@ -7412,14 +7528,16 @@
       <c r="F150" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G150" s="111"/>
+      <c r="G150" s="116" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="104"/>
       <c r="B151" s="104"/>
-      <c r="C151" s="108"/>
+      <c r="C151" s="115"/>
       <c r="D151" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E151" s="4">
         <v>43788</v>
@@ -7427,450 +7545,450 @@
       <c r="F151" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G151" s="111"/>
+      <c r="G151" s="113"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="104"/>
       <c r="B152" s="104"/>
-      <c r="C152" s="108"/>
+      <c r="C152" s="115"/>
       <c r="D152" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E152" s="4">
         <v>43788</v>
       </c>
-      <c r="F152" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G152" s="112"/>
+      <c r="F152" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="113"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="104"/>
       <c r="B153" s="104"/>
-      <c r="C153" s="105"/>
+      <c r="C153" s="115"/>
       <c r="D153" s="5" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="E153" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F153" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>381</v>
-      </c>
+        <v>43788</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G153" s="112"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="104"/>
       <c r="B154" s="104"/>
-      <c r="C154" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="105"/>
+      <c r="D154" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F154" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="E154" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F154" s="26"/>
-      <c r="G154" s="109" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="104"/>
       <c r="B155" s="104"/>
-      <c r="C155" s="100" t="s">
-        <v>222</v>
+      <c r="C155" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F155" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F155" s="26"/>
+      <c r="G155" s="116" t="s">
         <v>399</v>
       </c>
-      <c r="G155" s="110"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="104"/>
       <c r="B156" s="104"/>
-      <c r="C156" s="104"/>
+      <c r="C156" s="101" t="s">
+        <v>222</v>
+      </c>
       <c r="D156" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F156" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="E156" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F156" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="G156" s="111"/>
+      <c r="G156" s="117"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="104"/>
       <c r="B157" s="104"/>
       <c r="C157" s="104"/>
       <c r="D157" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E157" s="4">
         <v>43808</v>
       </c>
-      <c r="F157" s="59" t="s">
-        <v>430</v>
-      </c>
-      <c r="G157" s="111"/>
+      <c r="F157" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G157" s="113"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="104"/>
       <c r="B158" s="104"/>
       <c r="C158" s="104"/>
-      <c r="D158" s="5" t="s">
-        <v>429</v>
+      <c r="D158" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="E158" s="4">
         <v>43808</v>
       </c>
       <c r="F158" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="G158" s="112"/>
+        <v>429</v>
+      </c>
+      <c r="G158" s="113"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="104"/>
       <c r="B159" s="104"/>
-      <c r="C159" s="105"/>
+      <c r="C159" s="104"/>
       <c r="D159" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E159" s="4">
-        <v>43811</v>
-      </c>
-      <c r="F159" s="59"/>
-      <c r="G159" s="74"/>
+        <v>43808</v>
+      </c>
+      <c r="F159" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G159" s="112"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="104"/>
       <c r="B160" s="104"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="48" t="s">
+      <c r="C160" s="105"/>
+      <c r="D160" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E160" s="4">
+        <v>43811</v>
+      </c>
+      <c r="F160" s="59"/>
+      <c r="G160" s="74"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="104"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="75"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="105"/>
-      <c r="B161" s="105"/>
-      <c r="C161" s="48" t="s">
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="105"/>
+      <c r="B162" s="105"/>
+      <c r="C162" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E161" s="4">
+      <c r="E162" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="107" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="B162" s="107" t="s">
+      <c r="B163" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="108"/>
-      <c r="B163" s="108"/>
-      <c r="C163" s="100" t="s">
-        <v>475</v>
-      </c>
-      <c r="D163" s="5" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" s="115"/>
+      <c r="B164" s="115"/>
+      <c r="C164" s="101" t="s">
+        <v>474</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E164" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F164" s="66" t="s">
         <v>489</v>
       </c>
-      <c r="E163" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F163" s="66" t="s">
+      <c r="G164" s="116" t="s">
         <v>490</v>
       </c>
-      <c r="G163" s="109" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="108"/>
-      <c r="B164" s="108"/>
-      <c r="C164" s="101"/>
-      <c r="D164" s="5" t="s">
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="115"/>
+      <c r="B165" s="115"/>
+      <c r="C165" s="102"/>
+      <c r="D165" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E165" s="4">
+        <v>43820</v>
+      </c>
+      <c r="F165" s="88" t="s">
         <v>584</v>
       </c>
-      <c r="E164" s="4">
-        <v>43820</v>
-      </c>
-      <c r="F164" s="88" t="s">
-        <v>585</v>
-      </c>
-      <c r="G164" s="111"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="108"/>
-      <c r="B165" s="108"/>
-      <c r="C165" s="104"/>
-      <c r="D165" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E165" s="4">
+      <c r="G165" s="113"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="115"/>
+      <c r="B166" s="115"/>
+      <c r="C166" s="104"/>
+      <c r="D166" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E166" s="4">
         <v>43821</v>
       </c>
-      <c r="F165" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G165" s="111"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="108"/>
-      <c r="B166" s="108"/>
-      <c r="C166" s="104"/>
-      <c r="D166" s="98" t="s">
-        <v>586</v>
-      </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="89"/>
-      <c r="G166" s="111"/>
+      <c r="F166" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="G166" s="113"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="108"/>
-      <c r="B167" s="108"/>
+      <c r="A167" s="115"/>
+      <c r="B167" s="115"/>
       <c r="C167" s="104"/>
       <c r="D167" s="98" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="89"/>
-      <c r="G167" s="111"/>
+      <c r="G167" s="113"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="108"/>
-      <c r="B168" s="108"/>
+      <c r="A168" s="115"/>
+      <c r="B168" s="115"/>
       <c r="C168" s="104"/>
       <c r="D168" s="98" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="89"/>
-      <c r="G168" s="111"/>
+      <c r="G168" s="113"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="108"/>
-      <c r="B169" s="108"/>
+      <c r="A169" s="115"/>
+      <c r="B169" s="115"/>
       <c r="C169" s="104"/>
       <c r="D169" s="98" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="89"/>
-      <c r="G169" s="111"/>
+      <c r="G169" s="113"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="108"/>
-      <c r="B170" s="108"/>
-      <c r="C170" s="90"/>
-      <c r="D170" s="98"/>
+      <c r="A170" s="115"/>
+      <c r="B170" s="115"/>
+      <c r="C170" s="104"/>
+      <c r="D170" s="98" t="s">
+        <v>588</v>
+      </c>
       <c r="E170" s="4"/>
-      <c r="F170" s="92"/>
-      <c r="G170" s="94"/>
+      <c r="F170" s="89"/>
+      <c r="G170" s="113"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="108"/>
-      <c r="B171" s="108"/>
-      <c r="C171" s="107" t="s">
+      <c r="A171" s="115"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="90"/>
+      <c r="D171" s="98"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="94"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="115"/>
+      <c r="B172" s="115"/>
+      <c r="C172" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E172" s="4">
         <v>43797</v>
       </c>
-      <c r="F171" s="37" t="s">
+      <c r="F172" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="G171" s="109" t="s">
+      <c r="G172" s="116" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="108"/>
-      <c r="B172" s="108"/>
-      <c r="C172" s="104"/>
-      <c r="D172" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E172" s="4">
-        <v>43803</v>
-      </c>
-      <c r="F172" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="G172" s="111"/>
-    </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="108"/>
-      <c r="B173" s="108"/>
+      <c r="A173" s="115"/>
+      <c r="B173" s="115"/>
       <c r="C173" s="104"/>
       <c r="D173" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E173" s="4">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="G173" s="111"/>
+        <v>326</v>
+      </c>
+      <c r="G173" s="113"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="108"/>
-      <c r="B174" s="108"/>
+      <c r="A174" s="115"/>
+      <c r="B174" s="115"/>
       <c r="C174" s="104"/>
       <c r="D174" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E174" s="4">
         <v>43804</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="G174" s="111"/>
+        <v>326</v>
+      </c>
+      <c r="G174" s="113"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="108"/>
-      <c r="B175" s="108"/>
-      <c r="C175" s="105"/>
+      <c r="A175" s="115"/>
+      <c r="B175" s="115"/>
+      <c r="C175" s="104"/>
       <c r="D175" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E175" s="4">
         <v>43804</v>
       </c>
-      <c r="F175" s="78" t="s">
+      <c r="F175" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G175" s="113"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="115"/>
+      <c r="B176" s="115"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E176" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F176" s="78" t="s">
+        <v>557</v>
+      </c>
+      <c r="G176" s="113"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="115"/>
+      <c r="B177" s="115"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G175" s="111"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="108"/>
-      <c r="B176" s="108"/>
-      <c r="C176" s="77"/>
-      <c r="D176" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E176" s="4">
+      <c r="E177" s="4">
         <v>43819</v>
       </c>
-      <c r="F176" s="78" t="s">
-        <v>558</v>
-      </c>
-      <c r="G176" s="111"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="108"/>
-      <c r="B177" s="108"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="99"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="86"/>
+      <c r="F177" s="78" t="s">
+        <v>557</v>
+      </c>
+      <c r="G177" s="113"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="108"/>
-      <c r="B178" s="108"/>
-      <c r="C178" s="87" t="s">
+      <c r="A178" s="115"/>
+      <c r="B178" s="115"/>
+      <c r="C178" s="85"/>
+      <c r="D178" s="99"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="86"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="115"/>
+      <c r="B179" s="115"/>
+      <c r="C179" s="87" t="s">
+        <v>580</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E179" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F179" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="G179" s="86" t="s">
         <v>582</v>
       </c>
-      <c r="E178" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F178" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G178" s="86" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="108"/>
-      <c r="B179" s="108"/>
-      <c r="C179" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E179" s="4"/>
-      <c r="F179" s="39"/>
-      <c r="G179" s="86"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="108"/>
-      <c r="B180" s="108"/>
-      <c r="C180" s="43" t="s">
-        <v>333</v>
+      <c r="A180" s="115"/>
+      <c r="B180" s="115"/>
+      <c r="C180" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="39"/>
-      <c r="G180" s="41"/>
+      <c r="G180" s="86"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="108"/>
-      <c r="B181" s="108"/>
+      <c r="A181" s="115"/>
+      <c r="B181" s="115"/>
       <c r="C181" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E181" s="4"/>
-      <c r="F181" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G181" s="107" t="s">
-        <v>207</v>
-      </c>
+      <c r="F181" s="39"/>
+      <c r="G181" s="41"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="108"/>
-      <c r="B182" s="108"/>
-      <c r="C182" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E182" s="4">
-        <v>43799</v>
-      </c>
+      <c r="A182" s="115"/>
+      <c r="B182" s="115"/>
+      <c r="C182" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="E182" s="4"/>
       <c r="F182" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G182" s="108"/>
+      <c r="G182" s="114" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="108"/>
-      <c r="B183" s="108"/>
-      <c r="C183" s="108"/>
+      <c r="A183" s="115"/>
+      <c r="B183" s="115"/>
+      <c r="C183" s="114" t="s">
+        <v>204</v>
+      </c>
       <c r="D183" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E183" s="4">
         <v>43799</v>
@@ -7878,33 +7996,29 @@
       <c r="F183" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G183" s="108"/>
+      <c r="G183" s="115"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="108"/>
-      <c r="B184" s="108"/>
-      <c r="C184" s="108"/>
+      <c r="A184" s="115"/>
+      <c r="B184" s="115"/>
+      <c r="C184" s="115"/>
       <c r="D184" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E184" s="4">
         <v>43799</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G184" s="107" t="s">
-        <v>212</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G184" s="115"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="108"/>
-      <c r="B185" s="104"/>
-      <c r="C185" s="107" t="s">
-        <v>213</v>
-      </c>
+      <c r="A185" s="115"/>
+      <c r="B185" s="115"/>
+      <c r="C185" s="115"/>
       <c r="D185" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E185" s="4">
         <v>43799</v>
@@ -7912,14 +8026,18 @@
       <c r="F185" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="108"/>
+      <c r="G185" s="114" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="108"/>
+      <c r="A186" s="115"/>
       <c r="B186" s="104"/>
-      <c r="C186" s="108"/>
+      <c r="C186" s="114" t="s">
+        <v>213</v>
+      </c>
       <c r="D186" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E186" s="4">
         <v>43799</v>
@@ -7927,14 +8045,14 @@
       <c r="F186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="108"/>
+      <c r="G186" s="115"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="108"/>
+      <c r="A187" s="115"/>
       <c r="B187" s="104"/>
-      <c r="C187" s="108"/>
+      <c r="C187" s="115"/>
       <c r="D187" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E187" s="4">
         <v>43799</v>
@@ -7942,28 +8060,29 @@
       <c r="F187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="105"/>
+      <c r="G187" s="115"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="104"/>
+      <c r="A188" s="115"/>
       <c r="B188" s="104"/>
-      <c r="C188" s="104"/>
+      <c r="C188" s="115"/>
       <c r="D188" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E188" s="4">
-        <v>43800</v>
+        <v>43799</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G188" s="105"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="104"/>
       <c r="B189" s="104"/>
       <c r="C189" s="104"/>
       <c r="D189" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E189" s="4">
         <v>43800</v>
@@ -7975,534 +8094,511 @@
     <row r="190" spans="1:7">
       <c r="A190" s="104"/>
       <c r="B190" s="104"/>
-      <c r="C190" s="105"/>
+      <c r="C190" s="104"/>
       <c r="D190" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E190" s="4">
         <v>43800</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="104"/>
       <c r="B191" s="104"/>
-      <c r="C191" s="107" t="s">
-        <v>323</v>
-      </c>
+      <c r="C191" s="105"/>
       <c r="D191" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E191" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="E191" s="4">
+        <v>43800</v>
+      </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="104"/>
       <c r="B192" s="104"/>
-      <c r="C192" s="122"/>
+      <c r="C192" s="114" t="s">
+        <v>322</v>
+      </c>
       <c r="D192" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E192" s="4"/>
-      <c r="F192" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="104"/>
       <c r="B193" s="104"/>
-      <c r="C193" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="C193" s="118"/>
+      <c r="D193" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E193" s="4">
-        <v>43804</v>
+      <c r="G193" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="104"/>
       <c r="B194" s="104"/>
-      <c r="C194" s="100" t="s">
-        <v>438</v>
+      <c r="C194" s="40" t="s">
+        <v>325</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E194" s="7">
-        <v>43812</v>
-      </c>
-      <c r="F194" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="G194" s="109" t="s">
-        <v>442</v>
+        <v>334</v>
+      </c>
+      <c r="E194" s="4">
+        <v>43804</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="104"/>
       <c r="B195" s="104"/>
-      <c r="C195" s="104"/>
+      <c r="C195" s="101" t="s">
+        <v>437</v>
+      </c>
       <c r="D195" s="5" t="s">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="E195" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F195" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G195" s="111"/>
+        <v>43812</v>
+      </c>
+      <c r="F195" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G195" s="116" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="104"/>
       <c r="B196" s="104"/>
-      <c r="C196" s="105"/>
+      <c r="C196" s="104"/>
       <c r="D196" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E196" s="7">
         <v>43821</v>
       </c>
       <c r="F196" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G196" s="112"/>
+        <v>590</v>
+      </c>
+      <c r="G196" s="113"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="104"/>
       <c r="B197" s="104"/>
-      <c r="C197" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E197" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G197" s="113" t="s">
-        <v>470</v>
-      </c>
+      <c r="C197" s="105"/>
+      <c r="D197" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E197" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F197" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="G197" s="112"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="104"/>
       <c r="B198" s="104"/>
-      <c r="C198" s="101"/>
+      <c r="C198" s="101" t="s">
+        <v>467</v>
+      </c>
       <c r="D198" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E198" s="4">
         <v>43815</v>
       </c>
-      <c r="F198" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="G198" s="114"/>
+      <c r="F198" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G198" s="106" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="105"/>
-      <c r="B199" s="105"/>
-      <c r="C199" s="105"/>
+      <c r="A199" s="104"/>
+      <c r="B199" s="104"/>
+      <c r="C199" s="102"/>
       <c r="D199" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E199" s="4">
         <v>43815</v>
       </c>
       <c r="F199" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="G199" s="112"/>
+        <v>455</v>
+      </c>
+      <c r="G199" s="107"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="91"/>
-      <c r="B200" s="91"/>
-      <c r="C200" s="97" t="s">
+      <c r="A200" s="105"/>
+      <c r="B200" s="105"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F200" s="63" t="s">
+        <v>455</v>
+      </c>
+      <c r="G200" s="112"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="91"/>
+      <c r="B201" s="91"/>
+      <c r="C201" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E201" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F201" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="G201" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="E200" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F200" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G200" s="95" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="C201" s="33" t="s">
+    </row>
+    <row r="202" spans="1:7">
+      <c r="C202" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E201" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F201" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="84"/>
-      <c r="C202" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E202" s="4">
         <v>43802</v>
       </c>
+      <c r="F202" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="100" t="s">
+      <c r="A203" s="84"/>
+      <c r="C203" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E203" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B203" s="107" t="s">
+      <c r="B204" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="C203" s="107" t="s">
+      <c r="C204" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="D204" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E204" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F204" s="100" t="s">
+        <v>623</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="104"/>
-      <c r="B204" s="104"/>
-      <c r="C204" s="122"/>
-      <c r="D204" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="104"/>
       <c r="B205" s="104"/>
-      <c r="C205" s="107" t="s">
-        <v>312</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>313</v>
+      <c r="C205" s="118"/>
+      <c r="D205" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="F205" s="49" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="104"/>
       <c r="B206" s="104"/>
-      <c r="C206" s="122"/>
+      <c r="C206" s="114" t="s">
+        <v>311</v>
+      </c>
       <c r="D206" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="104"/>
       <c r="B207" s="104"/>
-      <c r="C207" s="107" t="s">
-        <v>315</v>
-      </c>
+      <c r="C207" s="118"/>
       <c r="D207" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="104"/>
       <c r="B208" s="104"/>
-      <c r="C208" s="122"/>
+      <c r="C208" s="114" t="s">
+        <v>314</v>
+      </c>
       <c r="D208" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="105"/>
-      <c r="B209" s="105"/>
-      <c r="C209" s="2" t="s">
+      <c r="A209" s="104"/>
+      <c r="B209" s="104"/>
+      <c r="C209" s="118"/>
+      <c r="D209" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="105"/>
+      <c r="B210" s="105"/>
+      <c r="C210" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E210" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F210" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="G210" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D209" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E209" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F209" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="63" t="s">
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="B211" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C211" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="C210" s="48" t="s">
+      <c r="D211" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="D210" s="50" t="s">
+      <c r="E211" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G211" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E210" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="107" t="s">
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="B213" s="114" t="s">
+        <v>458</v>
+      </c>
+      <c r="C213" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="B212" s="107" t="s">
-        <v>459</v>
-      </c>
-      <c r="C212" s="107" t="s">
+      <c r="D213" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E212" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G212" s="109" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="108"/>
-      <c r="B213" s="108"/>
-      <c r="C213" s="108"/>
-      <c r="D213" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="E213" s="4">
         <v>43815</v>
       </c>
       <c r="F213" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G213" s="116" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="115"/>
+      <c r="B214" s="115"/>
+      <c r="C214" s="115"/>
+      <c r="D214" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="G213" s="110"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="108"/>
-      <c r="B214" s="108"/>
-      <c r="C214" s="108"/>
-      <c r="D214" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="E214" s="4">
         <v>43815</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G214" s="110"/>
+        <v>455</v>
+      </c>
+      <c r="G214" s="117"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="108"/>
-      <c r="B215" s="108"/>
-      <c r="C215" s="104"/>
+      <c r="A215" s="115"/>
+      <c r="B215" s="115"/>
+      <c r="C215" s="115"/>
       <c r="D215" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E215" s="4">
         <v>43815</v>
       </c>
-      <c r="F215" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="G215" s="111"/>
+      <c r="F215" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G215" s="117"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="108"/>
-      <c r="B216" s="108"/>
-      <c r="C216" s="105"/>
+      <c r="A216" s="115"/>
+      <c r="B216" s="115"/>
+      <c r="C216" s="104"/>
       <c r="D216" s="3" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="E216" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F216" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G216" s="113"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="115"/>
+      <c r="B217" s="115"/>
+      <c r="C217" s="105"/>
+      <c r="D217" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E217" s="4">
         <v>43819</v>
       </c>
-      <c r="F216" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="G216" s="112"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="104"/>
-      <c r="B217" s="104"/>
-      <c r="C217" s="100" t="s">
-        <v>461</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E217" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F217" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="G217" s="109" t="s">
-        <v>464</v>
-      </c>
+      <c r="F217" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="G217" s="112"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="104"/>
       <c r="B218" s="104"/>
-      <c r="C218" s="104"/>
+      <c r="C218" s="101" t="s">
+        <v>460</v>
+      </c>
       <c r="D218" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E218" s="4">
         <v>43815</v>
       </c>
       <c r="F218" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G218" s="116" t="s">
         <v>463</v>
       </c>
-      <c r="G218" s="110"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="104"/>
       <c r="B219" s="104"/>
       <c r="C219" s="104"/>
       <c r="D219" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E219" s="4">
         <v>43815</v>
       </c>
       <c r="F219" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="G219" s="110"/>
+        <v>462</v>
+      </c>
+      <c r="G219" s="117"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="105"/>
-      <c r="B220" s="105"/>
-      <c r="C220" s="105"/>
+      <c r="A220" s="104"/>
+      <c r="B220" s="104"/>
+      <c r="C220" s="104"/>
       <c r="D220" s="3" t="s">
-        <v>569</v>
+        <v>465</v>
       </c>
       <c r="E220" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F220" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G220" s="117"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="105"/>
+      <c r="B221" s="105"/>
+      <c r="C221" s="105"/>
+      <c r="D221" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E221" s="4">
         <v>43819</v>
       </c>
-      <c r="F220" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="G220" s="112"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="2" t="s">
+      <c r="F221" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="G221" s="112"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E222" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E221" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="G111:G118"/>
-    <mergeCell ref="C112:C119"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="B212:B220"/>
-    <mergeCell ref="A212:A220"/>
-    <mergeCell ref="G217:G220"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="A162:A199"/>
-    <mergeCell ref="B162:B199"/>
-    <mergeCell ref="A203:A209"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="A123:A147"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="G181:G183"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="B203:B209"/>
-    <mergeCell ref="G154:G158"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="G85:G90"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="G137:G144"/>
-    <mergeCell ref="G126:G135"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B91:B121"/>
-    <mergeCell ref="C137:C144"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="C29:C42"/>
-    <mergeCell ref="G29:G42"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G96:G103"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="A91:A121"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="A149:A161"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="B123:B147"/>
-    <mergeCell ref="B149:B161"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B91:B123"/>
+    <mergeCell ref="A91:A123"/>
+    <mergeCell ref="G195:G197"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="G164:G170"/>
+    <mergeCell ref="G73:G78"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="C66:C68"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B68"/>
     <mergeCell ref="A3:A68"/>
@@ -8519,22 +8615,68 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="G194:G196"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="G163:G169"/>
-    <mergeCell ref="G73:G78"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B204:B210"/>
+    <mergeCell ref="G155:G159"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="G85:G90"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="G138:G145"/>
+    <mergeCell ref="G127:G136"/>
+    <mergeCell ref="C138:C145"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="G96:G103"/>
+    <mergeCell ref="A124:A148"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="G182:G184"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="C127:C136"/>
+    <mergeCell ref="A150:A162"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="B124:B148"/>
+    <mergeCell ref="B150:B162"/>
+    <mergeCell ref="C150:C154"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="G111:G118"/>
+    <mergeCell ref="C112:C119"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="B213:B221"/>
+    <mergeCell ref="A213:A221"/>
+    <mergeCell ref="G218:G221"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="G213:G217"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="A163:A200"/>
+    <mergeCell ref="B163:B200"/>
+    <mergeCell ref="A204:A210"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="G172:G177"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="G198:G200"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="G185:G188"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="G29:G42"/>
+    <mergeCell ref="C195:C197"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8545,93 +8687,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15"/>
-    <col min="4" max="4" width="48.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="78.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="78.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="15" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="17">
+      <c r="D3" s="17">
         <v>43800</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="F3" s="128" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="D2" s="18" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="17">
+      <c r="D4" s="17">
         <v>43800</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="128"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="D3" s="29" t="s">
+      <c r="F4" s="129"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="17">
+      <c r="D5" s="17">
         <v>43800</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="128"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="D4" s="29" t="s">
+      <c r="F5" s="129"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="17">
+      <c r="D6" s="17">
         <v>43800</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="128"/>
+      <c r="F6" s="129"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="124" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D8" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F8" s="135" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F9" s="136"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D10" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F10" s="136"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F11" s="136"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D12" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="F12" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A1:A4"/>
+  <mergeCells count="6">
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="2400" verticalDpi="2400" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8656,13 +8892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="124" t="s">
         <v>276</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -8711,33 +8947,33 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="133"/>
+      <c r="D5" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="134"/>
+      <c r="D6" s="16" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="132"/>
-      <c r="D5" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="133"/>
-      <c r="D6" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="130" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -8745,33 +8981,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -8779,7 +9015,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="132" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -8789,7 +9025,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="132"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -8797,7 +9033,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="133"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -8811,10 +9047,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="124" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="15" t="s">

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="653">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,10 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CS系统版本自动升级软件V1.0.pdf</t>
   </si>
   <si>
@@ -1360,17 +1356,8 @@
     <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\LoRa劳拉</t>
   </si>
   <si>
-    <t>基于LoRa的组网设计方案.pdf</t>
-  </si>
-  <si>
     <t>2.4G无线</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nRF24L01无线模块讲解解析.pdf</t>
-  </si>
-  <si>
-    <t>NRF24L01模块使用说明.pdf</t>
   </si>
   <si>
     <t>NB-IoT</t>
@@ -2699,8 +2686,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>P</t>
+    <t>RD-基于LoRa的组网设计方案.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-Lora和Zigbee比较.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-基于STM32超低功耗单片机的LoRa及NB-IoT应用.pdf</t>
+  </si>
+  <si>
+    <t>恒流源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-LM317线性恒流源驱动大功率LED.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -2709,9 +2717,176 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\5-电源电路\恒流源</t>
+  </si>
+  <si>
+    <t>RD-大功率激光二极管驱动电路.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NRF24L01模块使用说明.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\2.4G无线</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nRF24L01无线模块讲解解析.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-An ultrahigh stability, low-noise laser current driver with digital control.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-电流源驱动激光二极管.pdf</t>
+  </si>
+  <si>
+    <t>激光二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-Sharp激光二极管选型表.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\0-基础元件\激光二极管</t>
+  </si>
+  <si>
+    <t>RD-激光二极管驱动基础.pdf</t>
+  </si>
+  <si>
+    <t>RD-NICHIA蓝色激光二极管NUBM08.pdf</t>
+  </si>
+  <si>
+    <t>RD-基本电流源.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C卡-CPU卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6种最常用恒流源电路的分析与比较.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-恒流源方案大全.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V转换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-4-20mA电流信号转成0-5V或0-10V电压信号.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\5-电源电路\IV转换</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +3001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3065,167 +3240,179 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3541,15 +3728,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3575,13 +3762,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="115" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3598,9 +3785,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3615,22 +3802,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="115" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3647,9 +3834,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3664,9 +3851,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3681,9 +3868,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3698,9 +3885,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3715,8 +3902,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -3724,77 +3911,77 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="101" t="s">
-        <v>574</v>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="105" t="s">
+        <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E12" s="4">
         <v>43819</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>575</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>576</v>
+        <v>571</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E13" s="4">
         <v>43819</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G13" s="107"/>
+        <v>556</v>
+      </c>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E14" s="7">
         <v>43819</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G14" s="107"/>
+        <v>556</v>
+      </c>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="103"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E15" s="4">
         <v>43819</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G15" s="108"/>
+        <v>556</v>
+      </c>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -3829,233 +4016,233 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="101" t="s">
-        <v>422</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>405</v>
+      <c r="A19" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E19" s="4">
         <v>43810</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>409</v>
+        <v>399</v>
+      </c>
+      <c r="G19" s="110" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="107"/>
+      <c r="G20" s="111"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E21" s="4">
         <v>43810</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G21" s="107"/>
+        <v>399</v>
+      </c>
+      <c r="G21" s="111"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E22" s="4">
         <v>43810</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G22" s="107"/>
+        <v>399</v>
+      </c>
+      <c r="G22" s="111"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E23" s="4">
         <v>43810</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G23" s="117"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E24" s="4">
         <v>43810</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G24" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G24" s="117"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E25" s="4">
         <v>43810</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G25" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G25" s="117"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E26" s="4">
         <v>43810</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G26" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G26" s="117"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E27" s="4">
         <v>43810</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G27" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G27" s="117"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E28" s="4">
         <v>43810</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G28" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G28" s="117"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E29" s="4">
         <v>43810</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G29" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G29" s="117"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E30" s="4">
         <v>43810</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G30" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E31" s="4">
         <v>43810</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G31" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G31" s="117"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E32" s="4">
         <v>43810</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G32" s="113"/>
+        <v>399</v>
+      </c>
+      <c r="G32" s="117"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E33" s="4">
         <v>43810</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G33" s="112"/>
+        <v>399</v>
+      </c>
+      <c r="G33" s="116"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4067,13 +4254,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="115" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -4085,14 +4272,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="110" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4102,12 +4289,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="107"/>
+      <c r="G36" s="111"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4117,12 +4304,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="107"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4132,22 +4319,22 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="107"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E39" s="4">
         <v>43811</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="G39" s="108"/>
+        <v>423</v>
+      </c>
+      <c r="G39" s="112"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4159,13 +4346,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="105" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4177,14 +4364,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="110" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4194,14 +4381,14 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="111"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
       <c r="D43" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E43" s="4">
         <v>43810</v>
@@ -4209,7 +4396,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="108"/>
+      <c r="G43" s="112"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4221,13 +4408,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="105" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4239,14 +4426,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="110" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="104"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="108"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4256,84 +4443,84 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="111"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="107"/>
+      <c r="G47" s="111"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E48" s="4">
         <v>43810</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G48" s="107"/>
+        <v>399</v>
+      </c>
+      <c r="G48" s="111"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E49" s="4">
         <v>43810</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="G49" s="112"/>
+        <v>421</v>
+      </c>
+      <c r="G49" s="116"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="110"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="105" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E51" s="7">
         <v>43805</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -4341,9 +4528,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="101" t="s">
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="105" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4355,14 +4542,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="111" t="s">
+      <c r="G53" s="115" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="102"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4372,12 +4559,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="111"/>
+      <c r="G54" s="115"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="102"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4387,12 +4574,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="111"/>
+      <c r="G55" s="115"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="102"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4402,12 +4589,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="111"/>
+      <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="104"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="102"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4417,12 +4604,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="111"/>
+      <c r="G57" s="115"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="104"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="102"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4432,12 +4619,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="111"/>
+      <c r="G58" s="115"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -4446,9 +4633,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -4457,8 +4644,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="104"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -4466,83 +4653,83 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="101" t="s">
-        <v>350</v>
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="105" t="s">
+        <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E62" s="7">
         <v>43805</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G62" s="106" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="G62" s="110" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="104"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="102"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="107"/>
+      <c r="G63" s="111"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="104"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
       <c r="D64" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E64" s="7">
         <v>43805</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="G64" s="107"/>
+        <v>351</v>
+      </c>
+      <c r="G64" s="111"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
       <c r="D65" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E65" s="7">
         <v>43805</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G65" s="107"/>
+        <v>341</v>
+      </c>
+      <c r="G65" s="111"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="104"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="105"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E66" s="7">
         <v>43805</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G66" s="108"/>
+        <v>341</v>
+      </c>
+      <c r="G66" s="112"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -4550,21 +4737,21 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="104"/>
-      <c r="B68" s="104"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="44"/>
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="104"/>
-      <c r="B69" s="104"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -4572,98 +4759,98 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="104"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="101" t="s">
-        <v>387</v>
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="105" t="s">
+        <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E70" s="7">
         <v>43807</v>
       </c>
       <c r="F70" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="G70" s="106" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="G70" s="110" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="104"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="102"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="106"/>
       <c r="D71" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E71" s="7">
         <v>43807</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="G71" s="107"/>
+        <v>388</v>
+      </c>
+      <c r="G71" s="111"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="104"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
       <c r="D72" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E72" s="7">
         <v>43807</v>
       </c>
       <c r="F72" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="G72" s="107"/>
+        <v>388</v>
+      </c>
+      <c r="G72" s="111"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="104"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
       <c r="D73" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E73" s="7">
         <v>43807</v>
       </c>
       <c r="F73" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="G73" s="113"/>
+        <v>388</v>
+      </c>
+      <c r="G73" s="117"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="105"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="104"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="108"/>
       <c r="D74" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E74" s="7">
         <v>43807</v>
       </c>
       <c r="F74" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="G74" s="113"/>
+        <v>388</v>
+      </c>
+      <c r="G74" s="117"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="105"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E75" s="7">
         <v>43807</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="G75" s="112"/>
+        <v>388</v>
+      </c>
+      <c r="G75" s="116"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -4675,14 +4862,14 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="101" t="s">
+      <c r="B77" s="105" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>32</v>
@@ -4694,152 +4881,152 @@
         <v>7</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="104"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="101" t="s">
-        <v>475</v>
+      <c r="A78" s="108"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="105" t="s">
+        <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E78" s="4">
         <v>43816</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>478</v>
-      </c>
-      <c r="G78" s="106" t="s">
-        <v>479</v>
+        <v>474</v>
+      </c>
+      <c r="G78" s="110" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="104"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="105"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E79" s="4">
         <v>43816</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>478</v>
-      </c>
-      <c r="G79" s="108"/>
+        <v>474</v>
+      </c>
+      <c r="G79" s="112"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="104"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="101" t="s">
-        <v>321</v>
+      <c r="A80" s="108"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="105" t="s">
+        <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E80" s="4">
         <v>43817</v>
       </c>
       <c r="F80" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G80" s="106" t="s">
-        <v>482</v>
+        <v>477</v>
+      </c>
+      <c r="G80" s="110" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="104"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="102"/>
+      <c r="A81" s="108"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="106"/>
       <c r="D81" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E81" s="4">
         <v>43817</v>
       </c>
       <c r="F81" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G81" s="107"/>
+        <v>477</v>
+      </c>
+      <c r="G81" s="111"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="104"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
       <c r="D82" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E82" s="4">
         <v>43817</v>
       </c>
       <c r="F82" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G82" s="111"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1">
+      <c r="A83" s="108"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="G82" s="107"/>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="104"/>
-      <c r="B83" s="104"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="E83" s="4">
         <v>43817</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G83" s="112"/>
+        <v>477</v>
+      </c>
+      <c r="G83" s="116"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="105"/>
-      <c r="B84" s="104"/>
-      <c r="C84" s="101" t="s">
-        <v>401</v>
+      <c r="A84" s="109"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="105" t="s">
+        <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F84" s="66"/>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="103"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="68" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E85" s="69" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F85" s="55"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="110"/>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="101" t="s">
+      <c r="B87" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="114" t="s">
+      <c r="C87" s="118" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4851,31 +5038,31 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="116" t="s">
+      <c r="G87" s="120" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="102"/>
-      <c r="B88" s="102"/>
-      <c r="C88" s="115"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="106"/>
+      <c r="C88" s="119"/>
       <c r="D88" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E88" s="4">
         <v>43817</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G88" s="117"/>
+        <v>509</v>
+      </c>
+      <c r="G88" s="121"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="102"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="115"/>
+      <c r="A89" s="106"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="119"/>
       <c r="D89" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E89" s="4">
         <v>43788</v>
@@ -4883,71 +5070,71 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="117"/>
+      <c r="G89" s="121"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="102"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="104"/>
+      <c r="A90" s="106"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="108"/>
       <c r="D90" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E90" s="4">
         <v>43817</v>
       </c>
       <c r="F90" s="67" t="s">
-        <v>505</v>
-      </c>
-      <c r="G90" s="113"/>
+        <v>501</v>
+      </c>
+      <c r="G90" s="117"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="102"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="104"/>
+      <c r="A91" s="106"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="108"/>
       <c r="D91" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E91" s="4">
         <v>43818</v>
       </c>
       <c r="F91" s="71" t="s">
-        <v>513</v>
-      </c>
-      <c r="G91" s="113"/>
+        <v>509</v>
+      </c>
+      <c r="G91" s="117"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="102"/>
-      <c r="B92" s="102"/>
-      <c r="C92" s="104"/>
+      <c r="A92" s="106"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="108"/>
       <c r="D92" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E92" s="4">
         <v>43818</v>
       </c>
       <c r="F92" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="G92" s="117"/>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1">
+      <c r="A93" s="106"/>
+      <c r="B93" s="106"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="G92" s="113"/>
-    </row>
-    <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="102"/>
-      <c r="B93" s="102"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="E93" s="4">
         <v>43818</v>
       </c>
       <c r="F93" s="71" t="s">
-        <v>513</v>
-      </c>
-      <c r="G93" s="112"/>
+        <v>509</v>
+      </c>
+      <c r="G93" s="116"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="102"/>
-      <c r="B94" s="102"/>
+      <c r="A94" s="106"/>
+      <c r="B94" s="106"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -4965,9 +5152,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="102"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="101" t="s">
+      <c r="A95" s="106"/>
+      <c r="B95" s="106"/>
+      <c r="C95" s="105" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4984,9 +5171,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="102"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="103"/>
+      <c r="A96" s="106"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -4995,92 +5182,92 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="102"/>
-      <c r="B97" s="102"/>
+      <c r="A97" s="106"/>
+      <c r="B97" s="106"/>
       <c r="C97" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" s="4">
         <v>43798</v>
       </c>
       <c r="F97" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="G97" s="25" t="s">
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1">
+      <c r="A98" s="108"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="105" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="104"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="101" t="s">
+      <c r="D98" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="24"/>
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="104"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="102"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="24"/>
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="104"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="103"/>
+      <c r="A100" s="108"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="24"/>
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="105"/>
-      <c r="B101" s="105"/>
+      <c r="A101" s="109"/>
+      <c r="B101" s="109"/>
       <c r="C101" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" s="4">
         <v>43802</v>
       </c>
       <c r="F101" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="G101" s="25" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="110"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="110"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="110"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
+      <c r="G102" s="114"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="101" t="s">
+      <c r="B103" s="105" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5098,8 +5285,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="102"/>
-      <c r="B104" s="102"/>
+      <c r="A104" s="106"/>
+      <c r="B104" s="106"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5115,8 +5302,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="102"/>
-      <c r="B105" s="102"/>
+      <c r="A105" s="106"/>
+      <c r="B105" s="106"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5134,39 +5321,39 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="102"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="111" t="s">
-        <v>194</v>
+      <c r="A106" s="106"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="115" t="s">
+        <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="22"/>
       <c r="G106" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="102"/>
-      <c r="B107" s="102"/>
-      <c r="C107" s="111"/>
+      <c r="A107" s="106"/>
+      <c r="B107" s="106"/>
+      <c r="C107" s="115"/>
       <c r="D107" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="22"/>
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="101" t="s">
+      <c r="B109" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="101" t="s">
+      <c r="C109" s="105" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5183,9 +5370,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="102"/>
-      <c r="B110" s="102"/>
-      <c r="C110" s="102"/>
+      <c r="A110" s="106"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5197,9 +5384,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="102"/>
-      <c r="B111" s="102"/>
-      <c r="C111" s="102"/>
+      <c r="A111" s="106"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="106"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5211,9 +5398,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="102"/>
-      <c r="B112" s="102"/>
-      <c r="C112" s="102"/>
+      <c r="A112" s="106"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="106"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5294,10 +5481,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5313,15 +5500,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5347,13 +5534,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="105" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5365,44 +5552,44 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="110" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="102"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4">
         <v>43801</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="111"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="G4" s="107"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="E5" s="4">
         <v>43801</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="108"/>
+        <v>259</v>
+      </c>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="101" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="105" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5414,136 +5601,136 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="110" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="104"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E7" s="4">
         <v>43818</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="G7" s="113"/>
+        <v>534</v>
+      </c>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E8" s="4">
         <v>43818</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="G8" s="113"/>
+        <v>534</v>
+      </c>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="104"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E9" s="4">
         <v>43818</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="113"/>
+        <v>534</v>
+      </c>
+      <c r="G9" s="117"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="104"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="117"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="104"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="80" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="117"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="104"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="80" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="117"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="104"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="80" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="117"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="104"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="80" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="117"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="104"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="80" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="113"/>
+      <c r="G15" s="117"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="105"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="80" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="112"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="118" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5555,14 +5742,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="110" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5572,217 +5759,217 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="108"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E19" s="4">
         <v>43821</v>
       </c>
-      <c r="F19" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G19" s="96"/>
+      <c r="F19" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="114" t="s">
-        <v>224</v>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="118" t="s">
+        <v>223</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="4">
         <v>43800</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="4">
         <v>43800</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="113"/>
+        <v>219</v>
+      </c>
+      <c r="G21" s="117"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E22" s="4">
         <v>43818</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="G22" s="113"/>
+        <v>525</v>
+      </c>
+      <c r="G22" s="117"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E23" s="4">
         <v>43819</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G23" s="113"/>
+        <v>556</v>
+      </c>
+      <c r="G23" s="117"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E24" s="4">
         <v>43819</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G24" s="113"/>
+        <v>556</v>
+      </c>
+      <c r="G24" s="117"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E25" s="4">
         <v>43819</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G25" s="113"/>
+        <v>556</v>
+      </c>
+      <c r="G25" s="117"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E26" s="4">
         <v>43819</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G26" s="112"/>
+        <v>556</v>
+      </c>
+      <c r="G26" s="116"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="114" t="s">
-        <v>242</v>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="118" t="s">
+        <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="4">
         <v>43800</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="26"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="101" t="s">
-        <v>240</v>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="105" t="s">
+        <v>239</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="4">
         <v>43800</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="106" t="s">
-        <v>241</v>
+        <v>219</v>
+      </c>
+      <c r="G29" s="110" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E30" s="4">
         <v>43801</v>
       </c>
       <c r="F30" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="111"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="G30" s="107"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E31" s="4">
         <v>43801</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="107"/>
+        <v>243</v>
+      </c>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="4">
         <v>43801</v>
@@ -5790,14 +5977,14 @@
       <c r="F32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="4">
         <v>43801</v>
@@ -5805,1754 +5992,1762 @@
       <c r="F33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="107"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E34" s="4">
         <v>43805</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G34" s="113"/>
+        <v>369</v>
+      </c>
+      <c r="G34" s="117"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E35" s="4">
         <v>43817</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G35" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G35" s="117"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E36" s="4">
         <v>43817</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G36" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G36" s="117"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>505</v>
-      </c>
-      <c r="G37" s="113"/>
+        <v>501</v>
+      </c>
+      <c r="G37" s="117"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E38" s="4">
         <v>43817</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G38" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G38" s="117"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E39" s="4">
         <v>43817</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G39" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G39" s="117"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="104"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E40" s="4">
         <v>43817</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G40" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G40" s="117"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E41" s="4">
         <v>43817</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G41" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G41" s="117"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="104"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E42" s="4">
         <v>43817</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>502</v>
-      </c>
-      <c r="G42" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G42" s="117"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="104"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="71"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="105" t="s">
+        <v>639</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="101" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G44" s="117"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F45" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G45" s="116"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E46" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="4">
+      <c r="G46" s="110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="4">
         <v>43801</v>
       </c>
-      <c r="F44" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" s="106" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="104"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G45" s="107"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" s="107"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G47" s="108"/>
+      <c r="F47" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="111"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="101" t="s">
-        <v>281</v>
-      </c>
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E48" s="4">
         <v>43802</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48" s="106" t="s">
-        <v>282</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G48" s="111"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="102"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E49" s="4">
         <v>43802</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G49" s="107"/>
+        <v>271</v>
+      </c>
+      <c r="G49" s="112"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="105" t="s">
+        <v>280</v>
+      </c>
       <c r="D50" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E50" s="4">
         <v>43802</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="112"/>
+      <c r="F50" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="110" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="104"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="101" t="s">
-        <v>285</v>
-      </c>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E51" s="4">
         <v>43802</v>
       </c>
-      <c r="F51" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G51" s="106" t="s">
-        <v>598</v>
-      </c>
+      <c r="F51" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G51" s="111"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="5" t="s">
-        <v>596</v>
+        <v>283</v>
       </c>
       <c r="E52" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F52" s="92" t="s">
-        <v>597</v>
-      </c>
-      <c r="G52" s="112"/>
+        <v>43802</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="116"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="101" t="s">
-        <v>289</v>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="105" t="s">
+        <v>284</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E53" s="4">
         <v>43802</v>
       </c>
       <c r="F53" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G53" s="110" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="G54" s="116"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="122" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>43802</v>
       </c>
-      <c r="F54" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G54" s="123"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="F55" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" s="128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" s="129"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="108"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="105" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E57" s="4">
         <v>43804</v>
       </c>
-      <c r="F55" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="G55" s="106" t="s">
+      <c r="F57" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" s="110" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="104"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="E58" s="4">
         <v>43804</v>
       </c>
-      <c r="F56" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="G56" s="108"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="104"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="101" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E57" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G57" s="106" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="104"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E58" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G58" s="107"/>
+      <c r="F58" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G58" s="112"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="102"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="105" t="s">
+        <v>354</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E59" s="4">
         <v>43805</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="G59" s="107"/>
+        <v>341</v>
+      </c>
+      <c r="G59" s="110" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="5" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E60" s="4">
         <v>43805</v>
       </c>
-      <c r="F60" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="G60" s="113"/>
+      <c r="F60" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" s="111"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="104"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="5" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E61" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G61" s="111"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G62" s="117"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" s="4">
         <v>43806</v>
       </c>
-      <c r="F61" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="G61" s="112"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="120" t="s">
+      <c r="F63" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" s="116"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E62" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>443</v>
-      </c>
-      <c r="G62" s="106" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="104"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E63" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>443</v>
-      </c>
-      <c r="G63" s="108"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="104"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="120" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="E64" s="4">
         <v>43812</v>
       </c>
       <c r="F64" s="62" t="s">
-        <v>443</v>
-      </c>
-      <c r="G64" s="106" t="s">
-        <v>447</v>
+        <v>439</v>
+      </c>
+      <c r="G64" s="110" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="104"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="121"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E65" s="4">
         <v>43812</v>
       </c>
       <c r="F65" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G65" s="112"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" s="110" t="s">
         <v>443</v>
       </c>
-      <c r="G65" s="108"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="104"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="126" t="s">
-        <v>491</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E66" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F66" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G66" s="106" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="127"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="5" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="E67" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F67" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G67" s="107"/>
+        <v>43812</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" s="112"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="105"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="105"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="126" t="s">
+        <v>487</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E68" s="4">
         <v>43817</v>
       </c>
       <c r="F68" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G68" s="112"/>
+        <v>477</v>
+      </c>
+      <c r="G68" s="110" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="91"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="124" t="s">
-        <v>600</v>
-      </c>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="5" t="s">
-        <v>601</v>
+        <v>490</v>
       </c>
       <c r="E69" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G69" s="111"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="109"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G70" s="116"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="90"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="130" t="s">
+        <v>596</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E71" s="4">
         <v>43821</v>
       </c>
-      <c r="F69" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G69" s="125" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="91"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="F71" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G71" s="131" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E72" s="4">
         <v>43821</v>
       </c>
-      <c r="F70" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" s="112"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="114" t="s">
+      <c r="F72" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G72" s="116"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B74" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="102" t="s">
+      <c r="C74" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="D74" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E74" s="7">
         <v>43812</v>
       </c>
-      <c r="F72" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F74" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="115"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="3" t="s">
+    <row r="75" spans="1:7">
+      <c r="A75" s="119"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E75" s="4">
         <v>43802</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="106" t="s">
+      <c r="G75" s="110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="101" t="s">
+    <row r="76" spans="1:7">
+      <c r="A76" s="119"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E76" s="4">
         <v>43777</v>
       </c>
-      <c r="F74" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="G74" s="107"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="104"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="5" t="s">
+      <c r="F76" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G76" s="111"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="108"/>
+      <c r="B77" s="108"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E77" s="4">
         <v>43777</v>
       </c>
-      <c r="F75" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G75" s="113"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="104"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E76" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F76" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G76" s="113"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="104"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E77" s="4">
-        <v>43817</v>
-      </c>
       <c r="F77" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G77" s="113"/>
+        <v>477</v>
+      </c>
+      <c r="G77" s="117"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="104"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="105"/>
+      <c r="A78" s="108"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
       <c r="D78" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E78" s="4">
         <v>43817</v>
       </c>
       <c r="F78" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G78" s="112"/>
+        <v>477</v>
+      </c>
+      <c r="G78" s="117"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="104"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="64"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G79" s="117"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="105"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="63" t="s">
+      <c r="A80" s="108"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F80" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" s="116"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="108"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="109"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F82" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E80" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F80" s="63" t="s">
-        <v>455</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="114" t="s">
+      <c r="G82" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="114" t="s">
+      <c r="B83" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="G81" s="3" t="s">
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="G83" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
-      <c r="D82" s="3" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" s="119"/>
+      <c r="B84" s="119"/>
+      <c r="D84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E84" s="4">
         <v>43782</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="104"/>
-      <c r="B83" s="104"/>
-      <c r="D83" s="3" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="108"/>
+      <c r="B85" s="108"/>
+      <c r="D85" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E85" s="4">
         <v>43797</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="104"/>
-      <c r="B84" s="104"/>
-      <c r="D84" s="3" t="s">
+    <row r="86" spans="1:7">
+      <c r="A86" s="108"/>
+      <c r="B86" s="108"/>
+      <c r="D86" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E86" s="4">
         <v>43797</v>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="104"/>
-      <c r="B85" s="104"/>
-      <c r="C85" s="101" t="s">
-        <v>548</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="106" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="104"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="102"/>
-      <c r="D86" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="107"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="104"/>
-      <c r="B87" s="104"/>
-      <c r="C87" s="102"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="108"/>
+      <c r="C87" s="105" t="s">
+        <v>544</v>
+      </c>
       <c r="D87" s="81" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="76"/>
-      <c r="G87" s="107"/>
+      <c r="G87" s="110" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="104"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="102"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="106"/>
       <c r="D88" s="81" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="76"/>
-      <c r="G88" s="107"/>
+      <c r="G88" s="111"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="104"/>
-      <c r="B89" s="104"/>
-      <c r="C89" s="102"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="106"/>
       <c r="D89" s="81" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="76"/>
-      <c r="G89" s="107"/>
+      <c r="G89" s="111"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="105"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="103"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="106"/>
       <c r="D90" s="81" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="108"/>
+      <c r="G90" s="111"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="114" t="s">
+      <c r="A91" s="108"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="111"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="112"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="101" t="s">
+      <c r="B93" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="101" t="s">
+      <c r="C93" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E91" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91" s="106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="104"/>
-      <c r="B92" s="102"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G92" s="107"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="104"/>
-      <c r="B93" s="102"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E93" s="7">
         <v>43788</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93" s="110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="108"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="111"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="108"/>
+      <c r="B95" s="106"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G93" s="107"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="104"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="5" t="s">
+      <c r="G95" s="111"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="108"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E96" s="7">
         <v>43794</v>
       </c>
-      <c r="F94" s="76" t="s">
-        <v>556</v>
-      </c>
-      <c r="G94" s="108"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="104"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="105"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="104"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="1"/>
-      <c r="G96" s="116" t="s">
+      <c r="F96" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="G96" s="112"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="108"/>
+      <c r="B97" s="108"/>
+      <c r="C97" s="109"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="108"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="120" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="104"/>
-      <c r="B97" s="104"/>
-      <c r="C97" s="114" t="s">
+    <row r="99" spans="1:7">
+      <c r="A99" s="108"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E97" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" s="117"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="104"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="115"/>
-      <c r="D98" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G98" s="117"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="104"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="115"/>
-      <c r="D99" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E99" s="4">
         <v>43787</v>
       </c>
-      <c r="G99" s="117"/>
+      <c r="F99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="121"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="104"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="5" t="s">
+      <c r="A100" s="108"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="119"/>
+      <c r="D100" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="4">
+        <v>43787</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="121"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="108"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="4">
+        <v>43787</v>
+      </c>
+      <c r="G101" s="121"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="108"/>
+      <c r="B102" s="108"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="G100" s="117"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="104"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="115"/>
-      <c r="D101" s="3" t="s">
+      <c r="E102" s="4"/>
+      <c r="G102" s="121"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="108"/>
+      <c r="B103" s="108"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="2" t="s">
+      <c r="E103" s="4"/>
+      <c r="F103" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G101" s="117"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="104"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="3" t="s">
+      <c r="G103" s="121"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="108"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="119"/>
+      <c r="D104" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E102" s="4">
-        <v>43788</v>
-      </c>
-      <c r="G102" s="117"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="104"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G103" s="119"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="104"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E104" s="4">
         <v>43788</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="G104" s="121"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="104"/>
-      <c r="B105" s="104"/>
-      <c r="D105" s="5"/>
+      <c r="A105" s="108"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E105" s="4"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="106" t="s">
-        <v>298</v>
-      </c>
+      <c r="F105" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G105" s="123"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="104"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="114" t="s">
+      <c r="A106" s="108"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="122"/>
+      <c r="D106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="108"/>
+      <c r="B107" s="108"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="110" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="108"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G106" s="113"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="104"/>
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E107" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107" s="113"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="104"/>
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E108" s="4">
-        <v>43802</v>
-      </c>
+      <c r="E108" s="4"/>
       <c r="F108" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G108" s="113"/>
+        <v>286</v>
+      </c>
+      <c r="G108" s="117"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="104"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="104"/>
+      <c r="A109" s="108"/>
+      <c r="B109" s="108"/>
+      <c r="C109" s="108"/>
       <c r="D109" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E109" s="4">
         <v>43802</v>
       </c>
-      <c r="F109" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="G109" s="112"/>
+      <c r="F109" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="117"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="104"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="105"/>
+      <c r="A110" s="108"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
       <c r="D110" s="5" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="E110" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" s="117"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="108"/>
+      <c r="B111" s="108"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E111" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F111" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G111" s="116"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="108"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E112" s="4">
         <v>43804</v>
       </c>
-      <c r="F110" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="G110" s="36"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="104"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="104"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G112" s="117"/>
+      <c r="F112" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="G112" s="36"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="104"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="102"/>
-      <c r="D113" s="5" t="s">
+      <c r="A113" s="108"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="108"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E113" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G113" s="117"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="104"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="102"/>
-      <c r="D114" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="E114" s="4">
         <v>43801</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G114" s="117"/>
+        <v>243</v>
+      </c>
+      <c r="G114" s="121"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="104"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="102"/>
+      <c r="A115" s="108"/>
+      <c r="B115" s="108"/>
+      <c r="C115" s="106"/>
       <c r="D115" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E115" s="4">
         <v>43801</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G115" s="117"/>
+        <v>243</v>
+      </c>
+      <c r="G115" s="121"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="104"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="102"/>
+      <c r="A116" s="108"/>
+      <c r="B116" s="108"/>
+      <c r="C116" s="106"/>
       <c r="D116" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E116" s="4">
         <v>43801</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G116" s="117"/>
+        <v>243</v>
+      </c>
+      <c r="G116" s="121"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="104"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="102"/>
+      <c r="A117" s="108"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="106"/>
       <c r="D117" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E117" s="4">
         <v>43801</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G117" s="117"/>
+        <v>243</v>
+      </c>
+      <c r="G117" s="121"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="104"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="104"/>
+      <c r="A118" s="108"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="106"/>
       <c r="D118" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E118" s="4">
         <v>43801</v>
       </c>
-      <c r="F118" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="119"/>
+      <c r="F118" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G118" s="121"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="104"/>
-      <c r="B119" s="104"/>
-      <c r="C119" s="105"/>
+      <c r="A119" s="108"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="106"/>
       <c r="D119" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E119" s="4">
         <v>43801</v>
       </c>
-      <c r="F119" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="G119" s="38"/>
+      <c r="F119" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G119" s="121"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="104"/>
-      <c r="B120" s="104"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="79"/>
+      <c r="A120" s="108"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="123"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="104"/>
-      <c r="B121" s="104"/>
-      <c r="C121" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="A121" s="108"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="109"/>
       <c r="D121" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="62"/>
-      <c r="G121" s="62"/>
+        <v>256</v>
+      </c>
+      <c r="E121" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F121" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="104"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E122" s="4">
+      <c r="A122" s="108"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="79"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="108"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="108"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E124" s="4">
         <v>43819</v>
       </c>
-      <c r="F122" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="105"/>
-      <c r="B123" s="105"/>
-      <c r="C123" s="100" t="s">
-        <v>624</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E123" s="4">
+      <c r="F124" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="109"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="99" t="s">
+        <v>620</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E125" s="4">
         <v>43822</v>
       </c>
-      <c r="F123" s="100" t="s">
-        <v>616</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="101" t="s">
+      <c r="F125" s="99" t="s">
+        <v>612</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="101" t="s">
+      <c r="B126" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="46"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="104"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="101" t="s">
-        <v>366</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E125" s="7">
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="46"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="108"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E127" s="7">
         <v>43805</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F127" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G127" s="110" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="108"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G125" s="106" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="104"/>
-      <c r="B126" s="104"/>
-      <c r="C126" s="103"/>
-      <c r="D126" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E126" s="7">
+      <c r="E128" s="7">
         <v>43805</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G126" s="112"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="104"/>
-      <c r="B127" s="104"/>
-      <c r="C127" s="101" t="s">
+      <c r="G128" s="116"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="108"/>
+      <c r="B129" s="108"/>
+      <c r="C129" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E129" s="4">
         <v>43788</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="116" t="s">
+      <c r="G129" s="120" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="104"/>
-      <c r="B128" s="104"/>
-      <c r="C128" s="102" t="s">
+    <row r="130" spans="1:7">
+      <c r="A130" s="108"/>
+      <c r="B130" s="108"/>
+      <c r="C130" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E130" s="4">
         <v>43788</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="113"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="104"/>
-      <c r="B129" s="104"/>
-      <c r="C129" s="104"/>
-      <c r="D129" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E129" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F129" s="71" t="s">
-        <v>520</v>
-      </c>
-      <c r="G129" s="113"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="104"/>
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
-      <c r="D130" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E130" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F130" s="71" t="s">
-        <v>520</v>
-      </c>
-      <c r="G130" s="113"/>
+      <c r="G130" s="117"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="104"/>
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
+      <c r="A131" s="108"/>
+      <c r="B131" s="108"/>
+      <c r="C131" s="108"/>
       <c r="D131" s="3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E131" s="4">
         <v>43818</v>
       </c>
       <c r="F131" s="71" t="s">
-        <v>520</v>
-      </c>
-      <c r="G131" s="113"/>
+        <v>516</v>
+      </c>
+      <c r="G131" s="117"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="104"/>
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="50" t="s">
+      <c r="A132" s="108"/>
+      <c r="B132" s="108"/>
+      <c r="C132" s="108"/>
+      <c r="D132" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E132" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F132" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G132" s="117"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="108"/>
+      <c r="B133" s="108"/>
+      <c r="C133" s="108"/>
+      <c r="D133" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="113"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="104"/>
-      <c r="B133" s="104"/>
-      <c r="C133" s="104"/>
-      <c r="D133" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="113"/>
+      <c r="E133" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F133" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G133" s="117"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="104"/>
-      <c r="B134" s="104"/>
-      <c r="C134" s="104"/>
+      <c r="A134" s="108"/>
+      <c r="B134" s="108"/>
+      <c r="C134" s="108"/>
       <c r="D134" s="50" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="71"/>
-      <c r="G134" s="113"/>
+      <c r="G134" s="117"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="104"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
+      <c r="A135" s="108"/>
+      <c r="B135" s="108"/>
+      <c r="C135" s="108"/>
       <c r="D135" s="50" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="71"/>
-      <c r="G135" s="113"/>
+      <c r="G135" s="117"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="104"/>
-      <c r="B136" s="104"/>
-      <c r="C136" s="105"/>
+      <c r="A136" s="108"/>
+      <c r="B136" s="108"/>
+      <c r="C136" s="108"/>
       <c r="D136" s="50" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="71"/>
-      <c r="G136" s="113"/>
+      <c r="G136" s="117"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="104"/>
-      <c r="B137" s="104"/>
-      <c r="C137" s="70"/>
+      <c r="A137" s="108"/>
+      <c r="B137" s="108"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="50" t="s">
+        <v>521</v>
+      </c>
       <c r="E137" s="4"/>
-      <c r="G137" s="72"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="117"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="104"/>
-      <c r="B138" s="104"/>
-      <c r="C138" s="114" t="s">
+      <c r="A138" s="108"/>
+      <c r="B138" s="108"/>
+      <c r="C138" s="109"/>
+      <c r="D138" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="117"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="108"/>
+      <c r="B139" s="108"/>
+      <c r="C139" s="70"/>
+      <c r="E139" s="4"/>
+      <c r="G139" s="72"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="108"/>
+      <c r="B140" s="108"/>
+      <c r="C140" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E140" s="4">
         <v>43789</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="116" t="s">
+      <c r="G140" s="120" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="104"/>
-      <c r="B139" s="104"/>
-      <c r="C139" s="115"/>
-      <c r="D139" s="3" t="s">
+    <row r="141" spans="1:7">
+      <c r="A141" s="108"/>
+      <c r="B141" s="108"/>
+      <c r="C141" s="119"/>
+      <c r="D141" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E139" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="113"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="104"/>
-      <c r="B140" s="104"/>
-      <c r="C140" s="115"/>
-      <c r="D140" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E140" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G140" s="113"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="104"/>
-      <c r="B141" s="104"/>
-      <c r="C141" s="115"/>
-      <c r="D141" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E141" s="4">
         <v>43789</v>
       </c>
-      <c r="F141" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="G141" s="113"/>
+      <c r="F141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="117"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="104"/>
-      <c r="B142" s="104"/>
-      <c r="C142" s="115"/>
+      <c r="A142" s="108"/>
+      <c r="B142" s="108"/>
+      <c r="C142" s="119"/>
       <c r="D142" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E142" s="4">
         <v>43818</v>
       </c>
-      <c r="F142" s="73" t="s">
+      <c r="F142" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G142" s="117"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="108"/>
+      <c r="B143" s="108"/>
+      <c r="C143" s="119"/>
+      <c r="D143" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E143" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F143" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G143" s="117"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="108"/>
+      <c r="B144" s="108"/>
+      <c r="C144" s="119"/>
+      <c r="D144" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E144" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F144" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G144" s="117"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="108"/>
+      <c r="B145" s="108"/>
+      <c r="C145" s="108"/>
+      <c r="D145" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E145" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F145" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G145" s="117"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="108"/>
+      <c r="B146" s="108"/>
+      <c r="C146" s="108"/>
+      <c r="D146" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E146" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F146" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G146" s="117"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="108"/>
+      <c r="B147" s="108"/>
+      <c r="C147" s="109"/>
+      <c r="D147" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E147" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F147" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G147" s="116"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="108"/>
+      <c r="B148" s="108"/>
+      <c r="C148" s="105" t="s">
+        <v>528</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="G142" s="113"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="104"/>
-      <c r="B143" s="104"/>
-      <c r="C143" s="104"/>
-      <c r="D143" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E143" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F143" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G143" s="113"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="104"/>
-      <c r="B144" s="104"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E144" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F144" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G144" s="113"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="104"/>
-      <c r="B145" s="104"/>
-      <c r="C145" s="105"/>
-      <c r="D145" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E145" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G145" s="112"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="104"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="101" t="s">
-        <v>532</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E146" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F146" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="G146" s="116" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="104"/>
-      <c r="B147" s="104"/>
-      <c r="C147" s="102"/>
-      <c r="D147" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E147" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F147" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="G147" s="117"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="105"/>
-      <c r="B148" s="105"/>
-      <c r="C148" s="105"/>
-      <c r="D148" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E148" s="4">
         <v>43818</v>
       </c>
       <c r="F148" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="G148" s="112"/>
+        <v>525</v>
+      </c>
+      <c r="G148" s="120" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="C149" s="62"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="1"/>
+      <c r="A149" s="108"/>
+      <c r="B149" s="108"/>
+      <c r="C149" s="106"/>
+      <c r="D149" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E149" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F149" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G149" s="121"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="114" t="s">
+      <c r="A150" s="109"/>
+      <c r="B150" s="109"/>
+      <c r="C150" s="109"/>
+      <c r="D150" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E150" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F150" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G150" s="116"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="C151" s="62"/>
+      <c r="D151" s="62"/>
+      <c r="E151" s="62"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B150" s="114" t="s">
+      <c r="B152" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="114" t="s">
+      <c r="C152" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E150" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G150" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="104"/>
-      <c r="B151" s="104"/>
-      <c r="C151" s="115"/>
-      <c r="D151" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E151" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G151" s="113"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="104"/>
-      <c r="B152" s="104"/>
-      <c r="C152" s="115"/>
-      <c r="D152" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E152" s="4">
         <v>43788</v>
@@ -7560,1123 +7755,1341 @@
       <c r="F152" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G152" s="113"/>
+      <c r="G152" s="120" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="104"/>
-      <c r="B153" s="104"/>
-      <c r="C153" s="115"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="108"/>
+      <c r="C153" s="119"/>
       <c r="D153" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E153" s="4">
         <v>43788</v>
       </c>
-      <c r="F153" s="26" t="s">
+      <c r="F153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G153" s="117"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="108"/>
+      <c r="B154" s="108"/>
+      <c r="C154" s="119"/>
+      <c r="D154" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G154" s="117"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="108"/>
+      <c r="B155" s="108"/>
+      <c r="C155" s="119"/>
+      <c r="D155" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G155" s="116"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="108"/>
+      <c r="B156" s="108"/>
+      <c r="C156" s="109"/>
+      <c r="D156" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E156" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F156" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="108"/>
+      <c r="B157" s="108"/>
+      <c r="C157" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E157" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F157" s="26"/>
+      <c r="G157" s="120" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="108"/>
+      <c r="B158" s="108"/>
+      <c r="C158" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G153" s="112"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="104"/>
-      <c r="B154" s="104"/>
-      <c r="C154" s="105"/>
-      <c r="D154" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E154" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="104"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E155" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F155" s="26"/>
-      <c r="G155" s="116" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="104"/>
-      <c r="B156" s="104"/>
-      <c r="C156" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F156" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="G156" s="117"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="104"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E157" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F157" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="G157" s="113"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="104"/>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E158" s="4">
-        <v>43808</v>
-      </c>
-      <c r="F158" s="59" t="s">
-        <v>429</v>
-      </c>
-      <c r="G158" s="113"/>
+      <c r="F158" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G158" s="121"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="104"/>
-      <c r="B159" s="104"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="5" t="s">
-        <v>428</v>
+      <c r="A159" s="108"/>
+      <c r="B159" s="108"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E159" s="4">
         <v>43808</v>
       </c>
-      <c r="F159" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="G159" s="112"/>
+      <c r="F159" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G159" s="117"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="104"/>
-      <c r="B160" s="104"/>
-      <c r="C160" s="105"/>
-      <c r="D160" s="5" t="s">
-        <v>430</v>
+      <c r="A160" s="108"/>
+      <c r="B160" s="108"/>
+      <c r="C160" s="108"/>
+      <c r="D160" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="E160" s="4">
+        <v>43808</v>
+      </c>
+      <c r="F160" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="G160" s="117"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="108"/>
+      <c r="B161" s="108"/>
+      <c r="C161" s="108"/>
+      <c r="D161" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E161" s="4">
+        <v>43808</v>
+      </c>
+      <c r="F161" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G161" s="116"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="108"/>
+      <c r="B162" s="108"/>
+      <c r="C162" s="109"/>
+      <c r="D162" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E162" s="4">
         <v>43811</v>
       </c>
-      <c r="F160" s="59"/>
-      <c r="G160" s="74"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="104"/>
-      <c r="B161" s="104"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="105"/>
-      <c r="B162" s="105"/>
-      <c r="C162" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E162" s="4">
+      <c r="F162" s="59"/>
+      <c r="G162" s="74"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="108"/>
+      <c r="B163" s="108"/>
+      <c r="C163" s="75"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="108"/>
+      <c r="B164" s="108"/>
+      <c r="C164" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="114" t="s">
+    <row r="165" spans="1:7">
+      <c r="A165" s="108"/>
+      <c r="B165" s="108"/>
+      <c r="C165" s="105" t="s">
+        <v>628</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E165" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F165" s="100" t="s">
+        <v>630</v>
+      </c>
+      <c r="G165" s="120" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="108"/>
+      <c r="B166" s="108"/>
+      <c r="C166" s="106"/>
+      <c r="D166" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E166" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F166" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="G166" s="121"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="108"/>
+      <c r="B167" s="108"/>
+      <c r="C167" s="106"/>
+      <c r="D167" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E167" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F167" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G167" s="121"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="108"/>
+      <c r="B168" s="108"/>
+      <c r="C168" s="108"/>
+      <c r="D168" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E168" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F168" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G168" s="117"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="108"/>
+      <c r="B169" s="108"/>
+      <c r="C169" s="108"/>
+      <c r="D169" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E169" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F169" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="G169" s="117"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="108"/>
+      <c r="B170" s="108"/>
+      <c r="C170" s="108"/>
+      <c r="D170" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E170" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F170" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G170" s="117"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="109"/>
+      <c r="B171" s="109"/>
+      <c r="C171" s="109"/>
+      <c r="D171" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E171" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F171" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G171" s="116"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="101"/>
+      <c r="B172" s="101"/>
+      <c r="C172" s="104" t="s">
+        <v>650</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E172" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F172" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="G172" s="103" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="B163" s="114" t="s">
+      <c r="B173" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="115"/>
-      <c r="B164" s="115"/>
-      <c r="C164" s="101" t="s">
-        <v>474</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E164" s="4">
+      <c r="C173" s="105" t="s">
+        <v>470</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E173" s="4">
         <v>43817</v>
       </c>
-      <c r="F164" s="66" t="s">
-        <v>489</v>
-      </c>
-      <c r="G164" s="116" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="115"/>
-      <c r="B165" s="115"/>
-      <c r="C165" s="102"/>
-      <c r="D165" s="5" t="s">
+      <c r="F173" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G173" s="120" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="108"/>
+      <c r="B174" s="108"/>
+      <c r="C174" s="106"/>
+      <c r="D174" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E174" s="4">
+        <v>43820</v>
+      </c>
+      <c r="F174" s="87" t="s">
+        <v>580</v>
+      </c>
+      <c r="G174" s="117"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="108"/>
+      <c r="B175" s="108"/>
+      <c r="C175" s="108"/>
+      <c r="D175" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E175" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F175" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G175" s="117"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="108"/>
+      <c r="B176" s="108"/>
+      <c r="C176" s="108"/>
+      <c r="D176" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="88"/>
+      <c r="G176" s="117"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="108"/>
+      <c r="B177" s="108"/>
+      <c r="C177" s="108"/>
+      <c r="D177" s="97" t="s">
+        <v>582</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="117"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="108"/>
+      <c r="B178" s="108"/>
+      <c r="C178" s="108"/>
+      <c r="D178" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="E165" s="4">
-        <v>43820</v>
-      </c>
-      <c r="F165" s="88" t="s">
+      <c r="E178" s="4"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="117"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="108"/>
+      <c r="B179" s="108"/>
+      <c r="C179" s="108"/>
+      <c r="D179" s="97" t="s">
         <v>584</v>
       </c>
-      <c r="G165" s="113"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="115"/>
-      <c r="B166" s="115"/>
-      <c r="C166" s="104"/>
-      <c r="D166" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E166" s="4">
+      <c r="E179" s="4"/>
+      <c r="F179" s="88"/>
+      <c r="G179" s="117"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="108"/>
+      <c r="B180" s="108"/>
+      <c r="C180" s="89"/>
+      <c r="D180" s="97"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="91"/>
+      <c r="G180" s="93"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="108"/>
+      <c r="B181" s="108"/>
+      <c r="C181" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E181" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F181" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G181" s="120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="108"/>
+      <c r="B182" s="108"/>
+      <c r="C182" s="108"/>
+      <c r="D182" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43803</v>
+      </c>
+      <c r="F182" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G182" s="117"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="108"/>
+      <c r="B183" s="108"/>
+      <c r="C183" s="108"/>
+      <c r="D183" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F183" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G183" s="117"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="108"/>
+      <c r="B184" s="108"/>
+      <c r="C184" s="108"/>
+      <c r="D184" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F184" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G184" s="117"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="108"/>
+      <c r="B185" s="108"/>
+      <c r="C185" s="109"/>
+      <c r="D185" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F185" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="G185" s="117"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="108"/>
+      <c r="B186" s="108"/>
+      <c r="C186" s="77"/>
+      <c r="D186" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F186" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="G186" s="117"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="108"/>
+      <c r="B187" s="108"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="98"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="82"/>
+      <c r="G187" s="85"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="108"/>
+      <c r="B188" s="108"/>
+      <c r="C188" s="86" t="s">
+        <v>576</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E188" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F188" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G188" s="85" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="108"/>
+      <c r="B189" s="108"/>
+      <c r="C189" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="39"/>
+      <c r="G189" s="85"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="108"/>
+      <c r="B190" s="108"/>
+      <c r="C190" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="41"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="108"/>
+      <c r="B191" s="108"/>
+      <c r="C191" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G191" s="118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="108"/>
+      <c r="B192" s="108"/>
+      <c r="C192" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E192" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G192" s="119"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="108"/>
+      <c r="B193" s="108"/>
+      <c r="C193" s="119"/>
+      <c r="D193" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E193" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G193" s="119"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="108"/>
+      <c r="B194" s="108"/>
+      <c r="C194" s="119"/>
+      <c r="D194" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="118" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="108"/>
+      <c r="B195" s="108"/>
+      <c r="C195" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E195" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="119"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="108"/>
+      <c r="B196" s="108"/>
+      <c r="C196" s="119"/>
+      <c r="D196" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E196" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="119"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="108"/>
+      <c r="B197" s="108"/>
+      <c r="C197" s="119"/>
+      <c r="D197" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E197" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="109"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="108"/>
+      <c r="B198" s="108"/>
+      <c r="C198" s="108"/>
+      <c r="D198" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E198" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="108"/>
+      <c r="B199" s="108"/>
+      <c r="C199" s="108"/>
+      <c r="D199" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E199" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="108"/>
+      <c r="B200" s="108"/>
+      <c r="C200" s="109"/>
+      <c r="D200" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="108"/>
+      <c r="B201" s="108"/>
+      <c r="C201" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="108"/>
+      <c r="B202" s="108"/>
+      <c r="C202" s="122"/>
+      <c r="D202" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="108"/>
+      <c r="B203" s="108"/>
+      <c r="C203" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E203" s="4">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="108"/>
+      <c r="B204" s="108"/>
+      <c r="C204" s="105" t="s">
+        <v>433</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E204" s="7">
+        <v>43812</v>
+      </c>
+      <c r="F204" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="G204" s="120" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="108"/>
+      <c r="B205" s="108"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E205" s="7">
         <v>43821</v>
       </c>
-      <c r="F166" s="92" t="s">
+      <c r="F205" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G205" s="117"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="108"/>
+      <c r="B206" s="108"/>
+      <c r="C206" s="109"/>
+      <c r="D206" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E206" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F206" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G206" s="116"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="108"/>
+      <c r="B207" s="108"/>
+      <c r="C207" s="105" t="s">
+        <v>463</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E207" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F207" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G207" s="110" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="108"/>
+      <c r="B208" s="108"/>
+      <c r="C208" s="106"/>
+      <c r="D208" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E208" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F208" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G208" s="111"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="108"/>
+      <c r="B209" s="108"/>
+      <c r="C209" s="109"/>
+      <c r="D209" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E209" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F209" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G209" s="116"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="109"/>
+      <c r="B210" s="109"/>
+      <c r="C210" s="96" t="s">
+        <v>589</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="G166" s="113"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="115"/>
-      <c r="B167" s="115"/>
-      <c r="C167" s="104"/>
-      <c r="D167" s="98" t="s">
-        <v>585</v>
-      </c>
-      <c r="E167" s="4"/>
-      <c r="F167" s="89"/>
-      <c r="G167" s="113"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="115"/>
-      <c r="B168" s="115"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="98" t="s">
+      <c r="E210" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F210" s="91" t="s">
         <v>586</v>
       </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="89"/>
-      <c r="G168" s="113"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="115"/>
-      <c r="B169" s="115"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="98" t="s">
-        <v>587</v>
-      </c>
-      <c r="E169" s="4"/>
-      <c r="F169" s="89"/>
-      <c r="G169" s="113"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="115"/>
-      <c r="B170" s="115"/>
-      <c r="C170" s="104"/>
-      <c r="D170" s="98" t="s">
-        <v>588</v>
-      </c>
-      <c r="E170" s="4"/>
-      <c r="F170" s="89"/>
-      <c r="G170" s="113"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="115"/>
-      <c r="B171" s="115"/>
-      <c r="C171" s="90"/>
-      <c r="D171" s="98"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="92"/>
-      <c r="G171" s="94"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="115"/>
-      <c r="B172" s="115"/>
-      <c r="C172" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E172" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F172" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G172" s="116" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="115"/>
-      <c r="B173" s="115"/>
-      <c r="C173" s="104"/>
-      <c r="D173" s="3" t="s">
+      <c r="G210" s="94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="105" t="s">
+        <v>646</v>
+      </c>
+      <c r="B211" s="105" t="s">
+        <v>645</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E211" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F211" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="109"/>
+      <c r="B212" s="109"/>
+      <c r="C212" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B213" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="E173" s="4">
-        <v>43803</v>
-      </c>
-      <c r="F173" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="G173" s="113"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="115"/>
-      <c r="B174" s="115"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E174" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F174" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="G174" s="113"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="115"/>
-      <c r="B175" s="115"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E175" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F175" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="G175" s="113"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="115"/>
-      <c r="B176" s="115"/>
-      <c r="C176" s="105"/>
-      <c r="D176" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E176" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F176" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="G176" s="113"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="115"/>
-      <c r="B177" s="115"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E177" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F177" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="G177" s="113"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="115"/>
-      <c r="B178" s="115"/>
-      <c r="C178" s="85"/>
-      <c r="D178" s="99"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="82"/>
-      <c r="G178" s="86"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="115"/>
-      <c r="B179" s="115"/>
-      <c r="C179" s="87" t="s">
-        <v>580</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E179" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F179" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G179" s="86" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="115"/>
-      <c r="B180" s="115"/>
-      <c r="C180" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="86"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="115"/>
-      <c r="B181" s="115"/>
-      <c r="C181" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="E181" s="4"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="41"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="115"/>
-      <c r="B182" s="115"/>
-      <c r="C182" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="E182" s="4"/>
-      <c r="F182" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G182" s="114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="115"/>
-      <c r="B183" s="115"/>
-      <c r="C183" s="114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E183" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G183" s="115"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="115"/>
-      <c r="B184" s="115"/>
-      <c r="C184" s="115"/>
-      <c r="D184" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E184" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G184" s="115"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="115"/>
-      <c r="B185" s="115"/>
-      <c r="C185" s="115"/>
-      <c r="D185" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E185" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F185" s="2" t="s">
+      <c r="C213" s="118" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F213" s="99" t="s">
+        <v>619</v>
+      </c>
+      <c r="G213" s="120" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="108"/>
+      <c r="B214" s="108"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E214" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F214" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="114" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="115"/>
-      <c r="B186" s="104"/>
-      <c r="C186" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E186" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F186" s="2" t="s">
+      <c r="G214" s="121"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="108"/>
+      <c r="B215" s="108"/>
+      <c r="C215" s="108"/>
+      <c r="D215" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E215" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F215" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="115"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="115"/>
-      <c r="B187" s="104"/>
-      <c r="C187" s="115"/>
-      <c r="D187" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E187" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G187" s="115"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="115"/>
-      <c r="B188" s="104"/>
-      <c r="C188" s="115"/>
-      <c r="D188" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E188" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G188" s="105"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="104"/>
-      <c r="B189" s="104"/>
-      <c r="C189" s="104"/>
-      <c r="D189" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E189" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="104"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E190" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="104"/>
-      <c r="B191" s="104"/>
-      <c r="C191" s="105"/>
-      <c r="D191" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E191" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="104"/>
-      <c r="B192" s="104"/>
-      <c r="C192" s="114" t="s">
-        <v>322</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="104"/>
-      <c r="B193" s="104"/>
-      <c r="C193" s="118"/>
-      <c r="D193" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="104"/>
-      <c r="B194" s="104"/>
-      <c r="C194" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E194" s="4">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="104"/>
-      <c r="B195" s="104"/>
-      <c r="C195" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="E195" s="7">
-        <v>43812</v>
-      </c>
-      <c r="F195" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="G195" s="116" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="104"/>
-      <c r="B196" s="104"/>
-      <c r="C196" s="104"/>
-      <c r="D196" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E196" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F196" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G196" s="113"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="104"/>
-      <c r="B197" s="104"/>
-      <c r="C197" s="105"/>
-      <c r="D197" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E197" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F197" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G197" s="112"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="104"/>
-      <c r="B198" s="104"/>
-      <c r="C198" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E198" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F198" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G198" s="106" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="104"/>
-      <c r="B199" s="104"/>
-      <c r="C199" s="102"/>
-      <c r="D199" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E199" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F199" s="63" t="s">
-        <v>455</v>
-      </c>
-      <c r="G199" s="107"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="105"/>
-      <c r="B200" s="105"/>
-      <c r="C200" s="105"/>
-      <c r="D200" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E200" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F200" s="63" t="s">
-        <v>455</v>
-      </c>
-      <c r="G200" s="112"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="91"/>
-      <c r="B201" s="91"/>
-      <c r="C201" s="97" t="s">
-        <v>593</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E201" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F201" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="G201" s="95" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="C202" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E202" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F202" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="84"/>
-      <c r="C203" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E203" s="4">
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="B204" s="114" t="s">
-        <v>307</v>
-      </c>
-      <c r="C204" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="D204" s="5" t="s">
+      <c r="G215" s="121"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="108"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="109"/>
+      <c r="D216" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E216" s="4">
         <v>43822</v>
       </c>
-      <c r="F204" s="100" t="s">
-        <v>623</v>
-      </c>
-      <c r="G204" s="3" t="s">
+      <c r="F216" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="G216" s="116"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="108"/>
+      <c r="B217" s="108"/>
+      <c r="C217" s="118" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="104"/>
-      <c r="B205" s="104"/>
-      <c r="C205" s="118"/>
-      <c r="D205" s="50" t="s">
+      <c r="D217" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E217" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F217" s="100" t="s">
+        <v>630</v>
+      </c>
+      <c r="G217" s="120" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="108"/>
+      <c r="B218" s="108"/>
+      <c r="C218" s="122"/>
+      <c r="D218" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E218" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F218" s="100" t="s">
+        <v>630</v>
+      </c>
+      <c r="G218" s="123"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="108"/>
+      <c r="B219" s="108"/>
+      <c r="C219" s="118" t="s">
         <v>310</v>
       </c>
-      <c r="F205" s="49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="104"/>
-      <c r="B206" s="104"/>
-      <c r="C206" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="104"/>
-      <c r="B207" s="104"/>
-      <c r="C207" s="118"/>
-      <c r="D207" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="104"/>
-      <c r="B208" s="104"/>
-      <c r="C208" s="114" t="s">
+    <row r="220" spans="1:7">
+      <c r="A220" s="108"/>
+      <c r="B220" s="108"/>
+      <c r="C220" s="122"/>
+      <c r="D220" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="104"/>
-      <c r="B209" s="104"/>
-      <c r="C209" s="118"/>
-      <c r="D209" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="105"/>
-      <c r="B210" s="105"/>
-      <c r="C210" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E210" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F210" s="82" t="s">
-        <v>566</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="B211" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C211" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D211" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="E211" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="114" t="s">
-        <v>452</v>
-      </c>
-      <c r="B213" s="114" t="s">
-        <v>458</v>
-      </c>
-      <c r="C213" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E213" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G213" s="116" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="115"/>
-      <c r="B214" s="115"/>
-      <c r="C214" s="115"/>
-      <c r="D214" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E214" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G214" s="117"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="115"/>
-      <c r="B215" s="115"/>
-      <c r="C215" s="115"/>
-      <c r="D215" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E215" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G215" s="117"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="115"/>
-      <c r="B216" s="115"/>
-      <c r="C216" s="104"/>
-      <c r="D216" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E216" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F216" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="G216" s="113"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="115"/>
-      <c r="B217" s="115"/>
-      <c r="C217" s="105"/>
-      <c r="D217" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E217" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F217" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G217" s="112"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="104"/>
-      <c r="B218" s="104"/>
-      <c r="C218" s="101" t="s">
-        <v>460</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E218" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F218" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="G218" s="116" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="104"/>
-      <c r="B219" s="104"/>
-      <c r="C219" s="104"/>
-      <c r="D219" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E219" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F219" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="G219" s="117"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="104"/>
-      <c r="B220" s="104"/>
-      <c r="C220" s="104"/>
-      <c r="D220" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E220" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F220" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="G220" s="117"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="105"/>
-      <c r="B221" s="105"/>
-      <c r="C221" s="105"/>
-      <c r="D221" s="3" t="s">
-        <v>568</v>
+      <c r="A221" s="109"/>
+      <c r="B221" s="109"/>
+      <c r="C221" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="E221" s="4">
         <v>43819</v>
       </c>
       <c r="F221" s="82" t="s">
-        <v>566</v>
-      </c>
-      <c r="G221" s="112"/>
+        <v>562</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D222" s="3" t="s">
+      <c r="A222" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C222" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D222" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E222" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" s="118" t="s">
+        <v>454</v>
+      </c>
+      <c r="C224" s="118" t="s">
+        <v>449</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E224" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G224" s="120" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="119"/>
+      <c r="B225" s="119"/>
+      <c r="C225" s="119"/>
+      <c r="D225" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E225" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G225" s="121"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="119"/>
+      <c r="B226" s="119"/>
+      <c r="C226" s="119"/>
+      <c r="D226" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E226" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G226" s="121"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="119"/>
+      <c r="B227" s="119"/>
+      <c r="C227" s="108"/>
+      <c r="D227" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E227" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F227" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G227" s="117"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="119"/>
+      <c r="B228" s="119"/>
+      <c r="C228" s="109"/>
+      <c r="D228" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E228" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F228" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G228" s="116"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="108"/>
+      <c r="B229" s="108"/>
+      <c r="C229" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E229" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F229" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G229" s="120" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="108"/>
+      <c r="B230" s="108"/>
+      <c r="C230" s="108"/>
+      <c r="D230" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E230" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F230" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G230" s="121"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="108"/>
+      <c r="B231" s="108"/>
+      <c r="C231" s="108"/>
+      <c r="D231" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E231" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F231" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G231" s="121"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="109"/>
+      <c r="B232" s="109"/>
+      <c r="C232" s="109"/>
+      <c r="D232" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E232" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F232" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="G232" s="116"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E222" s="4">
+      <c r="B233" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E233" s="4">
         <v>43822</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="F233" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G233" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="G222" s="3" t="s">
-        <v>610</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="B91:B123"/>
-    <mergeCell ref="A91:A123"/>
-    <mergeCell ref="G195:G197"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="G51:G52"/>
+  <mergeCells count="103">
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B173:B210"/>
+    <mergeCell ref="A173:A210"/>
+    <mergeCell ref="G165:G171"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="B152:B171"/>
+    <mergeCell ref="A152:A171"/>
+    <mergeCell ref="A93:A125"/>
+    <mergeCell ref="G204:G206"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="C164:C170"/>
-    <mergeCell ref="G164:G170"/>
-    <mergeCell ref="G73:G78"/>
-    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C173:C179"/>
+    <mergeCell ref="G173:G179"/>
+    <mergeCell ref="G75:G80"/>
     <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="C68:C70"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B68"/>
-    <mergeCell ref="A3:A68"/>
+    <mergeCell ref="B3:B70"/>
+    <mergeCell ref="A3:A70"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="G6:G16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C50:C52"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B204:B210"/>
-    <mergeCell ref="G155:G159"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="G85:G90"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="G138:G145"/>
-    <mergeCell ref="G127:G136"/>
-    <mergeCell ref="C138:C145"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G96:G103"/>
-    <mergeCell ref="A124:A148"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="G182:G184"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="C127:C136"/>
-    <mergeCell ref="A150:A162"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="B124:B148"/>
-    <mergeCell ref="B150:B162"/>
-    <mergeCell ref="C150:C154"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="G111:G118"/>
-    <mergeCell ref="C112:C119"/>
-    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="B213:B221"/>
+    <mergeCell ref="G157:G161"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="G140:G147"/>
+    <mergeCell ref="G129:G138"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="G98:G105"/>
+    <mergeCell ref="A126:A150"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="G191:G193"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C129:C138"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="B126:B150"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="B93:B125"/>
+    <mergeCell ref="C114:C121"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="B224:B232"/>
+    <mergeCell ref="G213:G216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A224:A232"/>
+    <mergeCell ref="G229:G232"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="G224:G228"/>
+    <mergeCell ref="C224:C228"/>
     <mergeCell ref="A213:A221"/>
-    <mergeCell ref="G218:G221"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="G213:G217"/>
-    <mergeCell ref="C213:C217"/>
-    <mergeCell ref="A163:A200"/>
-    <mergeCell ref="B163:B200"/>
-    <mergeCell ref="A204:A210"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C213:C216"/>
+    <mergeCell ref="C181:C185"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="G20:G26"/>
-    <mergeCell ref="G172:G177"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="G198:G200"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="G185:G188"/>
+    <mergeCell ref="G181:G186"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="G207:G209"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="G194:G197"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="G59:G63"/>
     <mergeCell ref="C29:C42"/>
     <mergeCell ref="G29:G42"/>
-    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="G113:G120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8705,156 +9118,156 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="130" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="130" t="s">
-        <v>233</v>
+      <c r="A3" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>232</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="17">
         <v>43800</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="128" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="17">
         <v>43800</v>
       </c>
       <c r="E4" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="133"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="129"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="D5" s="17">
         <v>43800</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="129"/>
+        <v>234</v>
+      </c>
+      <c r="F5" s="133"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="17">
         <v>43800</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="129"/>
+        <v>234</v>
+      </c>
+      <c r="F6" s="133"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="124" t="s">
-        <v>618</v>
-      </c>
-      <c r="B8" s="124" t="s">
+      <c r="A8" s="130" t="s">
         <v>614</v>
       </c>
+      <c r="B8" s="130" t="s">
+        <v>610</v>
+      </c>
       <c r="C8" s="18" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D8" s="17">
         <v>43822</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>617</v>
+        <v>612</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D9" s="17">
         <v>43822</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F9" s="137"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="18" t="s">
         <v>616</v>
-      </c>
-      <c r="F9" s="136"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="18" t="s">
-        <v>620</v>
       </c>
       <c r="D10" s="17">
         <v>43822</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="F10" s="136"/>
+        <v>612</v>
+      </c>
+      <c r="F10" s="137"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="18" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D11" s="17">
         <v>43822</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="F11" s="136"/>
+        <v>612</v>
+      </c>
+      <c r="F11" s="137"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="18" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D12" s="17">
         <v>43822</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="F12" s="137"/>
+        <v>619</v>
+      </c>
+      <c r="F12" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8892,14 +9305,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="124" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="124" t="s">
+      <c r="A1" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>275</v>
-      </c>
-      <c r="C1" s="124" t="s">
-        <v>276</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>74</v>
@@ -8911,13 +9324,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="109" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -8947,33 +9360,33 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="132" t="s">
-        <v>431</v>
+      <c r="C4" s="139" t="s">
+        <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="133"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="134"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="134" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -8981,33 +9394,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="131"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="131"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -9015,7 +9428,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="139" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -9025,7 +9438,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="133"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -9033,7 +9446,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="134"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -9047,42 +9460,42 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="E16" s="17">
         <v>43802</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" s="17">
         <v>43802</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="668">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2887,6 +2887,68 @@
   </si>
   <si>
     <t>D:\A-超级智库\PlanB\2-硬件技术\5-电源电路\IV转换</t>
+  </si>
+  <si>
+    <t>RD-Cadence Pspice使用PARAMETERS参数扫描.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSPICE仿真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\1-PCB技术\5-PSPICE仿真</t>
+  </si>
+  <si>
+    <t>RD-TI-HighSide-VI-Converter.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-TI_Current_Measurement.pdf</t>
+  </si>
+  <si>
+    <t>运算放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-NI-运算放大器的各种应用电路.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\3-传感测量\9-运算放大器</t>
+  </si>
+  <si>
+    <t>RD-积分波形.pdf</t>
+  </si>
+  <si>
+    <t>RD-微分波形.pdf</t>
+  </si>
+  <si>
+    <t>蓝牙4.0 BLE开发完全手册-物联网开发技术实战.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lueTooth</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,7 +3063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3258,132 +3320,144 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3404,9 +3478,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3728,15 +3799,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3762,13 +3833,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="111" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3785,9 +3856,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3811,13 +3882,13 @@
       <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="111" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3834,9 +3905,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3851,9 +3922,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3868,9 +3939,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="115"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3885,9 +3956,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="115"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3902,8 +3973,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -3911,9 +3982,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="108" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3925,14 +3996,14 @@
       <c r="F12" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="121" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="106"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
@@ -3942,12 +4013,12 @@
       <c r="F13" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="111"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
@@ -3957,12 +4028,12 @@
       <c r="F14" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="107"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
@@ -3972,7 +4043,7 @@
       <c r="F15" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="112"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
       <c r="A16" s="114"/>
@@ -4016,13 +4087,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="108" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="108" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4034,25 +4105,25 @@
       <c r="F19" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="121" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="122"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
@@ -4062,12 +4133,12 @@
       <c r="F21" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="111"/>
+      <c r="G21" s="122"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
@@ -4077,12 +4148,12 @@
       <c r="F22" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="111"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
@@ -4092,12 +4163,12 @@
       <c r="F23" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="117"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
@@ -4107,12 +4178,12 @@
       <c r="F24" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="117"/>
+      <c r="G24" s="119"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
@@ -4122,12 +4193,12 @@
       <c r="F25" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="117"/>
+      <c r="G25" s="119"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
@@ -4137,12 +4208,12 @@
       <c r="F26" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="117"/>
+      <c r="G26" s="119"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
@@ -4152,12 +4223,12 @@
       <c r="F27" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="119"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
@@ -4167,12 +4238,12 @@
       <c r="F28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="117"/>
+      <c r="G28" s="119"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
@@ -4182,12 +4253,12 @@
       <c r="F29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="117"/>
+      <c r="G29" s="119"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
@@ -4197,12 +4268,12 @@
       <c r="F30" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="117"/>
+      <c r="G30" s="119"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
@@ -4212,12 +4283,12 @@
       <c r="F31" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="117"/>
+      <c r="G31" s="119"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
@@ -4227,12 +4298,12 @@
       <c r="F32" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="117"/>
+      <c r="G32" s="119"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
@@ -4242,7 +4313,7 @@
       <c r="F33" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="120"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4254,13 +4325,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="111" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -4272,14 +4343,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="121" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4289,12 +4360,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="111"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4304,12 +4375,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="111"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4319,7 +4390,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="111"/>
+      <c r="G38" s="122"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -4334,7 +4405,7 @@
       <c r="F39" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="112"/>
+      <c r="G39" s="123"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4346,13 +4417,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="105" t="s">
+      <c r="A41" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="108" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4364,14 +4435,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="121" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4381,7 +4452,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="111"/>
+      <c r="G42" s="122"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -4396,7 +4467,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="123"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4408,13 +4479,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="108" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4426,14 +4497,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="121" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="108"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4443,23 +4514,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="111"/>
+      <c r="G46" s="122"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="111"/>
+      <c r="G47" s="122"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
@@ -4469,12 +4540,12 @@
       <c r="F48" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="111"/>
+      <c r="G48" s="122"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
@@ -4484,7 +4555,7 @@
       <c r="F49" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="116"/>
+      <c r="G49" s="120"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
       <c r="A50" s="114"/>
@@ -4496,10 +4567,10 @@
       <c r="G50" s="114"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="108" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -4519,8 +4590,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -4528,9 +4599,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="105" t="s">
+      <c r="A53" s="112"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="108" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4542,14 +4613,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="115" t="s">
+      <c r="G53" s="111" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="106"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4559,12 +4630,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="115"/>
+      <c r="G54" s="111"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="108"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="106"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4574,12 +4645,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="115"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="108"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="106"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4589,12 +4660,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="115"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="108"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="106"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4604,12 +4675,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="115"/>
+      <c r="G57" s="111"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="108"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="106"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4619,12 +4690,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="115"/>
+      <c r="G58" s="111"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="108"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -4633,9 +4704,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="108"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -4644,8 +4715,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="108"/>
-      <c r="B61" s="108"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -4653,9 +4724,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="105" t="s">
+      <c r="A62" s="112"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="108" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4667,25 +4738,25 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="110" t="s">
+      <c r="G62" s="121" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="108"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="106"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="111"/>
+      <c r="G63" s="122"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="108"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
@@ -4695,12 +4766,12 @@
       <c r="F64" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="111"/>
+      <c r="G64" s="122"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
@@ -4710,12 +4781,12 @@
       <c r="F65" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="111"/>
+      <c r="G65" s="122"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
@@ -4725,11 +4796,11 @@
       <c r="F66" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="112"/>
+      <c r="G66" s="123"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -4737,8 +4808,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="45" t="s">
         <v>343</v>
       </c>
@@ -4750,8 +4821,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="108"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -4759,9 +4830,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="108"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="105" t="s">
+      <c r="A70" s="112"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="108" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4773,14 +4844,14 @@
       <c r="F70" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="110" t="s">
+      <c r="G70" s="121" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="108"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="106"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
@@ -4790,12 +4861,12 @@
       <c r="F71" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="111"/>
+      <c r="G71" s="122"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
@@ -4805,12 +4876,12 @@
       <c r="F72" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="111"/>
+      <c r="G72" s="122"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
@@ -4820,12 +4891,12 @@
       <c r="F73" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="117"/>
+      <c r="G73" s="119"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="109"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="108"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
@@ -4835,12 +4906,12 @@
       <c r="F74" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="117"/>
+      <c r="G74" s="119"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="109"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
@@ -4850,7 +4921,7 @@
       <c r="F75" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="116"/>
+      <c r="G75" s="120"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -4862,10 +4933,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="105" t="s">
+      <c r="A77" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="105" t="s">
+      <c r="B77" s="108" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -4885,9 +4956,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="108"/>
-      <c r="B78" s="108"/>
-      <c r="C78" s="105" t="s">
+      <c r="A78" s="112"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="108" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4899,14 +4970,14 @@
       <c r="F78" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="110" t="s">
+      <c r="G78" s="121" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="109"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
@@ -4916,12 +4987,12 @@
       <c r="F79" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="112"/>
+      <c r="G79" s="123"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="105" t="s">
+      <c r="A80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="108" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -4933,14 +5004,14 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="110" t="s">
+      <c r="G80" s="121" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
-      <c r="C81" s="106"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
@@ -4950,12 +5021,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="111"/>
+      <c r="G81" s="122"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
@@ -4965,12 +5036,12 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="111"/>
+      <c r="G82" s="122"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
-      <c r="C83" s="109"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
@@ -4980,12 +5051,12 @@
       <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="116"/>
+      <c r="G83" s="120"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="109"/>
-      <c r="B84" s="108"/>
-      <c r="C84" s="105" t="s">
+      <c r="A84" s="113"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="108" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -4999,8 +5070,8 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="109"/>
-      <c r="C85" s="107"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="110"/>
       <c r="D85" s="68" t="s">
         <v>482</v>
       </c>
@@ -5020,13 +5091,13 @@
       <c r="G86" s="114"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="105" t="s">
+      <c r="A87" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="105" t="s">
+      <c r="B87" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="118" t="s">
+      <c r="C87" s="115" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5038,14 +5109,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="120" t="s">
+      <c r="G87" s="117" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="106"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="119"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="116"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5055,12 +5126,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="121"/>
+      <c r="G88" s="118"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="106"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="119"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="116"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5070,12 +5141,12 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="121"/>
+      <c r="G89" s="118"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="106"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="108"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
@@ -5085,12 +5156,12 @@
       <c r="F90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="117"/>
+      <c r="G90" s="119"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="106"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="108"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
@@ -5100,12 +5171,12 @@
       <c r="F91" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="117"/>
+      <c r="G91" s="119"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="106"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="108"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
@@ -5115,12 +5186,12 @@
       <c r="F92" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="117"/>
+      <c r="G92" s="119"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="106"/>
-      <c r="B93" s="106"/>
-      <c r="C93" s="109"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="113"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
@@ -5130,11 +5201,11 @@
       <c r="F93" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="116"/>
+      <c r="G93" s="120"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="106"/>
-      <c r="B94" s="106"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="109"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5152,9 +5223,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="106"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="105" t="s">
+      <c r="A95" s="109"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="108" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5171,9 +5242,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="106"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="107"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5182,8 +5253,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="106"/>
-      <c r="B97" s="106"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="109"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5201,9 +5272,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="108"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="105" t="s">
+      <c r="A98" s="112"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="108" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5214,9 +5285,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="108"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="106"/>
+      <c r="A99" s="112"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5225,9 +5296,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="107"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="110"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -5236,8 +5307,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="109"/>
-      <c r="B101" s="109"/>
+      <c r="A101" s="113"/>
+      <c r="B101" s="113"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -5264,10 +5335,10 @@
       <c r="G102" s="114"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="105" t="s">
+      <c r="B103" s="108" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5285,8 +5356,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="106"/>
-      <c r="B104" s="106"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="109"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5302,8 +5373,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="106"/>
-      <c r="B105" s="106"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="109"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5321,9 +5392,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="106"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="115" t="s">
+      <c r="A106" s="109"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="111" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5336,9 +5407,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="106"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="115"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="111"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
       </c>
@@ -5347,13 +5418,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="105" t="s">
+      <c r="A109" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="105" t="s">
+      <c r="B109" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="105" t="s">
+      <c r="C109" s="108" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5370,9 +5441,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="106"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5384,9 +5455,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="106"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5398,9 +5469,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="106"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5413,25 +5484,28 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="G87:G93"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G19:G33"/>
+    <mergeCell ref="C19:C33"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="G53:G58"/>
     <mergeCell ref="B77:B85"/>
@@ -5448,28 +5522,25 @@
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="C53:C60"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G19:G33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5481,10 +5552,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5500,15 +5571,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5534,13 +5605,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="108" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5552,14 +5623,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="121" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="106"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -5569,12 +5640,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="111"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="107"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -5584,12 +5655,12 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="112"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="108" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5601,14 +5672,14 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="121" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="5" t="s">
         <v>533</v>
       </c>
@@ -5618,12 +5689,12 @@
       <c r="F7" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G7" s="117"/>
+      <c r="G7" s="119"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="119"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="5" t="s">
         <v>535</v>
       </c>
@@ -5633,12 +5704,12 @@
       <c r="F8" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G8" s="117"/>
+      <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="5" t="s">
         <v>536</v>
       </c>
@@ -5648,89 +5719,89 @@
       <c r="F9" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="117"/>
+      <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="80" t="s">
         <v>537</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="117"/>
+      <c r="G10" s="119"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="80" t="s">
         <v>538</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="119"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="80" t="s">
         <v>539</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="117"/>
+      <c r="G12" s="119"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="80" t="s">
         <v>540</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="117"/>
+      <c r="G13" s="119"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="80" t="s">
         <v>541</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="117"/>
+      <c r="G14" s="119"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="108"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="80" t="s">
         <v>542</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="117"/>
+      <c r="G15" s="119"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="80" t="s">
         <v>543</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="116"/>
+      <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="118" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5742,14 +5813,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="121" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="119"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5759,27 +5830,27 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="112"/>
+      <c r="G18" s="123"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="5" t="s">
         <v>588</v>
       </c>
       <c r="E19" s="4">
         <v>43821</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="118" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="115" t="s">
         <v>223</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -5791,14 +5862,14 @@
       <c r="F20" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="121" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="5" t="s">
         <v>222</v>
       </c>
@@ -5808,12 +5879,12 @@
       <c r="F21" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="117"/>
+      <c r="G21" s="119"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="5" t="s">
         <v>527</v>
       </c>
@@ -5823,12 +5894,12 @@
       <c r="F22" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G22" s="117"/>
+      <c r="G22" s="119"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="5" t="s">
         <v>565</v>
       </c>
@@ -5838,12 +5909,12 @@
       <c r="F23" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G23" s="117"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="5" t="s">
         <v>566</v>
       </c>
@@ -5853,12 +5924,12 @@
       <c r="F24" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G24" s="117"/>
+      <c r="G24" s="119"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="5" t="s">
         <v>567</v>
       </c>
@@ -5868,12 +5939,12 @@
       <c r="F25" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="117"/>
+      <c r="G25" s="119"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="5" t="s">
         <v>568</v>
       </c>
@@ -5883,12 +5954,12 @@
       <c r="F26" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="116"/>
+      <c r="G26" s="120"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="118" t="s">
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="115" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -5905,9 +5976,9 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="5" t="s">
         <v>236</v>
       </c>
@@ -5916,9 +5987,9 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="105" t="s">
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="108" t="s">
         <v>239</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5930,14 +6001,14 @@
       <c r="F29" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="110" t="s">
+      <c r="G29" s="121" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="5" t="s">
         <v>242</v>
       </c>
@@ -5947,12 +6018,12 @@
       <c r="F30" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="111"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="5" t="s">
         <v>244</v>
       </c>
@@ -5962,12 +6033,12 @@
       <c r="F31" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="111"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="5" t="s">
         <v>245</v>
       </c>
@@ -5977,12 +6048,12 @@
       <c r="F32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="111"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="5" t="s">
         <v>246</v>
       </c>
@@ -5992,12 +6063,12 @@
       <c r="F33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="111"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="5" t="s">
         <v>368</v>
       </c>
@@ -6007,12 +6078,12 @@
       <c r="F34" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="G34" s="117"/>
+      <c r="G34" s="119"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="5" t="s">
         <v>497</v>
       </c>
@@ -6022,12 +6093,12 @@
       <c r="F35" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G35" s="117"/>
+      <c r="G35" s="119"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="5" t="s">
         <v>499</v>
       </c>
@@ -6037,12 +6108,12 @@
       <c r="F36" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G36" s="117"/>
+      <c r="G36" s="119"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="5" t="s">
         <v>500</v>
       </c>
@@ -6052,12 +6123,12 @@
       <c r="F37" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="117"/>
+      <c r="G37" s="119"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="5" t="s">
         <v>502</v>
       </c>
@@ -6067,12 +6138,12 @@
       <c r="F38" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="117"/>
+      <c r="G38" s="119"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="5" t="s">
         <v>504</v>
       </c>
@@ -6082,12 +6153,12 @@
       <c r="F39" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="117"/>
+      <c r="G39" s="119"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="5" t="s">
         <v>503</v>
       </c>
@@ -6097,12 +6168,12 @@
       <c r="F40" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="117"/>
+      <c r="G40" s="119"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="5" t="s">
         <v>505</v>
       </c>
@@ -6112,12 +6183,12 @@
       <c r="F41" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="117"/>
+      <c r="G41" s="119"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="5" t="s">
         <v>506</v>
       </c>
@@ -6127,12 +6198,12 @@
       <c r="F42" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="117"/>
+      <c r="G42" s="119"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="105" t="s">
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="108" t="s">
         <v>639</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -6141,47 +6212,47 @@
       <c r="E43" s="4">
         <v>43823</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="121" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="5" t="s">
         <v>642</v>
       </c>
       <c r="E44" s="4">
         <v>43823</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F44" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G44" s="117"/>
+      <c r="G44" s="119"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="5" t="s">
         <v>643</v>
       </c>
       <c r="E45" s="4">
         <v>43823</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G45" s="116"/>
+      <c r="G45" s="120"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="105" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="108" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -6193,14 +6264,14 @@
       <c r="F46" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="121" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="106"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="5" t="s">
         <v>264</v>
       </c>
@@ -6210,12 +6281,12 @@
       <c r="F47" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="111"/>
+      <c r="G47" s="122"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="5" t="s">
         <v>276</v>
       </c>
@@ -6225,12 +6296,12 @@
       <c r="F48" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="111"/>
+      <c r="G48" s="122"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="5" t="s">
         <v>277</v>
       </c>
@@ -6240,12 +6311,12 @@
       <c r="F49" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="123"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="105" t="s">
+      <c r="A50" s="112"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="108" t="s">
         <v>280</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -6257,14 +6328,14 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="110" t="s">
+      <c r="G50" s="121" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="106"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="5" t="s">
         <v>279</v>
       </c>
@@ -6274,12 +6345,12 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="111"/>
+      <c r="G51" s="122"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="5" t="s">
         <v>283</v>
       </c>
@@ -6289,12 +6360,12 @@
       <c r="F52" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="116"/>
+      <c r="G52" s="120"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="105" t="s">
+      <c r="A53" s="112"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="108" t="s">
         <v>284</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -6306,29 +6377,29 @@
       <c r="F53" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G53" s="110" t="s">
+      <c r="G53" s="121" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="109"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="5" t="s">
         <v>592</v>
       </c>
       <c r="E54" s="4">
         <v>43821</v>
       </c>
-      <c r="F54" s="91" t="s">
+      <c r="F54" s="90" t="s">
         <v>593</v>
       </c>
-      <c r="G54" s="116"/>
+      <c r="G54" s="120"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="108"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="105" t="s">
+      <c r="A55" s="112"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="108" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -6340,14 +6411,14 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="128" t="s">
+      <c r="G55" s="127" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="108"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="109"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="5" t="s">
         <v>289</v>
       </c>
@@ -6357,12 +6428,12 @@
       <c r="F56" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="129"/>
+      <c r="G56" s="128"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="108"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="105" t="s">
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="108" t="s">
         <v>334</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -6374,14 +6445,14 @@
       <c r="F57" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="110" t="s">
+      <c r="G57" s="121" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="108"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="107"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="5" t="s">
         <v>337</v>
       </c>
@@ -6391,12 +6462,12 @@
       <c r="F58" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="123"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="108"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="105" t="s">
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="108" t="s">
         <v>354</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -6408,14 +6479,14 @@
       <c r="F59" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="121" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="108"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="106"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="5" t="s">
         <v>356</v>
       </c>
@@ -6425,12 +6496,12 @@
       <c r="F60" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G60" s="111"/>
+      <c r="G60" s="122"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="108"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="106"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="5" t="s">
         <v>357</v>
       </c>
@@ -6440,12 +6511,12 @@
       <c r="F61" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="111"/>
+      <c r="G61" s="122"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="5" t="s">
         <v>365</v>
       </c>
@@ -6455,12 +6526,12 @@
       <c r="F62" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="117"/>
+      <c r="G62" s="119"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="108"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="109"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
       <c r="D63" s="5" t="s">
         <v>377</v>
       </c>
@@ -6470,12 +6541,12 @@
       <c r="F63" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G63" s="116"/>
+      <c r="G63" s="120"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="108"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="124" t="s">
+      <c r="A64" s="112"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="130" t="s">
         <v>434</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -6487,14 +6558,14 @@
       <c r="F64" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G64" s="110" t="s">
+      <c r="G64" s="121" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="125"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="131"/>
       <c r="D65" s="5" t="s">
         <v>441</v>
       </c>
@@ -6504,12 +6575,12 @@
       <c r="F65" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G65" s="112"/>
+      <c r="G65" s="123"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="124" t="s">
+      <c r="A66" s="112"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="130" t="s">
         <v>445</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -6521,14 +6592,14 @@
       <c r="F66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="110" t="s">
+      <c r="G66" s="121" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="125"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="5" t="s">
         <v>444</v>
       </c>
@@ -6538,12 +6609,12 @@
       <c r="F67" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="112"/>
+      <c r="G67" s="123"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="126" t="s">
+      <c r="A68" s="112"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="132" t="s">
         <v>487</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -6555,14 +6626,14 @@
       <c r="F68" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G68" s="110" t="s">
+      <c r="G68" s="121" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="108"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="127"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="133"/>
       <c r="D69" s="5" t="s">
         <v>490</v>
       </c>
@@ -6572,12 +6643,12 @@
       <c r="F69" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G69" s="111"/>
+      <c r="G69" s="122"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="109"/>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="113"/>
       <c r="D70" s="5" t="s">
         <v>491</v>
       </c>
@@ -6587,12 +6658,12 @@
       <c r="F70" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G70" s="116"/>
+      <c r="G70" s="120"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="90"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="130" t="s">
+      <c r="A71" s="112"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="129" t="s">
         <v>596</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -6601,27 +6672,27 @@
       <c r="E71" s="4">
         <v>43821</v>
       </c>
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G71" s="131" t="s">
+      <c r="G71" s="126" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="109"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="5" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="4">
         <v>43821</v>
       </c>
-      <c r="F72" s="91" t="s">
+      <c r="F72" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G72" s="116"/>
+      <c r="G72" s="120"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30"/>
@@ -6633,13 +6704,13 @@
       <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="118" t="s">
+      <c r="A74" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="106" t="s">
+      <c r="C74" s="109" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -6656,9 +6727,9 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="119"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="109"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="3" t="s">
         <v>6</v>
       </c>
@@ -6668,14 +6739,14 @@
       <c r="F75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="110" t="s">
+      <c r="G75" s="121" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="119"/>
-      <c r="B76" s="119"/>
-      <c r="C76" s="105" t="s">
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="108" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -6687,12 +6758,12 @@
       <c r="F76" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="G76" s="111"/>
+      <c r="G76" s="122"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="108"/>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="5" t="s">
         <v>30</v>
       </c>
@@ -6702,12 +6773,12 @@
       <c r="F77" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G77" s="117"/>
+      <c r="G77" s="119"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="108"/>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="5" t="s">
         <v>492</v>
       </c>
@@ -6717,12 +6788,12 @@
       <c r="F78" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G78" s="117"/>
+      <c r="G78" s="119"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="108"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="5" t="s">
         <v>493</v>
       </c>
@@ -6732,12 +6803,12 @@
       <c r="F79" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G79" s="117"/>
+      <c r="G79" s="119"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="109"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="5" t="s">
         <v>494</v>
       </c>
@@ -6747,11 +6818,11 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="116"/>
+      <c r="G80" s="120"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="112"/>
       <c r="C81" s="66" t="s">
         <v>446</v>
       </c>
@@ -6761,8 +6832,8 @@
       <c r="G81" s="64"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="109"/>
-      <c r="B82" s="109"/>
+      <c r="A82" s="113"/>
+      <c r="B82" s="113"/>
       <c r="C82" s="63" t="s">
         <v>447</v>
       </c>
@@ -6780,235 +6851,239 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="102"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="103" t="s">
+        <v>655</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E83" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F83" s="103" t="s">
+        <v>654</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="118" t="s">
+      <c r="B84" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="G83" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="119"/>
-      <c r="B84" s="119"/>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="116"/>
+      <c r="B85" s="116"/>
+      <c r="D85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>43782</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="108"/>
-      <c r="B85" s="108"/>
-      <c r="D85" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="4">
-        <v>43797</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="G85" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="108"/>
-      <c r="B86" s="108"/>
+      <c r="A86" s="112"/>
+      <c r="B86" s="112"/>
       <c r="D86" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E86" s="4">
         <v>43797</v>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="F86" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="108"/>
-      <c r="B87" s="108"/>
-      <c r="C87" s="105" t="s">
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="D87" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="112"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="D87" s="81" t="s">
+      <c r="D88" s="81" t="s">
         <v>545</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="110" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="108"/>
-      <c r="B88" s="108"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="81" t="s">
-        <v>546</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="76"/>
-      <c r="G88" s="111"/>
+      <c r="G88" s="121" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="108"/>
-      <c r="B89" s="108"/>
-      <c r="C89" s="106"/>
+      <c r="A89" s="112"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="76"/>
-      <c r="G89" s="111"/>
+      <c r="G89" s="122"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="108"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="106"/>
+      <c r="A90" s="112"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="111"/>
+      <c r="G90" s="122"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="108"/>
-      <c r="B91" s="108"/>
-      <c r="C91" s="106"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="76"/>
-      <c r="G91" s="111"/>
+      <c r="G91" s="122"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="107"/>
+      <c r="A92" s="112"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="76"/>
-      <c r="G92" s="112"/>
+      <c r="G92" s="122"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="118" t="s">
+      <c r="A93" s="113"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="123"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="105" t="s">
+      <c r="B94" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="105" t="s">
+      <c r="C94" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E93" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="108"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E94" s="7">
         <v>43788</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G94" s="111"/>
+        <v>94</v>
+      </c>
+      <c r="G94" s="121" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="108"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="108"/>
+      <c r="A95" s="112"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E95" s="7">
         <v>43788</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="122"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="112"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F96" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G95" s="111"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="108"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="5" t="s">
+      <c r="G96" s="122"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="112"/>
+      <c r="B97" s="109"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E97" s="7">
         <v>43794</v>
       </c>
-      <c r="F96" s="76" t="s">
+      <c r="F97" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G96" s="112"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="108"/>
-      <c r="B97" s="108"/>
-      <c r="C97" s="109"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="5"/>
+      <c r="G97" s="123"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="108"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="1"/>
-      <c r="G98" s="120" t="s">
+      <c r="A98" s="112"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="113"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="112"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="117" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="108"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="118" t="s">
+    <row r="100" spans="1:7">
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E99" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" s="121"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="119"/>
-      <c r="D100" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E100" s="4">
         <v>43787</v>
@@ -7016,126 +7091,126 @@
       <c r="F100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G100" s="121"/>
+      <c r="G100" s="118"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="108"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="119"/>
+      <c r="A101" s="112"/>
+      <c r="B101" s="112"/>
+      <c r="C101" s="116"/>
       <c r="D101" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101" s="4">
         <v>43787</v>
       </c>
-      <c r="G101" s="121"/>
+      <c r="F101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="118"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="108"/>
-      <c r="B102" s="108"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="5" t="s">
+      <c r="A102" s="112"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43787</v>
+      </c>
+      <c r="G102" s="118"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="112"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="G102" s="121"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="108"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="119"/>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="4"/>
+      <c r="G103" s="118"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="112"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="2" t="s">
+      <c r="E104" s="4"/>
+      <c r="F104" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G103" s="121"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="108"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="119"/>
-      <c r="D104" s="3" t="s">
+      <c r="G104" s="118"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="112"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E105" s="4">
         <v>43788</v>
       </c>
-      <c r="G104" s="121"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="108"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="3" t="s">
+      <c r="G105" s="118"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="112"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="1" t="s">
+      <c r="E106" s="4"/>
+      <c r="F106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G105" s="123"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="5" t="s">
+      <c r="G106" s="134"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="112"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="135"/>
+      <c r="D107" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E107" s="4">
         <v>43788</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="108"/>
-      <c r="B107" s="108"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="110" t="s">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="112"/>
+      <c r="B108" s="112"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="121" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="108"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="118" t="s">
+    <row r="109" spans="1:7">
+      <c r="A109" s="112"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G108" s="117"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="108"/>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E109" s="4">
-        <v>43802</v>
-      </c>
+      <c r="E109" s="4"/>
       <c r="F109" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G109" s="117"/>
+      <c r="G109" s="119"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
+      <c r="A110" s="112"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
       <c r="D110" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E110" s="4">
         <v>43802</v>
@@ -7143,72 +7218,72 @@
       <c r="F110" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G110" s="117"/>
+      <c r="G110" s="119"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="108"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="108"/>
+      <c r="A111" s="112"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
       <c r="D111" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E111" s="4">
         <v>43802</v>
       </c>
-      <c r="F111" s="42" t="s">
+      <c r="F111" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111" s="119"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="112"/>
+      <c r="B112" s="112"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F112" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G111" s="116"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="108"/>
-      <c r="B112" s="108"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="5" t="s">
+      <c r="G112" s="120"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="112"/>
+      <c r="B113" s="112"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E113" s="4">
         <v>43804</v>
       </c>
-      <c r="F112" s="71" t="s">
+      <c r="F113" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G112" s="36"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="108"/>
-      <c r="B113" s="108"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="120" t="s">
+      <c r="G113" s="36"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="112"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="117" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="108"/>
-      <c r="B114" s="108"/>
-      <c r="C114" s="105" t="s">
+    <row r="115" spans="1:7">
+      <c r="A115" s="112"/>
+      <c r="B115" s="112"/>
+      <c r="C115" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E114" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G114" s="121"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="108"/>
-      <c r="B115" s="108"/>
-      <c r="C115" s="106"/>
-      <c r="D115" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E115" s="4">
         <v>43801</v>
@@ -7216,14 +7291,14 @@
       <c r="F115" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G115" s="121"/>
+      <c r="G115" s="118"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="108"/>
-      <c r="B116" s="108"/>
-      <c r="C116" s="106"/>
+      <c r="A116" s="112"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E116" s="4">
         <v>43801</v>
@@ -7231,14 +7306,14 @@
       <c r="F116" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G116" s="121"/>
+      <c r="G116" s="118"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="108"/>
-      <c r="B117" s="108"/>
-      <c r="C117" s="106"/>
+      <c r="A117" s="112"/>
+      <c r="B117" s="112"/>
+      <c r="C117" s="109"/>
       <c r="D117" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E117" s="4">
         <v>43801</v>
@@ -7246,14 +7321,14 @@
       <c r="F117" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G117" s="121"/>
+      <c r="G117" s="118"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="108"/>
-      <c r="B118" s="108"/>
-      <c r="C118" s="106"/>
+      <c r="A118" s="112"/>
+      <c r="B118" s="112"/>
+      <c r="C118" s="109"/>
       <c r="D118" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E118" s="4">
         <v>43801</v>
@@ -7261,14 +7336,14 @@
       <c r="F118" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G118" s="121"/>
+      <c r="G118" s="118"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="108"/>
-      <c r="B119" s="108"/>
-      <c r="C119" s="106"/>
+      <c r="A119" s="112"/>
+      <c r="B119" s="112"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E119" s="4">
         <v>43801</v>
@@ -7276,1746 +7351,1873 @@
       <c r="F119" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G119" s="121"/>
+      <c r="G119" s="118"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="108"/>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
+      <c r="A120" s="112"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E120" s="4">
         <v>43801</v>
       </c>
-      <c r="F120" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="123"/>
+      <c r="F120" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120" s="118"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="108"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="109"/>
+      <c r="A121" s="112"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E121" s="4">
         <v>43801</v>
       </c>
-      <c r="F121" s="71" t="s">
+      <c r="F121" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="134"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="112"/>
+      <c r="B122" s="112"/>
+      <c r="C122" s="113"/>
+      <c r="D122" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F122" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G121" s="38"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="108"/>
-      <c r="B122" s="108"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="79"/>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="108"/>
-      <c r="B123" s="108"/>
-      <c r="C123" s="2" t="s">
+      <c r="A123" s="112"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="79"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="112"/>
+      <c r="B124" s="112"/>
+      <c r="C124" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="108"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="2" t="s">
+      <c r="E124" s="4"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="112"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E125" s="4">
         <v>43819</v>
       </c>
-      <c r="F124" s="82" t="s">
+      <c r="F125" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G125" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="109"/>
-      <c r="B125" s="109"/>
-      <c r="C125" s="99" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="112"/>
+      <c r="B126" s="112"/>
+      <c r="C126" s="98" t="s">
         <v>620</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E126" s="4">
         <v>43822</v>
       </c>
-      <c r="F125" s="99" t="s">
+      <c r="F126" s="98" t="s">
         <v>612</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="105" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="112"/>
+      <c r="B127" s="112"/>
+      <c r="C127" s="108" t="s">
+        <v>660</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E127" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F127" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G127" s="121" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="112"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E128" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F128" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G128" s="119"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="113"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="113"/>
+      <c r="D129" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E129" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F129" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G129" s="120"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="105" t="s">
+      <c r="B130" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="46"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="108"/>
-      <c r="B127" s="108"/>
-      <c r="C127" s="105" t="s">
+      <c r="C130" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E130" s="7">
         <v>43805</v>
       </c>
-      <c r="F127" s="46" t="s">
+      <c r="F130" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G127" s="110" t="s">
+      <c r="G130" s="121" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="108"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="5" t="s">
+    <row r="131" spans="1:7">
+      <c r="A131" s="112"/>
+      <c r="B131" s="112"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E131" s="7">
         <v>43805</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G128" s="116"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="108"/>
-      <c r="B129" s="108"/>
-      <c r="C129" s="105" t="s">
+      <c r="G131" s="120"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="112"/>
+      <c r="B132" s="112"/>
+      <c r="C132" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E132" s="4">
         <v>43788</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="120" t="s">
+      <c r="G132" s="117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="108"/>
-      <c r="B130" s="108"/>
-      <c r="C130" s="106" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="112"/>
+      <c r="B133" s="112"/>
+      <c r="C133" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E133" s="4">
         <v>43788</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="117"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="108"/>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="3" t="s">
+      <c r="G133" s="119"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="112"/>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E134" s="4">
         <v>43818</v>
       </c>
-      <c r="F131" s="71" t="s">
+      <c r="F134" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G131" s="117"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="108"/>
-      <c r="B132" s="108"/>
-      <c r="C132" s="108"/>
-      <c r="D132" s="3" t="s">
+      <c r="G134" s="119"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="112"/>
+      <c r="B135" s="112"/>
+      <c r="C135" s="112"/>
+      <c r="D135" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E135" s="4">
         <v>43818</v>
       </c>
-      <c r="F132" s="71" t="s">
+      <c r="F135" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G132" s="117"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="108"/>
-      <c r="B133" s="108"/>
-      <c r="C133" s="108"/>
-      <c r="D133" s="3" t="s">
+      <c r="G135" s="119"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="112"/>
+      <c r="B136" s="112"/>
+      <c r="C136" s="112"/>
+      <c r="D136" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E136" s="4">
         <v>43818</v>
       </c>
-      <c r="F133" s="71" t="s">
+      <c r="F136" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G133" s="117"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="108"/>
-      <c r="B134" s="108"/>
-      <c r="C134" s="108"/>
-      <c r="D134" s="50" t="s">
+      <c r="G136" s="119"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="112"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="50" t="s">
         <v>518</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="117"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="108"/>
-      <c r="B135" s="108"/>
-      <c r="C135" s="108"/>
-      <c r="D135" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="117"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="108"/>
-      <c r="B136" s="108"/>
-      <c r="C136" s="108"/>
-      <c r="D136" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="117"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="108"/>
-      <c r="B137" s="108"/>
-      <c r="C137" s="108"/>
-      <c r="D137" s="50" t="s">
-        <v>521</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="71"/>
-      <c r="G137" s="117"/>
+      <c r="G137" s="119"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="108"/>
-      <c r="B138" s="108"/>
-      <c r="C138" s="109"/>
+      <c r="A138" s="112"/>
+      <c r="B138" s="112"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="50" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="71"/>
-      <c r="G138" s="117"/>
+      <c r="G138" s="119"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="108"/>
-      <c r="B139" s="108"/>
-      <c r="C139" s="70"/>
+      <c r="A139" s="112"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="50" t="s">
+        <v>520</v>
+      </c>
       <c r="E139" s="4"/>
-      <c r="G139" s="72"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="119"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="108"/>
-      <c r="B140" s="108"/>
-      <c r="C140" s="118" t="s">
+      <c r="A140" s="112"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="119"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="112"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="119"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="112"/>
+      <c r="B142" s="112"/>
+      <c r="C142" s="70"/>
+      <c r="E142" s="4"/>
+      <c r="G142" s="72"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="112"/>
+      <c r="B143" s="112"/>
+      <c r="C143" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E140" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="120" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="108"/>
-      <c r="B141" s="108"/>
-      <c r="C141" s="119"/>
-      <c r="D141" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G141" s="117"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="108"/>
-      <c r="B142" s="108"/>
-      <c r="C142" s="119"/>
-      <c r="D142" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E142" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G142" s="117"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="108"/>
-      <c r="B143" s="108"/>
-      <c r="C143" s="119"/>
-      <c r="D143" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E143" s="4">
         <v>43789</v>
       </c>
-      <c r="F143" s="46" t="s">
+      <c r="F143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="112"/>
+      <c r="B144" s="112"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="119"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="112"/>
+      <c r="B145" s="112"/>
+      <c r="C145" s="116"/>
+      <c r="D145" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E145" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G145" s="119"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="112"/>
+      <c r="B146" s="112"/>
+      <c r="C146" s="116"/>
+      <c r="D146" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E146" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F146" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="G143" s="117"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="108"/>
-      <c r="B144" s="108"/>
-      <c r="C144" s="119"/>
-      <c r="D144" s="3" t="s">
+      <c r="G146" s="119"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="112"/>
+      <c r="B147" s="112"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E147" s="4">
         <v>43818</v>
       </c>
-      <c r="F144" s="73" t="s">
+      <c r="F147" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G144" s="117"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="108"/>
-      <c r="B145" s="108"/>
-      <c r="C145" s="108"/>
-      <c r="D145" s="3" t="s">
+      <c r="G147" s="119"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="112"/>
+      <c r="B148" s="112"/>
+      <c r="C148" s="112"/>
+      <c r="D148" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E148" s="4">
         <v>43805</v>
       </c>
-      <c r="F145" s="66" t="s">
+      <c r="F148" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G145" s="117"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="108"/>
-      <c r="B146" s="108"/>
-      <c r="C146" s="108"/>
-      <c r="D146" s="3" t="s">
+      <c r="G148" s="119"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="112"/>
+      <c r="B149" s="112"/>
+      <c r="C149" s="112"/>
+      <c r="D149" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E149" s="4">
         <v>43817</v>
       </c>
-      <c r="F146" s="66" t="s">
+      <c r="F149" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G146" s="117"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="108"/>
-      <c r="B147" s="108"/>
-      <c r="C147" s="109"/>
-      <c r="D147" s="3" t="s">
+      <c r="G149" s="119"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="112"/>
+      <c r="B150" s="112"/>
+      <c r="C150" s="113"/>
+      <c r="D150" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E150" s="4">
         <v>43817</v>
       </c>
-      <c r="F147" s="66" t="s">
+      <c r="F150" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G147" s="116"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="108"/>
-      <c r="B148" s="108"/>
-      <c r="C148" s="105" t="s">
+      <c r="G150" s="120"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="112"/>
+      <c r="B151" s="112"/>
+      <c r="C151" s="108" t="s">
         <v>528</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E151" s="4">
         <v>43818</v>
       </c>
-      <c r="F148" s="73" t="s">
+      <c r="F151" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G148" s="120" t="s">
+      <c r="G151" s="117" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="108"/>
-      <c r="B149" s="108"/>
-      <c r="C149" s="106"/>
-      <c r="D149" s="3" t="s">
+    <row r="152" spans="1:7">
+      <c r="A152" s="112"/>
+      <c r="B152" s="112"/>
+      <c r="C152" s="109"/>
+      <c r="D152" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E152" s="4">
         <v>43818</v>
       </c>
-      <c r="F149" s="73" t="s">
+      <c r="F152" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G149" s="121"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="109"/>
-      <c r="B150" s="109"/>
-      <c r="C150" s="109"/>
-      <c r="D150" s="3" t="s">
+      <c r="G152" s="118"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="113"/>
+      <c r="B153" s="113"/>
+      <c r="C153" s="113"/>
+      <c r="D153" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E153" s="4">
         <v>43818</v>
       </c>
-      <c r="F150" s="73" t="s">
+      <c r="F153" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G150" s="116"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="C151" s="62"/>
-      <c r="D151" s="62"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="118" t="s">
+      <c r="G153" s="120"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="C154" s="62"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B152" s="118" t="s">
+      <c r="B155" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C152" s="118" t="s">
+      <c r="C155" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E152" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G152" s="120" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="108"/>
-      <c r="B153" s="108"/>
-      <c r="C153" s="119"/>
-      <c r="D153" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E153" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G153" s="117"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="108"/>
-      <c r="B154" s="108"/>
-      <c r="C154" s="119"/>
-      <c r="D154" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E154" s="4">
-        <v>43788</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G154" s="117"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="108"/>
-      <c r="B155" s="108"/>
-      <c r="C155" s="119"/>
-      <c r="D155" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E155" s="4">
         <v>43788</v>
       </c>
-      <c r="F155" s="26" t="s">
+      <c r="F155" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G155" s="117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="112"/>
+      <c r="B156" s="112"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G156" s="119"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="112"/>
+      <c r="B157" s="112"/>
+      <c r="C157" s="116"/>
+      <c r="D157" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157" s="119"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="112"/>
+      <c r="B158" s="112"/>
+      <c r="C158" s="116"/>
+      <c r="D158" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E158" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F158" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G155" s="116"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="108"/>
-      <c r="B156" s="108"/>
-      <c r="C156" s="109"/>
-      <c r="D156" s="5" t="s">
+      <c r="G158" s="120"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="112"/>
+      <c r="B159" s="112"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E159" s="4">
         <v>43800</v>
       </c>
-      <c r="F156" s="48" t="s">
+      <c r="F159" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="108"/>
-      <c r="B157" s="108"/>
-      <c r="C157" s="33" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" s="112"/>
+      <c r="B160" s="112"/>
+      <c r="C160" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E160" s="4">
         <v>43797</v>
       </c>
-      <c r="F157" s="26"/>
-      <c r="G157" s="120" t="s">
+      <c r="F160" s="26"/>
+      <c r="G160" s="117" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="108"/>
-      <c r="B158" s="108"/>
-      <c r="C158" s="105" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="112"/>
+      <c r="B161" s="112"/>
+      <c r="C161" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F158" s="54" t="s">
+      <c r="F161" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G158" s="121"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="108"/>
-      <c r="B159" s="108"/>
-      <c r="C159" s="108"/>
-      <c r="D159" s="3" t="s">
+      <c r="G161" s="118"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="112"/>
+      <c r="B162" s="112"/>
+      <c r="C162" s="112"/>
+      <c r="D162" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E162" s="4">
         <v>43808</v>
       </c>
-      <c r="F159" s="54" t="s">
+      <c r="F162" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G159" s="117"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="108"/>
-      <c r="B160" s="108"/>
-      <c r="C160" s="108"/>
-      <c r="D160" s="3" t="s">
+      <c r="G162" s="119"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="112"/>
+      <c r="B163" s="112"/>
+      <c r="C163" s="112"/>
+      <c r="D163" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E163" s="4">
         <v>43808</v>
       </c>
-      <c r="F160" s="59" t="s">
+      <c r="F163" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="G160" s="117"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="108"/>
-      <c r="B161" s="108"/>
-      <c r="C161" s="108"/>
-      <c r="D161" s="5" t="s">
+      <c r="G163" s="119"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="112"/>
+      <c r="B164" s="112"/>
+      <c r="C164" s="112"/>
+      <c r="D164" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E164" s="4">
         <v>43808</v>
       </c>
-      <c r="F161" s="59" t="s">
+      <c r="F164" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G161" s="116"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="108"/>
-      <c r="B162" s="108"/>
-      <c r="C162" s="109"/>
-      <c r="D162" s="5" t="s">
+      <c r="G164" s="120"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="112"/>
+      <c r="B165" s="112"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E165" s="4">
         <v>43811</v>
       </c>
-      <c r="F162" s="59"/>
-      <c r="G162" s="74"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="108"/>
-      <c r="B163" s="108"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="48" t="s">
+      <c r="F165" s="59"/>
+      <c r="G165" s="74"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="112"/>
+      <c r="B166" s="112"/>
+      <c r="C166" s="75"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="108"/>
-      <c r="B164" s="108"/>
-      <c r="C164" s="48" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" s="112"/>
+      <c r="B167" s="112"/>
+      <c r="C167" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E167" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="108"/>
-      <c r="B165" s="108"/>
-      <c r="C165" s="105" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="112"/>
+      <c r="B168" s="112"/>
+      <c r="C168" s="108" t="s">
         <v>628</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="E165" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F165" s="100" t="s">
-        <v>630</v>
-      </c>
-      <c r="G165" s="120" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="108"/>
-      <c r="B166" s="108"/>
-      <c r="C166" s="106"/>
-      <c r="D166" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E166" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F166" s="100" t="s">
-        <v>626</v>
-      </c>
-      <c r="G166" s="121"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="108"/>
-      <c r="B167" s="108"/>
-      <c r="C167" s="106"/>
-      <c r="D167" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E167" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F167" s="102" t="s">
-        <v>637</v>
-      </c>
-      <c r="G167" s="121"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="108"/>
-      <c r="B168" s="108"/>
-      <c r="C168" s="108"/>
-      <c r="D168" s="3" t="s">
-        <v>638</v>
       </c>
       <c r="E168" s="4">
         <v>43822</v>
       </c>
-      <c r="F168" s="102" t="s">
+      <c r="F168" s="99" t="s">
+        <v>630</v>
+      </c>
+      <c r="G168" s="117" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="112"/>
+      <c r="B169" s="112"/>
+      <c r="C169" s="109"/>
+      <c r="D169" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E169" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F169" s="99" t="s">
+        <v>626</v>
+      </c>
+      <c r="G169" s="118"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="112"/>
+      <c r="B170" s="112"/>
+      <c r="C170" s="109"/>
+      <c r="D170" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E170" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F170" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G168" s="117"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="108"/>
-      <c r="B169" s="108"/>
-      <c r="C169" s="108"/>
-      <c r="D169" s="3" t="s">
+      <c r="G170" s="118"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="112"/>
+      <c r="B171" s="112"/>
+      <c r="C171" s="112"/>
+      <c r="D171" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E171" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F171" s="101" t="s">
+        <v>637</v>
+      </c>
+      <c r="G171" s="119"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="112"/>
+      <c r="B172" s="112"/>
+      <c r="C172" s="112"/>
+      <c r="D172" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="E169" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F169" s="102" t="s">
-        <v>647</v>
-      </c>
-      <c r="G169" s="117"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="108"/>
-      <c r="B170" s="108"/>
-      <c r="C170" s="108"/>
-      <c r="D170" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E170" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F170" s="102" t="s">
-        <v>637</v>
-      </c>
-      <c r="G170" s="117"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="109"/>
-      <c r="B171" s="109"/>
-      <c r="C171" s="109"/>
-      <c r="D171" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="E171" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F171" s="102" t="s">
-        <v>637</v>
-      </c>
-      <c r="G171" s="116"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="101"/>
-      <c r="B172" s="101"/>
-      <c r="C172" s="104" t="s">
-        <v>650</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="E172" s="4">
         <v>43823</v>
       </c>
-      <c r="F172" s="102" t="s">
+      <c r="F172" s="101" t="s">
+        <v>647</v>
+      </c>
+      <c r="G172" s="119"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="112"/>
+      <c r="B173" s="112"/>
+      <c r="C173" s="112"/>
+      <c r="D173" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E173" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F173" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G172" s="103" t="s">
+      <c r="G173" s="119"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="113"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E174" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F174" s="101" t="s">
+        <v>637</v>
+      </c>
+      <c r="G174" s="120"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="100"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="125" t="s">
+        <v>650</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E175" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F175" s="101" t="s">
+        <v>637</v>
+      </c>
+      <c r="G175" s="126" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="118" t="s">
+    <row r="176" spans="1:7">
+      <c r="A176" s="104"/>
+      <c r="B176" s="104"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E176" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F176" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G176" s="120"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="104"/>
+      <c r="B177" s="104"/>
+      <c r="C177" s="104"/>
+      <c r="D177" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E177" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F177" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G177" s="107"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="B173" s="118" t="s">
+      <c r="B178" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="C173" s="105" t="s">
+      <c r="C178" s="108" t="s">
         <v>470</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E178" s="4">
         <v>43817</v>
       </c>
-      <c r="F173" s="66" t="s">
+      <c r="F178" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="G173" s="120" t="s">
+      <c r="G178" s="117" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="108"/>
-      <c r="B174" s="108"/>
-      <c r="C174" s="106"/>
-      <c r="D174" s="5" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" s="112"/>
+      <c r="B179" s="112"/>
+      <c r="C179" s="109"/>
+      <c r="D179" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E179" s="4">
         <v>43820</v>
       </c>
-      <c r="F174" s="87" t="s">
+      <c r="F179" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="G174" s="117"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="108"/>
-      <c r="B175" s="108"/>
-      <c r="C175" s="108"/>
-      <c r="D175" s="5" t="s">
+      <c r="G179" s="119"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="112"/>
+      <c r="B180" s="112"/>
+      <c r="C180" s="112"/>
+      <c r="D180" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E180" s="4">
         <v>43821</v>
       </c>
-      <c r="F175" s="91" t="s">
+      <c r="F180" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G175" s="117"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="108"/>
-      <c r="B176" s="108"/>
-      <c r="C176" s="108"/>
-      <c r="D176" s="97" t="s">
+      <c r="G180" s="119"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="112"/>
+      <c r="B181" s="112"/>
+      <c r="C181" s="112"/>
+      <c r="D181" s="96" t="s">
         <v>581</v>
       </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="88"/>
-      <c r="G176" s="117"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="108"/>
-      <c r="B177" s="108"/>
-      <c r="C177" s="108"/>
-      <c r="D177" s="97" t="s">
+      <c r="E181" s="4"/>
+      <c r="F181" s="88"/>
+      <c r="G181" s="119"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="112"/>
+      <c r="B182" s="112"/>
+      <c r="C182" s="112"/>
+      <c r="D182" s="96" t="s">
         <v>582</v>
       </c>
-      <c r="E177" s="4"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="117"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="108"/>
-      <c r="B178" s="108"/>
-      <c r="C178" s="108"/>
-      <c r="D178" s="97" t="s">
+      <c r="E182" s="4"/>
+      <c r="F182" s="88"/>
+      <c r="G182" s="119"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="112"/>
+      <c r="B183" s="112"/>
+      <c r="C183" s="112"/>
+      <c r="D183" s="96" t="s">
         <v>583</v>
       </c>
-      <c r="E178" s="4"/>
-      <c r="F178" s="88"/>
-      <c r="G178" s="117"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="108"/>
-      <c r="B179" s="108"/>
-      <c r="C179" s="108"/>
-      <c r="D179" s="97" t="s">
+      <c r="E183" s="4"/>
+      <c r="F183" s="88"/>
+      <c r="G183" s="119"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="112"/>
+      <c r="B184" s="112"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="96" t="s">
         <v>584</v>
       </c>
-      <c r="E179" s="4"/>
-      <c r="F179" s="88"/>
-      <c r="G179" s="117"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="108"/>
-      <c r="B180" s="108"/>
-      <c r="C180" s="89"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="91"/>
-      <c r="G180" s="93"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="108"/>
-      <c r="B181" s="108"/>
-      <c r="C181" s="118" t="s">
+      <c r="E184" s="4"/>
+      <c r="F184" s="88"/>
+      <c r="G184" s="119"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="112"/>
+      <c r="B185" s="112"/>
+      <c r="C185" s="89"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="90"/>
+      <c r="G185" s="92"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="112"/>
+      <c r="B186" s="112"/>
+      <c r="C186" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E186" s="4">
         <v>43797</v>
       </c>
-      <c r="F181" s="37" t="s">
+      <c r="F186" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="G181" s="120" t="s">
+      <c r="G186" s="117" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="108"/>
-      <c r="B182" s="108"/>
-      <c r="C182" s="108"/>
-      <c r="D182" s="3" t="s">
+    <row r="187" spans="1:7">
+      <c r="A187" s="112"/>
+      <c r="B187" s="112"/>
+      <c r="C187" s="112"/>
+      <c r="D187" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E187" s="4">
         <v>43803</v>
       </c>
-      <c r="F182" s="39" t="s">
+      <c r="F187" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G182" s="117"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="108"/>
-      <c r="B183" s="108"/>
-      <c r="C183" s="108"/>
-      <c r="D183" s="3" t="s">
+      <c r="G187" s="119"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="112"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E188" s="4">
         <v>43804</v>
       </c>
-      <c r="F183" s="39" t="s">
+      <c r="F188" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G183" s="117"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="108"/>
-      <c r="B184" s="108"/>
-      <c r="C184" s="108"/>
-      <c r="D184" s="3" t="s">
+      <c r="G188" s="119"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="112"/>
+      <c r="B189" s="112"/>
+      <c r="C189" s="112"/>
+      <c r="D189" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E189" s="4">
         <v>43804</v>
       </c>
-      <c r="F184" s="39" t="s">
+      <c r="F189" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G184" s="117"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="108"/>
-      <c r="B185" s="108"/>
-      <c r="C185" s="109"/>
-      <c r="D185" s="3" t="s">
+      <c r="G189" s="119"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="112"/>
+      <c r="B190" s="112"/>
+      <c r="C190" s="113"/>
+      <c r="D190" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E190" s="4">
         <v>43804</v>
       </c>
-      <c r="F185" s="78" t="s">
+      <c r="F190" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G185" s="117"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="108"/>
-      <c r="B186" s="108"/>
-      <c r="C186" s="77"/>
-      <c r="D186" s="3" t="s">
+      <c r="G190" s="119"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="112"/>
+      <c r="B191" s="112"/>
+      <c r="C191" s="77"/>
+      <c r="D191" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E191" s="4">
         <v>43819</v>
       </c>
-      <c r="F186" s="78" t="s">
+      <c r="F191" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G186" s="117"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="108"/>
-      <c r="B187" s="108"/>
-      <c r="C187" s="84"/>
-      <c r="D187" s="98"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="82"/>
-      <c r="G187" s="85"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="108"/>
-      <c r="B188" s="108"/>
-      <c r="C188" s="86" t="s">
+      <c r="G191" s="119"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="112"/>
+      <c r="B192" s="112"/>
+      <c r="C192" s="84"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="82"/>
+      <c r="G192" s="85"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="112"/>
+      <c r="B193" s="112"/>
+      <c r="C193" s="86" t="s">
         <v>576</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E193" s="4">
         <v>43819</v>
       </c>
-      <c r="F188" s="82" t="s">
+      <c r="F193" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G188" s="85" t="s">
+      <c r="G193" s="85" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="108"/>
-      <c r="B189" s="108"/>
-      <c r="C189" s="39" t="s">
+    <row r="194" spans="1:7">
+      <c r="A194" s="112"/>
+      <c r="B194" s="112"/>
+      <c r="C194" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E189" s="4"/>
-      <c r="F189" s="39"/>
-      <c r="G189" s="85"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="108"/>
-      <c r="B190" s="108"/>
-      <c r="C190" s="43" t="s">
+      <c r="E194" s="4"/>
+      <c r="F194" s="39"/>
+      <c r="G194" s="85"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="112"/>
+      <c r="B195" s="112"/>
+      <c r="C195" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="E190" s="4"/>
-      <c r="F190" s="39"/>
-      <c r="G190" s="41"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="108"/>
-      <c r="B191" s="108"/>
-      <c r="C191" s="43" t="s">
+      <c r="E195" s="4"/>
+      <c r="F195" s="39"/>
+      <c r="G195" s="41"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="112"/>
+      <c r="B196" s="112"/>
+      <c r="C196" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="E191" s="4"/>
-      <c r="F191" s="2" t="s">
+      <c r="E196" s="4"/>
+      <c r="F196" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G191" s="118" t="s">
+      <c r="G196" s="115" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="108"/>
-      <c r="B192" s="108"/>
-      <c r="C192" s="118" t="s">
+    <row r="197" spans="1:7">
+      <c r="A197" s="112"/>
+      <c r="B197" s="112"/>
+      <c r="C197" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E192" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G192" s="119"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="108"/>
-      <c r="B193" s="108"/>
-      <c r="C193" s="119"/>
-      <c r="D193" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E193" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G193" s="119"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="108"/>
-      <c r="B194" s="108"/>
-      <c r="C194" s="119"/>
-      <c r="D194" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E194" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G194" s="118" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="108"/>
-      <c r="B195" s="108"/>
-      <c r="C195" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E195" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G195" s="119"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="108"/>
-      <c r="B196" s="108"/>
-      <c r="C196" s="119"/>
-      <c r="D196" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E196" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G196" s="119"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="108"/>
-      <c r="B197" s="108"/>
-      <c r="C197" s="119"/>
-      <c r="D197" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E197" s="4">
         <v>43799</v>
       </c>
       <c r="F197" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G197" s="116"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="112"/>
+      <c r="B198" s="112"/>
+      <c r="C198" s="116"/>
+      <c r="D198" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E198" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G198" s="116"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="112"/>
+      <c r="B199" s="112"/>
+      <c r="C199" s="116"/>
+      <c r="D199" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E199" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="109"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="108"/>
-      <c r="B198" s="108"/>
-      <c r="C198" s="108"/>
-      <c r="D198" s="3" t="s">
+      <c r="G199" s="115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="112"/>
+      <c r="B200" s="112"/>
+      <c r="C200" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="116"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="112"/>
+      <c r="B201" s="112"/>
+      <c r="C201" s="116"/>
+      <c r="D201" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E201" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="116"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="112"/>
+      <c r="B202" s="112"/>
+      <c r="C202" s="116"/>
+      <c r="D202" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E202" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="113"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="112"/>
+      <c r="B203" s="112"/>
+      <c r="C203" s="112"/>
+      <c r="D203" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E203" s="4">
         <v>43800</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="108"/>
-      <c r="B199" s="108"/>
-      <c r="C199" s="108"/>
-      <c r="D199" s="3" t="s">
+    <row r="204" spans="1:7">
+      <c r="A204" s="112"/>
+      <c r="B204" s="112"/>
+      <c r="C204" s="112"/>
+      <c r="D204" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E204" s="4">
         <v>43800</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="108"/>
-      <c r="B200" s="108"/>
-      <c r="C200" s="109"/>
-      <c r="D200" s="3" t="s">
+    <row r="205" spans="1:7">
+      <c r="A205" s="112"/>
+      <c r="B205" s="112"/>
+      <c r="C205" s="113"/>
+      <c r="D205" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E205" s="4">
         <v>43800</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="108"/>
-      <c r="B201" s="108"/>
-      <c r="C201" s="118" t="s">
+    <row r="206" spans="1:7">
+      <c r="A206" s="112"/>
+      <c r="B206" s="112"/>
+      <c r="C206" s="115" t="s">
         <v>318</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D206" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="108"/>
-      <c r="B202" s="108"/>
-      <c r="C202" s="122"/>
-      <c r="D202" s="3" t="s">
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="112"/>
+      <c r="B207" s="112"/>
+      <c r="C207" s="135"/>
+      <c r="D207" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E202" s="4"/>
-      <c r="F202" s="2" t="s">
+      <c r="E207" s="4"/>
+      <c r="F207" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G202" s="3" t="s">
+      <c r="G207" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="108"/>
-      <c r="B203" s="108"/>
-      <c r="C203" s="40" t="s">
+    <row r="208" spans="1:7">
+      <c r="A208" s="112"/>
+      <c r="B208" s="112"/>
+      <c r="C208" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E208" s="4">
         <v>43804</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="108"/>
-      <c r="B204" s="108"/>
-      <c r="C204" s="105" t="s">
+    <row r="209" spans="1:7">
+      <c r="A209" s="112"/>
+      <c r="B209" s="112"/>
+      <c r="C209" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D209" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E209" s="7">
         <v>43812</v>
       </c>
-      <c r="F204" s="62" t="s">
+      <c r="F209" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="G204" s="120" t="s">
+      <c r="G209" s="117" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="108"/>
-      <c r="B205" s="108"/>
-      <c r="C205" s="108"/>
-      <c r="D205" s="5" t="s">
+    <row r="210" spans="1:7">
+      <c r="A210" s="112"/>
+      <c r="B210" s="112"/>
+      <c r="C210" s="112"/>
+      <c r="D210" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E210" s="7">
         <v>43821</v>
       </c>
-      <c r="F205" s="91" t="s">
+      <c r="F210" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G205" s="117"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="108"/>
-      <c r="B206" s="108"/>
-      <c r="C206" s="109"/>
-      <c r="D206" s="5" t="s">
+      <c r="G210" s="119"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="112"/>
+      <c r="B211" s="112"/>
+      <c r="C211" s="113"/>
+      <c r="D211" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E211" s="7">
         <v>43821</v>
       </c>
-      <c r="F206" s="91" t="s">
+      <c r="F211" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G206" s="116"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="108"/>
-      <c r="B207" s="108"/>
-      <c r="C207" s="105" t="s">
+      <c r="G211" s="120"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="112"/>
+      <c r="B212" s="112"/>
+      <c r="C212" s="108" t="s">
         <v>463</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E212" s="4">
         <v>43815</v>
       </c>
-      <c r="F207" s="33" t="s">
+      <c r="F212" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G207" s="110" t="s">
+      <c r="G212" s="121" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="108"/>
-      <c r="B208" s="108"/>
-      <c r="C208" s="106"/>
-      <c r="D208" s="3" t="s">
+    <row r="213" spans="1:7">
+      <c r="A213" s="112"/>
+      <c r="B213" s="112"/>
+      <c r="C213" s="109"/>
+      <c r="D213" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E213" s="4">
         <v>43815</v>
       </c>
-      <c r="F208" s="63" t="s">
+      <c r="F213" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G208" s="111"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="108"/>
-      <c r="B209" s="108"/>
-      <c r="C209" s="109"/>
-      <c r="D209" s="3" t="s">
+      <c r="G213" s="122"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="112"/>
+      <c r="B214" s="112"/>
+      <c r="C214" s="113"/>
+      <c r="D214" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E214" s="4">
         <v>43815</v>
       </c>
-      <c r="F209" s="63" t="s">
+      <c r="F214" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G209" s="116"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="109"/>
-      <c r="B210" s="109"/>
-      <c r="C210" s="96" t="s">
+      <c r="G214" s="120"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="113"/>
+      <c r="B215" s="113"/>
+      <c r="C215" s="95" t="s">
         <v>589</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D215" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E215" s="4">
         <v>43821</v>
       </c>
-      <c r="F210" s="91" t="s">
+      <c r="F215" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G210" s="94" t="s">
+      <c r="G215" s="93" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="105" t="s">
+    <row r="216" spans="1:7">
+      <c r="A216" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="B211" s="105" t="s">
+      <c r="B216" s="108" t="s">
         <v>645</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="C216" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E216" s="4">
         <v>43802</v>
       </c>
-      <c r="F211" s="33" t="s">
+      <c r="F216" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G211" s="3" t="s">
+      <c r="G216" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="109"/>
-      <c r="B212" s="109"/>
-      <c r="C212" s="33" t="s">
+    <row r="217" spans="1:7">
+      <c r="A217" s="113"/>
+      <c r="B217" s="113"/>
+      <c r="C217" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D217" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E217" s="4">
         <v>43802</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="105" t="s">
+    <row r="218" spans="1:7">
+      <c r="A218" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B213" s="118" t="s">
+      <c r="B218" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="C213" s="118" t="s">
+      <c r="C218" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D218" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="E213" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F213" s="99" t="s">
-        <v>619</v>
-      </c>
-      <c r="G213" s="120" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="108"/>
-      <c r="B214" s="108"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E214" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F214" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G214" s="121"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="108"/>
-      <c r="B215" s="108"/>
-      <c r="C215" s="108"/>
-      <c r="D215" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E215" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F215" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G215" s="121"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="108"/>
-      <c r="B216" s="108"/>
-      <c r="C216" s="109"/>
-      <c r="D216" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E216" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F216" s="100" t="s">
-        <v>626</v>
-      </c>
-      <c r="G216" s="116"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="108"/>
-      <c r="B217" s="108"/>
-      <c r="C217" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E217" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F217" s="100" t="s">
-        <v>630</v>
-      </c>
-      <c r="G217" s="120" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="108"/>
-      <c r="B218" s="108"/>
-      <c r="C218" s="122"/>
-      <c r="D218" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="E218" s="4">
         <v>43822</v>
       </c>
-      <c r="F218" s="100" t="s">
+      <c r="F218" s="98" t="s">
+        <v>619</v>
+      </c>
+      <c r="G218" s="117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="112"/>
+      <c r="B219" s="112"/>
+      <c r="C219" s="116"/>
+      <c r="D219" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E219" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F219" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G219" s="118"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="112"/>
+      <c r="B220" s="112"/>
+      <c r="C220" s="112"/>
+      <c r="D220" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E220" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F220" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G220" s="118"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="112"/>
+      <c r="B221" s="112"/>
+      <c r="C221" s="113"/>
+      <c r="D221" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E221" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F221" s="99" t="s">
+        <v>626</v>
+      </c>
+      <c r="G221" s="120"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="112"/>
+      <c r="B222" s="112"/>
+      <c r="C222" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E222" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F222" s="99" t="s">
         <v>630</v>
       </c>
-      <c r="G218" s="123"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="108"/>
-      <c r="B219" s="108"/>
-      <c r="C219" s="118" t="s">
+      <c r="G222" s="117" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="112"/>
+      <c r="B223" s="112"/>
+      <c r="C223" s="135"/>
+      <c r="D223" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E223" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F223" s="99" t="s">
+        <v>630</v>
+      </c>
+      <c r="G223" s="134"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="112"/>
+      <c r="B224" s="112"/>
+      <c r="C224" s="115" t="s">
         <v>310</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="108"/>
-      <c r="B220" s="108"/>
-      <c r="C220" s="122"/>
-      <c r="D220" s="3" t="s">
+    <row r="225" spans="1:7">
+      <c r="A225" s="112"/>
+      <c r="B225" s="112"/>
+      <c r="C225" s="135"/>
+      <c r="D225" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="109"/>
-      <c r="B221" s="109"/>
-      <c r="C221" s="2" t="s">
+    <row r="226" spans="1:7">
+      <c r="A226" s="113"/>
+      <c r="B226" s="113"/>
+      <c r="C226" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D226" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E226" s="4">
         <v>43819</v>
       </c>
-      <c r="F221" s="82" t="s">
+      <c r="F226" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="G226" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="63" t="s">
+    <row r="227" spans="1:7">
+      <c r="A227" s="105"/>
+      <c r="B227" s="105"/>
+      <c r="C227" s="106" t="s">
+        <v>666</v>
+      </c>
+      <c r="D227" s="96" t="s">
+        <v>665</v>
+      </c>
+      <c r="E227" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F227" s="49" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B222" s="48" t="s">
+      <c r="B228" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="C222" s="48" t="s">
+      <c r="C228" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D222" s="50" t="s">
+      <c r="D228" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E222" s="49" t="s">
+      <c r="E228" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="G228" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="118" t="s">
+    <row r="230" spans="1:7">
+      <c r="A230" s="115" t="s">
         <v>448</v>
       </c>
-      <c r="B224" s="118" t="s">
+      <c r="B230" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="C224" s="118" t="s">
+      <c r="C230" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="E224" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G224" s="120" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="119"/>
-      <c r="B225" s="119"/>
-      <c r="C225" s="119"/>
-      <c r="D225" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E225" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G225" s="121"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="119"/>
-      <c r="B226" s="119"/>
-      <c r="C226" s="119"/>
-      <c r="D226" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E226" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G226" s="121"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="119"/>
-      <c r="B227" s="119"/>
-      <c r="C227" s="108"/>
-      <c r="D227" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E227" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F227" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G227" s="117"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="119"/>
-      <c r="B228" s="119"/>
-      <c r="C228" s="109"/>
-      <c r="D228" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E228" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F228" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G228" s="116"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="108"/>
-      <c r="B229" s="108"/>
-      <c r="C229" s="105" t="s">
-        <v>456</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E229" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F229" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G229" s="120" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="108"/>
-      <c r="B230" s="108"/>
-      <c r="C230" s="108"/>
-      <c r="D230" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="E230" s="4">
         <v>43815</v>
       </c>
-      <c r="F230" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G230" s="121"/>
+      <c r="F230" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G230" s="117" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="108"/>
-      <c r="B231" s="108"/>
-      <c r="C231" s="108"/>
+      <c r="A231" s="116"/>
+      <c r="B231" s="116"/>
+      <c r="C231" s="116"/>
       <c r="D231" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E231" s="4">
         <v>43815</v>
       </c>
-      <c r="F231" s="63" t="s">
+      <c r="F231" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G231" s="118"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="116"/>
+      <c r="B232" s="116"/>
+      <c r="C232" s="116"/>
+      <c r="D232" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E232" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G232" s="118"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="116"/>
+      <c r="B233" s="116"/>
+      <c r="C233" s="112"/>
+      <c r="D233" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E233" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F233" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G231" s="121"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="109"/>
-      <c r="B232" s="109"/>
-      <c r="C232" s="109"/>
-      <c r="D232" s="3" t="s">
+      <c r="G233" s="119"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="116"/>
+      <c r="B234" s="116"/>
+      <c r="C234" s="113"/>
+      <c r="D234" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E234" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F234" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G234" s="120"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="112"/>
+      <c r="B235" s="112"/>
+      <c r="C235" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E235" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F235" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G235" s="117" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="112"/>
+      <c r="B236" s="112"/>
+      <c r="C236" s="112"/>
+      <c r="D236" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E236" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F236" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G236" s="118"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="112"/>
+      <c r="B237" s="112"/>
+      <c r="C237" s="112"/>
+      <c r="D237" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E237" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F237" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G237" s="118"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="113"/>
+      <c r="B238" s="113"/>
+      <c r="C238" s="113"/>
+      <c r="D238" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E238" s="4">
         <v>43819</v>
       </c>
-      <c r="F232" s="82" t="s">
+      <c r="F238" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G232" s="116"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="2" t="s">
+      <c r="G238" s="120"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E239" s="4">
         <v>43822</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F239" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G239" s="3" t="s">
         <v>606</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B173:B210"/>
-    <mergeCell ref="A173:A210"/>
-    <mergeCell ref="G165:G171"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="B152:B171"/>
-    <mergeCell ref="A152:A171"/>
-    <mergeCell ref="A93:A125"/>
-    <mergeCell ref="G204:G206"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="C173:C179"/>
-    <mergeCell ref="G173:G179"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="C68:C70"/>
+  <mergeCells count="107">
+    <mergeCell ref="G114:G121"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="B230:B238"/>
+    <mergeCell ref="G218:G221"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="A230:A238"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="C230:C234"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C161:C165"/>
+    <mergeCell ref="G151:G153"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="C132:C141"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B218:B226"/>
+    <mergeCell ref="G160:G164"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="G143:G150"/>
+    <mergeCell ref="G132:G141"/>
+    <mergeCell ref="C143:C150"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="G99:G106"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="G212:G214"/>
+    <mergeCell ref="C200:C205"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B70"/>
-    <mergeCell ref="A3:A70"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="G57:G58"/>
@@ -9028,68 +9230,47 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B213:B221"/>
-    <mergeCell ref="G157:G161"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="G140:G147"/>
-    <mergeCell ref="G129:G138"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="G98:G105"/>
-    <mergeCell ref="A126:A150"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="G191:G193"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C129:C138"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="B126:B150"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="B93:B125"/>
-    <mergeCell ref="C114:C121"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="B224:B232"/>
-    <mergeCell ref="G213:G216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A224:A232"/>
-    <mergeCell ref="G229:G232"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="G224:G228"/>
-    <mergeCell ref="C224:C228"/>
-    <mergeCell ref="A213:A221"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="C181:C185"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="G20:G26"/>
-    <mergeCell ref="G181:G186"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="G207:G209"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="G194:G197"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="C29:C42"/>
     <mergeCell ref="G29:G42"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="G113:G120"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B178:B215"/>
+    <mergeCell ref="A178:A215"/>
+    <mergeCell ref="G168:G174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="B155:B174"/>
+    <mergeCell ref="A155:A174"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="C178:C184"/>
+    <mergeCell ref="G178:G184"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="B3:B72"/>
+    <mergeCell ref="A3:A72"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="B130:B153"/>
+    <mergeCell ref="A130:A153"/>
+    <mergeCell ref="B94:B129"/>
+    <mergeCell ref="A94:A129"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9127,10 +9308,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="138" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -9142,13 +9323,13 @@
       <c r="E3" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="136" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="18" t="s">
         <v>233</v>
       </c>
@@ -9158,11 +9339,11 @@
       <c r="E4" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="29" t="s">
         <v>235</v>
       </c>
@@ -9172,11 +9353,11 @@
       <c r="E5" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="133"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="29" t="s">
         <v>237</v>
       </c>
@@ -9186,7 +9367,7 @@
       <c r="E6" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="133"/>
+      <c r="F6" s="137"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15" t="s">
@@ -9194,10 +9375,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="129" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="129" t="s">
         <v>610</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -9209,13 +9390,13 @@
       <c r="E8" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="140" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="18" t="s">
         <v>615</v>
       </c>
@@ -9225,11 +9406,11 @@
       <c r="E9" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="137"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="18" t="s">
         <v>616</v>
       </c>
@@ -9239,11 +9420,11 @@
       <c r="E10" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="18" t="s">
         <v>617</v>
       </c>
@@ -9253,11 +9434,11 @@
       <c r="E11" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F11" s="137"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="18" t="s">
         <v>618</v>
       </c>
@@ -9267,7 +9448,7 @@
       <c r="E12" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="F12" s="138"/>
+      <c r="F12" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9305,13 +9486,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="129" t="s">
         <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -9324,13 +9505,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="113" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -9360,7 +9541,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="125" t="s">
         <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -9368,25 +9549,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="140"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="141"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="138" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -9394,33 +9575,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -9428,7 +9609,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="125" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -9438,7 +9619,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="140"/>
+      <c r="C13" s="143"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -9446,7 +9627,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -9460,10 +9641,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="129" t="s">
         <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -9483,8 +9664,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="15" t="s">
         <v>273</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="671">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2929,9 +2929,6 @@
     <t>RD-微分波形.pdf</t>
   </si>
   <si>
-    <t>蓝牙4.0 BLE开发完全手册-物联网开发技术实战.pdf</t>
-  </si>
-  <si>
     <r>
       <t>B</t>
     </r>
@@ -2947,8 +2944,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RD-蓝牙4.0 BLE开发完全手册-物联网开发技术实战.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\BlueTooth</t>
+  </si>
+  <si>
+    <t>CC2540-BLE-低功耗蓝牙4.0-透传模块-硬件手册.pdf</t>
+  </si>
+  <si>
+    <t>BLE4.0贴片模块手册.pdf</t>
+  </si>
+  <si>
+    <t>SmartRFStudio使用教程在线调试.pdf</t>
   </si>
 </sst>
 </file>
@@ -3063,7 +3072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3374,6 +3383,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3383,17 +3398,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3407,23 +3440,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3450,12 +3471,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3799,15 +3814,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3833,13 +3848,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="120" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3856,9 +3871,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3873,22 +3888,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="120" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3905,9 +3920,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3922,9 +3937,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3939,9 +3954,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3956,9 +3971,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3973,8 +3988,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -3982,9 +3997,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="108" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="110" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3996,14 +4011,14 @@
       <c r="F12" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="115" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
@@ -4013,12 +4028,12 @@
       <c r="F13" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="122"/>
+      <c r="G13" s="116"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
@@ -4028,12 +4043,12 @@
       <c r="F14" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="122"/>
+      <c r="G14" s="116"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="110"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
@@ -4043,16 +4058,16 @@
       <c r="F15" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="123"/>
+      <c r="G15" s="117"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -4087,13 +4102,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="110" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="110" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="110" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4105,25 +4120,25 @@
       <c r="F19" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="115" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="122"/>
+      <c r="G20" s="116"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
@@ -4133,12 +4148,12 @@
       <c r="F21" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="122"/>
+      <c r="G21" s="116"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
@@ -4148,12 +4163,12 @@
       <c r="F22" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="122"/>
+      <c r="G22" s="116"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
@@ -4163,12 +4178,12 @@
       <c r="F23" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="119"/>
+      <c r="G23" s="122"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
@@ -4178,12 +4193,12 @@
       <c r="F24" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="119"/>
+      <c r="G24" s="122"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
@@ -4193,12 +4208,12 @@
       <c r="F25" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="119"/>
+      <c r="G25" s="122"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
@@ -4208,12 +4223,12 @@
       <c r="F26" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="119"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
@@ -4223,12 +4238,12 @@
       <c r="F27" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="119"/>
+      <c r="G27" s="122"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
@@ -4238,12 +4253,12 @@
       <c r="F28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="119"/>
+      <c r="G28" s="122"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
@@ -4253,12 +4268,12 @@
       <c r="F29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="119"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
@@ -4268,12 +4283,12 @@
       <c r="F30" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="119"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
@@ -4283,12 +4298,12 @@
       <c r="F31" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="119"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
@@ -4298,12 +4313,12 @@
       <c r="F32" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="119"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
@@ -4313,7 +4328,7 @@
       <c r="F33" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="120"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4325,13 +4340,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="120" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -4343,14 +4358,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="121" t="s">
+      <c r="G35" s="115" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4360,12 +4375,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="122"/>
+      <c r="G36" s="116"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4375,12 +4390,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="122"/>
+      <c r="G37" s="116"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4390,7 +4405,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="122"/>
+      <c r="G38" s="116"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -4405,7 +4420,7 @@
       <c r="F39" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="123"/>
+      <c r="G39" s="117"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4417,13 +4432,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="110" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4435,14 +4450,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="121" t="s">
+      <c r="G41" s="115" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4452,7 +4467,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="122"/>
+      <c r="G42" s="116"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -4467,7 +4482,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="123"/>
+      <c r="G43" s="117"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4479,13 +4494,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="110" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4497,14 +4512,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="121" t="s">
+      <c r="G45" s="115" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="112"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4514,23 +4529,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="122"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="112"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="122"/>
+      <c r="G47" s="116"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="112"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
@@ -4540,12 +4555,12 @@
       <c r="F48" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="122"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="113"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
@@ -4555,22 +4570,22 @@
       <c r="F49" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="120"/>
+      <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="110" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -4590,8 +4605,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -4599,9 +4614,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="108" t="s">
+      <c r="A53" s="113"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="110" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4613,14 +4628,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="111" t="s">
+      <c r="G53" s="120" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="109"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4630,12 +4645,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="111"/>
+      <c r="G54" s="120"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="112"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="109"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4645,12 +4660,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="111"/>
+      <c r="G55" s="120"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="109"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4660,12 +4675,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="111"/>
+      <c r="G56" s="120"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="112"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="109"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4675,12 +4690,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="111"/>
+      <c r="G57" s="120"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4690,12 +4705,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="111"/>
+      <c r="G58" s="120"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -4704,9 +4719,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="113"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -4715,8 +4730,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="112"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -4724,9 +4739,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="108" t="s">
+      <c r="A62" s="113"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="110" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4738,25 +4753,25 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="121" t="s">
+      <c r="G62" s="115" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="109"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="122"/>
+      <c r="G63" s="116"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
@@ -4766,12 +4781,12 @@
       <c r="F64" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="122"/>
+      <c r="G64" s="116"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="112"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
@@ -4781,12 +4796,12 @@
       <c r="F65" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="122"/>
+      <c r="G65" s="116"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="112"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="113"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
@@ -4796,11 +4811,11 @@
       <c r="F66" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="123"/>
+      <c r="G66" s="117"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="112"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -4808,8 +4823,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="112"/>
-      <c r="B68" s="112"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="45" t="s">
         <v>343</v>
       </c>
@@ -4821,8 +4836,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="112"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -4830,9 +4845,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="112"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="108" t="s">
+      <c r="A70" s="113"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="110" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4844,14 +4859,14 @@
       <c r="F70" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="121" t="s">
+      <c r="G70" s="115" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="112"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="109"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
@@ -4861,12 +4876,12 @@
       <c r="F71" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="122"/>
+      <c r="G71" s="116"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="112"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="112"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
@@ -4876,12 +4891,12 @@
       <c r="F72" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="122"/>
+      <c r="G72" s="116"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="112"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
@@ -4891,12 +4906,12 @@
       <c r="F73" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="119"/>
+      <c r="G73" s="122"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="113"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="112"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="113"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
@@ -4906,12 +4921,12 @@
       <c r="F74" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="119"/>
+      <c r="G74" s="122"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="113"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
@@ -4921,7 +4936,7 @@
       <c r="F75" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="120"/>
+      <c r="G75" s="121"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -4933,10 +4948,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="110" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -4956,9 +4971,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="112"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="108" t="s">
+      <c r="A78" s="113"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="110" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4970,14 +4985,14 @@
       <c r="F78" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="121" t="s">
+      <c r="G78" s="115" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="112"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
@@ -4987,12 +5002,12 @@
       <c r="F79" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="123"/>
+      <c r="G79" s="117"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="112"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="108" t="s">
+      <c r="A80" s="113"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="110" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5004,14 +5019,14 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="121" t="s">
+      <c r="G80" s="115" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="112"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="109"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="111"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
@@ -5021,12 +5036,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="122"/>
+      <c r="G81" s="116"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="112"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
+      <c r="A82" s="113"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
@@ -5036,12 +5051,12 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="122"/>
+      <c r="G82" s="116"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="112"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="113"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="114"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
@@ -5051,12 +5066,12 @@
       <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="120"/>
+      <c r="G83" s="121"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="113"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="108" t="s">
+      <c r="A84" s="114"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="110" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5070,8 +5085,8 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="113"/>
-      <c r="C85" s="110"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="68" t="s">
         <v>482</v>
       </c>
@@ -5082,22 +5097,22 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="114"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="119"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="115" t="s">
+      <c r="C87" s="123" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5109,14 +5124,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="117" t="s">
+      <c r="G87" s="125" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="109"/>
-      <c r="B88" s="109"/>
-      <c r="C88" s="116"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5126,12 +5141,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="118"/>
+      <c r="G88" s="126"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="109"/>
-      <c r="B89" s="109"/>
-      <c r="C89" s="116"/>
+      <c r="A89" s="111"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5141,12 +5156,12 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="118"/>
+      <c r="G89" s="126"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="109"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="111"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="113"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
@@ -5156,12 +5171,12 @@
       <c r="F90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="119"/>
+      <c r="G90" s="122"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="109"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="112"/>
+      <c r="A91" s="111"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="113"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
@@ -5171,12 +5186,12 @@
       <c r="F91" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="119"/>
+      <c r="G91" s="122"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="111"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="113"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
@@ -5186,12 +5201,12 @@
       <c r="F92" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="119"/>
+      <c r="G92" s="122"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="109"/>
-      <c r="B93" s="109"/>
-      <c r="C93" s="113"/>
+      <c r="A93" s="111"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="114"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
@@ -5201,11 +5216,11 @@
       <c r="F93" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="120"/>
+      <c r="G93" s="121"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="109"/>
-      <c r="B94" s="109"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="111"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5223,9 +5238,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="109"/>
-      <c r="B95" s="109"/>
-      <c r="C95" s="108" t="s">
+      <c r="A95" s="111"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="110" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5242,9 +5257,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="109"/>
-      <c r="B96" s="109"/>
-      <c r="C96" s="110"/>
+      <c r="A96" s="111"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5253,8 +5268,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="109"/>
-      <c r="B97" s="109"/>
+      <c r="A97" s="111"/>
+      <c r="B97" s="111"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5272,9 +5287,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="112"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="108" t="s">
+      <c r="A98" s="113"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="110" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5285,9 +5300,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="112"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="109"/>
+      <c r="A99" s="113"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5296,9 +5311,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="110"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -5307,8 +5322,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="113"/>
-      <c r="B101" s="113"/>
+      <c r="A101" s="114"/>
+      <c r="B101" s="114"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -5326,19 +5341,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="114"/>
-      <c r="B102" s="114"/>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
-      <c r="G102" s="114"/>
+      <c r="A102" s="119"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="108" t="s">
+      <c r="A103" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="110" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5356,8 +5371,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="109"/>
-      <c r="B104" s="109"/>
+      <c r="A104" s="111"/>
+      <c r="B104" s="111"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5373,8 +5388,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="109"/>
-      <c r="B105" s="109"/>
+      <c r="A105" s="111"/>
+      <c r="B105" s="111"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5392,9 +5407,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="109"/>
-      <c r="B106" s="109"/>
-      <c r="C106" s="111" t="s">
+      <c r="A106" s="111"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="120" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5407,9 +5422,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="109"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="111"/>
+      <c r="A107" s="111"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="120"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
       </c>
@@ -5418,13 +5433,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="108" t="s">
+      <c r="A109" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="108" t="s">
+      <c r="B109" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="108" t="s">
+      <c r="C109" s="110" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5441,9 +5456,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="109"/>
-      <c r="B110" s="109"/>
-      <c r="C110" s="109"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5455,9 +5470,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="109"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="111"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5469,9 +5484,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="109"/>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
+      <c r="A112" s="111"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="111"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5484,12 +5499,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C53:C60"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5506,41 +5550,12 @@
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="G19:G33"/>
     <mergeCell ref="C19:C33"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A51:A74"/>
-    <mergeCell ref="B51:B74"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,10 +5567,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+      <selection activeCell="D228" sqref="D228:D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5571,15 +5586,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5605,13 +5620,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="110" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5623,14 +5638,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="115" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="109"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -5640,12 +5655,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -5655,12 +5670,12 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="123"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="110" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5672,14 +5687,14 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="115" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="5" t="s">
         <v>533</v>
       </c>
@@ -5689,12 +5704,12 @@
       <c r="F7" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G7" s="119"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="5" t="s">
         <v>535</v>
       </c>
@@ -5704,12 +5719,12 @@
       <c r="F8" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G8" s="119"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="112"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="5" t="s">
         <v>536</v>
       </c>
@@ -5719,89 +5734,89 @@
       <c r="F9" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="112"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="80" t="s">
         <v>537</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="119"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="80" t="s">
         <v>538</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="119"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="80" t="s">
         <v>539</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="119"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="112"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="80" t="s">
         <v>540</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="119"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="112"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="80" t="s">
         <v>541</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="119"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="112"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="80" t="s">
         <v>542</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="119"/>
+      <c r="G15" s="122"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="80" t="s">
         <v>543</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="120"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="115" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="123" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -5813,14 +5828,14 @@
       <c r="F17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
@@ -5830,11 +5845,11 @@
       <c r="F18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="123"/>
+      <c r="G18" s="117"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="91"/>
       <c r="D19" s="5" t="s">
         <v>588</v>
@@ -5848,9 +5863,9 @@
       <c r="G19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="115" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="123" t="s">
         <v>223</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -5862,14 +5877,14 @@
       <c r="F20" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G20" s="115" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="5" t="s">
         <v>222</v>
       </c>
@@ -5879,12 +5894,12 @@
       <c r="F21" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="119"/>
+      <c r="G21" s="122"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="5" t="s">
         <v>527</v>
       </c>
@@ -5894,12 +5909,12 @@
       <c r="F22" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="5" t="s">
         <v>565</v>
       </c>
@@ -5909,12 +5924,12 @@
       <c r="F23" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G23" s="119"/>
+      <c r="G23" s="122"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="5" t="s">
         <v>566</v>
       </c>
@@ -5924,12 +5939,12 @@
       <c r="F24" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G24" s="119"/>
+      <c r="G24" s="122"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="5" t="s">
         <v>567</v>
       </c>
@@ -5939,12 +5954,12 @@
       <c r="F25" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="119"/>
+      <c r="G25" s="122"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="5" t="s">
         <v>568</v>
       </c>
@@ -5954,12 +5969,12 @@
       <c r="F26" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="120"/>
+      <c r="G26" s="121"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="115" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="123" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -5976,9 +5991,9 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="5" t="s">
         <v>236</v>
       </c>
@@ -5987,9 +6002,9 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="108" t="s">
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="110" t="s">
         <v>239</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6001,14 +6016,14 @@
       <c r="F29" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="115" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="5" t="s">
         <v>242</v>
       </c>
@@ -6018,12 +6033,12 @@
       <c r="F30" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="122"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="5" t="s">
         <v>244</v>
       </c>
@@ -6033,12 +6048,12 @@
       <c r="F31" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="122"/>
+      <c r="G31" s="116"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="5" t="s">
         <v>245</v>
       </c>
@@ -6048,12 +6063,12 @@
       <c r="F32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="122"/>
+      <c r="G32" s="116"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="5" t="s">
         <v>246</v>
       </c>
@@ -6063,12 +6078,12 @@
       <c r="F33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="122"/>
+      <c r="G33" s="116"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="5" t="s">
         <v>368</v>
       </c>
@@ -6078,12 +6093,12 @@
       <c r="F34" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="G34" s="119"/>
+      <c r="G34" s="122"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="5" t="s">
         <v>497</v>
       </c>
@@ -6093,12 +6108,12 @@
       <c r="F35" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G35" s="119"/>
+      <c r="G35" s="122"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>499</v>
       </c>
@@ -6108,12 +6123,12 @@
       <c r="F36" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G36" s="119"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="5" t="s">
         <v>500</v>
       </c>
@@ -6123,12 +6138,12 @@
       <c r="F37" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="119"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="5" t="s">
         <v>502</v>
       </c>
@@ -6138,12 +6153,12 @@
       <c r="F38" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="119"/>
+      <c r="G38" s="122"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="5" t="s">
         <v>504</v>
       </c>
@@ -6153,12 +6168,12 @@
       <c r="F39" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="119"/>
+      <c r="G39" s="122"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="5" t="s">
         <v>503</v>
       </c>
@@ -6168,12 +6183,12 @@
       <c r="F40" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="119"/>
+      <c r="G40" s="122"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="5" t="s">
         <v>505</v>
       </c>
@@ -6183,12 +6198,12 @@
       <c r="F41" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="119"/>
+      <c r="G41" s="122"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="5" t="s">
         <v>506</v>
       </c>
@@ -6198,12 +6213,12 @@
       <c r="F42" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="119"/>
+      <c r="G42" s="122"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="108" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="110" t="s">
         <v>639</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -6215,14 +6230,14 @@
       <c r="F43" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G43" s="121" t="s">
+      <c r="G43" s="115" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="5" t="s">
         <v>642</v>
       </c>
@@ -6232,12 +6247,12 @@
       <c r="F44" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G44" s="119"/>
+      <c r="G44" s="122"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="112"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="5" t="s">
         <v>643</v>
       </c>
@@ -6247,12 +6262,12 @@
       <c r="F45" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G45" s="120"/>
+      <c r="G45" s="121"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="112"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="108" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="110" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -6264,14 +6279,14 @@
       <c r="F46" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="121" t="s">
+      <c r="G46" s="115" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="112"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="109"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="5" t="s">
         <v>264</v>
       </c>
@@ -6281,12 +6296,12 @@
       <c r="F47" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="122"/>
+      <c r="G47" s="116"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="112"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="5" t="s">
         <v>276</v>
       </c>
@@ -6296,12 +6311,12 @@
       <c r="F48" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="122"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="112"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="5" t="s">
         <v>277</v>
       </c>
@@ -6311,12 +6326,12 @@
       <c r="F49" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="123"/>
+      <c r="G49" s="117"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="112"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="108" t="s">
+      <c r="A50" s="113"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="110" t="s">
         <v>280</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -6328,14 +6343,14 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="121" t="s">
+      <c r="G50" s="115" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="112"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="109"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="5" t="s">
         <v>279</v>
       </c>
@@ -6345,12 +6360,12 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="122"/>
+      <c r="G51" s="116"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="5" t="s">
         <v>283</v>
       </c>
@@ -6360,12 +6375,12 @@
       <c r="F52" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="120"/>
+      <c r="G52" s="121"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="108" t="s">
+      <c r="A53" s="113"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="110" t="s">
         <v>284</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -6377,14 +6392,14 @@
       <c r="F53" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G53" s="121" t="s">
+      <c r="G53" s="115" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="5" t="s">
         <v>592</v>
       </c>
@@ -6394,12 +6409,12 @@
       <c r="F54" s="90" t="s">
         <v>593</v>
       </c>
-      <c r="G54" s="120"/>
+      <c r="G54" s="121"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="112"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="108" t="s">
+      <c r="A55" s="113"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="110" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -6411,14 +6426,14 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="127" t="s">
+      <c r="G55" s="131" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="5" t="s">
         <v>289</v>
       </c>
@@ -6428,12 +6443,12 @@
       <c r="F56" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="128"/>
+      <c r="G56" s="132"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="112"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="108" t="s">
+      <c r="A57" s="113"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="110" t="s">
         <v>334</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -6445,14 +6460,14 @@
       <c r="F57" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="121" t="s">
+      <c r="G57" s="115" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="112"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="110"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="112"/>
       <c r="D58" s="5" t="s">
         <v>337</v>
       </c>
@@ -6462,12 +6477,12 @@
       <c r="F58" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G58" s="123"/>
+      <c r="G58" s="117"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="108" t="s">
+      <c r="A59" s="113"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="110" t="s">
         <v>354</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -6479,14 +6494,14 @@
       <c r="F59" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G59" s="121" t="s">
+      <c r="G59" s="115" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="109"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="5" t="s">
         <v>356</v>
       </c>
@@ -6496,12 +6511,12 @@
       <c r="F60" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G60" s="122"/>
+      <c r="G60" s="116"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="112"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="109"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="5" t="s">
         <v>357</v>
       </c>
@@ -6511,12 +6526,12 @@
       <c r="F61" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="122"/>
+      <c r="G61" s="116"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="5" t="s">
         <v>365</v>
       </c>
@@ -6526,12 +6541,12 @@
       <c r="F62" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="119"/>
+      <c r="G62" s="122"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="113"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="114"/>
       <c r="D63" s="5" t="s">
         <v>377</v>
       </c>
@@ -6541,12 +6556,12 @@
       <c r="F63" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G63" s="120"/>
+      <c r="G63" s="121"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="130" t="s">
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="134" t="s">
         <v>434</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -6558,14 +6573,14 @@
       <c r="F64" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G64" s="121" t="s">
+      <c r="G64" s="115" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="112"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="131"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="135"/>
       <c r="D65" s="5" t="s">
         <v>441</v>
       </c>
@@ -6575,12 +6590,12 @@
       <c r="F65" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G65" s="123"/>
+      <c r="G65" s="117"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="112"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="130" t="s">
+      <c r="A66" s="113"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="134" t="s">
         <v>445</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -6592,14 +6607,14 @@
       <c r="F66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="121" t="s">
+      <c r="G66" s="115" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="112"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="131"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="135"/>
       <c r="D67" s="5" t="s">
         <v>444</v>
       </c>
@@ -6609,12 +6624,12 @@
       <c r="F67" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="123"/>
+      <c r="G67" s="117"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="112"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="132" t="s">
+      <c r="A68" s="113"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="136" t="s">
         <v>487</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -6626,14 +6641,14 @@
       <c r="F68" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G68" s="121" t="s">
+      <c r="G68" s="115" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="112"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="133"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="137"/>
       <c r="D69" s="5" t="s">
         <v>490</v>
       </c>
@@ -6643,12 +6658,12 @@
       <c r="F69" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G69" s="122"/>
+      <c r="G69" s="116"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="112"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="113"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="5" t="s">
         <v>491</v>
       </c>
@@ -6658,12 +6673,12 @@
       <c r="F70" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G70" s="120"/>
+      <c r="G70" s="121"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="112"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="129" t="s">
+      <c r="A71" s="113"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="133" t="s">
         <v>596</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -6675,14 +6690,14 @@
       <c r="F71" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G71" s="126" t="s">
+      <c r="G71" s="130" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="113"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="5" t="s">
         <v>599</v>
       </c>
@@ -6692,7 +6707,7 @@
       <c r="F72" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G72" s="120"/>
+      <c r="G72" s="121"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30"/>
@@ -6704,13 +6719,13 @@
       <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="115" t="s">
+      <c r="B74" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="109" t="s">
+      <c r="C74" s="111" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -6727,9 +6742,9 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="124"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="3" t="s">
         <v>6</v>
       </c>
@@ -6739,14 +6754,14 @@
       <c r="F75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="121" t="s">
+      <c r="G75" s="115" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="108" t="s">
+      <c r="A76" s="124"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -6758,12 +6773,12 @@
       <c r="F76" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="G76" s="122"/>
+      <c r="G76" s="116"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="112"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="5" t="s">
         <v>30</v>
       </c>
@@ -6773,12 +6788,12 @@
       <c r="F77" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G77" s="119"/>
+      <c r="G77" s="122"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="112"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="112"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="5" t="s">
         <v>492</v>
       </c>
@@ -6788,12 +6803,12 @@
       <c r="F78" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G78" s="119"/>
+      <c r="G78" s="122"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="112"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="112"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="5" t="s">
         <v>493</v>
       </c>
@@ -6803,12 +6818,12 @@
       <c r="F79" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G79" s="119"/>
+      <c r="G79" s="122"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="112"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="114"/>
       <c r="D80" s="5" t="s">
         <v>494</v>
       </c>
@@ -6818,11 +6833,11 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="120"/>
+      <c r="G80" s="121"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="112"/>
-      <c r="B81" s="112"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="113"/>
       <c r="C81" s="66" t="s">
         <v>446</v>
       </c>
@@ -6832,8 +6847,8 @@
       <c r="G81" s="64"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="113"/>
-      <c r="B82" s="113"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="63" t="s">
         <v>447</v>
       </c>
@@ -6870,10 +6885,10 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="123" t="s">
         <v>164</v>
       </c>
       <c r="C84" s="62"/>
@@ -6881,8 +6896,8 @@
       <c r="E84" s="62"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="116"/>
-      <c r="B85" s="116"/>
+      <c r="A85" s="124"/>
+      <c r="B85" s="124"/>
       <c r="D85" s="3" t="s">
         <v>41</v>
       </c>
@@ -6897,8 +6912,8 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="112"/>
-      <c r="B86" s="112"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="113"/>
       <c r="D86" s="3" t="s">
         <v>159</v>
       </c>
@@ -6910,8 +6925,8 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="112"/>
-      <c r="B87" s="112"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="113"/>
       <c r="D87" s="3" t="s">
         <v>165</v>
       </c>
@@ -6922,9 +6937,9 @@
       <c r="G87" s="62"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="112"/>
-      <c r="B88" s="112"/>
-      <c r="C88" s="108" t="s">
+      <c r="A88" s="113"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="110" t="s">
         <v>544</v>
       </c>
       <c r="D88" s="81" t="s">
@@ -6932,73 +6947,73 @@
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="76"/>
-      <c r="G88" s="121" t="s">
+      <c r="G88" s="115" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="112"/>
-      <c r="B89" s="112"/>
-      <c r="C89" s="109"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="81" t="s">
         <v>546</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="76"/>
-      <c r="G89" s="122"/>
+      <c r="G89" s="116"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="112"/>
-      <c r="B90" s="112"/>
-      <c r="C90" s="109"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="111"/>
       <c r="D90" s="81" t="s">
         <v>547</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="122"/>
+      <c r="G90" s="116"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="112"/>
-      <c r="B91" s="112"/>
-      <c r="C91" s="109"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="111"/>
       <c r="D91" s="81" t="s">
         <v>548</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="76"/>
-      <c r="G91" s="122"/>
+      <c r="G91" s="116"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="112"/>
-      <c r="B92" s="112"/>
-      <c r="C92" s="109"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="81" t="s">
         <v>549</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="76"/>
-      <c r="G92" s="122"/>
+      <c r="G92" s="116"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="113"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="110"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="81" t="s">
         <v>550</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="76"/>
-      <c r="G93" s="123"/>
+      <c r="G93" s="117"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="115" t="s">
+      <c r="A94" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="108" t="s">
+      <c r="B94" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="110" t="s">
         <v>90</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -7010,14 +7025,14 @@
       <c r="F94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G94" s="121" t="s">
+      <c r="G94" s="115" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="112"/>
-      <c r="B95" s="109"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="113"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="113"/>
       <c r="D95" s="5" t="s">
         <v>96</v>
       </c>
@@ -7027,12 +7042,12 @@
       <c r="F95" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G95" s="122"/>
+      <c r="G95" s="116"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="112"/>
-      <c r="B96" s="109"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="113"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="113"/>
       <c r="D96" s="5" t="s">
         <v>92</v>
       </c>
@@ -7042,12 +7057,12 @@
       <c r="F96" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G96" s="122"/>
+      <c r="G96" s="116"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="112"/>
-      <c r="B97" s="109"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="113"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="113"/>
       <c r="D97" s="5" t="s">
         <v>137</v>
       </c>
@@ -7057,29 +7072,29 @@
       <c r="F97" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G97" s="123"/>
+      <c r="G97" s="117"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="112"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="113"/>
+      <c r="A98" s="113"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="114"/>
       <c r="F98" s="1"/>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="112"/>
-      <c r="B99" s="112"/>
+      <c r="A99" s="113"/>
+      <c r="B99" s="113"/>
       <c r="C99" s="33"/>
       <c r="D99" s="5"/>
       <c r="E99" s="1"/>
-      <c r="G99" s="117" t="s">
+      <c r="G99" s="125" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="115" t="s">
+      <c r="A100" s="113"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="123" t="s">
         <v>52</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -7091,12 +7106,12 @@
       <c r="F100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G100" s="118"/>
+      <c r="G100" s="126"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="112"/>
-      <c r="B101" s="112"/>
-      <c r="C101" s="116"/>
+      <c r="A101" s="113"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="124"/>
       <c r="D101" s="3" t="s">
         <v>55</v>
       </c>
@@ -7106,34 +7121,34 @@
       <c r="F101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G101" s="118"/>
+      <c r="G101" s="126"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="112"/>
-      <c r="B102" s="112"/>
-      <c r="C102" s="116"/>
+      <c r="A102" s="113"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="124"/>
       <c r="D102" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E102" s="4">
         <v>43787</v>
       </c>
-      <c r="G102" s="118"/>
+      <c r="G102" s="126"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="112"/>
-      <c r="B103" s="112"/>
-      <c r="C103" s="116"/>
+      <c r="A103" s="113"/>
+      <c r="B103" s="113"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="G103" s="118"/>
+      <c r="G103" s="126"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="112"/>
-      <c r="B104" s="112"/>
-      <c r="C104" s="116"/>
+      <c r="A104" s="113"/>
+      <c r="B104" s="113"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="3" t="s">
         <v>63</v>
       </c>
@@ -7141,24 +7156,24 @@
       <c r="F104" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="118"/>
+      <c r="G104" s="126"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="112"/>
-      <c r="B105" s="112"/>
-      <c r="C105" s="116"/>
+      <c r="A105" s="113"/>
+      <c r="B105" s="113"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E105" s="4">
         <v>43788</v>
       </c>
-      <c r="G105" s="118"/>
+      <c r="G105" s="126"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="112"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="116"/>
+      <c r="A106" s="113"/>
+      <c r="B106" s="113"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="3" t="s">
         <v>78</v>
       </c>
@@ -7166,12 +7181,12 @@
       <c r="F106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G106" s="134"/>
+      <c r="G106" s="127"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="112"/>
-      <c r="B107" s="112"/>
-      <c r="C107" s="135"/>
+      <c r="A107" s="113"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="128"/>
       <c r="D107" s="5" t="s">
         <v>76</v>
       </c>
@@ -7181,19 +7196,19 @@
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="112"/>
-      <c r="B108" s="112"/>
+      <c r="A108" s="113"/>
+      <c r="B108" s="113"/>
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="121" t="s">
+      <c r="G108" s="115" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="112"/>
-      <c r="B109" s="112"/>
-      <c r="C109" s="115" t="s">
+      <c r="A109" s="113"/>
+      <c r="B109" s="113"/>
+      <c r="C109" s="123" t="s">
         <v>135</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -7203,12 +7218,12 @@
       <c r="F109" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G109" s="119"/>
+      <c r="G109" s="122"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="112"/>
-      <c r="B110" s="112"/>
-      <c r="C110" s="112"/>
+      <c r="A110" s="113"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="113"/>
       <c r="D110" s="5" t="s">
         <v>296</v>
       </c>
@@ -7218,12 +7233,12 @@
       <c r="F110" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G110" s="119"/>
+      <c r="G110" s="122"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="112"/>
-      <c r="B111" s="112"/>
-      <c r="C111" s="112"/>
+      <c r="A111" s="113"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="113"/>
       <c r="D111" s="5" t="s">
         <v>298</v>
       </c>
@@ -7233,12 +7248,12 @@
       <c r="F111" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G111" s="119"/>
+      <c r="G111" s="122"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="112"/>
-      <c r="B112" s="112"/>
-      <c r="C112" s="112"/>
+      <c r="A112" s="113"/>
+      <c r="B112" s="113"/>
+      <c r="C112" s="113"/>
       <c r="D112" s="5" t="s">
         <v>299</v>
       </c>
@@ -7248,12 +7263,12 @@
       <c r="F112" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="120"/>
+      <c r="G112" s="121"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="112"/>
-      <c r="B113" s="112"/>
-      <c r="C113" s="113"/>
+      <c r="A113" s="113"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="114"/>
       <c r="D113" s="5" t="s">
         <v>338</v>
       </c>
@@ -7266,20 +7281,20 @@
       <c r="G113" s="36"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="112"/>
-      <c r="B114" s="112"/>
+      <c r="A114" s="113"/>
+      <c r="B114" s="113"/>
       <c r="C114" s="35"/>
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
       <c r="F114" s="27"/>
-      <c r="G114" s="117" t="s">
+      <c r="G114" s="125" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="112"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="108" t="s">
+      <c r="A115" s="113"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="110" t="s">
         <v>248</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -7291,12 +7306,12 @@
       <c r="F115" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G115" s="118"/>
+      <c r="G115" s="126"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="112"/>
-      <c r="B116" s="112"/>
-      <c r="C116" s="109"/>
+      <c r="A116" s="113"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="111"/>
       <c r="D116" s="5" t="s">
         <v>249</v>
       </c>
@@ -7306,12 +7321,12 @@
       <c r="F116" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G116" s="118"/>
+      <c r="G116" s="126"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="112"/>
-      <c r="B117" s="112"/>
-      <c r="C117" s="109"/>
+      <c r="A117" s="113"/>
+      <c r="B117" s="113"/>
+      <c r="C117" s="111"/>
       <c r="D117" s="5" t="s">
         <v>251</v>
       </c>
@@ -7321,12 +7336,12 @@
       <c r="F117" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G117" s="118"/>
+      <c r="G117" s="126"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="112"/>
-      <c r="B118" s="112"/>
-      <c r="C118" s="109"/>
+      <c r="A118" s="113"/>
+      <c r="B118" s="113"/>
+      <c r="C118" s="111"/>
       <c r="D118" s="5" t="s">
         <v>252</v>
       </c>
@@ -7336,12 +7351,12 @@
       <c r="F118" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G118" s="118"/>
+      <c r="G118" s="126"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="112"/>
-      <c r="B119" s="112"/>
-      <c r="C119" s="109"/>
+      <c r="A119" s="113"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="111"/>
       <c r="D119" s="5" t="s">
         <v>253</v>
       </c>
@@ -7351,12 +7366,12 @@
       <c r="F119" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G119" s="118"/>
+      <c r="G119" s="126"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="112"/>
-      <c r="B120" s="112"/>
-      <c r="C120" s="109"/>
+      <c r="A120" s="113"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="111"/>
       <c r="D120" s="5" t="s">
         <v>254</v>
       </c>
@@ -7366,12 +7381,12 @@
       <c r="F120" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G120" s="118"/>
+      <c r="G120" s="126"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="112"/>
-      <c r="B121" s="112"/>
-      <c r="C121" s="112"/>
+      <c r="A121" s="113"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="113"/>
       <c r="D121" s="5" t="s">
         <v>255</v>
       </c>
@@ -7381,12 +7396,12 @@
       <c r="F121" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G121" s="134"/>
+      <c r="G121" s="127"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="112"/>
-      <c r="B122" s="112"/>
-      <c r="C122" s="113"/>
+      <c r="A122" s="113"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="114"/>
       <c r="D122" s="5" t="s">
         <v>256</v>
       </c>
@@ -7399,8 +7414,8 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="112"/>
-      <c r="B123" s="112"/>
+      <c r="A123" s="113"/>
+      <c r="B123" s="113"/>
       <c r="C123" s="77"/>
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
@@ -7408,8 +7423,8 @@
       <c r="G123" s="79"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="112"/>
-      <c r="B124" s="112"/>
+      <c r="A124" s="113"/>
+      <c r="B124" s="113"/>
       <c r="C124" s="2" t="s">
         <v>311</v>
       </c>
@@ -7421,8 +7436,8 @@
       <c r="G124" s="62"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="112"/>
-      <c r="B125" s="112"/>
+      <c r="A125" s="113"/>
+      <c r="B125" s="113"/>
       <c r="C125" s="2" t="s">
         <v>557</v>
       </c>
@@ -7440,8 +7455,8 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="112"/>
-      <c r="B126" s="112"/>
+      <c r="A126" s="113"/>
+      <c r="B126" s="113"/>
       <c r="C126" s="98" t="s">
         <v>620</v>
       </c>
@@ -7459,9 +7474,9 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="112"/>
-      <c r="B127" s="112"/>
-      <c r="C127" s="108" t="s">
+      <c r="A127" s="113"/>
+      <c r="B127" s="113"/>
+      <c r="C127" s="110" t="s">
         <v>660</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -7473,14 +7488,14 @@
       <c r="F127" s="106" t="s">
         <v>658</v>
       </c>
-      <c r="G127" s="121" t="s">
+      <c r="G127" s="115" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="112"/>
-      <c r="B128" s="112"/>
-      <c r="C128" s="112"/>
+      <c r="A128" s="113"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="113"/>
       <c r="D128" s="5" t="s">
         <v>663</v>
       </c>
@@ -7490,12 +7505,12 @@
       <c r="F128" s="106" t="s">
         <v>658</v>
       </c>
-      <c r="G128" s="119"/>
+      <c r="G128" s="122"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="113"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="113"/>
+      <c r="A129" s="114"/>
+      <c r="B129" s="114"/>
+      <c r="C129" s="114"/>
       <c r="D129" s="5" t="s">
         <v>664</v>
       </c>
@@ -7505,16 +7520,16 @@
       <c r="F129" s="106" t="s">
         <v>658</v>
       </c>
-      <c r="G129" s="120"/>
+      <c r="G129" s="121"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="108" t="s">
+      <c r="A130" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="108" t="s">
+      <c r="B130" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C130" s="108" t="s">
+      <c r="C130" s="110" t="s">
         <v>362</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -7526,14 +7541,14 @@
       <c r="F130" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G130" s="121" t="s">
+      <c r="G130" s="115" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="112"/>
-      <c r="B131" s="112"/>
-      <c r="C131" s="110"/>
+      <c r="A131" s="113"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="112"/>
       <c r="D131" s="5" t="s">
         <v>364</v>
       </c>
@@ -7543,12 +7558,12 @@
       <c r="F131" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G131" s="120"/>
+      <c r="G131" s="121"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="112"/>
-      <c r="B132" s="112"/>
-      <c r="C132" s="108" t="s">
+      <c r="A132" s="113"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="110" t="s">
         <v>58</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -7560,14 +7575,14 @@
       <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="117" t="s">
+      <c r="G132" s="125" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="112"/>
-      <c r="B133" s="112"/>
-      <c r="C133" s="109" t="s">
+      <c r="A133" s="113"/>
+      <c r="B133" s="113"/>
+      <c r="C133" s="111" t="s">
         <v>58</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -7579,12 +7594,12 @@
       <c r="F133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="119"/>
+      <c r="G133" s="122"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="112"/>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
+      <c r="A134" s="113"/>
+      <c r="B134" s="113"/>
+      <c r="C134" s="113"/>
       <c r="D134" s="3" t="s">
         <v>515</v>
       </c>
@@ -7594,12 +7609,12 @@
       <c r="F134" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G134" s="119"/>
+      <c r="G134" s="122"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="112"/>
-      <c r="B135" s="112"/>
-      <c r="C135" s="112"/>
+      <c r="A135" s="113"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="113"/>
       <c r="D135" s="3" t="s">
         <v>517</v>
       </c>
@@ -7609,12 +7624,12 @@
       <c r="F135" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G135" s="119"/>
+      <c r="G135" s="122"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="112"/>
-      <c r="B136" s="112"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="113"/>
+      <c r="B136" s="113"/>
+      <c r="C136" s="113"/>
       <c r="D136" s="3" t="s">
         <v>522</v>
       </c>
@@ -7624,74 +7639,74 @@
       <c r="F136" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G136" s="119"/>
+      <c r="G136" s="122"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="112"/>
-      <c r="B137" s="112"/>
-      <c r="C137" s="112"/>
+      <c r="A137" s="113"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="113"/>
       <c r="D137" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="71"/>
-      <c r="G137" s="119"/>
+      <c r="G137" s="122"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="112"/>
-      <c r="B138" s="112"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="113"/>
+      <c r="B138" s="113"/>
+      <c r="C138" s="113"/>
       <c r="D138" s="50" t="s">
         <v>519</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="71"/>
-      <c r="G138" s="119"/>
+      <c r="G138" s="122"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="112"/>
-      <c r="B139" s="112"/>
-      <c r="C139" s="112"/>
+      <c r="A139" s="113"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="113"/>
       <c r="D139" s="50" t="s">
         <v>520</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="71"/>
-      <c r="G139" s="119"/>
+      <c r="G139" s="122"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="112"/>
-      <c r="B140" s="112"/>
-      <c r="C140" s="112"/>
+      <c r="A140" s="113"/>
+      <c r="B140" s="113"/>
+      <c r="C140" s="113"/>
       <c r="D140" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="71"/>
-      <c r="G140" s="119"/>
+      <c r="G140" s="122"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="112"/>
-      <c r="B141" s="112"/>
-      <c r="C141" s="113"/>
+      <c r="A141" s="113"/>
+      <c r="B141" s="113"/>
+      <c r="C141" s="114"/>
       <c r="D141" s="50" t="s">
         <v>523</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="71"/>
-      <c r="G141" s="119"/>
+      <c r="G141" s="122"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="112"/>
-      <c r="B142" s="112"/>
+      <c r="A142" s="113"/>
+      <c r="B142" s="113"/>
       <c r="C142" s="70"/>
       <c r="E142" s="4"/>
       <c r="G142" s="72"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="112"/>
-      <c r="B143" s="112"/>
-      <c r="C143" s="115" t="s">
+      <c r="A143" s="113"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -7703,14 +7718,14 @@
       <c r="F143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="117" t="s">
+      <c r="G143" s="125" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="112"/>
-      <c r="B144" s="112"/>
-      <c r="C144" s="116"/>
+      <c r="A144" s="113"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="124"/>
       <c r="D144" s="3" t="s">
         <v>101</v>
       </c>
@@ -7720,12 +7735,12 @@
       <c r="F144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="119"/>
+      <c r="G144" s="122"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="112"/>
-      <c r="B145" s="112"/>
-      <c r="C145" s="116"/>
+      <c r="A145" s="113"/>
+      <c r="B145" s="113"/>
+      <c r="C145" s="124"/>
       <c r="D145" s="3" t="s">
         <v>524</v>
       </c>
@@ -7735,12 +7750,12 @@
       <c r="F145" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G145" s="119"/>
+      <c r="G145" s="122"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="112"/>
-      <c r="B146" s="112"/>
-      <c r="C146" s="116"/>
+      <c r="A146" s="113"/>
+      <c r="B146" s="113"/>
+      <c r="C146" s="124"/>
       <c r="D146" s="3" t="s">
         <v>247</v>
       </c>
@@ -7750,12 +7765,12 @@
       <c r="F146" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="G146" s="119"/>
+      <c r="G146" s="122"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="112"/>
-      <c r="B147" s="112"/>
-      <c r="C147" s="116"/>
+      <c r="A147" s="113"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="124"/>
       <c r="D147" s="3" t="s">
         <v>526</v>
       </c>
@@ -7765,12 +7780,12 @@
       <c r="F147" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G147" s="119"/>
+      <c r="G147" s="122"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="112"/>
-      <c r="B148" s="112"/>
-      <c r="C148" s="112"/>
+      <c r="A148" s="113"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="113"/>
       <c r="D148" s="3" t="s">
         <v>366</v>
       </c>
@@ -7780,12 +7795,12 @@
       <c r="F148" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G148" s="119"/>
+      <c r="G148" s="122"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="112"/>
-      <c r="B149" s="112"/>
-      <c r="C149" s="112"/>
+      <c r="A149" s="113"/>
+      <c r="B149" s="113"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="3" t="s">
         <v>495</v>
       </c>
@@ -7795,12 +7810,12 @@
       <c r="F149" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G149" s="119"/>
+      <c r="G149" s="122"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="112"/>
-      <c r="B150" s="112"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="113"/>
+      <c r="B150" s="113"/>
+      <c r="C150" s="114"/>
       <c r="D150" s="3" t="s">
         <v>496</v>
       </c>
@@ -7810,12 +7825,12 @@
       <c r="F150" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G150" s="120"/>
+      <c r="G150" s="121"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="112"/>
-      <c r="B151" s="112"/>
-      <c r="C151" s="108" t="s">
+      <c r="A151" s="113"/>
+      <c r="B151" s="113"/>
+      <c r="C151" s="110" t="s">
         <v>528</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -7827,14 +7842,14 @@
       <c r="F151" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G151" s="117" t="s">
+      <c r="G151" s="125" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="112"/>
-      <c r="B152" s="112"/>
-      <c r="C152" s="109"/>
+      <c r="A152" s="113"/>
+      <c r="B152" s="113"/>
+      <c r="C152" s="111"/>
       <c r="D152" s="3" t="s">
         <v>530</v>
       </c>
@@ -7844,12 +7859,12 @@
       <c r="F152" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G152" s="118"/>
+      <c r="G152" s="126"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="113"/>
-      <c r="B153" s="113"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="114"/>
+      <c r="B153" s="114"/>
+      <c r="C153" s="114"/>
       <c r="D153" s="3" t="s">
         <v>532</v>
       </c>
@@ -7859,7 +7874,7 @@
       <c r="F153" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G153" s="120"/>
+      <c r="G153" s="121"/>
     </row>
     <row r="154" spans="1:7">
       <c r="C154" s="62"/>
@@ -7868,13 +7883,13 @@
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="115" t="s">
+      <c r="A155" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B155" s="115" t="s">
+      <c r="B155" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C155" s="123" t="s">
         <v>83</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -7886,14 +7901,14 @@
       <c r="F155" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G155" s="117" t="s">
+      <c r="G155" s="125" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="112"/>
-      <c r="B156" s="112"/>
-      <c r="C156" s="116"/>
+      <c r="A156" s="113"/>
+      <c r="B156" s="113"/>
+      <c r="C156" s="124"/>
       <c r="D156" s="5" t="s">
         <v>86</v>
       </c>
@@ -7903,12 +7918,12 @@
       <c r="F156" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G156" s="119"/>
+      <c r="G156" s="122"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="112"/>
-      <c r="B157" s="112"/>
-      <c r="C157" s="116"/>
+      <c r="A157" s="113"/>
+      <c r="B157" s="113"/>
+      <c r="C157" s="124"/>
       <c r="D157" s="5" t="s">
         <v>87</v>
       </c>
@@ -7918,12 +7933,12 @@
       <c r="F157" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G157" s="119"/>
+      <c r="G157" s="122"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="112"/>
-      <c r="B158" s="112"/>
-      <c r="C158" s="116"/>
+      <c r="A158" s="113"/>
+      <c r="B158" s="113"/>
+      <c r="C158" s="124"/>
       <c r="D158" s="5" t="s">
         <v>88</v>
       </c>
@@ -7933,12 +7948,12 @@
       <c r="F158" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G158" s="120"/>
+      <c r="G158" s="121"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="112"/>
-      <c r="B159" s="112"/>
-      <c r="C159" s="113"/>
+      <c r="A159" s="113"/>
+      <c r="B159" s="113"/>
+      <c r="C159" s="114"/>
       <c r="D159" s="5" t="s">
         <v>218</v>
       </c>
@@ -7953,8 +7968,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="112"/>
-      <c r="B160" s="112"/>
+      <c r="A160" s="113"/>
+      <c r="B160" s="113"/>
       <c r="C160" s="33" t="s">
         <v>185</v>
       </c>
@@ -7965,14 +7980,14 @@
         <v>43797</v>
       </c>
       <c r="F160" s="26"/>
-      <c r="G160" s="117" t="s">
+      <c r="G160" s="125" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="112"/>
-      <c r="B161" s="112"/>
-      <c r="C161" s="108" t="s">
+      <c r="A161" s="113"/>
+      <c r="B161" s="113"/>
+      <c r="C161" s="110" t="s">
         <v>221</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -7981,12 +7996,12 @@
       <c r="F161" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G161" s="118"/>
+      <c r="G161" s="126"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="112"/>
-      <c r="B162" s="112"/>
-      <c r="C162" s="112"/>
+      <c r="A162" s="113"/>
+      <c r="B162" s="113"/>
+      <c r="C162" s="113"/>
       <c r="D162" s="3" t="s">
         <v>393</v>
       </c>
@@ -7996,12 +8011,12 @@
       <c r="F162" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G162" s="119"/>
+      <c r="G162" s="122"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="112"/>
-      <c r="B163" s="112"/>
-      <c r="C163" s="112"/>
+      <c r="A163" s="113"/>
+      <c r="B163" s="113"/>
+      <c r="C163" s="113"/>
       <c r="D163" s="3" t="s">
         <v>396</v>
       </c>
@@ -8011,12 +8026,12 @@
       <c r="F163" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="G163" s="119"/>
+      <c r="G163" s="122"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="112"/>
-      <c r="B164" s="112"/>
-      <c r="C164" s="112"/>
+      <c r="A164" s="113"/>
+      <c r="B164" s="113"/>
+      <c r="C164" s="113"/>
       <c r="D164" s="5" t="s">
         <v>424</v>
       </c>
@@ -8026,12 +8041,12 @@
       <c r="F164" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G164" s="120"/>
+      <c r="G164" s="121"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="112"/>
-      <c r="B165" s="112"/>
-      <c r="C165" s="113"/>
+      <c r="A165" s="113"/>
+      <c r="B165" s="113"/>
+      <c r="C165" s="114"/>
       <c r="D165" s="5" t="s">
         <v>426</v>
       </c>
@@ -8042,8 +8057,8 @@
       <c r="G165" s="74"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="112"/>
-      <c r="B166" s="112"/>
+      <c r="A166" s="113"/>
+      <c r="B166" s="113"/>
       <c r="C166" s="75"/>
       <c r="D166" s="5"/>
       <c r="E166" s="4"/>
@@ -8055,8 +8070,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="112"/>
-      <c r="B167" s="112"/>
+      <c r="A167" s="113"/>
+      <c r="B167" s="113"/>
       <c r="C167" s="48" t="s">
         <v>370</v>
       </c>
@@ -8068,9 +8083,9 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="112"/>
-      <c r="B168" s="112"/>
-      <c r="C168" s="108" t="s">
+      <c r="A168" s="113"/>
+      <c r="B168" s="113"/>
+      <c r="C168" s="110" t="s">
         <v>628</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -8082,14 +8097,14 @@
       <c r="F168" s="99" t="s">
         <v>630</v>
       </c>
-      <c r="G168" s="117" t="s">
+      <c r="G168" s="125" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="112"/>
-      <c r="B169" s="112"/>
-      <c r="C169" s="109"/>
+      <c r="A169" s="113"/>
+      <c r="B169" s="113"/>
+      <c r="C169" s="111"/>
       <c r="D169" s="3" t="s">
         <v>632</v>
       </c>
@@ -8099,12 +8114,12 @@
       <c r="F169" s="99" t="s">
         <v>626</v>
       </c>
-      <c r="G169" s="118"/>
+      <c r="G169" s="126"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="112"/>
-      <c r="B170" s="112"/>
-      <c r="C170" s="109"/>
+      <c r="A170" s="113"/>
+      <c r="B170" s="113"/>
+      <c r="C170" s="111"/>
       <c r="D170" s="3" t="s">
         <v>636</v>
       </c>
@@ -8114,12 +8129,12 @@
       <c r="F170" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G170" s="118"/>
+      <c r="G170" s="126"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="112"/>
-      <c r="B171" s="112"/>
-      <c r="C171" s="112"/>
+      <c r="A171" s="113"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="113"/>
       <c r="D171" s="3" t="s">
         <v>638</v>
       </c>
@@ -8129,12 +8144,12 @@
       <c r="F171" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G171" s="119"/>
+      <c r="G171" s="122"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="112"/>
-      <c r="B172" s="112"/>
-      <c r="C172" s="112"/>
+      <c r="A172" s="113"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="113"/>
       <c r="D172" s="3" t="s">
         <v>644</v>
       </c>
@@ -8144,12 +8159,12 @@
       <c r="F172" s="101" t="s">
         <v>647</v>
       </c>
-      <c r="G172" s="119"/>
+      <c r="G172" s="122"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="112"/>
-      <c r="B173" s="112"/>
-      <c r="C173" s="112"/>
+      <c r="A173" s="113"/>
+      <c r="B173" s="113"/>
+      <c r="C173" s="113"/>
       <c r="D173" s="5" t="s">
         <v>648</v>
       </c>
@@ -8159,12 +8174,12 @@
       <c r="F173" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G173" s="119"/>
+      <c r="G173" s="122"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="113"/>
-      <c r="B174" s="113"/>
-      <c r="C174" s="113"/>
+      <c r="A174" s="114"/>
+      <c r="B174" s="114"/>
+      <c r="C174" s="114"/>
       <c r="D174" s="5" t="s">
         <v>649</v>
       </c>
@@ -8174,12 +8189,12 @@
       <c r="F174" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G174" s="120"/>
+      <c r="G174" s="121"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="100"/>
       <c r="B175" s="100"/>
-      <c r="C175" s="125" t="s">
+      <c r="C175" s="129" t="s">
         <v>650</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -8191,14 +8206,14 @@
       <c r="F175" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="G175" s="126" t="s">
+      <c r="G175" s="130" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="104"/>
       <c r="B176" s="104"/>
-      <c r="C176" s="113"/>
+      <c r="C176" s="114"/>
       <c r="D176" s="5" t="s">
         <v>657</v>
       </c>
@@ -8208,7 +8223,7 @@
       <c r="F176" s="106" t="s">
         <v>658</v>
       </c>
-      <c r="G176" s="120"/>
+      <c r="G176" s="121"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="104"/>
@@ -8226,13 +8241,13 @@
       <c r="G177" s="107"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="115" t="s">
+      <c r="A178" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="B178" s="115" t="s">
+      <c r="B178" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="C178" s="108" t="s">
+      <c r="C178" s="110" t="s">
         <v>470</v>
       </c>
       <c r="D178" s="5" t="s">
@@ -8244,14 +8259,14 @@
       <c r="F178" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="G178" s="117" t="s">
+      <c r="G178" s="125" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="112"/>
-      <c r="B179" s="112"/>
-      <c r="C179" s="109"/>
+      <c r="A179" s="113"/>
+      <c r="B179" s="113"/>
+      <c r="C179" s="111"/>
       <c r="D179" s="5" t="s">
         <v>579</v>
       </c>
@@ -8261,12 +8276,12 @@
       <c r="F179" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="G179" s="119"/>
+      <c r="G179" s="122"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="112"/>
-      <c r="B180" s="112"/>
-      <c r="C180" s="112"/>
+      <c r="A180" s="113"/>
+      <c r="B180" s="113"/>
+      <c r="C180" s="113"/>
       <c r="D180" s="5" t="s">
         <v>600</v>
       </c>
@@ -8276,55 +8291,55 @@
       <c r="F180" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G180" s="119"/>
+      <c r="G180" s="122"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="112"/>
-      <c r="B181" s="112"/>
-      <c r="C181" s="112"/>
+      <c r="A181" s="113"/>
+      <c r="B181" s="113"/>
+      <c r="C181" s="113"/>
       <c r="D181" s="96" t="s">
         <v>581</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="88"/>
-      <c r="G181" s="119"/>
+      <c r="G181" s="122"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="112"/>
-      <c r="B182" s="112"/>
-      <c r="C182" s="112"/>
+      <c r="A182" s="113"/>
+      <c r="B182" s="113"/>
+      <c r="C182" s="113"/>
       <c r="D182" s="96" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="88"/>
-      <c r="G182" s="119"/>
+      <c r="G182" s="122"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="112"/>
-      <c r="B183" s="112"/>
-      <c r="C183" s="112"/>
+      <c r="A183" s="113"/>
+      <c r="B183" s="113"/>
+      <c r="C183" s="113"/>
       <c r="D183" s="96" t="s">
         <v>583</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="88"/>
-      <c r="G183" s="119"/>
+      <c r="G183" s="122"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="112"/>
-      <c r="B184" s="112"/>
-      <c r="C184" s="112"/>
+      <c r="A184" s="113"/>
+      <c r="B184" s="113"/>
+      <c r="C184" s="113"/>
       <c r="D184" s="96" t="s">
         <v>584</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="88"/>
-      <c r="G184" s="119"/>
+      <c r="G184" s="122"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="112"/>
-      <c r="B185" s="112"/>
+      <c r="A185" s="113"/>
+      <c r="B185" s="113"/>
       <c r="C185" s="89"/>
       <c r="D185" s="96"/>
       <c r="E185" s="4"/>
@@ -8332,9 +8347,9 @@
       <c r="G185" s="92"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="112"/>
-      <c r="B186" s="112"/>
-      <c r="C186" s="115" t="s">
+      <c r="A186" s="113"/>
+      <c r="B186" s="113"/>
+      <c r="C186" s="123" t="s">
         <v>187</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -8346,14 +8361,14 @@
       <c r="F186" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="G186" s="117" t="s">
+      <c r="G186" s="125" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="112"/>
-      <c r="B187" s="112"/>
-      <c r="C187" s="112"/>
+      <c r="A187" s="113"/>
+      <c r="B187" s="113"/>
+      <c r="C187" s="113"/>
       <c r="D187" s="3" t="s">
         <v>305</v>
       </c>
@@ -8363,12 +8378,12 @@
       <c r="F187" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G187" s="119"/>
+      <c r="G187" s="122"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="112"/>
-      <c r="B188" s="112"/>
-      <c r="C188" s="112"/>
+      <c r="A188" s="113"/>
+      <c r="B188" s="113"/>
+      <c r="C188" s="113"/>
       <c r="D188" s="3" t="s">
         <v>323</v>
       </c>
@@ -8378,12 +8393,12 @@
       <c r="F188" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G188" s="119"/>
+      <c r="G188" s="122"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="112"/>
-      <c r="B189" s="112"/>
-      <c r="C189" s="112"/>
+      <c r="A189" s="113"/>
+      <c r="B189" s="113"/>
+      <c r="C189" s="113"/>
       <c r="D189" s="3" t="s">
         <v>324</v>
       </c>
@@ -8393,12 +8408,12 @@
       <c r="F189" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G189" s="119"/>
+      <c r="G189" s="122"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="112"/>
-      <c r="B190" s="112"/>
-      <c r="C190" s="113"/>
+      <c r="A190" s="113"/>
+      <c r="B190" s="113"/>
+      <c r="C190" s="114"/>
       <c r="D190" s="3" t="s">
         <v>326</v>
       </c>
@@ -8408,11 +8423,11 @@
       <c r="F190" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G190" s="119"/>
+      <c r="G190" s="122"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="112"/>
-      <c r="B191" s="112"/>
+      <c r="A191" s="113"/>
+      <c r="B191" s="113"/>
       <c r="C191" s="77"/>
       <c r="D191" s="3" t="s">
         <v>554</v>
@@ -8423,11 +8438,11 @@
       <c r="F191" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G191" s="119"/>
+      <c r="G191" s="122"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="112"/>
-      <c r="B192" s="112"/>
+      <c r="A192" s="113"/>
+      <c r="B192" s="113"/>
       <c r="C192" s="84"/>
       <c r="D192" s="97"/>
       <c r="E192" s="4"/>
@@ -8435,8 +8450,8 @@
       <c r="G192" s="85"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="112"/>
-      <c r="B193" s="112"/>
+      <c r="A193" s="113"/>
+      <c r="B193" s="113"/>
       <c r="C193" s="86" t="s">
         <v>576</v>
       </c>
@@ -8454,8 +8469,8 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="112"/>
-      <c r="B194" s="112"/>
+      <c r="A194" s="113"/>
+      <c r="B194" s="113"/>
       <c r="C194" s="39" t="s">
         <v>327</v>
       </c>
@@ -8467,8 +8482,8 @@
       <c r="G194" s="85"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="112"/>
-      <c r="B195" s="112"/>
+      <c r="A195" s="113"/>
+      <c r="B195" s="113"/>
       <c r="C195" s="43" t="s">
         <v>328</v>
       </c>
@@ -8477,8 +8492,8 @@
       <c r="G195" s="41"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="112"/>
-      <c r="B196" s="112"/>
+      <c r="A196" s="113"/>
+      <c r="B196" s="113"/>
       <c r="C196" s="43" t="s">
         <v>329</v>
       </c>
@@ -8486,14 +8501,14 @@
       <c r="F196" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G196" s="115" t="s">
+      <c r="G196" s="123" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="112"/>
-      <c r="B197" s="112"/>
-      <c r="C197" s="115" t="s">
+      <c r="A197" s="113"/>
+      <c r="B197" s="113"/>
+      <c r="C197" s="123" t="s">
         <v>203</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -8505,12 +8520,12 @@
       <c r="F197" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G197" s="116"/>
+      <c r="G197" s="124"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="112"/>
-      <c r="B198" s="112"/>
-      <c r="C198" s="116"/>
+      <c r="A198" s="113"/>
+      <c r="B198" s="113"/>
+      <c r="C198" s="124"/>
       <c r="D198" s="3" t="s">
         <v>207</v>
       </c>
@@ -8520,12 +8535,12 @@
       <c r="F198" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G198" s="116"/>
+      <c r="G198" s="124"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="112"/>
-      <c r="B199" s="112"/>
-      <c r="C199" s="116"/>
+      <c r="A199" s="113"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="124"/>
       <c r="D199" s="3" t="s">
         <v>208</v>
       </c>
@@ -8535,14 +8550,14 @@
       <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="115" t="s">
+      <c r="G199" s="123" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="112"/>
-      <c r="B200" s="112"/>
-      <c r="C200" s="115" t="s">
+      <c r="A200" s="113"/>
+      <c r="B200" s="113"/>
+      <c r="C200" s="123" t="s">
         <v>212</v>
       </c>
       <c r="D200" s="3" t="s">
@@ -8554,12 +8569,12 @@
       <c r="F200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G200" s="116"/>
+      <c r="G200" s="124"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="112"/>
-      <c r="B201" s="112"/>
-      <c r="C201" s="116"/>
+      <c r="A201" s="113"/>
+      <c r="B201" s="113"/>
+      <c r="C201" s="124"/>
       <c r="D201" s="3" t="s">
         <v>210</v>
       </c>
@@ -8569,12 +8584,12 @@
       <c r="F201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G201" s="116"/>
+      <c r="G201" s="124"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="112"/>
-      <c r="B202" s="112"/>
-      <c r="C202" s="116"/>
+      <c r="A202" s="113"/>
+      <c r="B202" s="113"/>
+      <c r="C202" s="124"/>
       <c r="D202" s="3" t="s">
         <v>213</v>
       </c>
@@ -8584,12 +8599,12 @@
       <c r="F202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G202" s="113"/>
+      <c r="G202" s="114"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="112"/>
-      <c r="B203" s="112"/>
-      <c r="C203" s="112"/>
+      <c r="A203" s="113"/>
+      <c r="B203" s="113"/>
+      <c r="C203" s="113"/>
       <c r="D203" s="3" t="s">
         <v>214</v>
       </c>
@@ -8601,9 +8616,9 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="112"/>
-      <c r="B204" s="112"/>
-      <c r="C204" s="112"/>
+      <c r="A204" s="113"/>
+      <c r="B204" s="113"/>
+      <c r="C204" s="113"/>
       <c r="D204" s="3" t="s">
         <v>215</v>
       </c>
@@ -8615,9 +8630,9 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="112"/>
-      <c r="B205" s="112"/>
-      <c r="C205" s="113"/>
+      <c r="A205" s="113"/>
+      <c r="B205" s="113"/>
+      <c r="C205" s="114"/>
       <c r="D205" s="3" t="s">
         <v>217</v>
       </c>
@@ -8626,9 +8641,9 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="112"/>
-      <c r="B206" s="112"/>
-      <c r="C206" s="115" t="s">
+      <c r="A206" s="113"/>
+      <c r="B206" s="113"/>
+      <c r="C206" s="123" t="s">
         <v>318</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -8637,9 +8652,9 @@
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="112"/>
-      <c r="B207" s="112"/>
-      <c r="C207" s="135"/>
+      <c r="A207" s="113"/>
+      <c r="B207" s="113"/>
+      <c r="C207" s="128"/>
       <c r="D207" s="3" t="s">
         <v>320</v>
       </c>
@@ -8652,8 +8667,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="112"/>
-      <c r="B208" s="112"/>
+      <c r="A208" s="113"/>
+      <c r="B208" s="113"/>
       <c r="C208" s="40" t="s">
         <v>321</v>
       </c>
@@ -8665,9 +8680,9 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="112"/>
-      <c r="B209" s="112"/>
-      <c r="C209" s="108" t="s">
+      <c r="A209" s="113"/>
+      <c r="B209" s="113"/>
+      <c r="C209" s="110" t="s">
         <v>433</v>
       </c>
       <c r="D209" s="5" t="s">
@@ -8679,14 +8694,14 @@
       <c r="F209" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="G209" s="117" t="s">
+      <c r="G209" s="125" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="112"/>
-      <c r="B210" s="112"/>
-      <c r="C210" s="112"/>
+      <c r="A210" s="113"/>
+      <c r="B210" s="113"/>
+      <c r="C210" s="113"/>
       <c r="D210" s="5" t="s">
         <v>585</v>
       </c>
@@ -8696,12 +8711,12 @@
       <c r="F210" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G210" s="119"/>
+      <c r="G210" s="122"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="112"/>
-      <c r="B211" s="112"/>
-      <c r="C211" s="113"/>
+      <c r="A211" s="113"/>
+      <c r="B211" s="113"/>
+      <c r="C211" s="114"/>
       <c r="D211" s="5" t="s">
         <v>587</v>
       </c>
@@ -8711,12 +8726,12 @@
       <c r="F211" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G211" s="120"/>
+      <c r="G211" s="121"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="112"/>
-      <c r="B212" s="112"/>
-      <c r="C212" s="108" t="s">
+      <c r="A212" s="113"/>
+      <c r="B212" s="113"/>
+      <c r="C212" s="110" t="s">
         <v>463</v>
       </c>
       <c r="D212" s="3" t="s">
@@ -8728,14 +8743,14 @@
       <c r="F212" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G212" s="121" t="s">
+      <c r="G212" s="115" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="112"/>
-      <c r="B213" s="112"/>
-      <c r="C213" s="109"/>
+      <c r="A213" s="113"/>
+      <c r="B213" s="113"/>
+      <c r="C213" s="111"/>
       <c r="D213" s="3" t="s">
         <v>466</v>
       </c>
@@ -8745,12 +8760,12 @@
       <c r="F213" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G213" s="122"/>
+      <c r="G213" s="116"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="112"/>
-      <c r="B214" s="112"/>
-      <c r="C214" s="113"/>
+      <c r="A214" s="113"/>
+      <c r="B214" s="113"/>
+      <c r="C214" s="114"/>
       <c r="D214" s="3" t="s">
         <v>467</v>
       </c>
@@ -8760,11 +8775,11 @@
       <c r="F214" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G214" s="120"/>
+      <c r="G214" s="121"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="113"/>
-      <c r="B215" s="113"/>
+      <c r="A215" s="114"/>
+      <c r="B215" s="114"/>
       <c r="C215" s="95" t="s">
         <v>589</v>
       </c>
@@ -8782,10 +8797,10 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="108" t="s">
+      <c r="A216" s="110" t="s">
         <v>646</v>
       </c>
-      <c r="B216" s="108" t="s">
+      <c r="B216" s="110" t="s">
         <v>645</v>
       </c>
       <c r="C216" s="33" t="s">
@@ -8805,8 +8820,8 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="113"/>
-      <c r="B217" s="113"/>
+      <c r="A217" s="114"/>
+      <c r="B217" s="114"/>
       <c r="C217" s="33" t="s">
         <v>293</v>
       </c>
@@ -8818,13 +8833,13 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="108" t="s">
+      <c r="A218" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="B218" s="115" t="s">
+      <c r="B218" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="C218" s="115" t="s">
+      <c r="C218" s="123" t="s">
         <v>307</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -8836,14 +8851,14 @@
       <c r="F218" s="98" t="s">
         <v>619</v>
       </c>
-      <c r="G218" s="117" t="s">
+      <c r="G218" s="125" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="112"/>
-      <c r="B219" s="112"/>
-      <c r="C219" s="116"/>
+      <c r="A219" s="113"/>
+      <c r="B219" s="113"/>
+      <c r="C219" s="124"/>
       <c r="D219" s="5" t="s">
         <v>624</v>
       </c>
@@ -8853,12 +8868,12 @@
       <c r="F219" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G219" s="118"/>
+      <c r="G219" s="126"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="112"/>
-      <c r="B220" s="112"/>
-      <c r="C220" s="112"/>
+      <c r="A220" s="113"/>
+      <c r="B220" s="113"/>
+      <c r="C220" s="113"/>
       <c r="D220" s="5" t="s">
         <v>625</v>
       </c>
@@ -8868,12 +8883,12 @@
       <c r="F220" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G220" s="118"/>
+      <c r="G220" s="126"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="112"/>
-      <c r="B221" s="112"/>
-      <c r="C221" s="113"/>
+      <c r="A221" s="113"/>
+      <c r="B221" s="113"/>
+      <c r="C221" s="114"/>
       <c r="D221" s="5" t="s">
         <v>627</v>
       </c>
@@ -8883,12 +8898,12 @@
       <c r="F221" s="99" t="s">
         <v>626</v>
       </c>
-      <c r="G221" s="120"/>
+      <c r="G221" s="121"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="112"/>
-      <c r="B222" s="112"/>
-      <c r="C222" s="115" t="s">
+      <c r="A222" s="113"/>
+      <c r="B222" s="113"/>
+      <c r="C222" s="123" t="s">
         <v>309</v>
       </c>
       <c r="D222" s="5" t="s">
@@ -8900,14 +8915,14 @@
       <c r="F222" s="99" t="s">
         <v>630</v>
       </c>
-      <c r="G222" s="117" t="s">
+      <c r="G222" s="125" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="112"/>
-      <c r="B223" s="112"/>
-      <c r="C223" s="135"/>
+      <c r="A223" s="113"/>
+      <c r="B223" s="113"/>
+      <c r="C223" s="128"/>
       <c r="D223" s="5" t="s">
         <v>633</v>
       </c>
@@ -8917,12 +8932,12 @@
       <c r="F223" s="99" t="s">
         <v>630</v>
       </c>
-      <c r="G223" s="134"/>
+      <c r="G223" s="127"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="112"/>
-      <c r="B224" s="112"/>
-      <c r="C224" s="115" t="s">
+      <c r="A224" s="113"/>
+      <c r="B224" s="113"/>
+      <c r="C224" s="123" t="s">
         <v>310</v>
       </c>
       <c r="D224" s="3" t="s">
@@ -8930,16 +8945,16 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="112"/>
-      <c r="B225" s="112"/>
-      <c r="C225" s="135"/>
+      <c r="A225" s="113"/>
+      <c r="B225" s="113"/>
+      <c r="C225" s="128"/>
       <c r="D225" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="113"/>
-      <c r="B226" s="113"/>
+      <c r="A226" s="114"/>
+      <c r="B226" s="114"/>
       <c r="C226" s="2" t="s">
         <v>559</v>
       </c>
@@ -8960,146 +8975,130 @@
       <c r="A227" s="105"/>
       <c r="B227" s="105"/>
       <c r="C227" s="106" t="s">
+        <v>665</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D227" s="96" t="s">
-        <v>665</v>
-      </c>
       <c r="E227" s="4">
-        <v>43824</v>
-      </c>
-      <c r="F227" s="49" t="s">
+        <v>43825</v>
+      </c>
+      <c r="F227" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G227" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="63" t="s">
+      <c r="A228" s="108"/>
+      <c r="B228" s="108"/>
+      <c r="C228" s="109"/>
+      <c r="D228" s="96" t="s">
+        <v>668</v>
+      </c>
+      <c r="E228" s="4"/>
+      <c r="F228" s="109"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="108"/>
+      <c r="B229" s="108"/>
+      <c r="C229" s="109"/>
+      <c r="D229" s="96" t="s">
+        <v>669</v>
+      </c>
+      <c r="E229" s="4"/>
+      <c r="F229" s="109"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="108"/>
+      <c r="B230" s="108"/>
+      <c r="C230" s="109"/>
+      <c r="D230" s="96" t="s">
+        <v>670</v>
+      </c>
+      <c r="E230" s="4"/>
+      <c r="F230" s="109"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B228" s="48" t="s">
+      <c r="B231" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="C228" s="48" t="s">
+      <c r="C231" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D228" s="50" t="s">
+      <c r="D231" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E228" s="49" t="s">
+      <c r="E231" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G231" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="115" t="s">
+    <row r="233" spans="1:7">
+      <c r="A233" s="123" t="s">
         <v>448</v>
       </c>
-      <c r="B230" s="115" t="s">
+      <c r="B233" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="C230" s="115" t="s">
+      <c r="C233" s="123" t="s">
         <v>449</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="E230" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G230" s="117" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="116"/>
-      <c r="B231" s="116"/>
-      <c r="C231" s="116"/>
-      <c r="D231" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E231" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G231" s="118"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="116"/>
-      <c r="B232" s="116"/>
-      <c r="C232" s="116"/>
-      <c r="D232" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E232" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G232" s="118"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="116"/>
-      <c r="B233" s="116"/>
-      <c r="C233" s="112"/>
-      <c r="D233" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="E233" s="4">
         <v>43815</v>
       </c>
-      <c r="F233" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G233" s="119"/>
+      <c r="F233" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G233" s="125" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="116"/>
-      <c r="B234" s="116"/>
-      <c r="C234" s="113"/>
+      <c r="A234" s="124"/>
+      <c r="B234" s="124"/>
+      <c r="C234" s="124"/>
       <c r="D234" s="3" t="s">
-        <v>563</v>
+        <v>452</v>
       </c>
       <c r="E234" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F234" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G234" s="120"/>
+        <v>43815</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G234" s="126"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="112"/>
-      <c r="B235" s="112"/>
-      <c r="C235" s="108" t="s">
-        <v>456</v>
-      </c>
+      <c r="A235" s="124"/>
+      <c r="B235" s="124"/>
+      <c r="C235" s="124"/>
       <c r="D235" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E235" s="4">
         <v>43815</v>
       </c>
-      <c r="F235" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G235" s="117" t="s">
-        <v>459</v>
-      </c>
+      <c r="F235" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G235" s="126"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="112"/>
-      <c r="B236" s="112"/>
-      <c r="C236" s="112"/>
+      <c r="A236" s="124"/>
+      <c r="B236" s="124"/>
+      <c r="C236" s="113"/>
       <c r="D236" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E236" s="4">
         <v>43815</v>
@@ -9107,144 +9106,112 @@
       <c r="F236" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G236" s="118"/>
+      <c r="G236" s="122"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="112"/>
-      <c r="B237" s="112"/>
-      <c r="C237" s="112"/>
+      <c r="A237" s="124"/>
+      <c r="B237" s="124"/>
+      <c r="C237" s="114"/>
       <c r="D237" s="3" t="s">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="E237" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F237" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G237" s="118"/>
+        <v>43819</v>
+      </c>
+      <c r="F237" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G237" s="121"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="113"/>
       <c r="B238" s="113"/>
-      <c r="C238" s="113"/>
+      <c r="C238" s="110" t="s">
+        <v>456</v>
+      </c>
       <c r="D238" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E238" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F238" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G238" s="125" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="113"/>
+      <c r="B239" s="113"/>
+      <c r="C239" s="113"/>
+      <c r="D239" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E239" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F239" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G239" s="126"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="113"/>
+      <c r="B240" s="113"/>
+      <c r="C240" s="113"/>
+      <c r="D240" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E240" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F240" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G240" s="126"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="114"/>
+      <c r="B241" s="114"/>
+      <c r="C241" s="114"/>
+      <c r="D241" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E241" s="4">
         <v>43819</v>
       </c>
-      <c r="F238" s="82" t="s">
+      <c r="F241" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G238" s="120"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="2" t="s">
+      <c r="G241" s="121"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E242" s="4">
         <v>43822</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="F242" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>606</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="G114:G121"/>
-    <mergeCell ref="C235:C238"/>
-    <mergeCell ref="B230:B238"/>
-    <mergeCell ref="G218:G221"/>
-    <mergeCell ref="G222:G223"/>
-    <mergeCell ref="A230:A238"/>
-    <mergeCell ref="G235:G238"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="C230:C234"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C161:C165"/>
-    <mergeCell ref="G151:G153"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="C132:C141"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="C29:C42"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="G160:G164"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="G143:G150"/>
-    <mergeCell ref="G132:G141"/>
-    <mergeCell ref="C143:C150"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="G99:G106"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="G212:G214"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="G6:G16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G29:G42"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B178:B215"/>
-    <mergeCell ref="A178:A215"/>
-    <mergeCell ref="G168:G174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="B155:B174"/>
-    <mergeCell ref="A155:A174"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="C178:C184"/>
-    <mergeCell ref="G178:G184"/>
     <mergeCell ref="G155:G158"/>
     <mergeCell ref="C209:C211"/>
     <mergeCell ref="B3:B72"/>
@@ -9269,8 +9236,89 @@
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="G6:G16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G29:G42"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B218:B226"/>
+    <mergeCell ref="G160:G164"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="G143:G150"/>
+    <mergeCell ref="G132:G141"/>
+    <mergeCell ref="C143:C150"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="G99:G106"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="G212:G214"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B178:B215"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="A178:A215"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="B155:B174"/>
+    <mergeCell ref="A155:A174"/>
+    <mergeCell ref="C178:C184"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C64:C65"/>
+    <mergeCell ref="G114:G121"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="B233:B241"/>
+    <mergeCell ref="G218:G221"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="A233:A241"/>
+    <mergeCell ref="G238:G241"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="G233:G237"/>
+    <mergeCell ref="C233:C237"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C161:C165"/>
+    <mergeCell ref="G151:G153"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="C132:C141"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="G168:G174"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="G178:G184"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9308,10 +9356,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="140" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -9323,13 +9371,13 @@
       <c r="E3" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="138" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="18" t="s">
         <v>233</v>
       </c>
@@ -9339,11 +9387,11 @@
       <c r="E4" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="29" t="s">
         <v>235</v>
       </c>
@@ -9353,11 +9401,11 @@
       <c r="E5" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="137"/>
+      <c r="F5" s="139"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="29" t="s">
         <v>237</v>
       </c>
@@ -9367,7 +9415,7 @@
       <c r="E6" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="137"/>
+      <c r="F6" s="139"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15" t="s">
@@ -9375,10 +9423,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="133" t="s">
         <v>610</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -9390,13 +9438,13 @@
       <c r="E8" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="142" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="18" t="s">
         <v>615</v>
       </c>
@@ -9406,11 +9454,11 @@
       <c r="E9" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="18" t="s">
         <v>616</v>
       </c>
@@ -9420,11 +9468,11 @@
       <c r="E10" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="18" t="s">
         <v>617</v>
       </c>
@@ -9434,11 +9482,11 @@
       <c r="E11" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F11" s="141"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="18" t="s">
         <v>618</v>
       </c>
@@ -9448,7 +9496,7 @@
       <c r="E12" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="F12" s="142"/>
+      <c r="F12" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9486,13 +9534,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="133" t="s">
         <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -9505,13 +9553,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="114" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -9541,7 +9589,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -9549,25 +9597,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="143"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="144"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="140" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -9575,33 +9623,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="139"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -9609,7 +9657,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="129" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -9619,7 +9667,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="143"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -9627,7 +9675,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="144"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -9641,10 +9689,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="133" t="s">
         <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -9664,8 +9712,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="15" t="s">
         <v>273</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="软件技术" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="731">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2604,10 +2604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物联网应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激光雕刻机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2951,13 +2947,403 @@
     <t>D:\A-超级智库\PlanB\2-硬件技术\8-无线通信\BlueTooth</t>
   </si>
   <si>
-    <t>CC2540-BLE-低功耗蓝牙4.0-透传模块-硬件手册.pdf</t>
-  </si>
-  <si>
-    <t>BLE4.0贴片模块手册.pdf</t>
-  </si>
-  <si>
-    <t>SmartRFStudio使用教程在线调试.pdf</t>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-CC2540-BLE-低功耗蓝牙4.0-透传模块-硬件手册.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-BLE4.0贴片模块手册.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-四轴飞行DIY.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-无人机开发方案要领与电路图集锦.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\7-无人机</t>
+  </si>
+  <si>
+    <t>项目产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-停车场系统产品讲解.pdf</t>
+  </si>
+  <si>
+    <t>RD-思佩力-停车场系统.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-嵌入式汽车牌照识别仪全新牌照识别解决方案.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Loop Detector Schematic V2.0地磁检测电路.png</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-地感线圈工作原理.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\2-智能停车场</t>
+  </si>
+  <si>
+    <t>雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PCamera</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车记录仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-激光雷达How2AppNote002 LiDAR.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\6-雷达</t>
+  </si>
+  <si>
+    <t>RD-雷达基础知识.pdf</t>
+  </si>
+  <si>
+    <t>RD-激光测距与激光雷达.pdf</t>
+  </si>
+  <si>
+    <t>RD-RPLIDARA3360度激光扫描测距雷达简介与规格书.pdf</t>
+  </si>
+  <si>
+    <t>激光雷达测距电路设计.pdf</t>
+  </si>
+  <si>
+    <t>RD-IPCamera竞品分析解读.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\8-IPCamera</t>
+  </si>
+  <si>
+    <t>RD-IP网络摄像机使用说明书.pdf</t>
+  </si>
+  <si>
+    <t>RD-大华存储产品V1.0之通用产品.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VR-NVR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\10-DVR-NVR</t>
+  </si>
+  <si>
+    <t>RD-低功耗蓝牙4.0(BLE)主从通信模块及主透传协议.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-SmartRFStudio使用教程在线调试.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-几种云台控制协议.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-山东华网智能云台使用说明书.pdf</t>
+  </si>
+  <si>
+    <t>RD-TL431的基本应用电路和几种不常见接法.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-稳压二极管的限流电阻的计算.png</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-中文详解PELCO协议.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-高速球云台说明书.pdf</t>
+  </si>
+  <si>
+    <t>RD-STM32PWM输出实验.pdf</t>
+  </si>
+  <si>
+    <t>RD-稀里煳涂学习STM32.pdf</t>
+  </si>
+  <si>
+    <t>Electronic Circuits_ Handbook for Design and Application.pdf</t>
+  </si>
+  <si>
+    <t>Operational Amplifiers and Linear Integrated Circuits.pdf</t>
+  </si>
+  <si>
+    <t>Z-IV电流转换电压.pdf</t>
+  </si>
+  <si>
+    <t>光模块接收电路原理.pdf</t>
+  </si>
+  <si>
+    <t>集成运算放大器应用集锦.pdf</t>
+  </si>
+  <si>
+    <t>快递柜-寄包柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市存包柜电脑控制器的设计.pdf</t>
+  </si>
+  <si>
+    <t>自动存包柜的设计.pdf</t>
+  </si>
+  <si>
+    <t>自动存包柜系统设计.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E速递_智能快递柜自取解决方案简.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\3-项目产品\4-快递柜-寄包柜</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高校智能快递柜解决方案.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收件宝_智能快递柜自取解决方案.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能快递柜联网通信解决方案.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某智能寄柜科技有限公司创业计划文本.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3072,7 +3458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3374,6 +3760,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3384,11 +3792,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3398,12 +3815,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3416,63 +3857,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3483,21 +3915,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3814,15 +4231,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3848,13 +4265,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="124" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3871,9 +4288,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3888,22 +4305,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="124" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3920,9 +4337,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3937,9 +4354,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3954,9 +4371,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="120"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3971,9 +4388,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3988,8 +4405,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -3997,9 +4414,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="110" t="s">
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="121" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4011,14 +4428,14 @@
       <c r="F12" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="134" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
@@ -4028,12 +4445,12 @@
       <c r="F13" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="116"/>
+      <c r="G13" s="135"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
@@ -4043,12 +4460,12 @@
       <c r="F14" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="116"/>
+      <c r="G14" s="135"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="112"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
@@ -4058,16 +4475,16 @@
       <c r="F15" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="117"/>
+      <c r="G15" s="136"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -4102,13 +4519,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="121" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="121" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="121" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4120,25 +4537,25 @@
       <c r="F19" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="134" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="116"/>
+      <c r="G20" s="135"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
@@ -4148,12 +4565,12 @@
       <c r="F21" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="116"/>
+      <c r="G21" s="135"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
@@ -4163,12 +4580,12 @@
       <c r="F22" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="116"/>
+      <c r="G22" s="135"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
@@ -4178,12 +4595,12 @@
       <c r="F23" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="122"/>
+      <c r="G23" s="132"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
@@ -4193,12 +4610,12 @@
       <c r="F24" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="122"/>
+      <c r="G24" s="132"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
@@ -4208,12 +4625,12 @@
       <c r="F25" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="122"/>
+      <c r="G25" s="132"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
@@ -4223,12 +4640,12 @@
       <c r="F26" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="122"/>
+      <c r="G26" s="132"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
@@ -4238,12 +4655,12 @@
       <c r="F27" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="122"/>
+      <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
@@ -4253,12 +4670,12 @@
       <c r="F28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="122"/>
+      <c r="G28" s="132"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
@@ -4268,12 +4685,12 @@
       <c r="F29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="122"/>
+      <c r="G29" s="132"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
@@ -4283,12 +4700,12 @@
       <c r="F30" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="122"/>
+      <c r="G30" s="132"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
@@ -4298,12 +4715,12 @@
       <c r="F31" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="122"/>
+      <c r="G31" s="132"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
@@ -4313,12 +4730,12 @@
       <c r="F32" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="122"/>
+      <c r="G32" s="132"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
@@ -4328,7 +4745,7 @@
       <c r="F33" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="121"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4340,13 +4757,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="124" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -4358,14 +4775,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="115" t="s">
+      <c r="G35" s="134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4375,12 +4792,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="116"/>
+      <c r="G36" s="135"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="120"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4390,12 +4807,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="116"/>
+      <c r="G37" s="135"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="120"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4405,7 +4822,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="116"/>
+      <c r="G38" s="135"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -4420,7 +4837,7 @@
       <c r="F39" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="117"/>
+      <c r="G39" s="136"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4432,13 +4849,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="121" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4450,14 +4867,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="134" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4467,7 +4884,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="116"/>
+      <c r="G42" s="135"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -4482,7 +4899,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="117"/>
+      <c r="G43" s="136"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4494,13 +4911,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="121" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4512,14 +4929,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="115" t="s">
+      <c r="G45" s="134" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="125"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4529,23 +4946,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="116"/>
+      <c r="G46" s="135"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="113"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="116"/>
+      <c r="G47" s="135"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="113"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
@@ -4555,12 +4972,12 @@
       <c r="F48" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="116"/>
+      <c r="G48" s="135"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="114"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
@@ -4570,22 +4987,22 @@
       <c r="F49" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="121"/>
+      <c r="G49" s="133"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="121" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -4605,8 +5022,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="113"/>
-      <c r="B52" s="113"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -4614,9 +5031,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="110" t="s">
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="121" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4628,14 +5045,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="120" t="s">
+      <c r="G53" s="124" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="111"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -4645,12 +5062,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="120"/>
+      <c r="G54" s="124"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="111"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4660,12 +5077,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="120"/>
+      <c r="G55" s="124"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="111"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -4675,12 +5092,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="120"/>
+      <c r="G56" s="124"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="113"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="111"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="122"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -4690,12 +5107,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="120"/>
+      <c r="G57" s="124"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="113"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="111"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="122"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -4705,12 +5122,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="120"/>
+      <c r="G58" s="124"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="113"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -4719,9 +5136,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="113"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="114"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -4730,8 +5147,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="113"/>
-      <c r="B61" s="113"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -4739,9 +5156,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="113"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="110" t="s">
+      <c r="A62" s="125"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="121" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4753,25 +5170,25 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="115" t="s">
+      <c r="G62" s="134" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="113"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="111"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="122"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="116"/>
+      <c r="G63" s="135"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="113"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
@@ -4781,12 +5198,12 @@
       <c r="F64" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="116"/>
+      <c r="G64" s="135"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="113"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
@@ -4796,12 +5213,12 @@
       <c r="F65" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="116"/>
+      <c r="G65" s="135"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="113"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="114"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
@@ -4811,11 +5228,11 @@
       <c r="F66" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="117"/>
+      <c r="G66" s="136"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="113"/>
-      <c r="B67" s="113"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -4823,8 +5240,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="113"/>
-      <c r="B68" s="113"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="45" t="s">
         <v>343</v>
       </c>
@@ -4836,8 +5253,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="113"/>
-      <c r="B69" s="113"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -4845,9 +5262,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="113"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="110" t="s">
+      <c r="A70" s="125"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="121" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4859,14 +5276,14 @@
       <c r="F70" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="115" t="s">
+      <c r="G70" s="134" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="113"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="111"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
@@ -4876,12 +5293,12 @@
       <c r="F71" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="116"/>
+      <c r="G71" s="135"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="113"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
@@ -4891,12 +5308,12 @@
       <c r="F72" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="116"/>
+      <c r="G72" s="135"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="113"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
@@ -4906,12 +5323,12 @@
       <c r="F73" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="122"/>
+      <c r="G73" s="132"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="114"/>
-      <c r="B74" s="114"/>
-      <c r="C74" s="113"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
@@ -4921,12 +5338,12 @@
       <c r="F74" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="122"/>
+      <c r="G74" s="132"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="114"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
@@ -4936,7 +5353,7 @@
       <c r="F75" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="121"/>
+      <c r="G75" s="133"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -4948,10 +5365,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="121" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -4971,9 +5388,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="113"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="110" t="s">
+      <c r="A78" s="125"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="121" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4985,14 +5402,14 @@
       <c r="F78" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="115" t="s">
+      <c r="G78" s="134" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="113"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="114"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="126"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
@@ -5002,12 +5419,12 @@
       <c r="F79" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="117"/>
+      <c r="G79" s="136"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="113"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="110" t="s">
+      <c r="A80" s="125"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="121" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5019,14 +5436,14 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G80" s="134" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="113"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="111"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="122"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
@@ -5036,12 +5453,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="116"/>
+      <c r="G81" s="135"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="113"/>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
@@ -5051,12 +5468,12 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="116"/>
+      <c r="G82" s="135"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="113"/>
-      <c r="B83" s="113"/>
-      <c r="C83" s="114"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="126"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
@@ -5066,12 +5483,12 @@
       <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="121"/>
+      <c r="G83" s="133"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="114"/>
-      <c r="B84" s="113"/>
-      <c r="C84" s="110" t="s">
+      <c r="A84" s="126"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="121" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5085,8 +5502,8 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="114"/>
-      <c r="C85" s="112"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="68" t="s">
         <v>482</v>
       </c>
@@ -5097,22 +5514,22 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="119"/>
-      <c r="B86" s="119"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
-      <c r="G86" s="119"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="123" t="s">
+      <c r="C87" s="128" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5124,14 +5541,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="125" t="s">
+      <c r="G87" s="130" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="111"/>
-      <c r="B88" s="111"/>
-      <c r="C88" s="124"/>
+      <c r="A88" s="122"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5141,12 +5558,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="126"/>
+      <c r="G88" s="131"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="111"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="122"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5156,12 +5573,12 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="126"/>
+      <c r="G89" s="131"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="111"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="113"/>
+      <c r="A90" s="122"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="125"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
@@ -5171,12 +5588,12 @@
       <c r="F90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="122"/>
+      <c r="G90" s="132"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="111"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="113"/>
+      <c r="A91" s="122"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="125"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
@@ -5186,12 +5603,12 @@
       <c r="F91" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="122"/>
+      <c r="G91" s="132"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="111"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="113"/>
+      <c r="A92" s="122"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="125"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
@@ -5201,12 +5618,12 @@
       <c r="F92" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="122"/>
+      <c r="G92" s="132"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="111"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="114"/>
+      <c r="A93" s="122"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
@@ -5216,11 +5633,11 @@
       <c r="F93" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="121"/>
+      <c r="G93" s="133"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="111"/>
-      <c r="B94" s="111"/>
+      <c r="A94" s="122"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5238,9 +5655,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="111"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="110" t="s">
+      <c r="A95" s="122"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="121" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5257,9 +5674,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="111"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="122"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5268,8 +5685,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="111"/>
-      <c r="B97" s="111"/>
+      <c r="A97" s="122"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5287,9 +5704,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="113"/>
-      <c r="B98" s="113"/>
-      <c r="C98" s="110" t="s">
+      <c r="A98" s="125"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="121" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5300,9 +5717,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="113"/>
-      <c r="B99" s="113"/>
-      <c r="C99" s="111"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="122"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5311,9 +5728,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="113"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -5322,8 +5739,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="114"/>
-      <c r="B101" s="114"/>
+      <c r="A101" s="126"/>
+      <c r="B101" s="126"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -5341,19 +5758,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="119"/>
-      <c r="B102" s="119"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="119"/>
-      <c r="E102" s="119"/>
-      <c r="F102" s="119"/>
-      <c r="G102" s="119"/>
+      <c r="A102" s="127"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="110" t="s">
+      <c r="A103" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="121" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5371,8 +5788,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="111"/>
-      <c r="B104" s="111"/>
+      <c r="A104" s="122"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5388,8 +5805,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="111"/>
-      <c r="B105" s="111"/>
+      <c r="A105" s="122"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5407,9 +5824,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="111"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="120" t="s">
+      <c r="A106" s="122"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="124" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5422,9 +5839,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="111"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="120"/>
+      <c r="A107" s="122"/>
+      <c r="B107" s="122"/>
+      <c r="C107" s="124"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
       </c>
@@ -5433,13 +5850,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="110" t="s">
+      <c r="A109" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="110" t="s">
+      <c r="B109" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="110" t="s">
+      <c r="C109" s="121" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5456,9 +5873,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="111"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
+      <c r="A110" s="122"/>
+      <c r="B110" s="122"/>
+      <c r="C110" s="122"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5470,9 +5887,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="111"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="111"/>
+      <c r="A111" s="122"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="122"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5484,9 +5901,9 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="111"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="111"/>
+      <c r="A112" s="122"/>
+      <c r="B112" s="122"/>
+      <c r="C112" s="122"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5499,25 +5916,28 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="G87:G93"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G19:G33"/>
+    <mergeCell ref="C19:C33"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="G53:G58"/>
     <mergeCell ref="B77:B85"/>
@@ -5534,28 +5954,25 @@
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="C53:C60"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G19:G33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5567,10 +5984,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228:D230"/>
+    <sheetView topLeftCell="B120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5586,15 +6003,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -5620,13 +6037,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="121" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5638,14 +6055,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="134" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -5655,12 +6072,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="135"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -5670,63 +6087,63 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="135"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="110" t="s">
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="132"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>709</v>
+      </c>
+      <c r="G7" s="133"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="4">
         <v>43797</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G8" s="134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="5" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>534</v>
-      </c>
-      <c r="G7" s="122"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>534</v>
-      </c>
-      <c r="G8" s="122"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="124"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="E9" s="4">
         <v>43818</v>
@@ -5734,219 +6151,219 @@
       <c r="F9" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="122"/>
+      <c r="G9" s="132"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="80" t="s">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G10" s="132"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G11" s="132"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="80" t="s">
         <v>537</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="122"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="122"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="124"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="80" t="s">
-        <v>539</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="122"/>
+      <c r="G12" s="132"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="80" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="122"/>
+      <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="80" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="122"/>
+      <c r="G14" s="132"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="113"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="80" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="122"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="80" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="121"/>
+      <c r="G16" s="132"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="123" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="132"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="133"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E19" s="4">
         <v>43797</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G19" s="134" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="5" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>43797</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="117"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="5" t="s">
+      <c r="G20" s="136"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E21" s="4">
         <v>43821</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F21" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G19" s="94"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="123" t="s">
+      <c r="G21" s="94"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E22" s="4">
         <v>43800</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="115" t="s">
+      <c r="G22" s="134" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="5" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E23" s="4">
         <v>43800</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="122"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="5" t="s">
+      <c r="G23" s="132"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E24" s="4">
         <v>43818</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F24" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G22" s="122"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="5" t="s">
+      <c r="G24" s="132"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F23" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G23" s="122"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E24" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F24" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G24" s="122"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="E25" s="4">
         <v>43819</v>
@@ -5954,14 +6371,14 @@
       <c r="F25" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="122"/>
+      <c r="G25" s="132"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E26" s="4">
         <v>43819</v>
@@ -5969,46 +6386,46 @@
       <c r="F26" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="121"/>
+      <c r="G26" s="132"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="123" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G27" s="132"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="125"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G28" s="133"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="E27" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="110" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="E29" s="4">
         <v>43800</v>
@@ -6016,136 +6433,136 @@
       <c r="F29" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="125"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="134" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="5" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="125"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="E30" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="116"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E32" s="4">
         <v>43801</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="116"/>
+      <c r="F32" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="135"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E33" s="4">
         <v>43801</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="135"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="125"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F34" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="116"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="135"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="125"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="135"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E36" s="4">
         <v>43805</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F36" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="G34" s="122"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="5" t="s">
+      <c r="G36" s="132"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="E35" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="G35" s="122"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="G36" s="122"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>501</v>
-      </c>
-      <c r="G37" s="122"/>
+        <v>498</v>
+      </c>
+      <c r="G37" s="132"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E38" s="4">
         <v>43817</v>
@@ -6153,29 +6570,29 @@
       <c r="F38" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="122"/>
+      <c r="G38" s="132"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E39" s="4">
         <v>43817</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="G39" s="122"/>
+        <v>501</v>
+      </c>
+      <c r="G39" s="132"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
       <c r="D40" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E40" s="4">
         <v>43817</v>
@@ -6183,14 +6600,14 @@
       <c r="F40" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="122"/>
+      <c r="G40" s="132"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="4">
         <v>43817</v>
@@ -6198,14 +6615,14 @@
       <c r="F41" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="122"/>
+      <c r="G41" s="132"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E42" s="4">
         <v>43817</v>
@@ -6213,129 +6630,127 @@
       <c r="F42" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="122"/>
+      <c r="G42" s="132"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="110" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G43" s="132"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G44" s="132"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="125"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="121" t="s">
+        <v>638</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="E43" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G43" s="115" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="E44" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F44" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G44" s="122"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="113"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="E45" s="4">
         <v>43823</v>
       </c>
       <c r="F45" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G45" s="121"/>
+        <v>636</v>
+      </c>
+      <c r="G45" s="134" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="113"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="110" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F46" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G46" s="132"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F47" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G47" s="133"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E48" s="4">
         <v>43801</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F48" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="115" t="s">
+      <c r="G48" s="134" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="113"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="5" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E49" s="4">
         <v>43801</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F49" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="116"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="113"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="5" t="s">
+      <c r="G49" s="135"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="E48" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="G48" s="116"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="113"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="G49" s="117"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="113"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="110" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E50" s="4">
         <v>43802</v>
@@ -6343,16 +6758,14 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="115" t="s">
-        <v>281</v>
-      </c>
+      <c r="G50" s="135"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="113"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="111"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E51" s="4">
         <v>43802</v>
@@ -6360,65 +6773,65 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="116"/>
+      <c r="G51" s="136"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="113"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="D52" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E52" s="4">
         <v>43802</v>
       </c>
-      <c r="F52" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="121"/>
+      <c r="F52" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="134" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="110" t="s">
-        <v>284</v>
-      </c>
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E53" s="4">
         <v>43802</v>
       </c>
-      <c r="F53" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G53" s="115" t="s">
-        <v>594</v>
-      </c>
+      <c r="F53" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G53" s="135"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="126"/>
       <c r="D54" s="5" t="s">
-        <v>592</v>
+        <v>283</v>
       </c>
       <c r="E54" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F54" s="90" t="s">
-        <v>593</v>
-      </c>
-      <c r="G54" s="121"/>
+        <v>43802</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="133"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="110" t="s">
-        <v>288</v>
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="121" t="s">
+        <v>284</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E55" s="4">
         <v>43802</v>
@@ -6426,99 +6839,101 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="131" t="s">
+      <c r="G55" s="134" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F56" s="90" t="s">
+        <v>593</v>
+      </c>
+      <c r="G56" s="133"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" s="141" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="5" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E58" s="4">
         <v>43802</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F58" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="132"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="113"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="110" t="s">
+      <c r="G58" s="142"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="121" t="s">
         <v>334</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E59" s="4">
         <v>43804</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F59" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="115" t="s">
+      <c r="G59" s="134" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="113"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="5" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="125"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E60" s="4">
         <v>43804</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F60" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G58" s="117"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="113"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="110" t="s">
+      <c r="G60" s="136"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="125"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="E59" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="G59" s="115" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="113"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E60" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="G60" s="116"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="113"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="E61" s="4">
         <v>43805</v>
@@ -6526,80 +6941,78 @@
       <c r="F61" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="116"/>
+      <c r="G61" s="134" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="113"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="122"/>
       <c r="D62" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E62" s="4">
         <v>43805</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G62" s="135"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="135"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F64" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="122"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="113"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="5" t="s">
+      <c r="G64" s="132"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="125"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E65" s="4">
         <v>43806</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F65" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G63" s="121"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="113"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="134" t="s">
+      <c r="G65" s="133"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="E64" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F64" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="G64" s="115" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="113"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E65" s="4">
-        <v>43812</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="G65" s="117"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="113"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="134" t="s">
-        <v>445</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="E66" s="4">
         <v>43812</v>
@@ -6607,16 +7020,16 @@
       <c r="F66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="115" t="s">
-        <v>443</v>
+      <c r="G66" s="134" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="113"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="135"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="145"/>
       <c r="D67" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E67" s="4">
         <v>43812</v>
@@ -6624,48 +7037,50 @@
       <c r="F67" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="117"/>
+      <c r="G67" s="136"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="113"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="136" t="s">
+      <c r="A68" s="125"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="144" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G68" s="134" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="125"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43812</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" s="136"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="125"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="147" t="s">
         <v>487</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="E68" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G68" s="115" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="113"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E69" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G69" s="116"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="113"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="E70" s="4">
         <v>43817</v>
@@ -6673,159 +7088,161 @@
       <c r="F70" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G70" s="121"/>
+      <c r="G70" s="134" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="113"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="133" t="s">
+      <c r="A71" s="125"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" s="135"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E72" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G72" s="133"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="143" t="s">
         <v>596</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E73" s="4">
         <v>43821</v>
       </c>
-      <c r="F71" s="90" t="s">
+      <c r="F73" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G71" s="130" t="s">
+      <c r="G73" s="140" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="114"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="5" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E74" s="4">
         <v>43821</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F74" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G72" s="121"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="123" t="s">
+      <c r="G74" s="133"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="123" t="s">
+      <c r="B76" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="111" t="s">
+      <c r="C76" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E76" s="7">
         <v>43812</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F76" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="124"/>
-      <c r="B75" s="124"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="3" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E77" s="4">
         <v>43802</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="115" t="s">
+      <c r="G77" s="134" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="124"/>
-      <c r="B76" s="124"/>
-      <c r="C76" s="110" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E78" s="4">
         <v>43777</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F78" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="G76" s="116"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="113"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="5" t="s">
+      <c r="G78" s="135"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="125"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E79" s="4">
         <v>43777</v>
-      </c>
-      <c r="F77" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G77" s="122"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="113"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E78" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F78" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G78" s="122"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="113"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E79" s="4">
-        <v>43817</v>
       </c>
       <c r="F79" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G79" s="122"/>
+      <c r="G79" s="132"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="113"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="114"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
       <c r="D80" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E80" s="4">
         <v>43817</v>
@@ -6833,502 +7250,502 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="121"/>
+      <c r="G80" s="132"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="113"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="66" t="s">
+      <c r="A81" s="125"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F81" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="132"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="125"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F82" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G82" s="133"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="125"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="64"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="114"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="63" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="64"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="126"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E84" s="4">
         <v>43815</v>
       </c>
-      <c r="F82" s="63" t="s">
+      <c r="F84" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="102"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="103" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="102"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="103" t="s">
+        <v>654</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E85" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F85" s="103" t="s">
+        <v>653</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E83" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F83" s="103" t="s">
-        <v>654</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="123" t="s">
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="123" t="s">
+      <c r="B86" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="124"/>
-      <c r="B85" s="124"/>
-      <c r="D85" s="3" t="s">
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="129"/>
+      <c r="B87" s="129"/>
+      <c r="D87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E87" s="4">
         <v>43782</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="113"/>
-      <c r="B86" s="113"/>
-      <c r="D86" s="3" t="s">
+    <row r="88" spans="1:7">
+      <c r="A88" s="125"/>
+      <c r="B88" s="125"/>
+      <c r="D88" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E88" s="4">
         <v>43797</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="113"/>
-      <c r="B87" s="113"/>
-      <c r="D87" s="3" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="125"/>
+      <c r="B89" s="125"/>
+      <c r="D89" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E89" s="4">
         <v>43797</v>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="113"/>
-      <c r="B88" s="113"/>
-      <c r="C88" s="110" t="s">
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="125"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="121" t="s">
         <v>544</v>
       </c>
-      <c r="D88" s="81" t="s">
+      <c r="D90" s="81" t="s">
         <v>545</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="115" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="113"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="81" t="s">
-        <v>546</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="116"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="113"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="81" t="s">
-        <v>547</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="116"/>
+      <c r="G90" s="134" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="113"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="111"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="81" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="76"/>
-      <c r="G91" s="116"/>
+      <c r="G91" s="135"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="113"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="111"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="122"/>
       <c r="D92" s="81" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="76"/>
-      <c r="G92" s="116"/>
+      <c r="G92" s="135"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="114"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="122"/>
       <c r="D93" s="81" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="76"/>
-      <c r="G93" s="117"/>
+      <c r="G93" s="135"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="123" t="s">
+      <c r="A94" s="125"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="135"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="126"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="123"/>
+      <c r="D95" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="136"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="110" t="s">
+      <c r="B96" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="110" t="s">
+      <c r="C96" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E94" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" s="115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="113"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="113"/>
-      <c r="D95" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="7">
-        <v>43788</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G95" s="116"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="113"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E96" s="7">
         <v>43788</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G96" s="134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="125"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97" s="135"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="125"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="7">
+        <v>43788</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G96" s="116"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="113"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="5" t="s">
+      <c r="G98" s="135"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="125"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E99" s="7">
         <v>43794</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F99" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G97" s="117"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="113"/>
-      <c r="B98" s="113"/>
-      <c r="C98" s="114"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="113"/>
-      <c r="B99" s="113"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="1"/>
-      <c r="G99" s="125" t="s">
+      <c r="G99" s="136"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="126"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="125"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="130" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="113"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="123" t="s">
+    <row r="102" spans="1:7">
+      <c r="A102" s="125"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E100" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G100" s="126"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="113"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="4">
-        <v>43787</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G101" s="126"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="113"/>
-      <c r="B102" s="113"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E102" s="4">
         <v>43787</v>
       </c>
-      <c r="G102" s="126"/>
+      <c r="F102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="131"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="113"/>
-      <c r="B103" s="113"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="5" t="s">
+      <c r="A103" s="125"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="4">
+        <v>43787</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="131"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="125"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="4">
+        <v>43787</v>
+      </c>
+      <c r="G104" s="131"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="125"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="G103" s="126"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="113"/>
-      <c r="B104" s="113"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="3" t="s">
+      <c r="E105" s="4"/>
+      <c r="G105" s="131"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="125"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="2" t="s">
+      <c r="E106" s="4"/>
+      <c r="F106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="126"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="113"/>
-      <c r="B105" s="113"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="3" t="s">
+      <c r="G106" s="131"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="125"/>
+      <c r="B107" s="125"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E105" s="4">
-        <v>43788</v>
-      </c>
-      <c r="G105" s="126"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="113"/>
-      <c r="B106" s="113"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G106" s="127"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="113"/>
-      <c r="B107" s="113"/>
-      <c r="C107" s="128"/>
-      <c r="D107" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E107" s="4">
         <v>43788</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="G107" s="131"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="113"/>
-      <c r="B108" s="113"/>
-      <c r="D108" s="5"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="115" t="s">
+      <c r="F108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G108" s="138"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="125"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="146"/>
+      <c r="D109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109" s="4">
+        <v>43788</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="125"/>
+      <c r="B110" s="125"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="134" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="113"/>
-      <c r="B109" s="113"/>
-      <c r="C109" s="123" t="s">
+    <row r="111" spans="1:7">
+      <c r="A111" s="125"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G109" s="122"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="113"/>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E110" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G110" s="122"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="113"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="113"/>
-      <c r="D111" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" s="4">
-        <v>43802</v>
-      </c>
+      <c r="E111" s="4"/>
       <c r="F111" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G111" s="122"/>
+      <c r="G111" s="132"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="113"/>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="125"/>
+      <c r="C112" s="125"/>
       <c r="D112" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E112" s="4">
         <v>43802</v>
       </c>
-      <c r="F112" s="42" t="s">
+      <c r="F112" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="132"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="125"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="132"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="125"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F114" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="121"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="114"/>
-      <c r="D113" s="5" t="s">
+      <c r="G114" s="133"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="125"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E115" s="4">
         <v>43804</v>
       </c>
-      <c r="F113" s="71" t="s">
+      <c r="F115" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G113" s="36"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="113"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="125" t="s">
+      <c r="G115" s="36"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="125"/>
+      <c r="B116" s="125"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="130" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="110" t="s">
+    <row r="117" spans="1:7">
+      <c r="A117" s="125"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E115" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G115" s="126"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="113"/>
-      <c r="B116" s="113"/>
-      <c r="C116" s="111"/>
-      <c r="D116" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G116" s="126"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="113"/>
-      <c r="B117" s="113"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E117" s="4">
         <v>43801</v>
@@ -7336,14 +7753,14 @@
       <c r="F117" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G117" s="126"/>
+      <c r="G117" s="131"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="113"/>
-      <c r="B118" s="113"/>
-      <c r="C118" s="111"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="125"/>
+      <c r="C118" s="122"/>
       <c r="D118" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E118" s="4">
         <v>43801</v>
@@ -7351,14 +7768,14 @@
       <c r="F118" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G118" s="126"/>
+      <c r="G118" s="131"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="113"/>
-      <c r="B119" s="113"/>
-      <c r="C119" s="111"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="122"/>
       <c r="D119" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E119" s="4">
         <v>43801</v>
@@ -7366,14 +7783,14 @@
       <c r="F119" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G119" s="126"/>
+      <c r="G119" s="131"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="113"/>
-      <c r="B120" s="113"/>
-      <c r="C120" s="111"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="122"/>
       <c r="D120" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E120" s="4">
         <v>43801</v>
@@ -7381,1944 +7798,2091 @@
       <c r="F120" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G120" s="126"/>
+      <c r="G120" s="131"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="113"/>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="122"/>
       <c r="D121" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E121" s="4">
         <v>43801</v>
       </c>
-      <c r="F121" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="127"/>
+      <c r="F121" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G121" s="131"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="113"/>
-      <c r="B122" s="113"/>
-      <c r="C122" s="114"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="125"/>
+      <c r="C122" s="122"/>
       <c r="D122" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E122" s="4">
         <v>43801</v>
       </c>
-      <c r="F122" s="71" t="s">
+      <c r="F122" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" s="131"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="125"/>
+      <c r="B123" s="125"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="138"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="125"/>
+      <c r="B124" s="125"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F124" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G122" s="38"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="113"/>
-      <c r="B123" s="113"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="79"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="113"/>
-      <c r="B124" s="113"/>
-      <c r="C124" s="2" t="s">
+      <c r="G124" s="38"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="125"/>
+      <c r="B125" s="125"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="79"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="125"/>
+      <c r="B126" s="125"/>
+      <c r="C126" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="113"/>
-      <c r="B125" s="113"/>
-      <c r="C125" s="2" t="s">
+      <c r="E126" s="4"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="125"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E127" s="4">
         <v>43819</v>
       </c>
-      <c r="F125" s="82" t="s">
+      <c r="F127" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="113"/>
-      <c r="B126" s="113"/>
-      <c r="C126" s="98" t="s">
+    <row r="128" spans="1:7">
+      <c r="A128" s="125"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="98" t="s">
+        <v>619</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E128" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F128" s="98" t="s">
+        <v>611</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E126" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F126" s="98" t="s">
-        <v>612</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="113"/>
-      <c r="B127" s="113"/>
-      <c r="C127" s="110" t="s">
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="125"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="121" t="s">
+        <v>659</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E127" s="4">
-        <v>43824</v>
-      </c>
-      <c r="F127" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="G127" s="115" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="113"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="E128" s="4">
-        <v>43824</v>
-      </c>
-      <c r="F128" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="G128" s="122"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="114"/>
-      <c r="B129" s="114"/>
-      <c r="C129" s="114"/>
-      <c r="D129" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="E129" s="4">
         <v>43824</v>
       </c>
-      <c r="F129" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="G129" s="121"/>
+      <c r="F129" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G129" s="134" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="110" t="s">
+      <c r="A130" s="125"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E130" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F130" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G130" s="132"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="126"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F131" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G131" s="133"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="118"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="96" t="s">
+        <v>715</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="119"/>
+      <c r="G132" s="120"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="118"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="96" t="s">
+        <v>716</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="119"/>
+      <c r="G133" s="120"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="118"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="96" t="s">
+        <v>717</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="119"/>
+      <c r="G134" s="120"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="118"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="96" t="s">
+        <v>718</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="119"/>
+      <c r="G135" s="120"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="118"/>
+      <c r="B136" s="126"/>
+      <c r="C136" s="126"/>
+      <c r="D136" s="96" t="s">
+        <v>719</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="119"/>
+      <c r="G136" s="120"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="110" t="s">
+      <c r="B137" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C130" s="110" t="s">
+      <c r="C137" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E137" s="7">
         <v>43805</v>
       </c>
-      <c r="F130" s="46" t="s">
+      <c r="F137" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G130" s="115" t="s">
+      <c r="G137" s="134" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="113"/>
-      <c r="B131" s="113"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="5" t="s">
+    <row r="138" spans="1:7">
+      <c r="A138" s="125"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="123"/>
+      <c r="D138" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E138" s="7">
         <v>43805</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G131" s="121"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="113"/>
-      <c r="B132" s="113"/>
-      <c r="C132" s="110" t="s">
+      <c r="G138" s="133"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="125"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E139" s="4">
         <v>43788</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="125" t="s">
+      <c r="G139" s="130" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="113"/>
-      <c r="B133" s="113"/>
-      <c r="C133" s="111" t="s">
+    <row r="140" spans="1:7">
+      <c r="A140" s="125"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E140" s="4">
         <v>43788</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="122"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="113"/>
-      <c r="B134" s="113"/>
-      <c r="C134" s="113"/>
-      <c r="D134" s="3" t="s">
+      <c r="G140" s="132"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="125"/>
+      <c r="B141" s="125"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E141" s="4">
         <v>43818</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F141" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G134" s="122"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="113"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="113"/>
-      <c r="D135" s="3" t="s">
+      <c r="G141" s="132"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="125"/>
+      <c r="B142" s="125"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E142" s="4">
         <v>43818</v>
       </c>
-      <c r="F135" s="71" t="s">
+      <c r="F142" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G135" s="122"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="113"/>
-      <c r="B136" s="113"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="3" t="s">
+      <c r="G142" s="132"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="125"/>
+      <c r="B143" s="125"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E143" s="4">
         <v>43818</v>
       </c>
-      <c r="F136" s="71" t="s">
+      <c r="F143" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G136" s="122"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="113"/>
-      <c r="B137" s="113"/>
-      <c r="C137" s="113"/>
-      <c r="D137" s="50" t="s">
+      <c r="G143" s="132"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="125"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="122"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="113"/>
-      <c r="B138" s="113"/>
-      <c r="C138" s="113"/>
-      <c r="D138" s="50" t="s">
+      <c r="E144" s="4"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="132"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="125"/>
+      <c r="B145" s="125"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="122"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="113"/>
-      <c r="B139" s="113"/>
-      <c r="C139" s="113"/>
-      <c r="D139" s="50" t="s">
+      <c r="E145" s="4"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="132"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="125"/>
+      <c r="B146" s="125"/>
+      <c r="C146" s="125"/>
+      <c r="D146" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="122"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="113"/>
-      <c r="B140" s="113"/>
-      <c r="C140" s="113"/>
-      <c r="D140" s="50" t="s">
+      <c r="E146" s="4"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="132"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="125"/>
+      <c r="B147" s="125"/>
+      <c r="C147" s="125"/>
+      <c r="D147" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="122"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="113"/>
-      <c r="B141" s="113"/>
-      <c r="C141" s="114"/>
-      <c r="D141" s="50" t="s">
+      <c r="E147" s="4"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="132"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="125"/>
+      <c r="B148" s="125"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="122"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="113"/>
-      <c r="B142" s="113"/>
-      <c r="C142" s="70"/>
-      <c r="E142" s="4"/>
-      <c r="G142" s="72"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="113"/>
-      <c r="B143" s="113"/>
-      <c r="C143" s="123" t="s">
+      <c r="E148" s="4"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="132"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="125"/>
+      <c r="B149" s="125"/>
+      <c r="C149" s="70"/>
+      <c r="E149" s="4"/>
+      <c r="G149" s="72"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="125"/>
+      <c r="B150" s="125"/>
+      <c r="C150" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E150" s="4">
         <v>43789</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="125" t="s">
+      <c r="G150" s="130" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="113"/>
-      <c r="B144" s="113"/>
-      <c r="C144" s="124"/>
-      <c r="D144" s="3" t="s">
+    <row r="151" spans="1:7">
+      <c r="A151" s="125"/>
+      <c r="B151" s="125"/>
+      <c r="C151" s="129"/>
+      <c r="D151" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E151" s="4">
         <v>43789</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="122"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="113"/>
-      <c r="B145" s="113"/>
-      <c r="C145" s="124"/>
-      <c r="D145" s="3" t="s">
+      <c r="G151" s="132"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="125"/>
+      <c r="B152" s="125"/>
+      <c r="C152" s="129"/>
+      <c r="D152" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="E145" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G145" s="122"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="113"/>
-      <c r="B146" s="113"/>
-      <c r="C146" s="124"/>
-      <c r="D146" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E146" s="4">
-        <v>43789</v>
-      </c>
-      <c r="F146" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="G146" s="122"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="113"/>
-      <c r="B147" s="113"/>
-      <c r="C147" s="124"/>
-      <c r="D147" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E147" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F147" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="G147" s="122"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="113"/>
-      <c r="B148" s="113"/>
-      <c r="C148" s="113"/>
-      <c r="D148" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E148" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F148" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G148" s="122"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="113"/>
-      <c r="B149" s="113"/>
-      <c r="C149" s="113"/>
-      <c r="D149" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E149" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F149" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G149" s="122"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="113"/>
-      <c r="B150" s="113"/>
-      <c r="C150" s="114"/>
-      <c r="D150" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E150" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F150" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G150" s="121"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="113"/>
-      <c r="B151" s="113"/>
-      <c r="C151" s="110" t="s">
-        <v>528</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E151" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F151" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="G151" s="125" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="113"/>
-      <c r="B152" s="113"/>
-      <c r="C152" s="111"/>
-      <c r="D152" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="E152" s="4">
         <v>43818</v>
       </c>
-      <c r="F152" s="73" t="s">
+      <c r="F152" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G152" s="126"/>
+      <c r="G152" s="132"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="114"/>
-      <c r="B153" s="114"/>
-      <c r="C153" s="114"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="125"/>
+      <c r="C153" s="129"/>
       <c r="D153" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E153" s="4">
+        <v>43789</v>
+      </c>
+      <c r="F153" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G153" s="132"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="125"/>
+      <c r="B154" s="125"/>
+      <c r="C154" s="129"/>
+      <c r="D154" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F154" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G154" s="132"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="125"/>
+      <c r="B155" s="125"/>
+      <c r="C155" s="125"/>
+      <c r="D155" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F155" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G155" s="132"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="125"/>
+      <c r="B156" s="125"/>
+      <c r="C156" s="125"/>
+      <c r="D156" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E156" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F156" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G156" s="132"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="125"/>
+      <c r="B157" s="125"/>
+      <c r="C157" s="126"/>
+      <c r="D157" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E157" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F157" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G157" s="133"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="125"/>
+      <c r="B158" s="125"/>
+      <c r="C158" s="121" t="s">
+        <v>528</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E158" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F158" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G158" s="130" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="125"/>
+      <c r="B159" s="125"/>
+      <c r="C159" s="122"/>
+      <c r="D159" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E159" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F159" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G159" s="131"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="126"/>
+      <c r="B160" s="126"/>
+      <c r="C160" s="126"/>
+      <c r="D160" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E160" s="4">
         <v>43818</v>
       </c>
-      <c r="F153" s="73" t="s">
+      <c r="F160" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G153" s="121"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="C154" s="62"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="123" t="s">
+      <c r="G160" s="133"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="C161" s="62"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B155" s="123" t="s">
+      <c r="B162" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C155" s="123" t="s">
+      <c r="C162" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E162" s="4">
         <v>43788</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G155" s="125" t="s">
+      <c r="G162" s="130" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="113"/>
-      <c r="B156" s="113"/>
-      <c r="C156" s="124"/>
-      <c r="D156" s="5" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" s="125"/>
+      <c r="B163" s="125"/>
+      <c r="C163" s="129"/>
+      <c r="D163" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E163" s="4">
         <v>43788</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G156" s="122"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="113"/>
-      <c r="B157" s="113"/>
-      <c r="C157" s="124"/>
-      <c r="D157" s="5" t="s">
+      <c r="G163" s="132"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="125"/>
+      <c r="B164" s="125"/>
+      <c r="C164" s="129"/>
+      <c r="D164" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E164" s="4">
         <v>43788</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G157" s="122"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="113"/>
-      <c r="B158" s="113"/>
-      <c r="C158" s="124"/>
-      <c r="D158" s="5" t="s">
+      <c r="G164" s="132"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="125"/>
+      <c r="B165" s="125"/>
+      <c r="C165" s="129"/>
+      <c r="D165" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E165" s="4">
         <v>43788</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F165" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G158" s="121"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="113"/>
-      <c r="B159" s="113"/>
-      <c r="C159" s="114"/>
-      <c r="D159" s="5" t="s">
+      <c r="G165" s="133"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="125"/>
+      <c r="B166" s="125"/>
+      <c r="C166" s="126"/>
+      <c r="D166" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E166" s="4">
         <v>43800</v>
       </c>
-      <c r="F159" s="48" t="s">
+      <c r="F166" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="113"/>
-      <c r="B160" s="113"/>
-      <c r="C160" s="33" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" s="125"/>
+      <c r="B167" s="125"/>
+      <c r="C167" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E167" s="4">
         <v>43797</v>
       </c>
-      <c r="F160" s="26"/>
-      <c r="G160" s="125" t="s">
+      <c r="F167" s="26"/>
+      <c r="G167" s="130" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="113"/>
-      <c r="B161" s="113"/>
-      <c r="C161" s="110" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="125"/>
+      <c r="B168" s="125"/>
+      <c r="C168" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F161" s="54" t="s">
+      <c r="F168" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G161" s="126"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="113"/>
-      <c r="B162" s="113"/>
-      <c r="C162" s="113"/>
-      <c r="D162" s="3" t="s">
+      <c r="G168" s="131"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="125"/>
+      <c r="B169" s="125"/>
+      <c r="C169" s="125"/>
+      <c r="D169" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E169" s="4">
         <v>43808</v>
       </c>
-      <c r="F162" s="54" t="s">
+      <c r="F169" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G162" s="122"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="113"/>
-      <c r="B163" s="113"/>
-      <c r="C163" s="113"/>
-      <c r="D163" s="3" t="s">
+      <c r="G169" s="132"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="125"/>
+      <c r="B170" s="125"/>
+      <c r="C170" s="125"/>
+      <c r="D170" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E170" s="4">
         <v>43808</v>
       </c>
-      <c r="F163" s="59" t="s">
+      <c r="F170" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="G163" s="122"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="113"/>
-      <c r="B164" s="113"/>
-      <c r="C164" s="113"/>
-      <c r="D164" s="5" t="s">
+      <c r="G170" s="132"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="125"/>
+      <c r="B171" s="125"/>
+      <c r="C171" s="125"/>
+      <c r="D171" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E171" s="4">
         <v>43808</v>
       </c>
-      <c r="F164" s="59" t="s">
+      <c r="F171" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G164" s="121"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="113"/>
-      <c r="B165" s="113"/>
-      <c r="C165" s="114"/>
-      <c r="D165" s="5" t="s">
+      <c r="G171" s="133"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="125"/>
+      <c r="B172" s="125"/>
+      <c r="C172" s="126"/>
+      <c r="D172" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E172" s="4">
         <v>43811</v>
       </c>
-      <c r="F165" s="59"/>
-      <c r="G165" s="74"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="113"/>
-      <c r="B166" s="113"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="48" t="s">
+      <c r="F172" s="59"/>
+      <c r="G172" s="74"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="125"/>
+      <c r="B173" s="125"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="113"/>
-      <c r="B167" s="113"/>
-      <c r="C167" s="48" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" s="125"/>
+      <c r="B174" s="125"/>
+      <c r="C174" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E174" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="113"/>
-      <c r="B168" s="113"/>
-      <c r="C168" s="110" t="s">
+    <row r="175" spans="1:7">
+      <c r="A175" s="125"/>
+      <c r="B175" s="125"/>
+      <c r="C175" s="121" t="s">
+        <v>627</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E175" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F175" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="E168" s="4">
+      <c r="G175" s="130" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="125"/>
+      <c r="B176" s="125"/>
+      <c r="C176" s="122"/>
+      <c r="D176" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E176" s="4">
         <v>43822</v>
       </c>
-      <c r="F168" s="99" t="s">
-        <v>630</v>
-      </c>
-      <c r="G168" s="125" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="113"/>
-      <c r="B169" s="113"/>
-      <c r="C169" s="111"/>
-      <c r="D169" s="3" t="s">
+      <c r="F176" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="G176" s="131"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="125"/>
+      <c r="B177" s="125"/>
+      <c r="C177" s="122"/>
+      <c r="D177" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E177" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F177" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G177" s="131"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="125"/>
+      <c r="B178" s="125"/>
+      <c r="C178" s="125"/>
+      <c r="D178" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E178" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F178" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G178" s="132"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="125"/>
+      <c r="B179" s="125"/>
+      <c r="C179" s="125"/>
+      <c r="D179" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E179" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F179" s="101" t="s">
+        <v>646</v>
+      </c>
+      <c r="G179" s="132"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="125"/>
+      <c r="B180" s="125"/>
+      <c r="C180" s="125"/>
+      <c r="D180" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E180" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F180" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G180" s="132"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="126"/>
+      <c r="B181" s="126"/>
+      <c r="C181" s="126"/>
+      <c r="D181" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E181" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F181" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G181" s="133"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="100"/>
+      <c r="B182" s="100"/>
+      <c r="C182" s="139" t="s">
+        <v>649</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F182" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G182" s="140" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="104"/>
+      <c r="B183" s="104"/>
+      <c r="C183" s="126"/>
+      <c r="D183" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F183" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G183" s="133"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="104"/>
+      <c r="B184" s="104"/>
+      <c r="C184" s="104"/>
+      <c r="D184" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F184" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G184" s="106"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F185" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G185" s="130" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="125"/>
+      <c r="B186" s="125"/>
+      <c r="C186" s="122"/>
+      <c r="D186" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43820</v>
+      </c>
+      <c r="F186" s="87" t="s">
+        <v>580</v>
+      </c>
+      <c r="G186" s="132"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="125"/>
+      <c r="B187" s="125"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E187" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F187" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G187" s="132"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="125"/>
+      <c r="B188" s="125"/>
+      <c r="C188" s="125"/>
+      <c r="D188" s="96" t="s">
+        <v>581</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="88"/>
+      <c r="G188" s="132"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="125"/>
+      <c r="B189" s="125"/>
+      <c r="C189" s="125"/>
+      <c r="D189" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="88"/>
+      <c r="G189" s="132"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="125"/>
+      <c r="B190" s="125"/>
+      <c r="C190" s="125"/>
+      <c r="D190" s="96" t="s">
+        <v>583</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="132"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="125"/>
+      <c r="B191" s="125"/>
+      <c r="C191" s="125"/>
+      <c r="D191" s="96" t="s">
+        <v>584</v>
+      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="132"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="125"/>
+      <c r="B192" s="125"/>
+      <c r="C192" s="89"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="90"/>
+      <c r="G192" s="92"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="125"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E193" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F193" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G193" s="130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="125"/>
+      <c r="B194" s="125"/>
+      <c r="C194" s="125"/>
+      <c r="D194" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E194" s="4">
+        <v>43803</v>
+      </c>
+      <c r="F194" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G194" s="132"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="125"/>
+      <c r="B195" s="125"/>
+      <c r="C195" s="125"/>
+      <c r="D195" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E195" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G195" s="132"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="125"/>
+      <c r="B196" s="125"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E196" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F196" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G196" s="132"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="125"/>
+      <c r="B197" s="125"/>
+      <c r="C197" s="126"/>
+      <c r="D197" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E197" s="4">
+        <v>43804</v>
+      </c>
+      <c r="F197" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="G197" s="132"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="125"/>
+      <c r="B198" s="125"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E198" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F198" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="G198" s="132"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="125"/>
+      <c r="B199" s="125"/>
+      <c r="C199" s="113"/>
+      <c r="D199" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E199" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F199" s="114" t="s">
+        <v>709</v>
+      </c>
+      <c r="G199" s="115"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="125"/>
+      <c r="B200" s="125"/>
+      <c r="C200" s="113"/>
+      <c r="D200" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E200" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F200" s="114" t="s">
+        <v>709</v>
+      </c>
+      <c r="G200" s="115"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="125"/>
+      <c r="B201" s="125"/>
+      <c r="C201" s="84"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="82"/>
+      <c r="G201" s="85"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="125"/>
+      <c r="B202" s="125"/>
+      <c r="C202" s="86" t="s">
+        <v>576</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E202" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F202" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G202" s="85" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="125"/>
+      <c r="B203" s="125"/>
+      <c r="C203" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="85"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="125"/>
+      <c r="B204" s="125"/>
+      <c r="C204" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E204" s="4"/>
+      <c r="F204" s="39"/>
+      <c r="G204" s="41"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="125"/>
+      <c r="B205" s="125"/>
+      <c r="C205" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E205" s="4"/>
+      <c r="F205" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G205" s="128" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="125"/>
+      <c r="B206" s="125"/>
+      <c r="C206" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E206" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G206" s="129"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="125"/>
+      <c r="B207" s="125"/>
+      <c r="C207" s="129"/>
+      <c r="D207" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E207" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G207" s="129"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="125"/>
+      <c r="B208" s="125"/>
+      <c r="C208" s="129"/>
+      <c r="D208" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="125"/>
+      <c r="B209" s="125"/>
+      <c r="C209" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E209" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" s="129"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="125"/>
+      <c r="B210" s="125"/>
+      <c r="C210" s="129"/>
+      <c r="D210" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E210" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="129"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="125"/>
+      <c r="B211" s="125"/>
+      <c r="C211" s="129"/>
+      <c r="D211" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E211" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="126"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="125"/>
+      <c r="B212" s="125"/>
+      <c r="C212" s="125"/>
+      <c r="D212" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="125"/>
+      <c r="B213" s="125"/>
+      <c r="C213" s="125"/>
+      <c r="D213" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43800</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="125"/>
+      <c r="B214" s="125"/>
+      <c r="C214" s="126"/>
+      <c r="D214" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E214" s="4">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="125"/>
+      <c r="B215" s="125"/>
+      <c r="C215" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="125"/>
+      <c r="B216" s="125"/>
+      <c r="C216" s="146"/>
+      <c r="D216" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="125"/>
+      <c r="B217" s="125"/>
+      <c r="C217" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E217" s="4">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="125"/>
+      <c r="B218" s="125"/>
+      <c r="C218" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E218" s="7">
+        <v>43812</v>
+      </c>
+      <c r="F218" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="G218" s="130" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="125"/>
+      <c r="B219" s="125"/>
+      <c r="C219" s="125"/>
+      <c r="D219" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E219" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F219" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G219" s="132"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="125"/>
+      <c r="B220" s="125"/>
+      <c r="C220" s="126"/>
+      <c r="D220" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E220" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F220" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G220" s="133"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="125"/>
+      <c r="B221" s="125"/>
+      <c r="C221" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E221" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F221" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G221" s="134" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="125"/>
+      <c r="B222" s="125"/>
+      <c r="C222" s="122"/>
+      <c r="D222" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E222" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F222" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G222" s="135"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="125"/>
+      <c r="B223" s="125"/>
+      <c r="C223" s="126"/>
+      <c r="D223" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F223" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G223" s="133"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="126"/>
+      <c r="B224" s="126"/>
+      <c r="C224" s="95" t="s">
+        <v>589</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E224" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F224" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G224" s="93" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="121" t="s">
+        <v>645</v>
+      </c>
+      <c r="B225" s="121" t="s">
+        <v>644</v>
+      </c>
+      <c r="C225" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E225" s="4">
+        <v>43802</v>
+      </c>
+      <c r="F225" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="126"/>
+      <c r="B226" s="126"/>
+      <c r="C226" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E226" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="C227" s="128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E227" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F227" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="G227" s="130" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="125"/>
+      <c r="B228" s="125"/>
+      <c r="C228" s="129"/>
+      <c r="D228" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E228" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F228" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="131"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="125"/>
+      <c r="B229" s="125"/>
+      <c r="C229" s="125"/>
+      <c r="D229" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E229" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F229" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G229" s="131"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="125"/>
+      <c r="B230" s="125"/>
+      <c r="C230" s="126"/>
+      <c r="D230" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E230" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F230" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="G230" s="133"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="125"/>
+      <c r="B231" s="125"/>
+      <c r="C231" s="128" t="s">
+        <v>309</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E231" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F231" s="99" t="s">
+        <v>629</v>
+      </c>
+      <c r="G231" s="130" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="125"/>
+      <c r="B232" s="125"/>
+      <c r="C232" s="146"/>
+      <c r="D232" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E232" s="4">
         <v>43822</v>
       </c>
-      <c r="F169" s="99" t="s">
-        <v>626</v>
-      </c>
-      <c r="G169" s="126"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="113"/>
-      <c r="B170" s="113"/>
-      <c r="C170" s="111"/>
-      <c r="D170" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E170" s="4">
+      <c r="F232" s="99" t="s">
+        <v>629</v>
+      </c>
+      <c r="G232" s="138"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="125"/>
+      <c r="B233" s="125"/>
+      <c r="C233" s="128" t="s">
+        <v>310</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="125"/>
+      <c r="B234" s="125"/>
+      <c r="C234" s="146"/>
+      <c r="D234" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="125"/>
+      <c r="B235" s="125"/>
+      <c r="C235" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E235" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F235" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="125"/>
+      <c r="B236" s="125"/>
+      <c r="C236" s="121" t="s">
+        <v>664</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E236" s="4">
+        <v>43825</v>
+      </c>
+      <c r="F236" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G236" s="130" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="125"/>
+      <c r="B237" s="125"/>
+      <c r="C237" s="125"/>
+      <c r="D237" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E237" s="4">
+        <v>43825</v>
+      </c>
+      <c r="F237" s="108" t="s">
+        <v>667</v>
+      </c>
+      <c r="G237" s="131"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="125"/>
+      <c r="B238" s="125"/>
+      <c r="C238" s="125"/>
+      <c r="D238" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E238" s="4">
+        <v>43825</v>
+      </c>
+      <c r="F238" s="108" t="s">
+        <v>667</v>
+      </c>
+      <c r="G238" s="131"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="125"/>
+      <c r="B239" s="125"/>
+      <c r="C239" s="125"/>
+      <c r="D239" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E239" s="4">
+        <v>43829</v>
+      </c>
+      <c r="F239" s="109" t="s">
+        <v>701</v>
+      </c>
+      <c r="G239" s="131"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="126"/>
+      <c r="B240" s="126"/>
+      <c r="C240" s="126"/>
+      <c r="D240" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E240" s="4">
+        <v>43829</v>
+      </c>
+      <c r="F240" s="109" t="s">
+        <v>701</v>
+      </c>
+      <c r="G240" s="138"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C241" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D241" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E241" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="128" t="s">
+        <v>448</v>
+      </c>
+      <c r="B243" s="128" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" s="128" t="s">
+        <v>449</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E243" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G243" s="130" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="129"/>
+      <c r="B244" s="129"/>
+      <c r="C244" s="129"/>
+      <c r="D244" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E244" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G244" s="131"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="129"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="129"/>
+      <c r="D245" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E245" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G245" s="131"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="129"/>
+      <c r="B246" s="129"/>
+      <c r="C246" s="125"/>
+      <c r="D246" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E246" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F246" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G246" s="132"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="129"/>
+      <c r="B247" s="129"/>
+      <c r="C247" s="126"/>
+      <c r="D247" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E247" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F247" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G247" s="133"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="125"/>
+      <c r="B248" s="125"/>
+      <c r="C248" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E248" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F248" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G248" s="130" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="125"/>
+      <c r="B249" s="125"/>
+      <c r="C249" s="125"/>
+      <c r="D249" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E249" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F249" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G249" s="131"/>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="125"/>
+      <c r="B250" s="125"/>
+      <c r="C250" s="125"/>
+      <c r="D250" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E250" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F250" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G250" s="131"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="126"/>
+      <c r="B251" s="126"/>
+      <c r="C251" s="126"/>
+      <c r="D251" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E251" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F251" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="G251" s="133"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E252" s="4">
         <v>43822</v>
       </c>
-      <c r="F170" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G170" s="126"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="113"/>
-      <c r="B171" s="113"/>
-      <c r="C171" s="113"/>
-      <c r="D171" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E171" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F171" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G171" s="122"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="113"/>
-      <c r="B172" s="113"/>
-      <c r="C172" s="113"/>
-      <c r="D172" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E172" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F172" s="101" t="s">
-        <v>647</v>
-      </c>
-      <c r="G172" s="122"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="113"/>
-      <c r="B173" s="113"/>
-      <c r="C173" s="113"/>
-      <c r="D173" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E173" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F173" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G173" s="122"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="114"/>
-      <c r="B174" s="114"/>
-      <c r="C174" s="114"/>
-      <c r="D174" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="E174" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F174" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G174" s="121"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="100"/>
-      <c r="B175" s="100"/>
-      <c r="C175" s="129" t="s">
-        <v>650</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E175" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F175" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="G175" s="130" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="104"/>
-      <c r="B176" s="104"/>
-      <c r="C176" s="114"/>
-      <c r="D176" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="E176" s="4">
-        <v>43824</v>
-      </c>
-      <c r="F176" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="G176" s="121"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="104"/>
-      <c r="B177" s="104"/>
-      <c r="C177" s="104"/>
-      <c r="D177" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E177" s="4">
-        <v>43824</v>
-      </c>
-      <c r="F177" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="G177" s="107"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178" s="123" t="s">
-        <v>186</v>
-      </c>
-      <c r="C178" s="110" t="s">
-        <v>470</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E178" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F178" s="66" t="s">
-        <v>485</v>
-      </c>
-      <c r="G178" s="125" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="113"/>
-      <c r="B179" s="113"/>
-      <c r="C179" s="111"/>
-      <c r="D179" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E179" s="4">
-        <v>43820</v>
-      </c>
-      <c r="F179" s="87" t="s">
-        <v>580</v>
-      </c>
-      <c r="G179" s="122"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="113"/>
-      <c r="B180" s="113"/>
-      <c r="C180" s="113"/>
-      <c r="D180" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E180" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F180" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G180" s="122"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="113"/>
-      <c r="B181" s="113"/>
-      <c r="C181" s="113"/>
-      <c r="D181" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="E181" s="4"/>
-      <c r="F181" s="88"/>
-      <c r="G181" s="122"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="113"/>
-      <c r="B182" s="113"/>
-      <c r="C182" s="113"/>
-      <c r="D182" s="96" t="s">
-        <v>582</v>
-      </c>
-      <c r="E182" s="4"/>
-      <c r="F182" s="88"/>
-      <c r="G182" s="122"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="113"/>
-      <c r="B183" s="113"/>
-      <c r="C183" s="113"/>
-      <c r="D183" s="96" t="s">
-        <v>583</v>
-      </c>
-      <c r="E183" s="4"/>
-      <c r="F183" s="88"/>
-      <c r="G183" s="122"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="113"/>
-      <c r="B184" s="113"/>
-      <c r="C184" s="113"/>
-      <c r="D184" s="96" t="s">
-        <v>584</v>
-      </c>
-      <c r="E184" s="4"/>
-      <c r="F184" s="88"/>
-      <c r="G184" s="122"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="113"/>
-      <c r="B185" s="113"/>
-      <c r="C185" s="89"/>
-      <c r="D185" s="96"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="90"/>
-      <c r="G185" s="92"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="113"/>
-      <c r="B186" s="113"/>
-      <c r="C186" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E186" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F186" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="G186" s="125" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="113"/>
-      <c r="B187" s="113"/>
-      <c r="C187" s="113"/>
-      <c r="D187" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E187" s="4">
-        <v>43803</v>
-      </c>
-      <c r="F187" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="G187" s="122"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="113"/>
-      <c r="B188" s="113"/>
-      <c r="C188" s="113"/>
-      <c r="D188" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E188" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F188" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="G188" s="122"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="113"/>
-      <c r="B189" s="113"/>
-      <c r="C189" s="113"/>
-      <c r="D189" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E189" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F189" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="G189" s="122"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="113"/>
-      <c r="B190" s="113"/>
-      <c r="C190" s="114"/>
-      <c r="D190" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E190" s="4">
-        <v>43804</v>
-      </c>
-      <c r="F190" s="78" t="s">
-        <v>553</v>
-      </c>
-      <c r="G190" s="122"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="113"/>
-      <c r="B191" s="113"/>
-      <c r="C191" s="77"/>
-      <c r="D191" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E191" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F191" s="78" t="s">
-        <v>553</v>
-      </c>
-      <c r="G191" s="122"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="113"/>
-      <c r="B192" s="113"/>
-      <c r="C192" s="84"/>
-      <c r="D192" s="97"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="85"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="113"/>
-      <c r="B193" s="113"/>
-      <c r="C193" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E193" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F193" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G193" s="85" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="113"/>
-      <c r="B194" s="113"/>
-      <c r="C194" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E194" s="4"/>
-      <c r="F194" s="39"/>
-      <c r="G194" s="85"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="113"/>
-      <c r="B195" s="113"/>
-      <c r="C195" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="E195" s="4"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="41"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="113"/>
-      <c r="B196" s="113"/>
-      <c r="C196" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="E196" s="4"/>
-      <c r="F196" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G196" s="123" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="113"/>
-      <c r="B197" s="113"/>
-      <c r="C197" s="123" t="s">
-        <v>203</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E197" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G197" s="124"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="113"/>
-      <c r="B198" s="113"/>
-      <c r="C198" s="124"/>
-      <c r="D198" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E198" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G198" s="124"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="113"/>
-      <c r="B199" s="113"/>
-      <c r="C199" s="124"/>
-      <c r="D199" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E199" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G199" s="123" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="113"/>
-      <c r="B200" s="113"/>
-      <c r="C200" s="123" t="s">
-        <v>212</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E200" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G200" s="124"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="113"/>
-      <c r="B201" s="113"/>
-      <c r="C201" s="124"/>
-      <c r="D201" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E201" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G201" s="124"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="113"/>
-      <c r="B202" s="113"/>
-      <c r="C202" s="124"/>
-      <c r="D202" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E202" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G202" s="114"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="113"/>
-      <c r="B203" s="113"/>
-      <c r="C203" s="113"/>
-      <c r="D203" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E203" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="113"/>
-      <c r="B204" s="113"/>
-      <c r="C204" s="113"/>
-      <c r="D204" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E204" s="4">
-        <v>43800</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="113"/>
-      <c r="B205" s="113"/>
-      <c r="C205" s="114"/>
-      <c r="D205" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E205" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="113"/>
-      <c r="B206" s="113"/>
-      <c r="C206" s="123" t="s">
-        <v>318</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="113"/>
-      <c r="B207" s="113"/>
-      <c r="C207" s="128"/>
-      <c r="D207" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E207" s="4"/>
-      <c r="F207" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="113"/>
-      <c r="B208" s="113"/>
-      <c r="C208" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E208" s="4">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="113"/>
-      <c r="B209" s="113"/>
-      <c r="C209" s="110" t="s">
-        <v>433</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E209" s="7">
-        <v>43812</v>
-      </c>
-      <c r="F209" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="G209" s="125" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="113"/>
-      <c r="B210" s="113"/>
-      <c r="C210" s="113"/>
-      <c r="D210" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E210" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F210" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G210" s="122"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="113"/>
-      <c r="B211" s="113"/>
-      <c r="C211" s="114"/>
-      <c r="D211" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E211" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F211" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G211" s="121"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="113"/>
-      <c r="B212" s="113"/>
-      <c r="C212" s="110" t="s">
-        <v>463</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E212" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F212" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="G212" s="115" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="113"/>
-      <c r="B213" s="113"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E213" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F213" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="G213" s="116"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="113"/>
-      <c r="B214" s="113"/>
-      <c r="C214" s="114"/>
-      <c r="D214" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E214" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F214" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="G214" s="121"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="114"/>
-      <c r="B215" s="114"/>
-      <c r="C215" s="95" t="s">
-        <v>589</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E215" s="4">
-        <v>43821</v>
-      </c>
-      <c r="F215" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G215" s="93" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="110" t="s">
-        <v>646</v>
-      </c>
-      <c r="B216" s="110" t="s">
-        <v>645</v>
-      </c>
-      <c r="C216" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E216" s="4">
-        <v>43802</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="114"/>
-      <c r="B217" s="114"/>
-      <c r="C217" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E217" s="4">
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="B218" s="123" t="s">
-        <v>306</v>
-      </c>
-      <c r="C218" s="123" t="s">
-        <v>307</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E218" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F218" s="98" t="s">
-        <v>619</v>
-      </c>
-      <c r="G218" s="125" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="113"/>
-      <c r="B219" s="113"/>
-      <c r="C219" s="124"/>
-      <c r="D219" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E219" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F219" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G219" s="126"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="113"/>
-      <c r="B220" s="113"/>
-      <c r="C220" s="113"/>
-      <c r="D220" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E220" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F220" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G220" s="126"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="113"/>
-      <c r="B221" s="113"/>
-      <c r="C221" s="114"/>
-      <c r="D221" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E221" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F221" s="99" t="s">
-        <v>626</v>
-      </c>
-      <c r="G221" s="121"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="113"/>
-      <c r="B222" s="113"/>
-      <c r="C222" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E222" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F222" s="99" t="s">
-        <v>630</v>
-      </c>
-      <c r="G222" s="125" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="113"/>
-      <c r="B223" s="113"/>
-      <c r="C223" s="128"/>
-      <c r="D223" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="E223" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F223" s="99" t="s">
-        <v>630</v>
-      </c>
-      <c r="G223" s="127"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="113"/>
-      <c r="B224" s="113"/>
-      <c r="C224" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="113"/>
-      <c r="B225" s="113"/>
-      <c r="C225" s="128"/>
-      <c r="D225" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="114"/>
-      <c r="B226" s="114"/>
-      <c r="C226" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E226" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F226" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="105"/>
-      <c r="B227" s="105"/>
-      <c r="C227" s="106" t="s">
-        <v>665</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="E227" s="4">
-        <v>43825</v>
-      </c>
-      <c r="F227" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="108"/>
-      <c r="B228" s="108"/>
-      <c r="C228" s="109"/>
-      <c r="D228" s="96" t="s">
-        <v>668</v>
-      </c>
-      <c r="E228" s="4"/>
-      <c r="F228" s="109"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="108"/>
-      <c r="B229" s="108"/>
-      <c r="C229" s="109"/>
-      <c r="D229" s="96" t="s">
-        <v>669</v>
-      </c>
-      <c r="E229" s="4"/>
-      <c r="F229" s="109"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="108"/>
-      <c r="B230" s="108"/>
-      <c r="C230" s="109"/>
-      <c r="D230" s="96" t="s">
-        <v>670</v>
-      </c>
-      <c r="E230" s="4"/>
-      <c r="F230" s="109"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="B231" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C231" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="D231" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="E231" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="123" t="s">
-        <v>448</v>
-      </c>
-      <c r="B233" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="C233" s="123" t="s">
-        <v>449</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E233" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G233" s="125" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="124"/>
-      <c r="B234" s="124"/>
-      <c r="C234" s="124"/>
-      <c r="D234" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E234" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G234" s="126"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="124"/>
-      <c r="B235" s="124"/>
-      <c r="C235" s="124"/>
-      <c r="D235" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E235" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G235" s="126"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="124"/>
-      <c r="B236" s="124"/>
-      <c r="C236" s="113"/>
-      <c r="D236" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E236" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F236" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G236" s="122"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="124"/>
-      <c r="B237" s="124"/>
-      <c r="C237" s="114"/>
-      <c r="D237" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E237" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F237" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G237" s="121"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="113"/>
-      <c r="B238" s="113"/>
-      <c r="C238" s="110" t="s">
-        <v>456</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E238" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F238" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G238" s="125" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="113"/>
-      <c r="B239" s="113"/>
-      <c r="C239" s="113"/>
-      <c r="D239" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E239" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F239" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G239" s="126"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="113"/>
-      <c r="B240" s="113"/>
-      <c r="C240" s="113"/>
-      <c r="D240" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E240" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F240" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G240" s="126"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="114"/>
-      <c r="B241" s="114"/>
-      <c r="C241" s="114"/>
-      <c r="D241" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E241" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F241" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G241" s="121"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E242" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F242" s="2" t="s">
+      <c r="F252" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G252" s="3" t="s">
         <v>606</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="B3:B72"/>
-    <mergeCell ref="A3:A72"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="B130:B153"/>
-    <mergeCell ref="A130:A153"/>
-    <mergeCell ref="B94:B129"/>
-    <mergeCell ref="A94:A129"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:G54"/>
+  <mergeCells count="109">
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B243:B251"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="A243:A251"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="G243:G247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A185:A224"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="B162:B181"/>
+    <mergeCell ref="A162:A181"/>
+    <mergeCell ref="C185:C191"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C168:C172"/>
+    <mergeCell ref="C139:C148"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C129:C136"/>
+    <mergeCell ref="B96:B136"/>
+    <mergeCell ref="G221:G223"/>
+    <mergeCell ref="C209:C214"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B185:B224"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="C117:C124"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="C193:C197"/>
+    <mergeCell ref="G116:G123"/>
+    <mergeCell ref="G158:G160"/>
+    <mergeCell ref="G205:G207"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="G175:G181"/>
+    <mergeCell ref="G218:G220"/>
+    <mergeCell ref="G185:G191"/>
+    <mergeCell ref="G193:G198"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="G167:G171"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="G150:G157"/>
+    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="C150:C157"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="G101:G108"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="G8:G18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G31:G44"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C31:C44"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="B227:B240"/>
+    <mergeCell ref="A227:A240"/>
+    <mergeCell ref="G236:G240"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="B3:B74"/>
+    <mergeCell ref="A3:A74"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="B137:B160"/>
+    <mergeCell ref="A137:A160"/>
+    <mergeCell ref="A96:A131"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="G55:G56"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C55:C56"/>
     <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="G6:G16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G29:G42"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="G160:G164"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="G143:G150"/>
-    <mergeCell ref="G132:G141"/>
-    <mergeCell ref="C143:C150"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="G99:G106"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="G212:G214"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="B178:B215"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="C29:C42"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="A178:A215"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="B155:B174"/>
-    <mergeCell ref="A155:A174"/>
-    <mergeCell ref="C178:C184"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="G114:G121"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="B233:B241"/>
-    <mergeCell ref="G218:G221"/>
-    <mergeCell ref="G222:G223"/>
-    <mergeCell ref="A233:A241"/>
-    <mergeCell ref="G238:G241"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="G233:G237"/>
-    <mergeCell ref="C233:C237"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C161:C165"/>
-    <mergeCell ref="G151:G153"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="C132:C141"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="G168:G174"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="G178:G184"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9329,183 +9893,590 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="53.625" style="18" customWidth="1"/>
     <col min="4" max="4" width="14" style="15" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="15" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>675</v>
+      </c>
       <c r="B1" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2" s="143" t="s">
         <v>608</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="17">
+        <v>43802</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="17">
+        <v>43802</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F3" s="150"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="D4" s="17">
+        <v>43802</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F4" s="150"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="17">
+        <v>43802</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F5" s="150"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="17">
+        <v>43802</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F6" s="151"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B7" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D7" s="17">
         <v>43800</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E7" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F7" s="154" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="18" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="157"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D8" s="17">
         <v>43800</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E8" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="139"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="141"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="29" t="s">
+      <c r="F8" s="155"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D9" s="17">
         <v>43800</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="139"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="29" t="s">
+      <c r="F9" s="155"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D10" s="17">
         <v>43800</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E10" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="139"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="15" t="s">
+      <c r="F10" s="155"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" s="17">
+        <v>43834</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="110" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="132"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="17">
+        <v>43834</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F13" s="132"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" s="17">
+        <v>43834</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F14" s="132"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="D15" s="17">
+        <v>43834</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" s="132"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="D16" s="17">
+        <v>43834</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="110" t="s">
+        <v>722</v>
+      </c>
+      <c r="F17" s="132"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="110" t="s">
+        <v>723</v>
+      </c>
+      <c r="F18" s="133"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="143" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" s="143" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="133" t="s">
+      <c r="C19" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F19" s="149" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="133" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D20" s="17">
+        <v>43822</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="D8" s="17">
+      <c r="F20" s="150"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="17">
         <v>43822</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F8" s="142" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E21" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21" s="150"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="D22" s="17">
         <v>43822</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F9" s="143"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="E22" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F22" s="150"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D23" s="17">
         <v>43822</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="143"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D11" s="17">
-        <v>43822</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F11" s="143"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="18" t="s">
+      <c r="E23" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="D12" s="17">
-        <v>43822</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F12" s="144"/>
+      <c r="F23" s="151"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>670</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D24" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F24" s="149" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D25" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F25" s="151"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B26" s="139" t="s">
+        <v>683</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="D26" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="153"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D27" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="F27" s="132"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="153"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D28" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="132"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="153"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="D29" s="17">
+        <v>43826</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="F29" s="133"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="152"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="110" t="s">
+        <v>691</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>684</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" s="17">
+        <v>43829</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="F31" s="149" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="152"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="D32" s="17">
+        <v>43829</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="F32" s="151"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="D33" s="17">
+        <v>43830</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F33" s="112"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="D34" s="17">
+        <v>43830</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F34" s="112"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="D35" s="17">
+        <v>43831</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="F35" s="116"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D36" s="17">
+        <v>43831</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="F36" s="116"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="D38" s="17">
+        <v>43829</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>699</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="F8:F12"/>
+  <mergeCells count="21">
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9534,13 +10505,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="143" t="s">
         <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -9553,13 +10524,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="126" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -9589,7 +10560,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="139" t="s">
         <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -9597,25 +10568,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="145"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="146"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="156" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -9623,33 +10594,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -9657,7 +10628,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -9667,7 +10638,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="145"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -9675,7 +10646,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="146"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -9689,10 +10660,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="143" t="s">
         <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -9712,8 +10683,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="15" t="s">
         <v>273</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="软件技术" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="760">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3344,6 +3344,149 @@
       <t>某智能寄柜科技有限公司创业计划文本.pdf</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAM-点云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-imageware由点云创建面基本操作步骤入门.pdf</t>
+  </si>
+  <si>
+    <t>点云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\1-软件技术\9-SLAM-点云\点云</t>
+  </si>
+  <si>
+    <t>RD-激光雷达点云数据.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-机载激光雷达.pdf</t>
+  </si>
+  <si>
+    <t>RD-激光雷达点云数据点绘制方法.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LAM</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-视觉SLAM.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\1-软件技术\9-SLAM-点云\SLAM</t>
+  </si>
+  <si>
+    <t>RD-常见点云文件解析学习笔记.pdf</t>
+  </si>
+  <si>
+    <t>RD-LiDAR及其数据后处理技术初级培训教程.pdf</t>
+  </si>
+  <si>
+    <t>RD-PCL+ VTK+QT ubuntu16实现可视化点云.pdf</t>
+  </si>
+  <si>
+    <t>RD-ubuntu下Qt使用PCL可视化点云.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PGA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-读手机电路图的一些基本方法</t>
+  </si>
+  <si>
+    <t>电路图大全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\13-手机电路\电路图大全</t>
+  </si>
+  <si>
+    <t>RD-诺基亚1100电路图.pdf</t>
+  </si>
+  <si>
+    <t>RD-诺基亚1200电路图.pdf</t>
+  </si>
+  <si>
+    <t>RD-诺基亚1208电路图.pdf</t>
+  </si>
+  <si>
+    <t>RD-诺基亚1600电路图.pdf</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3806,6 +3949,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3818,33 +3994,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3879,9 +4031,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4212,10 +4361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A15"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4231,15 +4380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -4265,13 +4414,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="135" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4288,9 +4437,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4305,22 +4454,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="135" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4337,9 +4486,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="124"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -4354,9 +4503,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="124"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -4371,9 +4520,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="124"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -4388,9 +4537,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="124"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -4405,8 +4554,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -4414,9 +4563,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="121" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="132" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4428,14 +4577,14 @@
       <c r="F12" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="137" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="122"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
@@ -4445,12 +4594,12 @@
       <c r="F13" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="135"/>
+      <c r="G13" s="138"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="122"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
@@ -4460,12 +4609,12 @@
       <c r="F14" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="135"/>
+      <c r="G14" s="138"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="123"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
@@ -4475,16 +4624,16 @@
       <c r="F15" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="136"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -4519,13 +4668,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="132" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="132" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4537,25 +4686,25 @@
       <c r="F19" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="137" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="135"/>
+      <c r="G20" s="138"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
@@ -4565,12 +4714,12 @@
       <c r="F21" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="135"/>
+      <c r="G21" s="138"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
@@ -4580,12 +4729,12 @@
       <c r="F22" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="135"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
@@ -4595,12 +4744,12 @@
       <c r="F23" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="132"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
@@ -4610,12 +4759,12 @@
       <c r="F24" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="132"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
@@ -4625,12 +4774,12 @@
       <c r="F25" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="132"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
@@ -4640,12 +4789,12 @@
       <c r="F26" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="132"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
@@ -4655,12 +4804,12 @@
       <c r="F27" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="132"/>
+      <c r="G27" s="130"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
@@ -4670,12 +4819,12 @@
       <c r="F28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="132"/>
+      <c r="G28" s="130"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
@@ -4685,12 +4834,12 @@
       <c r="F29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
@@ -4700,12 +4849,12 @@
       <c r="F30" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="130"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
@@ -4715,12 +4864,12 @@
       <c r="F31" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
@@ -4730,12 +4879,12 @@
       <c r="F32" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
@@ -4745,7 +4894,7 @@
       <c r="F33" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="133"/>
+      <c r="G33" s="131"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4757,13 +4906,13 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="135" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -4775,14 +4924,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="137" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4792,12 +4941,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="135"/>
+      <c r="G36" s="138"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -4807,12 +4956,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="135"/>
+      <c r="G37" s="138"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -4822,7 +4971,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="135"/>
+      <c r="G38" s="138"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -4837,7 +4986,7 @@
       <c r="F39" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="136"/>
+      <c r="G39" s="139"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4849,13 +4998,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="132" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4867,14 +5016,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="134" t="s">
+      <c r="G41" s="137" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="122"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4884,7 +5033,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="135"/>
+      <c r="G42" s="138"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -4899,7 +5048,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="136"/>
+      <c r="G43" s="139"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -4911,13 +5060,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="132" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4929,14 +5078,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="134" t="s">
+      <c r="G45" s="137" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="125"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -4946,23 +5095,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="135"/>
+      <c r="G46" s="138"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="135"/>
+      <c r="G47" s="138"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
@@ -4972,12 +5121,12 @@
       <c r="F48" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="135"/>
+      <c r="G48" s="138"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
@@ -4987,22 +5136,22 @@
       <c r="F49" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="131"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="132" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -5022,8 +5171,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -5031,9 +5180,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="121" t="s">
+      <c r="A53" s="126"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="132" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5045,14 +5194,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="124" t="s">
+      <c r="G53" s="135" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="122"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -5062,12 +5211,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="124"/>
+      <c r="G54" s="135"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="122"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -5077,12 +5226,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="124"/>
+      <c r="G55" s="135"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="122"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="133"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -5092,12 +5241,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="124"/>
+      <c r="G56" s="135"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="122"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="133"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -5107,12 +5256,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="124"/>
+      <c r="G57" s="135"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="122"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="133"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -5122,12 +5271,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="124"/>
+      <c r="G58" s="135"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -5136,9 +5285,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="125"/>
-      <c r="B60" s="125"/>
-      <c r="C60" s="126"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -5147,8 +5296,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="125"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -5156,9 +5305,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="121" t="s">
+      <c r="A62" s="126"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="132" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5170,25 +5319,25 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="134" t="s">
+      <c r="G62" s="137" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="122"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="135"/>
+      <c r="G63" s="138"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="125"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
@@ -5198,12 +5347,12 @@
       <c r="F64" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="135"/>
+      <c r="G64" s="138"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="125"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
@@ -5213,12 +5362,12 @@
       <c r="F65" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="135"/>
+      <c r="G65" s="138"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="126"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
@@ -5228,11 +5377,11 @@
       <c r="F66" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="136"/>
+      <c r="G66" s="139"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -5240,8 +5389,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="125"/>
-      <c r="B68" s="125"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="45" t="s">
         <v>343</v>
       </c>
@@ -5253,8 +5402,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="125"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="126"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -5262,9 +5411,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="125"/>
-      <c r="B70" s="125"/>
-      <c r="C70" s="121" t="s">
+      <c r="A70" s="126"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="132" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -5276,14 +5425,14 @@
       <c r="F70" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="134" t="s">
+      <c r="G70" s="137" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
-      <c r="C71" s="122"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="133"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
@@ -5293,12 +5442,12 @@
       <c r="F71" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="135"/>
+      <c r="G71" s="138"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
@@ -5308,12 +5457,12 @@
       <c r="F72" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="135"/>
+      <c r="G72" s="138"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
@@ -5323,12 +5472,12 @@
       <c r="F73" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="132"/>
+      <c r="G73" s="130"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="125"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
@@ -5338,12 +5487,12 @@
       <c r="F74" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="132"/>
+      <c r="G74" s="130"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="126"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
@@ -5353,7 +5502,7 @@
       <c r="F75" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="133"/>
+      <c r="G75" s="131"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -5365,10 +5514,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="121" t="s">
+      <c r="B77" s="132" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -5388,9 +5537,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="125"/>
-      <c r="B78" s="125"/>
-      <c r="C78" s="121" t="s">
+      <c r="A78" s="126"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="132" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5402,14 +5551,14 @@
       <c r="F78" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="134" t="s">
+      <c r="G78" s="137" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="126"/>
+      <c r="A79" s="126"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="127"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
@@ -5419,12 +5568,12 @@
       <c r="F79" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="136"/>
+      <c r="G79" s="139"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="121" t="s">
+      <c r="A80" s="126"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="132" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5436,14 +5585,14 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="134" t="s">
+      <c r="G80" s="137" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="125"/>
-      <c r="B81" s="125"/>
-      <c r="C81" s="122"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
@@ -5453,12 +5602,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="135"/>
+      <c r="G81" s="138"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
@@ -5468,12 +5617,12 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="135"/>
+      <c r="G82" s="138"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="126"/>
+      <c r="A83" s="126"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
@@ -5483,12 +5632,12 @@
       <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="133"/>
+      <c r="G83" s="131"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="126"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="121" t="s">
+      <c r="A84" s="127"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="132" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5502,8 +5651,8 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="134"/>
       <c r="D85" s="68" t="s">
         <v>482</v>
       </c>
@@ -5514,22 +5663,22 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="127"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="121" t="s">
+      <c r="A87" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="121" t="s">
+      <c r="B87" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="128" t="s">
+      <c r="C87" s="123" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5541,14 +5690,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="130" t="s">
+      <c r="G87" s="128" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="122"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="129"/>
+      <c r="A88" s="133"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5558,12 +5707,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="131"/>
+      <c r="G88" s="129"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="122"/>
-      <c r="B89" s="122"/>
-      <c r="C89" s="129"/>
+      <c r="A89" s="133"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5573,12 +5722,12 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="131"/>
+      <c r="G89" s="129"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="122"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="125"/>
+      <c r="A90" s="133"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
@@ -5588,12 +5737,12 @@
       <c r="F90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="132"/>
+      <c r="G90" s="130"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="122"/>
-      <c r="B91" s="122"/>
-      <c r="C91" s="125"/>
+      <c r="A91" s="133"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
@@ -5603,12 +5752,12 @@
       <c r="F91" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="132"/>
+      <c r="G91" s="130"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="122"/>
-      <c r="B92" s="122"/>
-      <c r="C92" s="125"/>
+      <c r="A92" s="133"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="126"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
@@ -5618,12 +5767,12 @@
       <c r="F92" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="132"/>
+      <c r="G92" s="130"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="122"/>
-      <c r="B93" s="122"/>
-      <c r="C93" s="126"/>
+      <c r="A93" s="133"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="127"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
@@ -5633,11 +5782,11 @@
       <c r="F93" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="133"/>
+      <c r="G93" s="131"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="122"/>
-      <c r="B94" s="122"/>
+      <c r="A94" s="133"/>
+      <c r="B94" s="133"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5655,9 +5804,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="122"/>
-      <c r="B95" s="122"/>
-      <c r="C95" s="121" t="s">
+      <c r="A95" s="133"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="132" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5674,9 +5823,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="122"/>
-      <c r="B96" s="122"/>
-      <c r="C96" s="123"/>
+      <c r="A96" s="133"/>
+      <c r="B96" s="133"/>
+      <c r="C96" s="134"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5685,8 +5834,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="122"/>
-      <c r="B97" s="122"/>
+      <c r="A97" s="133"/>
+      <c r="B97" s="133"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5704,9 +5853,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="125"/>
-      <c r="B98" s="125"/>
-      <c r="C98" s="121" t="s">
+      <c r="A98" s="126"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="132" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5717,9 +5866,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="125"/>
-      <c r="B99" s="125"/>
-      <c r="C99" s="122"/>
+      <c r="A99" s="126"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="133"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5728,9 +5877,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="126"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="134"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -5739,8 +5888,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="126"/>
-      <c r="B101" s="126"/>
+      <c r="A101" s="127"/>
+      <c r="B101" s="127"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -5758,19 +5907,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="127"/>
-      <c r="B102" s="127"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
-      <c r="F102" s="127"/>
-      <c r="G102" s="127"/>
+      <c r="A102" s="136"/>
+      <c r="B102" s="136"/>
+      <c r="C102" s="136"/>
+      <c r="D102" s="136"/>
+      <c r="E102" s="136"/>
+      <c r="F102" s="136"/>
+      <c r="G102" s="136"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="121" t="s">
+      <c r="A103" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="121" t="s">
+      <c r="B103" s="132" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5788,8 +5937,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="122"/>
-      <c r="B104" s="122"/>
+      <c r="A104" s="133"/>
+      <c r="B104" s="133"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5805,8 +5954,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="122"/>
-      <c r="B105" s="122"/>
+      <c r="A105" s="133"/>
+      <c r="B105" s="133"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5824,9 +5973,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="122"/>
-      <c r="B106" s="122"/>
-      <c r="C106" s="124" t="s">
+      <c r="A106" s="133"/>
+      <c r="B106" s="133"/>
+      <c r="C106" s="135" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5839,9 +5988,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="122"/>
-      <c r="B107" s="122"/>
-      <c r="C107" s="124"/>
+      <c r="A107" s="133"/>
+      <c r="B107" s="133"/>
+      <c r="C107" s="135"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
       </c>
@@ -5850,13 +5999,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="121" t="s">
+      <c r="A109" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="121" t="s">
+      <c r="B109" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="121" t="s">
+      <c r="C109" s="132" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5868,14 +6017,14 @@
       <c r="F109" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G109" s="137" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="122"/>
-      <c r="B110" s="122"/>
-      <c r="C110" s="122"/>
+      <c r="A110" s="133"/>
+      <c r="B110" s="133"/>
+      <c r="C110" s="133"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -5885,11 +6034,12 @@
       <c r="F110" s="12" t="s">
         <v>175</v>
       </c>
+      <c r="G110" s="130"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="122"/>
-      <c r="B111" s="122"/>
-      <c r="C111" s="122"/>
+      <c r="A111" s="133"/>
+      <c r="B111" s="133"/>
+      <c r="C111" s="133"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -5899,11 +6049,12 @@
       <c r="F111" s="12" t="s">
         <v>175</v>
       </c>
+      <c r="G111" s="130"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="122"/>
-      <c r="B112" s="122"/>
-      <c r="C112" s="122"/>
+      <c r="A112" s="133"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="133"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -5913,9 +6064,142 @@
       <c r="F112" s="12" t="s">
         <v>175</v>
       </c>
+      <c r="G112" s="131"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="123" t="s">
+        <v>732</v>
+      </c>
+      <c r="B113" s="123" t="s">
+        <v>731</v>
+      </c>
+      <c r="C113" s="123" t="s">
+        <v>734</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G113" s="128" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="124"/>
+      <c r="B114" s="124"/>
+      <c r="C114" s="124"/>
+      <c r="D114" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G114" s="129"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="124"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="124"/>
+      <c r="D115" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E115" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G115" s="129"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="124"/>
+      <c r="B116" s="124"/>
+      <c r="C116" s="126"/>
+      <c r="D116" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E116" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F116" s="121" t="s">
+        <v>743</v>
+      </c>
+      <c r="G116" s="129"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="124"/>
+      <c r="B117" s="124"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E117" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F117" s="121" t="s">
+        <v>738</v>
+      </c>
+      <c r="G117" s="130"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="124"/>
+      <c r="B118" s="124"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F118" s="121" t="s">
+        <v>738</v>
+      </c>
+      <c r="G118" s="130"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="124"/>
+      <c r="B119" s="124"/>
+      <c r="C119" s="127"/>
+      <c r="D119" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E119" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F119" s="121" t="s">
+        <v>738</v>
+      </c>
+      <c r="G119" s="131"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="125"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="121" t="s">
+        <v>741</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F120" s="121" t="s">
+        <v>743</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>744</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="A6:A15"/>
@@ -5960,9 +6244,6 @@
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="A87:A101"/>
@@ -5973,6 +6254,14 @@
     <mergeCell ref="B87:B101"/>
     <mergeCell ref="C87:C93"/>
     <mergeCell ref="G87:G93"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="G113:G119"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="G109:G112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5984,10 +6273,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView topLeftCell="B120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254:A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6003,15 +6292,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -6037,13 +6326,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="132" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6055,14 +6344,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="137" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="122"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -6072,12 +6361,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="135"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="122"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -6087,12 +6376,12 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="135"/>
+      <c r="G5" s="138"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="125"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="5" t="s">
         <v>706</v>
       </c>
@@ -6102,12 +6391,12 @@
       <c r="F6" s="114" t="s">
         <v>707</v>
       </c>
-      <c r="G6" s="132"/>
+      <c r="G6" s="130"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="126"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="5" t="s">
         <v>708</v>
       </c>
@@ -6117,12 +6406,12 @@
       <c r="F7" s="114" t="s">
         <v>709</v>
       </c>
-      <c r="G7" s="133"/>
+      <c r="G7" s="131"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="121" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="132" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -6134,14 +6423,14 @@
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="134" t="s">
+      <c r="G8" s="137" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="125"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="5" t="s">
         <v>533</v>
       </c>
@@ -6151,12 +6440,12 @@
       <c r="F9" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="132"/>
+      <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="125"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="5" t="s">
         <v>535</v>
       </c>
@@ -6166,12 +6455,12 @@
       <c r="F10" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G10" s="132"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="5" t="s">
         <v>536</v>
       </c>
@@ -6181,89 +6470,89 @@
       <c r="F11" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G11" s="132"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="125"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="80" t="s">
         <v>537</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="132"/>
+      <c r="G12" s="130"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="125"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="80" t="s">
         <v>538</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="132"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="125"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="80" t="s">
         <v>539</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="132"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="125"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="80" t="s">
         <v>540</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="132"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="80" t="s">
         <v>541</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="132"/>
+      <c r="G16" s="130"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="125"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="80" t="s">
         <v>542</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="132"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="126"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="80" t="s">
         <v>543</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="133"/>
+      <c r="G18" s="131"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="128" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="123" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -6275,14 +6564,14 @@
       <c r="F19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="137" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="129"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="5" t="s">
         <v>170</v>
       </c>
@@ -6292,11 +6581,11 @@
       <c r="F20" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="136"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="91"/>
       <c r="D21" s="5" t="s">
         <v>588</v>
@@ -6310,9 +6599,9 @@
       <c r="G21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="123" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -6324,14 +6613,14 @@
       <c r="F22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="134" t="s">
+      <c r="G22" s="137" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="5" t="s">
         <v>222</v>
       </c>
@@ -6341,12 +6630,12 @@
       <c r="F23" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="132"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="5" t="s">
         <v>527</v>
       </c>
@@ -6356,12 +6645,12 @@
       <c r="F24" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G24" s="132"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="5" t="s">
         <v>565</v>
       </c>
@@ -6371,12 +6660,12 @@
       <c r="F25" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="132"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="5" t="s">
         <v>566</v>
       </c>
@@ -6386,12 +6675,12 @@
       <c r="F26" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="132"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="125"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="5" t="s">
         <v>567</v>
       </c>
@@ -6401,12 +6690,12 @@
       <c r="F27" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G27" s="132"/>
+      <c r="G27" s="130"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="125"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="5" t="s">
         <v>568</v>
       </c>
@@ -6416,12 +6705,12 @@
       <c r="F28" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G28" s="133"/>
+      <c r="G28" s="131"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="128" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="123" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6438,9 +6727,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="5" t="s">
         <v>236</v>
       </c>
@@ -6449,9 +6738,9 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="121" t="s">
+      <c r="A31" s="126"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="132" t="s">
         <v>239</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -6463,14 +6752,14 @@
       <c r="F31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="134" t="s">
+      <c r="G31" s="137" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="5" t="s">
         <v>242</v>
       </c>
@@ -6480,12 +6769,12 @@
       <c r="F32" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="135"/>
+      <c r="G32" s="138"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="125"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="5" t="s">
         <v>244</v>
       </c>
@@ -6495,12 +6784,12 @@
       <c r="F33" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="135"/>
+      <c r="G33" s="138"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="125"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="5" t="s">
         <v>245</v>
       </c>
@@ -6510,12 +6799,12 @@
       <c r="F34" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="135"/>
+      <c r="G34" s="138"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="125"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="5" t="s">
         <v>246</v>
       </c>
@@ -6525,12 +6814,12 @@
       <c r="F35" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="135"/>
+      <c r="G35" s="138"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="5" t="s">
         <v>368</v>
       </c>
@@ -6540,12 +6829,12 @@
       <c r="F36" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="G36" s="132"/>
+      <c r="G36" s="130"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="5" t="s">
         <v>497</v>
       </c>
@@ -6555,12 +6844,12 @@
       <c r="F37" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G37" s="132"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="5" t="s">
         <v>499</v>
       </c>
@@ -6570,12 +6859,12 @@
       <c r="F38" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="132"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="5" t="s">
         <v>500</v>
       </c>
@@ -6585,12 +6874,12 @@
       <c r="F39" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="132"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="5" t="s">
         <v>502</v>
       </c>
@@ -6600,12 +6889,12 @@
       <c r="F40" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="132"/>
+      <c r="G40" s="130"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="5" t="s">
         <v>504</v>
       </c>
@@ -6615,12 +6904,12 @@
       <c r="F41" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="132"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="5" t="s">
         <v>503</v>
       </c>
@@ -6630,12 +6919,12 @@
       <c r="F42" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="132"/>
+      <c r="G42" s="130"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="5" t="s">
         <v>505</v>
       </c>
@@ -6645,12 +6934,12 @@
       <c r="F43" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G43" s="132"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="5" t="s">
         <v>506</v>
       </c>
@@ -6660,12 +6949,12 @@
       <c r="F44" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G44" s="132"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="121" t="s">
+      <c r="A45" s="126"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="132" t="s">
         <v>638</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -6677,14 +6966,14 @@
       <c r="F45" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G45" s="134" t="s">
+      <c r="G45" s="137" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="125"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="5" t="s">
         <v>641</v>
       </c>
@@ -6694,12 +6983,12 @@
       <c r="F46" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G46" s="132"/>
+      <c r="G46" s="130"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="126"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="5" t="s">
         <v>642</v>
       </c>
@@ -6709,12 +6998,12 @@
       <c r="F47" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G47" s="133"/>
+      <c r="G47" s="131"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="121" t="s">
+      <c r="A48" s="126"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="132" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -6726,14 +7015,14 @@
       <c r="F48" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G48" s="134" t="s">
+      <c r="G48" s="137" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="122"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="5" t="s">
         <v>264</v>
       </c>
@@ -6743,12 +7032,12 @@
       <c r="F49" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G49" s="135"/>
+      <c r="G49" s="138"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="5" t="s">
         <v>276</v>
       </c>
@@ -6758,12 +7047,12 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="135"/>
+      <c r="G50" s="138"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="126"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="5" t="s">
         <v>277</v>
       </c>
@@ -6773,12 +7062,12 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="136"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="121" t="s">
+      <c r="A52" s="126"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="132" t="s">
         <v>280</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -6790,14 +7079,14 @@
       <c r="F52" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="134" t="s">
+      <c r="G52" s="137" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="122"/>
+      <c r="A53" s="126"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="5" t="s">
         <v>279</v>
       </c>
@@ -6807,12 +7096,12 @@
       <c r="F53" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="135"/>
+      <c r="G53" s="138"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="126"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="5" t="s">
         <v>283</v>
       </c>
@@ -6822,12 +7111,12 @@
       <c r="F54" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="133"/>
+      <c r="G54" s="131"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="121" t="s">
+      <c r="A55" s="126"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="132" t="s">
         <v>284</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -6839,14 +7128,14 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="134" t="s">
+      <c r="G55" s="137" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="126"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="5" t="s">
         <v>592</v>
       </c>
@@ -6856,12 +7145,12 @@
       <c r="F56" s="90" t="s">
         <v>593</v>
       </c>
-      <c r="G56" s="133"/>
+      <c r="G56" s="131"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="121" t="s">
+      <c r="A57" s="126"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="132" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -6873,14 +7162,14 @@
       <c r="F57" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="141" t="s">
+      <c r="G57" s="144" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="126"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="5" t="s">
         <v>289</v>
       </c>
@@ -6890,12 +7179,12 @@
       <c r="F58" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G58" s="142"/>
+      <c r="G58" s="145"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="121" t="s">
+      <c r="A59" s="126"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="132" t="s">
         <v>334</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -6907,14 +7196,14 @@
       <c r="F59" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G59" s="134" t="s">
+      <c r="G59" s="137" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="125"/>
-      <c r="B60" s="125"/>
-      <c r="C60" s="123"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="5" t="s">
         <v>337</v>
       </c>
@@ -6924,12 +7213,12 @@
       <c r="F60" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G60" s="136"/>
+      <c r="G60" s="139"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="125"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="121" t="s">
+      <c r="A61" s="126"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="132" t="s">
         <v>354</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -6941,14 +7230,14 @@
       <c r="F61" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="134" t="s">
+      <c r="G61" s="137" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="122"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="5" t="s">
         <v>356</v>
       </c>
@@ -6958,12 +7247,12 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="135"/>
+      <c r="G62" s="138"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="122"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="5" t="s">
         <v>357</v>
       </c>
@@ -6973,12 +7262,12 @@
       <c r="F63" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G63" s="135"/>
+      <c r="G63" s="138"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="125"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="5" t="s">
         <v>365</v>
       </c>
@@ -6988,12 +7277,12 @@
       <c r="F64" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G64" s="132"/>
+      <c r="G64" s="130"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="125"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="5" t="s">
         <v>377</v>
       </c>
@@ -7003,12 +7292,12 @@
       <c r="F65" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G65" s="133"/>
+      <c r="G65" s="131"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="144" t="s">
+      <c r="A66" s="126"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="147" t="s">
         <v>434</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7020,14 +7309,14 @@
       <c r="F66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="134" t="s">
+      <c r="G66" s="137" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="145"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="148"/>
       <c r="D67" s="5" t="s">
         <v>441</v>
       </c>
@@ -7037,12 +7326,12 @@
       <c r="F67" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="136"/>
+      <c r="G67" s="139"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="125"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="144" t="s">
+      <c r="A68" s="126"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="147" t="s">
         <v>445</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -7054,14 +7343,14 @@
       <c r="F68" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G68" s="134" t="s">
+      <c r="G68" s="137" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="125"/>
-      <c r="B69" s="125"/>
-      <c r="C69" s="145"/>
+      <c r="A69" s="126"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="148"/>
       <c r="D69" s="5" t="s">
         <v>444</v>
       </c>
@@ -7071,12 +7360,12 @@
       <c r="F69" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G69" s="136"/>
+      <c r="G69" s="139"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="125"/>
-      <c r="B70" s="125"/>
-      <c r="C70" s="147" t="s">
+      <c r="A70" s="126"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="149" t="s">
         <v>487</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -7088,14 +7377,14 @@
       <c r="F70" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G70" s="134" t="s">
+      <c r="G70" s="137" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
-      <c r="C71" s="148"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="150"/>
       <c r="D71" s="5" t="s">
         <v>490</v>
       </c>
@@ -7105,12 +7394,12 @@
       <c r="F71" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G71" s="135"/>
+      <c r="G71" s="138"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
-      <c r="C72" s="126"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="5" t="s">
         <v>491</v>
       </c>
@@ -7120,12 +7409,12 @@
       <c r="F72" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G72" s="133"/>
+      <c r="G72" s="131"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
-      <c r="C73" s="143" t="s">
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="146" t="s">
         <v>596</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -7137,14 +7426,14 @@
       <c r="F73" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G73" s="140" t="s">
+      <c r="G73" s="143" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="126"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="5" t="s">
         <v>599</v>
       </c>
@@ -7154,7 +7443,7 @@
       <c r="F74" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G74" s="133"/>
+      <c r="G74" s="131"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30"/>
@@ -7166,13 +7455,13 @@
       <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="128" t="s">
+      <c r="A76" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="128" t="s">
+      <c r="B76" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="122" t="s">
+      <c r="C76" s="133" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7189,9 +7478,9 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="129"/>
-      <c r="B77" s="129"/>
-      <c r="C77" s="126"/>
+      <c r="A77" s="124"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="3" t="s">
         <v>6</v>
       </c>
@@ -7201,14 +7490,14 @@
       <c r="F77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="134" t="s">
+      <c r="G77" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="129"/>
-      <c r="B78" s="129"/>
-      <c r="C78" s="121" t="s">
+      <c r="A78" s="124"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="132" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -7220,12 +7509,12 @@
       <c r="F78" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="G78" s="135"/>
+      <c r="G78" s="138"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
+      <c r="A79" s="126"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
       <c r="D79" s="5" t="s">
         <v>30</v>
       </c>
@@ -7235,12 +7524,12 @@
       <c r="F79" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G79" s="132"/>
+      <c r="G79" s="130"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
+      <c r="A80" s="126"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
       <c r="D80" s="5" t="s">
         <v>492</v>
       </c>
@@ -7250,12 +7539,12 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="132"/>
+      <c r="G80" s="130"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="125"/>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="5" t="s">
         <v>493</v>
       </c>
@@ -7265,12 +7554,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="132"/>
+      <c r="G81" s="130"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="126"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="127"/>
       <c r="D82" s="5" t="s">
         <v>494</v>
       </c>
@@ -7280,11 +7569,11 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="133"/>
+      <c r="G82" s="131"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
+      <c r="A83" s="126"/>
+      <c r="B83" s="126"/>
       <c r="C83" s="66" t="s">
         <v>446</v>
       </c>
@@ -7294,8 +7583,8 @@
       <c r="G83" s="64"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="126"/>
-      <c r="B84" s="126"/>
+      <c r="A84" s="127"/>
+      <c r="B84" s="127"/>
       <c r="C84" s="63" t="s">
         <v>447</v>
       </c>
@@ -7332,10 +7621,10 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="128" t="s">
+      <c r="A86" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="128" t="s">
+      <c r="B86" s="123" t="s">
         <v>164</v>
       </c>
       <c r="C86" s="62"/>
@@ -7343,8 +7632,8 @@
       <c r="E86" s="62"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="129"/>
-      <c r="B87" s="129"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
       <c r="D87" s="3" t="s">
         <v>41</v>
       </c>
@@ -7359,8 +7648,8 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="125"/>
-      <c r="B88" s="125"/>
+      <c r="A88" s="126"/>
+      <c r="B88" s="126"/>
       <c r="D88" s="3" t="s">
         <v>159</v>
       </c>
@@ -7372,8 +7661,8 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
+      <c r="A89" s="126"/>
+      <c r="B89" s="126"/>
       <c r="D89" s="3" t="s">
         <v>165</v>
       </c>
@@ -7384,9 +7673,9 @@
       <c r="G89" s="62"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="125"/>
-      <c r="B90" s="125"/>
-      <c r="C90" s="121" t="s">
+      <c r="A90" s="126"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="132" t="s">
         <v>544</v>
       </c>
       <c r="D90" s="81" t="s">
@@ -7394,73 +7683,73 @@
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="134" t="s">
+      <c r="G90" s="137" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="125"/>
-      <c r="B91" s="125"/>
-      <c r="C91" s="122"/>
+      <c r="A91" s="126"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="133"/>
       <c r="D91" s="81" t="s">
         <v>546</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="76"/>
-      <c r="G91" s="135"/>
+      <c r="G91" s="138"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="125"/>
-      <c r="B92" s="125"/>
-      <c r="C92" s="122"/>
+      <c r="A92" s="126"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="133"/>
       <c r="D92" s="81" t="s">
         <v>547</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="76"/>
-      <c r="G92" s="135"/>
+      <c r="G92" s="138"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="125"/>
-      <c r="B93" s="125"/>
-      <c r="C93" s="122"/>
+      <c r="A93" s="126"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="133"/>
       <c r="D93" s="81" t="s">
         <v>548</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="76"/>
-      <c r="G93" s="135"/>
+      <c r="G93" s="138"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="125"/>
-      <c r="B94" s="125"/>
-      <c r="C94" s="122"/>
+      <c r="A94" s="126"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="133"/>
       <c r="D94" s="81" t="s">
         <v>549</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="76"/>
-      <c r="G94" s="135"/>
+      <c r="G94" s="138"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="126"/>
-      <c r="B95" s="126"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="127"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="134"/>
       <c r="D95" s="81" t="s">
         <v>550</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="76"/>
-      <c r="G95" s="136"/>
+      <c r="G95" s="139"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="128" t="s">
+      <c r="A96" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="121" t="s">
+      <c r="B96" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="121" t="s">
+      <c r="C96" s="132" t="s">
         <v>90</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -7472,14 +7761,14 @@
       <c r="F96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G96" s="134" t="s">
+      <c r="G96" s="137" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="125"/>
-      <c r="B97" s="122"/>
-      <c r="C97" s="125"/>
+      <c r="A97" s="126"/>
+      <c r="B97" s="133"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="5" t="s">
         <v>96</v>
       </c>
@@ -7489,12 +7778,12 @@
       <c r="F97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G97" s="135"/>
+      <c r="G97" s="138"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="125"/>
-      <c r="B98" s="122"/>
-      <c r="C98" s="125"/>
+      <c r="A98" s="126"/>
+      <c r="B98" s="133"/>
+      <c r="C98" s="126"/>
       <c r="D98" s="5" t="s">
         <v>92</v>
       </c>
@@ -7504,12 +7793,12 @@
       <c r="F98" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G98" s="135"/>
+      <c r="G98" s="138"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="125"/>
-      <c r="B99" s="122"/>
-      <c r="C99" s="125"/>
+      <c r="A99" s="126"/>
+      <c r="B99" s="133"/>
+      <c r="C99" s="126"/>
       <c r="D99" s="5" t="s">
         <v>137</v>
       </c>
@@ -7519,29 +7808,29 @@
       <c r="F99" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G99" s="136"/>
+      <c r="G99" s="139"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="126"/>
+      <c r="A100" s="126"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="127"/>
       <c r="F100" s="1"/>
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="125"/>
-      <c r="B101" s="125"/>
+      <c r="A101" s="126"/>
+      <c r="B101" s="126"/>
       <c r="C101" s="33"/>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
-      <c r="G101" s="130" t="s">
+      <c r="G101" s="128" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="125"/>
-      <c r="B102" s="125"/>
-      <c r="C102" s="128" t="s">
+      <c r="A102" s="126"/>
+      <c r="B102" s="126"/>
+      <c r="C102" s="123" t="s">
         <v>52</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -7553,12 +7842,12 @@
       <c r="F102" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G102" s="131"/>
+      <c r="G102" s="129"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="125"/>
-      <c r="B103" s="125"/>
-      <c r="C103" s="129"/>
+      <c r="A103" s="126"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="3" t="s">
         <v>55</v>
       </c>
@@ -7568,34 +7857,34 @@
       <c r="F103" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G103" s="131"/>
+      <c r="G103" s="129"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="125"/>
-      <c r="B104" s="125"/>
-      <c r="C104" s="129"/>
+      <c r="A104" s="126"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E104" s="4">
         <v>43787</v>
       </c>
-      <c r="G104" s="131"/>
+      <c r="G104" s="129"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="125"/>
-      <c r="B105" s="125"/>
-      <c r="C105" s="129"/>
+      <c r="A105" s="126"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E105" s="4"/>
-      <c r="G105" s="131"/>
+      <c r="G105" s="129"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="125"/>
-      <c r="B106" s="125"/>
-      <c r="C106" s="129"/>
+      <c r="A106" s="126"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="3" t="s">
         <v>63</v>
       </c>
@@ -7603,24 +7892,24 @@
       <c r="F106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="131"/>
+      <c r="G106" s="129"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="125"/>
-      <c r="B107" s="125"/>
-      <c r="C107" s="129"/>
+      <c r="A107" s="126"/>
+      <c r="B107" s="126"/>
+      <c r="C107" s="124"/>
       <c r="D107" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E107" s="4">
         <v>43788</v>
       </c>
-      <c r="G107" s="131"/>
+      <c r="G107" s="129"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="125"/>
-      <c r="B108" s="125"/>
-      <c r="C108" s="129"/>
+      <c r="A108" s="126"/>
+      <c r="B108" s="126"/>
+      <c r="C108" s="124"/>
       <c r="D108" s="3" t="s">
         <v>78</v>
       </c>
@@ -7628,12 +7917,12 @@
       <c r="F108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="138"/>
+      <c r="G108" s="141"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="125"/>
-      <c r="B109" s="125"/>
-      <c r="C109" s="146"/>
+      <c r="A109" s="126"/>
+      <c r="B109" s="126"/>
+      <c r="C109" s="125"/>
       <c r="D109" s="5" t="s">
         <v>76</v>
       </c>
@@ -7643,19 +7932,19 @@
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="125"/>
-      <c r="B110" s="125"/>
+      <c r="A110" s="126"/>
+      <c r="B110" s="126"/>
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="134" t="s">
+      <c r="G110" s="137" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="125"/>
-      <c r="B111" s="125"/>
-      <c r="C111" s="128" t="s">
+      <c r="A111" s="126"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="123" t="s">
         <v>135</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -7665,12 +7954,12 @@
       <c r="F111" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G111" s="132"/>
+      <c r="G111" s="130"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="125"/>
-      <c r="B112" s="125"/>
-      <c r="C112" s="125"/>
+      <c r="A112" s="126"/>
+      <c r="B112" s="126"/>
+      <c r="C112" s="126"/>
       <c r="D112" s="5" t="s">
         <v>296</v>
       </c>
@@ -7680,12 +7969,12 @@
       <c r="F112" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="132"/>
+      <c r="G112" s="130"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="125"/>
-      <c r="B113" s="125"/>
-      <c r="C113" s="125"/>
+      <c r="A113" s="126"/>
+      <c r="B113" s="126"/>
+      <c r="C113" s="126"/>
       <c r="D113" s="5" t="s">
         <v>298</v>
       </c>
@@ -7695,12 +7984,12 @@
       <c r="F113" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G113" s="132"/>
+      <c r="G113" s="130"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="125"/>
-      <c r="B114" s="125"/>
-      <c r="C114" s="125"/>
+      <c r="A114" s="126"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
       <c r="D114" s="5" t="s">
         <v>299</v>
       </c>
@@ -7710,12 +7999,12 @@
       <c r="F114" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G114" s="133"/>
+      <c r="G114" s="131"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="125"/>
-      <c r="B115" s="125"/>
-      <c r="C115" s="126"/>
+      <c r="A115" s="126"/>
+      <c r="B115" s="126"/>
+      <c r="C115" s="127"/>
       <c r="D115" s="5" t="s">
         <v>338</v>
       </c>
@@ -7728,20 +8017,20 @@
       <c r="G115" s="36"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="125"/>
-      <c r="B116" s="125"/>
+      <c r="A116" s="126"/>
+      <c r="B116" s="126"/>
       <c r="C116" s="35"/>
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
       <c r="F116" s="27"/>
-      <c r="G116" s="130" t="s">
+      <c r="G116" s="128" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="125"/>
-      <c r="B117" s="125"/>
-      <c r="C117" s="121" t="s">
+      <c r="A117" s="126"/>
+      <c r="B117" s="126"/>
+      <c r="C117" s="132" t="s">
         <v>248</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -7753,12 +8042,12 @@
       <c r="F117" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G117" s="131"/>
+      <c r="G117" s="129"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="125"/>
-      <c r="B118" s="125"/>
-      <c r="C118" s="122"/>
+      <c r="A118" s="126"/>
+      <c r="B118" s="126"/>
+      <c r="C118" s="133"/>
       <c r="D118" s="5" t="s">
         <v>249</v>
       </c>
@@ -7768,12 +8057,12 @@
       <c r="F118" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G118" s="131"/>
+      <c r="G118" s="129"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="125"/>
-      <c r="B119" s="125"/>
-      <c r="C119" s="122"/>
+      <c r="A119" s="126"/>
+      <c r="B119" s="126"/>
+      <c r="C119" s="133"/>
       <c r="D119" s="5" t="s">
         <v>251</v>
       </c>
@@ -7783,12 +8072,12 @@
       <c r="F119" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G119" s="131"/>
+      <c r="G119" s="129"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="125"/>
-      <c r="B120" s="125"/>
-      <c r="C120" s="122"/>
+      <c r="A120" s="126"/>
+      <c r="B120" s="126"/>
+      <c r="C120" s="133"/>
       <c r="D120" s="5" t="s">
         <v>252</v>
       </c>
@@ -7798,12 +8087,12 @@
       <c r="F120" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G120" s="131"/>
+      <c r="G120" s="129"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="125"/>
-      <c r="B121" s="125"/>
-      <c r="C121" s="122"/>
+      <c r="A121" s="126"/>
+      <c r="B121" s="126"/>
+      <c r="C121" s="133"/>
       <c r="D121" s="5" t="s">
         <v>253</v>
       </c>
@@ -7813,12 +8102,12 @@
       <c r="F121" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G121" s="131"/>
+      <c r="G121" s="129"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="125"/>
-      <c r="B122" s="125"/>
-      <c r="C122" s="122"/>
+      <c r="A122" s="126"/>
+      <c r="B122" s="126"/>
+      <c r="C122" s="133"/>
       <c r="D122" s="5" t="s">
         <v>254</v>
       </c>
@@ -7828,12 +8117,12 @@
       <c r="F122" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G122" s="131"/>
+      <c r="G122" s="129"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="125"/>
-      <c r="B123" s="125"/>
-      <c r="C123" s="125"/>
+      <c r="A123" s="126"/>
+      <c r="B123" s="126"/>
+      <c r="C123" s="126"/>
       <c r="D123" s="5" t="s">
         <v>255</v>
       </c>
@@ -7843,12 +8132,12 @@
       <c r="F123" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="138"/>
+      <c r="G123" s="141"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="125"/>
-      <c r="B124" s="125"/>
-      <c r="C124" s="126"/>
+      <c r="A124" s="126"/>
+      <c r="B124" s="126"/>
+      <c r="C124" s="127"/>
       <c r="D124" s="5" t="s">
         <v>256</v>
       </c>
@@ -7861,8 +8150,8 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="125"/>
-      <c r="B125" s="125"/>
+      <c r="A125" s="126"/>
+      <c r="B125" s="126"/>
       <c r="C125" s="77"/>
       <c r="D125" s="5"/>
       <c r="E125" s="4"/>
@@ -7870,8 +8159,8 @@
       <c r="G125" s="79"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="125"/>
-      <c r="B126" s="125"/>
+      <c r="A126" s="126"/>
+      <c r="B126" s="126"/>
       <c r="C126" s="2" t="s">
         <v>311</v>
       </c>
@@ -7883,8 +8172,8 @@
       <c r="G126" s="62"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="125"/>
-      <c r="B127" s="125"/>
+      <c r="A127" s="126"/>
+      <c r="B127" s="126"/>
       <c r="C127" s="2" t="s">
         <v>557</v>
       </c>
@@ -7902,8 +8191,8 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="125"/>
-      <c r="B128" s="125"/>
+      <c r="A128" s="126"/>
+      <c r="B128" s="126"/>
       <c r="C128" s="98" t="s">
         <v>619</v>
       </c>
@@ -7921,9 +8210,9 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="125"/>
-      <c r="B129" s="125"/>
-      <c r="C129" s="121" t="s">
+      <c r="A129" s="126"/>
+      <c r="B129" s="126"/>
+      <c r="C129" s="132" t="s">
         <v>659</v>
       </c>
       <c r="D129" s="5" t="s">
@@ -7935,14 +8224,14 @@
       <c r="F129" s="105" t="s">
         <v>657</v>
       </c>
-      <c r="G129" s="134" t="s">
+      <c r="G129" s="137" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="125"/>
-      <c r="B130" s="125"/>
-      <c r="C130" s="125"/>
+      <c r="A130" s="126"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
       <c r="D130" s="5" t="s">
         <v>662</v>
       </c>
@@ -7952,12 +8241,12 @@
       <c r="F130" s="105" t="s">
         <v>657</v>
       </c>
-      <c r="G130" s="132"/>
+      <c r="G130" s="130"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="126"/>
-      <c r="B131" s="125"/>
-      <c r="C131" s="125"/>
+      <c r="A131" s="127"/>
+      <c r="B131" s="126"/>
+      <c r="C131" s="126"/>
       <c r="D131" s="5" t="s">
         <v>663</v>
       </c>
@@ -7967,12 +8256,12 @@
       <c r="F131" s="105" t="s">
         <v>657</v>
       </c>
-      <c r="G131" s="133"/>
+      <c r="G131" s="131"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="118"/>
-      <c r="B132" s="125"/>
-      <c r="C132" s="125"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
       <c r="D132" s="96" t="s">
         <v>715</v>
       </c>
@@ -7982,8 +8271,8 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="118"/>
-      <c r="B133" s="125"/>
-      <c r="C133" s="125"/>
+      <c r="B133" s="126"/>
+      <c r="C133" s="126"/>
       <c r="D133" s="96" t="s">
         <v>716</v>
       </c>
@@ -7993,8 +8282,8 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="118"/>
-      <c r="B134" s="125"/>
-      <c r="C134" s="125"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
       <c r="D134" s="96" t="s">
         <v>717</v>
       </c>
@@ -8004,8 +8293,8 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="118"/>
-      <c r="B135" s="125"/>
-      <c r="C135" s="125"/>
+      <c r="B135" s="126"/>
+      <c r="C135" s="126"/>
       <c r="D135" s="96" t="s">
         <v>718</v>
       </c>
@@ -8015,8 +8304,8 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="118"/>
-      <c r="B136" s="126"/>
-      <c r="C136" s="126"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="127"/>
       <c r="D136" s="96" t="s">
         <v>719</v>
       </c>
@@ -8025,13 +8314,13 @@
       <c r="G136" s="120"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="121" t="s">
+      <c r="A137" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="121" t="s">
+      <c r="B137" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="121" t="s">
+      <c r="C137" s="132" t="s">
         <v>362</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -8043,14 +8332,14 @@
       <c r="F137" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G137" s="134" t="s">
+      <c r="G137" s="137" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="125"/>
-      <c r="B138" s="125"/>
-      <c r="C138" s="123"/>
+      <c r="A138" s="126"/>
+      <c r="B138" s="126"/>
+      <c r="C138" s="134"/>
       <c r="D138" s="5" t="s">
         <v>364</v>
       </c>
@@ -8060,12 +8349,12 @@
       <c r="F138" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G138" s="133"/>
+      <c r="G138" s="131"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="125"/>
-      <c r="B139" s="125"/>
-      <c r="C139" s="121" t="s">
+      <c r="A139" s="126"/>
+      <c r="B139" s="126"/>
+      <c r="C139" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -8077,14 +8366,14 @@
       <c r="F139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="130" t="s">
+      <c r="G139" s="128" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="125"/>
-      <c r="B140" s="125"/>
-      <c r="C140" s="122" t="s">
+      <c r="A140" s="126"/>
+      <c r="B140" s="126"/>
+      <c r="C140" s="133" t="s">
         <v>58</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -8096,12 +8385,12 @@
       <c r="F140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="132"/>
+      <c r="G140" s="130"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="125"/>
-      <c r="B141" s="125"/>
-      <c r="C141" s="125"/>
+      <c r="A141" s="126"/>
+      <c r="B141" s="126"/>
+      <c r="C141" s="126"/>
       <c r="D141" s="3" t="s">
         <v>515</v>
       </c>
@@ -8111,12 +8400,12 @@
       <c r="F141" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G141" s="132"/>
+      <c r="G141" s="130"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="125"/>
-      <c r="B142" s="125"/>
-      <c r="C142" s="125"/>
+      <c r="A142" s="126"/>
+      <c r="B142" s="126"/>
+      <c r="C142" s="126"/>
       <c r="D142" s="3" t="s">
         <v>517</v>
       </c>
@@ -8126,12 +8415,12 @@
       <c r="F142" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G142" s="132"/>
+      <c r="G142" s="130"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="125"/>
-      <c r="B143" s="125"/>
-      <c r="C143" s="125"/>
+      <c r="A143" s="126"/>
+      <c r="B143" s="126"/>
+      <c r="C143" s="126"/>
       <c r="D143" s="3" t="s">
         <v>522</v>
       </c>
@@ -8141,74 +8430,74 @@
       <c r="F143" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G143" s="132"/>
+      <c r="G143" s="130"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="125"/>
-      <c r="B144" s="125"/>
-      <c r="C144" s="125"/>
+      <c r="A144" s="126"/>
+      <c r="B144" s="126"/>
+      <c r="C144" s="126"/>
       <c r="D144" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="71"/>
-      <c r="G144" s="132"/>
+      <c r="G144" s="130"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="125"/>
-      <c r="B145" s="125"/>
-      <c r="C145" s="125"/>
+      <c r="A145" s="126"/>
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
       <c r="D145" s="50" t="s">
         <v>519</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="71"/>
-      <c r="G145" s="132"/>
+      <c r="G145" s="130"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="125"/>
-      <c r="B146" s="125"/>
-      <c r="C146" s="125"/>
+      <c r="A146" s="126"/>
+      <c r="B146" s="126"/>
+      <c r="C146" s="126"/>
       <c r="D146" s="50" t="s">
         <v>520</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="71"/>
-      <c r="G146" s="132"/>
+      <c r="G146" s="130"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="125"/>
-      <c r="B147" s="125"/>
-      <c r="C147" s="125"/>
+      <c r="A147" s="126"/>
+      <c r="B147" s="126"/>
+      <c r="C147" s="126"/>
       <c r="D147" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="71"/>
-      <c r="G147" s="132"/>
+      <c r="G147" s="130"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="125"/>
-      <c r="B148" s="125"/>
-      <c r="C148" s="126"/>
+      <c r="A148" s="126"/>
+      <c r="B148" s="126"/>
+      <c r="C148" s="127"/>
       <c r="D148" s="50" t="s">
         <v>523</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="71"/>
-      <c r="G148" s="132"/>
+      <c r="G148" s="130"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="125"/>
-      <c r="B149" s="125"/>
+      <c r="A149" s="126"/>
+      <c r="B149" s="126"/>
       <c r="C149" s="70"/>
       <c r="E149" s="4"/>
       <c r="G149" s="72"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="125"/>
-      <c r="B150" s="125"/>
-      <c r="C150" s="128" t="s">
+      <c r="A150" s="126"/>
+      <c r="B150" s="126"/>
+      <c r="C150" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -8220,14 +8509,14 @@
       <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="130" t="s">
+      <c r="G150" s="128" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="125"/>
-      <c r="B151" s="125"/>
-      <c r="C151" s="129"/>
+      <c r="A151" s="126"/>
+      <c r="B151" s="126"/>
+      <c r="C151" s="124"/>
       <c r="D151" s="3" t="s">
         <v>101</v>
       </c>
@@ -8237,12 +8526,12 @@
       <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="132"/>
+      <c r="G151" s="130"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="125"/>
-      <c r="B152" s="125"/>
-      <c r="C152" s="129"/>
+      <c r="A152" s="126"/>
+      <c r="B152" s="126"/>
+      <c r="C152" s="124"/>
       <c r="D152" s="3" t="s">
         <v>524</v>
       </c>
@@ -8252,12 +8541,12 @@
       <c r="F152" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G152" s="132"/>
+      <c r="G152" s="130"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="125"/>
-      <c r="B153" s="125"/>
-      <c r="C153" s="129"/>
+      <c r="A153" s="126"/>
+      <c r="B153" s="126"/>
+      <c r="C153" s="124"/>
       <c r="D153" s="3" t="s">
         <v>247</v>
       </c>
@@ -8267,12 +8556,12 @@
       <c r="F153" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="G153" s="132"/>
+      <c r="G153" s="130"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="125"/>
-      <c r="B154" s="125"/>
-      <c r="C154" s="129"/>
+      <c r="A154" s="126"/>
+      <c r="B154" s="126"/>
+      <c r="C154" s="124"/>
       <c r="D154" s="3" t="s">
         <v>526</v>
       </c>
@@ -8282,12 +8571,12 @@
       <c r="F154" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G154" s="132"/>
+      <c r="G154" s="130"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="125"/>
-      <c r="B155" s="125"/>
-      <c r="C155" s="125"/>
+      <c r="A155" s="126"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="126"/>
       <c r="D155" s="3" t="s">
         <v>366</v>
       </c>
@@ -8297,12 +8586,12 @@
       <c r="F155" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G155" s="132"/>
+      <c r="G155" s="130"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="125"/>
-      <c r="B156" s="125"/>
-      <c r="C156" s="125"/>
+      <c r="A156" s="126"/>
+      <c r="B156" s="126"/>
+      <c r="C156" s="126"/>
       <c r="D156" s="3" t="s">
         <v>495</v>
       </c>
@@ -8312,12 +8601,12 @@
       <c r="F156" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G156" s="132"/>
+      <c r="G156" s="130"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="125"/>
-      <c r="B157" s="125"/>
-      <c r="C157" s="126"/>
+      <c r="A157" s="126"/>
+      <c r="B157" s="126"/>
+      <c r="C157" s="127"/>
       <c r="D157" s="3" t="s">
         <v>496</v>
       </c>
@@ -8327,12 +8616,12 @@
       <c r="F157" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G157" s="133"/>
+      <c r="G157" s="131"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="125"/>
-      <c r="B158" s="125"/>
-      <c r="C158" s="121" t="s">
+      <c r="A158" s="126"/>
+      <c r="B158" s="126"/>
+      <c r="C158" s="132" t="s">
         <v>528</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -8344,14 +8633,14 @@
       <c r="F158" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G158" s="130" t="s">
+      <c r="G158" s="128" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="125"/>
-      <c r="B159" s="125"/>
-      <c r="C159" s="122"/>
+      <c r="A159" s="126"/>
+      <c r="B159" s="126"/>
+      <c r="C159" s="133"/>
       <c r="D159" s="3" t="s">
         <v>530</v>
       </c>
@@ -8361,12 +8650,12 @@
       <c r="F159" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G159" s="131"/>
+      <c r="G159" s="129"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="126"/>
-      <c r="B160" s="126"/>
-      <c r="C160" s="126"/>
+      <c r="A160" s="127"/>
+      <c r="B160" s="127"/>
+      <c r="C160" s="127"/>
       <c r="D160" s="3" t="s">
         <v>532</v>
       </c>
@@ -8376,7 +8665,7 @@
       <c r="F160" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G160" s="133"/>
+      <c r="G160" s="131"/>
     </row>
     <row r="161" spans="1:7">
       <c r="C161" s="62"/>
@@ -8385,13 +8674,13 @@
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="128" t="s">
+      <c r="A162" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="128" t="s">
+      <c r="B162" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="C162" s="128" t="s">
+      <c r="C162" s="123" t="s">
         <v>83</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -8403,14 +8692,14 @@
       <c r="F162" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G162" s="130" t="s">
+      <c r="G162" s="128" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="125"/>
-      <c r="B163" s="125"/>
-      <c r="C163" s="129"/>
+      <c r="A163" s="126"/>
+      <c r="B163" s="126"/>
+      <c r="C163" s="124"/>
       <c r="D163" s="5" t="s">
         <v>86</v>
       </c>
@@ -8420,12 +8709,12 @@
       <c r="F163" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G163" s="132"/>
+      <c r="G163" s="130"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="125"/>
-      <c r="B164" s="125"/>
-      <c r="C164" s="129"/>
+      <c r="A164" s="126"/>
+      <c r="B164" s="126"/>
+      <c r="C164" s="124"/>
       <c r="D164" s="5" t="s">
         <v>87</v>
       </c>
@@ -8435,12 +8724,12 @@
       <c r="F164" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G164" s="132"/>
+      <c r="G164" s="130"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="125"/>
-      <c r="B165" s="125"/>
-      <c r="C165" s="129"/>
+      <c r="A165" s="126"/>
+      <c r="B165" s="126"/>
+      <c r="C165" s="124"/>
       <c r="D165" s="5" t="s">
         <v>88</v>
       </c>
@@ -8450,12 +8739,12 @@
       <c r="F165" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G165" s="133"/>
+      <c r="G165" s="131"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="125"/>
-      <c r="B166" s="125"/>
-      <c r="C166" s="126"/>
+      <c r="A166" s="126"/>
+      <c r="B166" s="126"/>
+      <c r="C166" s="127"/>
       <c r="D166" s="5" t="s">
         <v>218</v>
       </c>
@@ -8470,8 +8759,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="125"/>
-      <c r="B167" s="125"/>
+      <c r="A167" s="126"/>
+      <c r="B167" s="126"/>
       <c r="C167" s="33" t="s">
         <v>185</v>
       </c>
@@ -8482,14 +8771,14 @@
         <v>43797</v>
       </c>
       <c r="F167" s="26"/>
-      <c r="G167" s="130" t="s">
+      <c r="G167" s="128" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="125"/>
-      <c r="B168" s="125"/>
-      <c r="C168" s="121" t="s">
+      <c r="A168" s="126"/>
+      <c r="B168" s="126"/>
+      <c r="C168" s="132" t="s">
         <v>221</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -8498,12 +8787,12 @@
       <c r="F168" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G168" s="131"/>
+      <c r="G168" s="129"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="125"/>
-      <c r="B169" s="125"/>
-      <c r="C169" s="125"/>
+      <c r="A169" s="126"/>
+      <c r="B169" s="126"/>
+      <c r="C169" s="126"/>
       <c r="D169" s="3" t="s">
         <v>393</v>
       </c>
@@ -8513,12 +8802,12 @@
       <c r="F169" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G169" s="132"/>
+      <c r="G169" s="130"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="125"/>
-      <c r="B170" s="125"/>
-      <c r="C170" s="125"/>
+      <c r="A170" s="126"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="126"/>
       <c r="D170" s="3" t="s">
         <v>396</v>
       </c>
@@ -8528,12 +8817,12 @@
       <c r="F170" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="G170" s="132"/>
+      <c r="G170" s="130"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="125"/>
-      <c r="B171" s="125"/>
-      <c r="C171" s="125"/>
+      <c r="A171" s="126"/>
+      <c r="B171" s="126"/>
+      <c r="C171" s="126"/>
       <c r="D171" s="5" t="s">
         <v>424</v>
       </c>
@@ -8543,12 +8832,12 @@
       <c r="F171" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G171" s="133"/>
+      <c r="G171" s="131"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="125"/>
-      <c r="B172" s="125"/>
-      <c r="C172" s="126"/>
+      <c r="A172" s="126"/>
+      <c r="B172" s="126"/>
+      <c r="C172" s="127"/>
       <c r="D172" s="5" t="s">
         <v>426</v>
       </c>
@@ -8559,8 +8848,8 @@
       <c r="G172" s="74"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="125"/>
-      <c r="B173" s="125"/>
+      <c r="A173" s="126"/>
+      <c r="B173" s="126"/>
       <c r="C173" s="75"/>
       <c r="D173" s="5"/>
       <c r="E173" s="4"/>
@@ -8572,8 +8861,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="125"/>
-      <c r="B174" s="125"/>
+      <c r="A174" s="126"/>
+      <c r="B174" s="126"/>
       <c r="C174" s="48" t="s">
         <v>370</v>
       </c>
@@ -8585,9 +8874,9 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="125"/>
-      <c r="B175" s="125"/>
-      <c r="C175" s="121" t="s">
+      <c r="A175" s="126"/>
+      <c r="B175" s="126"/>
+      <c r="C175" s="132" t="s">
         <v>627</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -8599,14 +8888,14 @@
       <c r="F175" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="G175" s="130" t="s">
+      <c r="G175" s="128" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="125"/>
-      <c r="B176" s="125"/>
-      <c r="C176" s="122"/>
+      <c r="A176" s="126"/>
+      <c r="B176" s="126"/>
+      <c r="C176" s="133"/>
       <c r="D176" s="3" t="s">
         <v>631</v>
       </c>
@@ -8616,12 +8905,12 @@
       <c r="F176" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="G176" s="131"/>
+      <c r="G176" s="129"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="125"/>
-      <c r="B177" s="125"/>
-      <c r="C177" s="122"/>
+      <c r="A177" s="126"/>
+      <c r="B177" s="126"/>
+      <c r="C177" s="133"/>
       <c r="D177" s="3" t="s">
         <v>635</v>
       </c>
@@ -8631,12 +8920,12 @@
       <c r="F177" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G177" s="131"/>
+      <c r="G177" s="129"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="125"/>
-      <c r="B178" s="125"/>
-      <c r="C178" s="125"/>
+      <c r="A178" s="126"/>
+      <c r="B178" s="126"/>
+      <c r="C178" s="126"/>
       <c r="D178" s="3" t="s">
         <v>637</v>
       </c>
@@ -8646,12 +8935,12 @@
       <c r="F178" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G178" s="132"/>
+      <c r="G178" s="130"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="125"/>
-      <c r="B179" s="125"/>
-      <c r="C179" s="125"/>
+      <c r="A179" s="126"/>
+      <c r="B179" s="126"/>
+      <c r="C179" s="126"/>
       <c r="D179" s="3" t="s">
         <v>643</v>
       </c>
@@ -8661,12 +8950,12 @@
       <c r="F179" s="101" t="s">
         <v>646</v>
       </c>
-      <c r="G179" s="132"/>
+      <c r="G179" s="130"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="125"/>
-      <c r="B180" s="125"/>
-      <c r="C180" s="125"/>
+      <c r="A180" s="126"/>
+      <c r="B180" s="126"/>
+      <c r="C180" s="126"/>
       <c r="D180" s="5" t="s">
         <v>647</v>
       </c>
@@ -8676,12 +8965,12 @@
       <c r="F180" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G180" s="132"/>
+      <c r="G180" s="130"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="126"/>
-      <c r="B181" s="126"/>
-      <c r="C181" s="126"/>
+      <c r="A181" s="127"/>
+      <c r="B181" s="127"/>
+      <c r="C181" s="127"/>
       <c r="D181" s="5" t="s">
         <v>648</v>
       </c>
@@ -8691,12 +8980,12 @@
       <c r="F181" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G181" s="133"/>
+      <c r="G181" s="131"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="100"/>
       <c r="B182" s="100"/>
-      <c r="C182" s="139" t="s">
+      <c r="C182" s="142" t="s">
         <v>649</v>
       </c>
       <c r="D182" s="5" t="s">
@@ -8708,14 +8997,14 @@
       <c r="F182" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G182" s="140" t="s">
+      <c r="G182" s="143" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="104"/>
       <c r="B183" s="104"/>
-      <c r="C183" s="126"/>
+      <c r="C183" s="127"/>
       <c r="D183" s="5" t="s">
         <v>656</v>
       </c>
@@ -8725,7 +9014,7 @@
       <c r="F183" s="105" t="s">
         <v>657</v>
       </c>
-      <c r="G183" s="133"/>
+      <c r="G183" s="131"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="104"/>
@@ -8743,13 +9032,13 @@
       <c r="G184" s="106"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="128" t="s">
+      <c r="A185" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="128" t="s">
+      <c r="B185" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="121" t="s">
+      <c r="C185" s="132" t="s">
         <v>470</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -8761,14 +9050,14 @@
       <c r="F185" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="G185" s="130" t="s">
+      <c r="G185" s="128" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="125"/>
-      <c r="B186" s="125"/>
-      <c r="C186" s="122"/>
+      <c r="A186" s="126"/>
+      <c r="B186" s="126"/>
+      <c r="C186" s="133"/>
       <c r="D186" s="5" t="s">
         <v>579</v>
       </c>
@@ -8778,12 +9067,12 @@
       <c r="F186" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="G186" s="132"/>
+      <c r="G186" s="130"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="125"/>
-      <c r="B187" s="125"/>
-      <c r="C187" s="125"/>
+      <c r="A187" s="126"/>
+      <c r="B187" s="126"/>
+      <c r="C187" s="126"/>
       <c r="D187" s="5" t="s">
         <v>600</v>
       </c>
@@ -8793,55 +9082,55 @@
       <c r="F187" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G187" s="132"/>
+      <c r="G187" s="130"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="125"/>
-      <c r="B188" s="125"/>
-      <c r="C188" s="125"/>
+      <c r="A188" s="126"/>
+      <c r="B188" s="126"/>
+      <c r="C188" s="126"/>
       <c r="D188" s="96" t="s">
         <v>581</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="88"/>
-      <c r="G188" s="132"/>
+      <c r="G188" s="130"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="125"/>
-      <c r="B189" s="125"/>
-      <c r="C189" s="125"/>
+      <c r="A189" s="126"/>
+      <c r="B189" s="126"/>
+      <c r="C189" s="126"/>
       <c r="D189" s="96" t="s">
         <v>582</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="88"/>
-      <c r="G189" s="132"/>
+      <c r="G189" s="130"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="125"/>
-      <c r="B190" s="125"/>
-      <c r="C190" s="125"/>
+      <c r="A190" s="126"/>
+      <c r="B190" s="126"/>
+      <c r="C190" s="126"/>
       <c r="D190" s="96" t="s">
         <v>583</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="88"/>
-      <c r="G190" s="132"/>
+      <c r="G190" s="130"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="125"/>
-      <c r="B191" s="125"/>
-      <c r="C191" s="125"/>
+      <c r="A191" s="126"/>
+      <c r="B191" s="126"/>
+      <c r="C191" s="126"/>
       <c r="D191" s="96" t="s">
         <v>584</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="88"/>
-      <c r="G191" s="132"/>
+      <c r="G191" s="130"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="125"/>
-      <c r="B192" s="125"/>
+      <c r="A192" s="126"/>
+      <c r="B192" s="126"/>
       <c r="C192" s="89"/>
       <c r="D192" s="96"/>
       <c r="E192" s="4"/>
@@ -8849,9 +9138,9 @@
       <c r="G192" s="92"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="125"/>
-      <c r="B193" s="125"/>
-      <c r="C193" s="128" t="s">
+      <c r="A193" s="126"/>
+      <c r="B193" s="126"/>
+      <c r="C193" s="123" t="s">
         <v>187</v>
       </c>
       <c r="D193" s="3" t="s">
@@ -8863,14 +9152,14 @@
       <c r="F193" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="G193" s="130" t="s">
+      <c r="G193" s="128" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="125"/>
-      <c r="B194" s="125"/>
-      <c r="C194" s="125"/>
+      <c r="A194" s="126"/>
+      <c r="B194" s="126"/>
+      <c r="C194" s="126"/>
       <c r="D194" s="3" t="s">
         <v>305</v>
       </c>
@@ -8880,12 +9169,12 @@
       <c r="F194" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G194" s="132"/>
+      <c r="G194" s="130"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="125"/>
-      <c r="B195" s="125"/>
-      <c r="C195" s="125"/>
+      <c r="A195" s="126"/>
+      <c r="B195" s="126"/>
+      <c r="C195" s="126"/>
       <c r="D195" s="3" t="s">
         <v>323</v>
       </c>
@@ -8895,12 +9184,12 @@
       <c r="F195" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G195" s="132"/>
+      <c r="G195" s="130"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="125"/>
-      <c r="B196" s="125"/>
-      <c r="C196" s="125"/>
+      <c r="A196" s="126"/>
+      <c r="B196" s="126"/>
+      <c r="C196" s="126"/>
       <c r="D196" s="3" t="s">
         <v>324</v>
       </c>
@@ -8910,12 +9199,12 @@
       <c r="F196" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G196" s="132"/>
+      <c r="G196" s="130"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="125"/>
-      <c r="B197" s="125"/>
-      <c r="C197" s="126"/>
+      <c r="A197" s="126"/>
+      <c r="B197" s="126"/>
+      <c r="C197" s="127"/>
       <c r="D197" s="3" t="s">
         <v>326</v>
       </c>
@@ -8925,11 +9214,11 @@
       <c r="F197" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G197" s="132"/>
+      <c r="G197" s="130"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="125"/>
-      <c r="B198" s="125"/>
+      <c r="A198" s="126"/>
+      <c r="B198" s="126"/>
       <c r="C198" s="77"/>
       <c r="D198" s="3" t="s">
         <v>554</v>
@@ -8940,11 +9229,11 @@
       <c r="F198" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G198" s="132"/>
+      <c r="G198" s="130"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="125"/>
-      <c r="B199" s="125"/>
+      <c r="A199" s="126"/>
+      <c r="B199" s="126"/>
       <c r="C199" s="113"/>
       <c r="D199" s="3" t="s">
         <v>713</v>
@@ -8958,8 +9247,8 @@
       <c r="G199" s="115"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="125"/>
-      <c r="B200" s="125"/>
+      <c r="A200" s="126"/>
+      <c r="B200" s="126"/>
       <c r="C200" s="113"/>
       <c r="D200" s="3" t="s">
         <v>714</v>
@@ -8973,8 +9262,8 @@
       <c r="G200" s="115"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="125"/>
-      <c r="B201" s="125"/>
+      <c r="A201" s="126"/>
+      <c r="B201" s="126"/>
       <c r="C201" s="84"/>
       <c r="D201" s="97"/>
       <c r="E201" s="4"/>
@@ -8982,8 +9271,8 @@
       <c r="G201" s="85"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="125"/>
-      <c r="B202" s="125"/>
+      <c r="A202" s="126"/>
+      <c r="B202" s="126"/>
       <c r="C202" s="86" t="s">
         <v>576</v>
       </c>
@@ -9001,8 +9290,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="125"/>
-      <c r="B203" s="125"/>
+      <c r="A203" s="126"/>
+      <c r="B203" s="126"/>
       <c r="C203" s="39" t="s">
         <v>327</v>
       </c>
@@ -9014,8 +9303,8 @@
       <c r="G203" s="85"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="125"/>
-      <c r="B204" s="125"/>
+      <c r="A204" s="126"/>
+      <c r="B204" s="126"/>
       <c r="C204" s="43" t="s">
         <v>328</v>
       </c>
@@ -9024,8 +9313,8 @@
       <c r="G204" s="41"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="125"/>
-      <c r="B205" s="125"/>
+      <c r="A205" s="126"/>
+      <c r="B205" s="126"/>
       <c r="C205" s="43" t="s">
         <v>329</v>
       </c>
@@ -9033,14 +9322,14 @@
       <c r="F205" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G205" s="128" t="s">
+      <c r="G205" s="123" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="125"/>
-      <c r="B206" s="125"/>
-      <c r="C206" s="128" t="s">
+      <c r="A206" s="126"/>
+      <c r="B206" s="126"/>
+      <c r="C206" s="123" t="s">
         <v>203</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -9052,12 +9341,12 @@
       <c r="F206" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G206" s="129"/>
+      <c r="G206" s="124"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="125"/>
-      <c r="B207" s="125"/>
-      <c r="C207" s="129"/>
+      <c r="A207" s="126"/>
+      <c r="B207" s="126"/>
+      <c r="C207" s="124"/>
       <c r="D207" s="3" t="s">
         <v>207</v>
       </c>
@@ -9067,12 +9356,12 @@
       <c r="F207" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G207" s="129"/>
+      <c r="G207" s="124"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="125"/>
-      <c r="B208" s="125"/>
-      <c r="C208" s="129"/>
+      <c r="A208" s="126"/>
+      <c r="B208" s="126"/>
+      <c r="C208" s="124"/>
       <c r="D208" s="3" t="s">
         <v>208</v>
       </c>
@@ -9082,14 +9371,14 @@
       <c r="F208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G208" s="128" t="s">
+      <c r="G208" s="123" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="125"/>
-      <c r="B209" s="125"/>
-      <c r="C209" s="128" t="s">
+      <c r="A209" s="126"/>
+      <c r="B209" s="126"/>
+      <c r="C209" s="123" t="s">
         <v>212</v>
       </c>
       <c r="D209" s="3" t="s">
@@ -9101,12 +9390,12 @@
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G209" s="129"/>
+      <c r="G209" s="124"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="125"/>
-      <c r="B210" s="125"/>
-      <c r="C210" s="129"/>
+      <c r="A210" s="126"/>
+      <c r="B210" s="126"/>
+      <c r="C210" s="124"/>
       <c r="D210" s="3" t="s">
         <v>210</v>
       </c>
@@ -9116,12 +9405,12 @@
       <c r="F210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G210" s="129"/>
+      <c r="G210" s="124"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="125"/>
-      <c r="B211" s="125"/>
-      <c r="C211" s="129"/>
+      <c r="A211" s="126"/>
+      <c r="B211" s="126"/>
+      <c r="C211" s="124"/>
       <c r="D211" s="3" t="s">
         <v>213</v>
       </c>
@@ -9131,12 +9420,12 @@
       <c r="F211" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="126"/>
+      <c r="G211" s="127"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="125"/>
-      <c r="B212" s="125"/>
-      <c r="C212" s="125"/>
+      <c r="A212" s="126"/>
+      <c r="B212" s="126"/>
+      <c r="C212" s="126"/>
       <c r="D212" s="3" t="s">
         <v>214</v>
       </c>
@@ -9148,9 +9437,9 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="125"/>
-      <c r="B213" s="125"/>
-      <c r="C213" s="125"/>
+      <c r="A213" s="126"/>
+      <c r="B213" s="126"/>
+      <c r="C213" s="126"/>
       <c r="D213" s="3" t="s">
         <v>215</v>
       </c>
@@ -9162,9 +9451,9 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="125"/>
-      <c r="B214" s="125"/>
-      <c r="C214" s="126"/>
+      <c r="A214" s="126"/>
+      <c r="B214" s="126"/>
+      <c r="C214" s="127"/>
       <c r="D214" s="3" t="s">
         <v>217</v>
       </c>
@@ -9173,9 +9462,9 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="125"/>
-      <c r="B215" s="125"/>
-      <c r="C215" s="128" t="s">
+      <c r="A215" s="126"/>
+      <c r="B215" s="126"/>
+      <c r="C215" s="123" t="s">
         <v>318</v>
       </c>
       <c r="D215" s="3" t="s">
@@ -9184,9 +9473,9 @@
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="125"/>
-      <c r="B216" s="125"/>
-      <c r="C216" s="146"/>
+      <c r="A216" s="126"/>
+      <c r="B216" s="126"/>
+      <c r="C216" s="125"/>
       <c r="D216" s="3" t="s">
         <v>320</v>
       </c>
@@ -9199,8 +9488,8 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="125"/>
-      <c r="B217" s="125"/>
+      <c r="A217" s="126"/>
+      <c r="B217" s="126"/>
       <c r="C217" s="40" t="s">
         <v>321</v>
       </c>
@@ -9212,9 +9501,9 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="125"/>
-      <c r="B218" s="125"/>
-      <c r="C218" s="121" t="s">
+      <c r="A218" s="126"/>
+      <c r="B218" s="126"/>
+      <c r="C218" s="132" t="s">
         <v>433</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -9226,14 +9515,14 @@
       <c r="F218" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="G218" s="130" t="s">
+      <c r="G218" s="128" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="125"/>
-      <c r="B219" s="125"/>
-      <c r="C219" s="125"/>
+      <c r="A219" s="126"/>
+      <c r="B219" s="126"/>
+      <c r="C219" s="126"/>
       <c r="D219" s="5" t="s">
         <v>585</v>
       </c>
@@ -9243,12 +9532,12 @@
       <c r="F219" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G219" s="132"/>
+      <c r="G219" s="130"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="125"/>
-      <c r="B220" s="125"/>
-      <c r="C220" s="126"/>
+      <c r="A220" s="126"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="127"/>
       <c r="D220" s="5" t="s">
         <v>587</v>
       </c>
@@ -9258,12 +9547,12 @@
       <c r="F220" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G220" s="133"/>
+      <c r="G220" s="131"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="125"/>
-      <c r="B221" s="125"/>
-      <c r="C221" s="121" t="s">
+      <c r="A221" s="126"/>
+      <c r="B221" s="126"/>
+      <c r="C221" s="132" t="s">
         <v>463</v>
       </c>
       <c r="D221" s="3" t="s">
@@ -9275,14 +9564,14 @@
       <c r="F221" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G221" s="134" t="s">
+      <c r="G221" s="137" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="125"/>
-      <c r="B222" s="125"/>
-      <c r="C222" s="122"/>
+      <c r="A222" s="126"/>
+      <c r="B222" s="126"/>
+      <c r="C222" s="133"/>
       <c r="D222" s="3" t="s">
         <v>466</v>
       </c>
@@ -9292,12 +9581,12 @@
       <c r="F222" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G222" s="135"/>
+      <c r="G222" s="138"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="125"/>
-      <c r="B223" s="125"/>
-      <c r="C223" s="126"/>
+      <c r="A223" s="126"/>
+      <c r="B223" s="126"/>
+      <c r="C223" s="127"/>
       <c r="D223" s="3" t="s">
         <v>467</v>
       </c>
@@ -9307,11 +9596,11 @@
       <c r="F223" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G223" s="133"/>
+      <c r="G223" s="131"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="126"/>
-      <c r="B224" s="126"/>
+      <c r="A224" s="127"/>
+      <c r="B224" s="127"/>
       <c r="C224" s="95" t="s">
         <v>589</v>
       </c>
@@ -9329,10 +9618,10 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="121" t="s">
+      <c r="A225" s="132" t="s">
         <v>645</v>
       </c>
-      <c r="B225" s="121" t="s">
+      <c r="B225" s="132" t="s">
         <v>644</v>
       </c>
       <c r="C225" s="33" t="s">
@@ -9352,8 +9641,8 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="126"/>
-      <c r="B226" s="126"/>
+      <c r="A226" s="127"/>
+      <c r="B226" s="127"/>
       <c r="C226" s="33" t="s">
         <v>293</v>
       </c>
@@ -9365,13 +9654,13 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="121" t="s">
+      <c r="A227" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="B227" s="128" t="s">
+      <c r="B227" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="C227" s="128" t="s">
+      <c r="C227" s="123" t="s">
         <v>307</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -9383,14 +9672,14 @@
       <c r="F227" s="98" t="s">
         <v>618</v>
       </c>
-      <c r="G227" s="130" t="s">
+      <c r="G227" s="128" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="125"/>
-      <c r="B228" s="125"/>
-      <c r="C228" s="129"/>
+      <c r="A228" s="126"/>
+      <c r="B228" s="126"/>
+      <c r="C228" s="124"/>
       <c r="D228" s="5" t="s">
         <v>623</v>
       </c>
@@ -9400,12 +9689,12 @@
       <c r="F228" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G228" s="131"/>
+      <c r="G228" s="129"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="125"/>
-      <c r="B229" s="125"/>
-      <c r="C229" s="125"/>
+      <c r="A229" s="126"/>
+      <c r="B229" s="126"/>
+      <c r="C229" s="126"/>
       <c r="D229" s="5" t="s">
         <v>624</v>
       </c>
@@ -9415,12 +9704,12 @@
       <c r="F229" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G229" s="131"/>
+      <c r="G229" s="129"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="125"/>
-      <c r="B230" s="125"/>
-      <c r="C230" s="126"/>
+      <c r="A230" s="126"/>
+      <c r="B230" s="126"/>
+      <c r="C230" s="127"/>
       <c r="D230" s="5" t="s">
         <v>626</v>
       </c>
@@ -9430,12 +9719,12 @@
       <c r="F230" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="G230" s="133"/>
+      <c r="G230" s="131"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="125"/>
-      <c r="B231" s="125"/>
-      <c r="C231" s="128" t="s">
+      <c r="A231" s="126"/>
+      <c r="B231" s="126"/>
+      <c r="C231" s="123" t="s">
         <v>309</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -9447,14 +9736,14 @@
       <c r="F231" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="G231" s="130" t="s">
+      <c r="G231" s="128" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="125"/>
-      <c r="B232" s="125"/>
-      <c r="C232" s="146"/>
+      <c r="A232" s="126"/>
+      <c r="B232" s="126"/>
+      <c r="C232" s="125"/>
       <c r="D232" s="5" t="s">
         <v>632</v>
       </c>
@@ -9464,12 +9753,12 @@
       <c r="F232" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="G232" s="138"/>
+      <c r="G232" s="141"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="125"/>
-      <c r="B233" s="125"/>
-      <c r="C233" s="128" t="s">
+      <c r="A233" s="126"/>
+      <c r="B233" s="126"/>
+      <c r="C233" s="123" t="s">
         <v>310</v>
       </c>
       <c r="D233" s="3" t="s">
@@ -9477,16 +9766,16 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="125"/>
-      <c r="B234" s="125"/>
-      <c r="C234" s="146"/>
+      <c r="A234" s="126"/>
+      <c r="B234" s="126"/>
+      <c r="C234" s="125"/>
       <c r="D234" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="125"/>
-      <c r="B235" s="125"/>
+      <c r="A235" s="126"/>
+      <c r="B235" s="126"/>
       <c r="C235" s="2" t="s">
         <v>559</v>
       </c>
@@ -9504,9 +9793,9 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="125"/>
-      <c r="B236" s="125"/>
-      <c r="C236" s="121" t="s">
+      <c r="A236" s="126"/>
+      <c r="B236" s="126"/>
+      <c r="C236" s="132" t="s">
         <v>664</v>
       </c>
       <c r="D236" s="5" t="s">
@@ -9518,14 +9807,14 @@
       <c r="F236" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="130" t="s">
+      <c r="G236" s="128" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="125"/>
-      <c r="B237" s="125"/>
-      <c r="C237" s="125"/>
+      <c r="A237" s="126"/>
+      <c r="B237" s="126"/>
+      <c r="C237" s="126"/>
       <c r="D237" s="5" t="s">
         <v>668</v>
       </c>
@@ -9535,12 +9824,12 @@
       <c r="F237" s="108" t="s">
         <v>667</v>
       </c>
-      <c r="G237" s="131"/>
+      <c r="G237" s="129"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="125"/>
-      <c r="B238" s="125"/>
-      <c r="C238" s="125"/>
+      <c r="A238" s="126"/>
+      <c r="B238" s="126"/>
+      <c r="C238" s="126"/>
       <c r="D238" s="5" t="s">
         <v>669</v>
       </c>
@@ -9550,12 +9839,12 @@
       <c r="F238" s="108" t="s">
         <v>667</v>
       </c>
-      <c r="G238" s="131"/>
+      <c r="G238" s="129"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="125"/>
-      <c r="B239" s="125"/>
-      <c r="C239" s="125"/>
+      <c r="A239" s="126"/>
+      <c r="B239" s="126"/>
+      <c r="C239" s="126"/>
       <c r="D239" s="5" t="s">
         <v>700</v>
       </c>
@@ -9565,12 +9854,12 @@
       <c r="F239" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="G239" s="131"/>
+      <c r="G239" s="129"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="126"/>
-      <c r="B240" s="126"/>
-      <c r="C240" s="126"/>
+      <c r="A240" s="127"/>
+      <c r="B240" s="127"/>
+      <c r="C240" s="127"/>
       <c r="D240" s="5" t="s">
         <v>702</v>
       </c>
@@ -9580,7 +9869,7 @@
       <c r="F240" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="G240" s="138"/>
+      <c r="G240" s="141"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="63" t="s">
@@ -9603,13 +9892,13 @@
       </c>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="128" t="s">
+      <c r="A243" s="123" t="s">
         <v>448</v>
       </c>
-      <c r="B243" s="128" t="s">
+      <c r="B243" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="C243" s="128" t="s">
+      <c r="C243" s="123" t="s">
         <v>449</v>
       </c>
       <c r="D243" s="3" t="s">
@@ -9621,14 +9910,14 @@
       <c r="F243" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G243" s="130" t="s">
+      <c r="G243" s="128" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="129"/>
-      <c r="B244" s="129"/>
-      <c r="C244" s="129"/>
+      <c r="A244" s="124"/>
+      <c r="B244" s="124"/>
+      <c r="C244" s="124"/>
       <c r="D244" s="3" t="s">
         <v>452</v>
       </c>
@@ -9638,12 +9927,12 @@
       <c r="F244" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G244" s="131"/>
+      <c r="G244" s="129"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="129"/>
-      <c r="B245" s="129"/>
-      <c r="C245" s="129"/>
+      <c r="A245" s="124"/>
+      <c r="B245" s="124"/>
+      <c r="C245" s="124"/>
       <c r="D245" s="3" t="s">
         <v>453</v>
       </c>
@@ -9653,12 +9942,12 @@
       <c r="F245" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G245" s="131"/>
+      <c r="G245" s="129"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="129"/>
-      <c r="B246" s="129"/>
-      <c r="C246" s="125"/>
+      <c r="A246" s="124"/>
+      <c r="B246" s="124"/>
+      <c r="C246" s="126"/>
       <c r="D246" s="3" t="s">
         <v>462</v>
       </c>
@@ -9668,12 +9957,12 @@
       <c r="F246" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G246" s="132"/>
+      <c r="G246" s="130"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="129"/>
-      <c r="B247" s="129"/>
-      <c r="C247" s="126"/>
+      <c r="A247" s="124"/>
+      <c r="B247" s="124"/>
+      <c r="C247" s="127"/>
       <c r="D247" s="3" t="s">
         <v>563</v>
       </c>
@@ -9683,12 +9972,12 @@
       <c r="F247" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G247" s="133"/>
+      <c r="G247" s="131"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="125"/>
-      <c r="B248" s="125"/>
-      <c r="C248" s="121" t="s">
+      <c r="A248" s="126"/>
+      <c r="B248" s="126"/>
+      <c r="C248" s="132" t="s">
         <v>456</v>
       </c>
       <c r="D248" s="3" t="s">
@@ -9700,14 +9989,14 @@
       <c r="F248" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G248" s="130" t="s">
+      <c r="G248" s="128" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="125"/>
-      <c r="B249" s="125"/>
-      <c r="C249" s="125"/>
+      <c r="A249" s="126"/>
+      <c r="B249" s="126"/>
+      <c r="C249" s="126"/>
       <c r="D249" s="3" t="s">
         <v>460</v>
       </c>
@@ -9717,12 +10006,12 @@
       <c r="F249" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G249" s="131"/>
+      <c r="G249" s="129"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="125"/>
-      <c r="B250" s="125"/>
-      <c r="C250" s="125"/>
+      <c r="A250" s="126"/>
+      <c r="B250" s="126"/>
+      <c r="C250" s="126"/>
       <c r="D250" s="3" t="s">
         <v>461</v>
       </c>
@@ -9732,12 +10021,12 @@
       <c r="F250" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G250" s="131"/>
+      <c r="G250" s="129"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="126"/>
-      <c r="B251" s="126"/>
-      <c r="C251" s="126"/>
+      <c r="A251" s="127"/>
+      <c r="B251" s="127"/>
+      <c r="C251" s="127"/>
       <c r="D251" s="3" t="s">
         <v>564</v>
       </c>
@@ -9747,7 +10036,7 @@
       <c r="F251" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G251" s="133"/>
+      <c r="G251" s="131"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
@@ -9772,8 +10061,103 @@
         <v>606</v>
       </c>
     </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="B253" s="121" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="132" t="s">
+        <v>753</v>
+      </c>
+      <c r="B254" s="132" t="s">
+        <v>750</v>
+      </c>
+      <c r="C254" s="132" t="s">
+        <v>752</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E254" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F254" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="G254" s="128" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="126"/>
+      <c r="B255" s="126"/>
+      <c r="C255" s="126"/>
+      <c r="D255" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E255" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F255" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G255" s="129"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="126"/>
+      <c r="B256" s="126"/>
+      <c r="C256" s="126"/>
+      <c r="D256" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="E256" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F256" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G256" s="129"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="126"/>
+      <c r="B257" s="126"/>
+      <c r="C257" s="126"/>
+      <c r="D257" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E257" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F257" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G257" s="129"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="127"/>
+      <c r="B258" s="127"/>
+      <c r="C258" s="127"/>
+      <c r="D258" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E258" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F258" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G258" s="141"/>
+    </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="113">
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="G254:G258"/>
+    <mergeCell ref="A254:A258"/>
     <mergeCell ref="C248:C251"/>
     <mergeCell ref="B243:B251"/>
     <mergeCell ref="G227:G230"/>
@@ -9831,8 +10215,6 @@
     <mergeCell ref="G90:G95"/>
     <mergeCell ref="G96:G99"/>
     <mergeCell ref="C96:C100"/>
-    <mergeCell ref="G150:G157"/>
-    <mergeCell ref="G139:G148"/>
     <mergeCell ref="C150:C157"/>
     <mergeCell ref="B76:B84"/>
     <mergeCell ref="G110:G114"/>
@@ -9883,6 +10265,8 @@
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G150:G157"/>
+    <mergeCell ref="G139:G148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9893,10 +10277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9918,10 +10302,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="146" t="s">
         <v>608</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -9933,13 +10317,13 @@
       <c r="E2" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="151" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="18" t="s">
         <v>677</v>
       </c>
@@ -9949,11 +10333,11 @@
       <c r="E3" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F3" s="150"/>
+      <c r="F3" s="152"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="18" t="s">
         <v>679</v>
       </c>
@@ -9963,11 +10347,11 @@
       <c r="E4" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F4" s="150"/>
+      <c r="F4" s="152"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="18" t="s">
         <v>681</v>
       </c>
@@ -9977,11 +10361,11 @@
       <c r="E5" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F5" s="150"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="29" t="s">
         <v>680</v>
       </c>
@@ -9991,13 +10375,13 @@
       <c r="E6" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="153"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="158" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -10009,13 +10393,13 @@
       <c r="E7" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="154" t="s">
+      <c r="F7" s="156" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="157"/>
-      <c r="B8" s="157"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="18" t="s">
         <v>233</v>
       </c>
@@ -10025,11 +10409,11 @@
       <c r="E8" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="157"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="29" t="s">
         <v>235</v>
       </c>
@@ -10039,11 +10423,11 @@
       <c r="E9" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="155"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="29" t="s">
         <v>237</v>
       </c>
@@ -10053,13 +10437,13 @@
       <c r="E10" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="155"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="142" t="s">
         <v>720</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -10071,21 +10455,21 @@
       <c r="E11" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="143" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="130"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="125"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="29" t="s">
         <v>727</v>
       </c>
@@ -10095,11 +10479,11 @@
       <c r="E13" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="29" t="s">
         <v>730</v>
       </c>
@@ -10109,11 +10493,11 @@
       <c r="E14" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="29" t="s">
         <v>728</v>
       </c>
@@ -10123,11 +10507,11 @@
       <c r="E15" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="29" t="s">
         <v>729</v>
       </c>
@@ -10137,29 +10521,29 @@
       <c r="E16" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F16" s="132"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="110" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="110" t="s">
         <v>723</v>
       </c>
-      <c r="F18" s="133"/>
+      <c r="F18" s="131"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="146" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="146" t="s">
         <v>609</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -10171,13 +10555,13 @@
       <c r="E19" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F19" s="149" t="s">
+      <c r="F19" s="151" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="18" t="s">
         <v>614</v>
       </c>
@@ -10187,11 +10571,11 @@
       <c r="E20" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F20" s="150"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="18" t="s">
         <v>615</v>
       </c>
@@ -10201,11 +10585,11 @@
       <c r="E21" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F21" s="150"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="18" t="s">
         <v>616</v>
       </c>
@@ -10215,11 +10599,11 @@
       <c r="E22" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="150"/>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="18" t="s">
         <v>617</v>
       </c>
@@ -10229,13 +10613,13 @@
       <c r="E23" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="F23" s="151"/>
+      <c r="F23" s="153"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="146" t="s">
         <v>670</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -10247,13 +10631,13 @@
       <c r="E24" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="F24" s="149" t="s">
+      <c r="F24" s="151" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="18" t="s">
         <v>673</v>
       </c>
@@ -10263,13 +10647,13 @@
       <c r="E25" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="F25" s="151"/>
+      <c r="F25" s="153"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="142" t="s">
         <v>683</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -10281,13 +10665,13 @@
       <c r="E26" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="143" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="153"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="18" t="s">
         <v>688</v>
       </c>
@@ -10297,11 +10681,11 @@
       <c r="E27" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F27" s="132"/>
+      <c r="F27" s="130"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="153"/>
-      <c r="B28" s="153"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="18" t="s">
         <v>689</v>
       </c>
@@ -10311,11 +10695,11 @@
       <c r="E28" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F28" s="132"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="153"/>
-      <c r="B29" s="153"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="18" t="s">
         <v>690</v>
       </c>
@@ -10325,42 +10709,41 @@
       <c r="E29" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F29" s="133"/>
+      <c r="F29" s="130"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="110" t="s">
         <v>691</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="28"/>
+      <c r="F30" s="130"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="139" t="s">
+      <c r="A31" s="127"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="D31" s="17">
+        <v>43836</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="F31" s="131"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="B31" s="139" t="s">
+      <c r="B32" s="142" t="s">
         <v>684</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>692</v>
-      </c>
-      <c r="D31" s="17">
-        <v>43829</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="F31" s="149" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="18" t="s">
-        <v>695</v>
       </c>
       <c r="D32" s="17">
         <v>43829</v>
@@ -10368,27 +10751,29 @@
       <c r="E32" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F32" s="151"/>
+      <c r="F32" s="151" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="18" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="D33" s="17">
-        <v>43830</v>
+        <v>43829</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="F33" s="112"/>
+        <v>693</v>
+      </c>
+      <c r="F33" s="153"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="111"/>
       <c r="B34" s="111"/>
       <c r="C34" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D34" s="17">
         <v>43830</v>
@@ -10399,58 +10784,72 @@
       <c r="F34" s="112"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="117"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="18" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D35" s="17">
-        <v>43831</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="F35" s="116"/>
+        <v>43830</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F35" s="112"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="117"/>
       <c r="B36" s="117"/>
       <c r="C36" s="18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D36" s="17">
         <v>43831</v>
       </c>
       <c r="E36" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="F36" s="116"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D37" s="17">
+        <v>43831</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="F36" s="116"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>685</v>
-      </c>
+      <c r="F37" s="116"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B39" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <v>43829</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E39" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>699</v>
       </c>
     </row>
@@ -10468,15 +10867,15 @@
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="F26:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10505,13 +10904,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="146" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="146" t="s">
         <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -10524,13 +10923,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="127" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -10560,7 +10959,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="142" t="s">
         <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -10568,25 +10967,25 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="153"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="152"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="158" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -10594,33 +10993,33 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="157"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
       <c r="D9" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
       <c r="D11" s="16" t="s">
         <v>152</v>
       </c>
@@ -10628,7 +11027,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="142" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -10638,7 +11037,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="153"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -10646,7 +11045,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="152"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -10660,10 +11059,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="146" t="s">
         <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -10683,8 +11082,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="15" t="s">
         <v>273</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="软件技术" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="788">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3487,6 +3487,126 @@
   </si>
   <si>
     <t>RD-诺基亚1600电路图.pdf</t>
+  </si>
+  <si>
+    <t>滤波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-一阶RC低通滤波器.pdf</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\3-传感测量\10-滤波器</t>
+  </si>
+  <si>
+    <t>RD-一文看懂压敏电阻和TVS的区别.pdf</t>
+  </si>
+  <si>
+    <t>RD-四双向静电放电保护阵列ESDA14V2-4BF2.pdf</t>
+  </si>
+  <si>
+    <t>RD-诺基亚3110c_RM-237原厂图纸.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ND</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-小米M1 原理图.pdf</t>
+  </si>
+  <si>
+    <t>RD-苹果iPhone4原理图.pdf</t>
+  </si>
+  <si>
+    <t>RD-TVS瞬态抑制二极管选型手册.pdf</t>
+  </si>
+  <si>
+    <t>RD-SMAJ系列贴片瞬态抑制二极管.pdf</t>
+  </si>
+  <si>
+    <t>音频类原理图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-CM108-USB声卡电路图.pdf</t>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\2-硬件技术\10-原理图大汇总\音频类原理图</t>
+  </si>
+  <si>
+    <t>RD-CM108+TDA1543-USB声卡+耳机放大.pdf</t>
+  </si>
+  <si>
+    <t>Beginning JSON.pdf</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building WSN with MQTT, RPi&amp; Arduino.pdf</t>
+  </si>
+  <si>
+    <t>MQ_Telemetry_Transport_Programming.pdf</t>
+  </si>
+  <si>
+    <t>MQTT 3.1.1 中文版.pdf</t>
+  </si>
+  <si>
+    <t>MQTT communication protocol.pdf</t>
+  </si>
+  <si>
+    <t>MQTT connecting the Internet of Things - GUIDE Share France.pdf</t>
+  </si>
+  <si>
+    <t>MQTT Essentials - A Lightweight IoT Protocol.pdf</t>
+  </si>
+  <si>
+    <t>MQTT MQ Telemetry Transport indigoo.com MQTT.pdf</t>
+  </si>
+  <si>
+    <t>MQTT, Adafruit IO &amp; You!.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MQTT_Topics_and_JSON_Data_Format.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\1-软件技术\7-通信协议\MQTT</t>
   </si>
 </sst>
 </file>
@@ -3601,7 +3721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3894,9 +4014,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3940,84 +4057,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4027,18 +4165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4048,24 +4174,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4361,10 +4492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:A120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4380,15 +4511,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -4454,19 +4585,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="125" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="135" t="s">
@@ -4486,8 +4617,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="135"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
@@ -4503,8 +4634,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="135"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
@@ -4520,8 +4651,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="135"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -4537,8 +4668,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="135"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
@@ -4554,8 +4685,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="83"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -4563,9 +4694,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="132" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="125" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4577,14 +4708,14 @@
       <c r="F12" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="130" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="133"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
@@ -4594,12 +4725,12 @@
       <c r="F13" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="131"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="133"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
@@ -4609,12 +4740,12 @@
       <c r="F14" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="131"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
@@ -4624,16 +4755,16 @@
       <c r="F15" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -4668,13 +4799,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="125" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="125" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="125" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4686,25 +4817,25 @@
       <c r="F19" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="130" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="138"/>
+      <c r="G20" s="131"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
@@ -4714,12 +4845,12 @@
       <c r="F21" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="131"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
@@ -4729,12 +4860,12 @@
       <c r="F22" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="131"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
@@ -4744,12 +4875,12 @@
       <c r="F23" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="130"/>
+      <c r="G23" s="137"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
@@ -4759,12 +4890,12 @@
       <c r="F24" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="130"/>
+      <c r="G24" s="137"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
@@ -4774,12 +4905,12 @@
       <c r="F25" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="130"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
@@ -4789,12 +4920,12 @@
       <c r="F26" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="130"/>
+      <c r="G26" s="137"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
@@ -4804,12 +4935,12 @@
       <c r="F27" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="130"/>
+      <c r="G27" s="137"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
@@ -4819,12 +4950,12 @@
       <c r="F28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="130"/>
+      <c r="G28" s="137"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
@@ -4834,12 +4965,12 @@
       <c r="F29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="130"/>
+      <c r="G29" s="137"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
@@ -4849,12 +4980,12 @@
       <c r="F30" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="130"/>
+      <c r="G30" s="137"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
@@ -4864,12 +4995,12 @@
       <c r="F31" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="130"/>
+      <c r="G31" s="137"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
@@ -4879,12 +5010,12 @@
       <c r="F32" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="130"/>
+      <c r="G32" s="137"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
@@ -4894,7 +5025,7 @@
       <c r="F33" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="131"/>
+      <c r="G33" s="136"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="56"/>
@@ -4924,7 +5055,7 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="137" t="s">
+      <c r="G35" s="130" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4941,7 +5072,7 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="138"/>
+      <c r="G36" s="131"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
       <c r="A37" s="135"/>
@@ -4956,7 +5087,7 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="138"/>
+      <c r="G37" s="131"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
       <c r="A38" s="135"/>
@@ -4971,7 +5102,7 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="138"/>
+      <c r="G38" s="131"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="60"/>
@@ -4986,7 +5117,7 @@
       <c r="F39" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="139"/>
+      <c r="G39" s="132"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -4998,13 +5129,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="132" t="s">
+      <c r="B41" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="132" t="s">
+      <c r="C41" s="125" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5016,14 +5147,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="137" t="s">
+      <c r="G41" s="130" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="133"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -5033,7 +5164,7 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="138"/>
+      <c r="G42" s="131"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
       <c r="A43" s="57"/>
@@ -5048,7 +5179,7 @@
       <c r="F43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="139"/>
+      <c r="G43" s="132"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -5060,13 +5191,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="132" t="s">
+      <c r="C45" s="125" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -5078,14 +5209,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="137" t="s">
+      <c r="G45" s="130" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="126"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -5095,23 +5226,23 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="138"/>
+      <c r="G46" s="131"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="126"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="138"/>
+      <c r="G47" s="131"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="126"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
+      <c r="A48" s="128"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
@@ -5121,12 +5252,12 @@
       <c r="F48" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="138"/>
+      <c r="G48" s="131"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="127"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
+      <c r="A49" s="129"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
@@ -5136,22 +5267,22 @@
       <c r="F49" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="131"/>
+      <c r="G49" s="136"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="136"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="125" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -5171,8 +5302,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -5180,9 +5311,9 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="132" t="s">
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="125" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5199,9 +5330,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="126"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -5214,9 +5345,9 @@
       <c r="G54" s="135"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="133"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="126"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -5229,9 +5360,9 @@
       <c r="G55" s="135"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="133"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="126"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -5244,9 +5375,9 @@
       <c r="G56" s="135"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="133"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -5259,9 +5390,9 @@
       <c r="G57" s="135"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="133"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -5274,9 +5405,9 @@
       <c r="G58" s="135"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="126"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -5285,9 +5416,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="126"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="127"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -5296,8 +5427,8 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="126"/>
-      <c r="B61" s="126"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="45"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -5305,9 +5436,9 @@
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="132" t="s">
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="125" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5319,25 +5450,25 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="137" t="s">
+      <c r="G62" s="130" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="126"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="133"/>
+      <c r="A63" s="128"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="138"/>
+      <c r="G63" s="131"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
+      <c r="A64" s="128"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="128"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
@@ -5347,12 +5478,12 @@
       <c r="F64" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="138"/>
+      <c r="G64" s="131"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="126"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="128"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
@@ -5362,12 +5493,12 @@
       <c r="F65" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="138"/>
+      <c r="G65" s="131"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="126"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="127"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
@@ -5377,11 +5508,11 @@
       <c r="F66" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="139"/>
+      <c r="G66" s="132"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="126"/>
-      <c r="B67" s="126"/>
+      <c r="A67" s="128"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="45"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
@@ -5389,8 +5520,8 @@
       <c r="G67" s="45"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="126"/>
-      <c r="B68" s="126"/>
+      <c r="A68" s="128"/>
+      <c r="B68" s="128"/>
       <c r="C68" s="45" t="s">
         <v>343</v>
       </c>
@@ -5402,8 +5533,8 @@
       <c r="G68" s="45"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="126"/>
-      <c r="B69" s="126"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="128"/>
       <c r="C69" s="51"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -5411,9 +5542,9 @@
       <c r="G69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="126"/>
-      <c r="B70" s="126"/>
-      <c r="C70" s="132" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="125" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -5425,14 +5556,14 @@
       <c r="F70" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="137" t="s">
+      <c r="G70" s="130" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="126"/>
-      <c r="B71" s="126"/>
-      <c r="C71" s="133"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="126"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
@@ -5442,12 +5573,12 @@
       <c r="F71" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="138"/>
+      <c r="G71" s="131"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="126"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="126"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="128"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
@@ -5457,12 +5588,12 @@
       <c r="F72" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="138"/>
+      <c r="G72" s="131"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="126"/>
-      <c r="B73" s="126"/>
-      <c r="C73" s="126"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="128"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
@@ -5472,12 +5603,12 @@
       <c r="F73" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="130"/>
+      <c r="G73" s="137"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="127"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="126"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="128"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
@@ -5487,12 +5618,12 @@
       <c r="F74" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="130"/>
+      <c r="G74" s="137"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
-      <c r="C75" s="127"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
@@ -5502,7 +5633,7 @@
       <c r="F75" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="131"/>
+      <c r="G75" s="136"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -5514,10 +5645,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="132" t="s">
+      <c r="B77" s="125" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -5537,9 +5668,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="126"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="132" t="s">
+      <c r="A78" s="128"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="125" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5551,14 +5682,14 @@
       <c r="F78" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="137" t="s">
+      <c r="G78" s="130" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="126"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="127"/>
+      <c r="A79" s="128"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="129"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
@@ -5568,12 +5699,12 @@
       <c r="F79" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="139"/>
+      <c r="G79" s="132"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="126"/>
-      <c r="B80" s="126"/>
-      <c r="C80" s="132" t="s">
+      <c r="A80" s="128"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="125" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5585,14 +5716,14 @@
       <c r="F80" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="137" t="s">
+      <c r="G80" s="130" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="126"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="133"/>
+      <c r="A81" s="128"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
@@ -5602,12 +5733,12 @@
       <c r="F81" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="138"/>
+      <c r="G81" s="131"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="126"/>
-      <c r="B82" s="126"/>
-      <c r="C82" s="126"/>
+      <c r="A82" s="128"/>
+      <c r="B82" s="128"/>
+      <c r="C82" s="128"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
@@ -5617,12 +5748,12 @@
       <c r="F82" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="138"/>
+      <c r="G82" s="131"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="126"/>
-      <c r="B83" s="126"/>
-      <c r="C83" s="127"/>
+      <c r="A83" s="128"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="129"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
@@ -5632,12 +5763,12 @@
       <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="131"/>
+      <c r="G83" s="136"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="127"/>
-      <c r="B84" s="126"/>
-      <c r="C84" s="132" t="s">
+      <c r="A84" s="129"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="125" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5651,8 +5782,8 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="55"/>
-      <c r="B85" s="127"/>
-      <c r="C85" s="134"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="127"/>
       <c r="D85" s="68" t="s">
         <v>482</v>
       </c>
@@ -5663,22 +5794,22 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="136"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="132" t="s">
+      <c r="A87" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="132" t="s">
+      <c r="B87" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="123" t="s">
+      <c r="C87" s="138" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5690,14 +5821,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="128" t="s">
+      <c r="G87" s="140" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="133"/>
-      <c r="B88" s="133"/>
-      <c r="C88" s="124"/>
+      <c r="A88" s="126"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="139"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5707,12 +5838,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="129"/>
+      <c r="G88" s="141"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="133"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="126"/>
+      <c r="B89" s="126"/>
+      <c r="C89" s="139"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5722,12 +5853,12 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="129"/>
+      <c r="G89" s="141"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="126"/>
+      <c r="A90" s="126"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="128"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
@@ -5737,12 +5868,12 @@
       <c r="F90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="130"/>
+      <c r="G90" s="137"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="133"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="126"/>
+      <c r="A91" s="126"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="128"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
@@ -5752,12 +5883,12 @@
       <c r="F91" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="130"/>
+      <c r="G91" s="137"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="133"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="126"/>
+      <c r="A92" s="126"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="128"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
@@ -5767,12 +5898,12 @@
       <c r="F92" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="130"/>
+      <c r="G92" s="137"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="133"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="127"/>
+      <c r="A93" s="126"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
@@ -5782,11 +5913,11 @@
       <c r="F93" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="131"/>
+      <c r="G93" s="136"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="133"/>
-      <c r="B94" s="133"/>
+      <c r="A94" s="126"/>
+      <c r="B94" s="126"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5804,9 +5935,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="133"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="132" t="s">
+      <c r="A95" s="126"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="125" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5823,9 +5954,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="134"/>
+      <c r="A96" s="126"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="127"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5834,8 +5965,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="133"/>
-      <c r="B97" s="133"/>
+      <c r="A97" s="126"/>
+      <c r="B97" s="126"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5853,9 +5984,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="126"/>
-      <c r="B98" s="126"/>
-      <c r="C98" s="132" t="s">
+      <c r="A98" s="128"/>
+      <c r="B98" s="128"/>
+      <c r="C98" s="125" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5866,9 +5997,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="126"/>
-      <c r="B99" s="126"/>
-      <c r="C99" s="133"/>
+      <c r="A99" s="128"/>
+      <c r="B99" s="128"/>
+      <c r="C99" s="126"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5877,9 +6008,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="126"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="134"/>
+      <c r="A100" s="128"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -5888,8 +6019,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="127"/>
-      <c r="B101" s="127"/>
+      <c r="A101" s="129"/>
+      <c r="B101" s="129"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -5907,19 +6038,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="136"/>
-      <c r="B102" s="136"/>
-      <c r="C102" s="136"/>
-      <c r="D102" s="136"/>
-      <c r="E102" s="136"/>
-      <c r="F102" s="136"/>
-      <c r="G102" s="136"/>
+      <c r="A102" s="134"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="134"/>
+      <c r="F102" s="134"/>
+      <c r="G102" s="134"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="132" t="s">
+      <c r="A103" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="132" t="s">
+      <c r="B103" s="125" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -5937,8 +6068,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="133"/>
-      <c r="B104" s="133"/>
+      <c r="A104" s="126"/>
+      <c r="B104" s="126"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -5954,8 +6085,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="133"/>
-      <c r="B105" s="133"/>
+      <c r="A105" s="126"/>
+      <c r="B105" s="126"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -5973,8 +6104,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="133"/>
-      <c r="B106" s="133"/>
+      <c r="A106" s="126"/>
+      <c r="B106" s="126"/>
       <c r="C106" s="135" t="s">
         <v>193</v>
       </c>
@@ -5988,8 +6119,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="133"/>
-      <c r="B107" s="133"/>
+      <c r="A107" s="126"/>
+      <c r="B107" s="126"/>
       <c r="C107" s="135"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
@@ -5999,13 +6130,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="132" t="s">
+      <c r="A109" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="132" t="s">
+      <c r="B109" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="132" t="s">
+      <c r="C109" s="125" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -6017,14 +6148,14 @@
       <c r="F109" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G109" s="137" t="s">
+      <c r="G109" s="130" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="133"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="133"/>
+      <c r="A110" s="128"/>
+      <c r="B110" s="128"/>
+      <c r="C110" s="126"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -6034,12 +6165,12 @@
       <c r="F110" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G110" s="130"/>
+      <c r="G110" s="137"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="133"/>
-      <c r="B111" s="133"/>
-      <c r="C111" s="133"/>
+      <c r="A111" s="128"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="126"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -6049,12 +6180,12 @@
       <c r="F111" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G111" s="130"/>
+      <c r="G111" s="137"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="133"/>
-      <c r="B112" s="133"/>
-      <c r="C112" s="133"/>
+      <c r="A112" s="128"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="126"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -6064,148 +6195,302 @@
       <c r="F112" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G112" s="131"/>
+      <c r="G112" s="136"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="123" t="s">
+      <c r="A113" s="128"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="125" t="s">
+        <v>777</v>
+      </c>
+      <c r="D113" s="109" t="s">
+        <v>776</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="124"/>
+      <c r="G113" s="140" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="128"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="109" t="s">
+        <v>778</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="124"/>
+      <c r="G114" s="141"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="128"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="128"/>
+      <c r="D115" s="109" t="s">
+        <v>779</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="124"/>
+      <c r="G115" s="141"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="128"/>
+      <c r="B116" s="128"/>
+      <c r="C116" s="128"/>
+      <c r="D116" s="109" t="s">
+        <v>780</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="124"/>
+      <c r="G116" s="141"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="128"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="128"/>
+      <c r="D117" s="109" t="s">
+        <v>781</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="124"/>
+      <c r="G117" s="141"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="128"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="124"/>
+      <c r="G118" s="141"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="128"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="128"/>
+      <c r="D119" s="109" t="s">
+        <v>783</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="124"/>
+      <c r="G119" s="141"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="128"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="128"/>
+      <c r="D120" s="109" t="s">
+        <v>784</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="124"/>
+      <c r="G120" s="141"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="128"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="128"/>
+      <c r="D121" s="109" t="s">
+        <v>785</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="124"/>
+      <c r="G121" s="141"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="129"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="164" t="s">
+        <v>786</v>
+      </c>
+      <c r="E122" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F122" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G122" s="143"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="138" t="s">
         <v>732</v>
       </c>
-      <c r="B113" s="123" t="s">
+      <c r="B123" s="138" t="s">
         <v>731</v>
       </c>
-      <c r="C113" s="123" t="s">
+      <c r="C123" s="138" t="s">
         <v>734</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D123" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E123" s="4">
         <v>43836</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="G113" s="128" t="s">
+      <c r="G123" s="140" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="124"/>
-      <c r="B114" s="124"/>
-      <c r="C114" s="124"/>
-      <c r="D114" s="6" t="s">
+    <row r="124" spans="1:7">
+      <c r="A124" s="139"/>
+      <c r="B124" s="139"/>
+      <c r="C124" s="139"/>
+      <c r="D124" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E124" s="4">
         <v>43836</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G114" s="129"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="124"/>
-      <c r="B115" s="124"/>
-      <c r="C115" s="124"/>
-      <c r="D115" s="6" t="s">
+      <c r="G124" s="141"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="139"/>
+      <c r="B125" s="139"/>
+      <c r="C125" s="139"/>
+      <c r="D125" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E125" s="4">
         <v>43836</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G115" s="129"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="124"/>
-      <c r="B116" s="124"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="6" t="s">
+      <c r="G125" s="141"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="139"/>
+      <c r="B126" s="139"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E126" s="4">
         <v>43836</v>
       </c>
-      <c r="F116" s="121" t="s">
+      <c r="F126" s="119" t="s">
         <v>743</v>
       </c>
-      <c r="G116" s="129"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="124"/>
-      <c r="B117" s="124"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="6" t="s">
+      <c r="G126" s="141"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="139"/>
+      <c r="B127" s="139"/>
+      <c r="C127" s="128"/>
+      <c r="D127" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E127" s="4">
         <v>43836</v>
       </c>
-      <c r="F117" s="121" t="s">
+      <c r="F127" s="119" t="s">
         <v>738</v>
       </c>
-      <c r="G117" s="130"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="124"/>
-      <c r="B118" s="124"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="6" t="s">
+      <c r="G127" s="137"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="139"/>
+      <c r="B128" s="139"/>
+      <c r="C128" s="128"/>
+      <c r="D128" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E128" s="4">
         <v>43836</v>
       </c>
-      <c r="F118" s="121" t="s">
+      <c r="F128" s="119" t="s">
         <v>738</v>
       </c>
-      <c r="G118" s="130"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="124"/>
-      <c r="B119" s="124"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="6" t="s">
+      <c r="G128" s="137"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="139"/>
+      <c r="B129" s="139"/>
+      <c r="C129" s="129"/>
+      <c r="D129" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E129" s="4">
         <v>43836</v>
       </c>
-      <c r="F119" s="121" t="s">
+      <c r="F129" s="119" t="s">
         <v>738</v>
       </c>
-      <c r="G119" s="131"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="125"/>
-      <c r="B120" s="125"/>
-      <c r="C120" s="121" t="s">
+      <c r="G129" s="136"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="142"/>
+      <c r="B130" s="142"/>
+      <c r="C130" s="119" t="s">
         <v>741</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E130" s="4">
         <v>43836</v>
       </c>
-      <c r="F120" s="121" t="s">
+      <c r="F130" s="119" t="s">
         <v>743</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>744</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
+  <mergeCells count="64">
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="A109:A122"/>
+    <mergeCell ref="B109:B122"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C53:C60"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6222,46 +6507,12 @@
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="G19:G33"/>
     <mergeCell ref="C19:C33"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A51:A74"/>
-    <mergeCell ref="B51:B74"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="G87:G93"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="C113:C119"/>
-    <mergeCell ref="G113:G119"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6273,10 +6524,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254:A258"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6292,15 +6543,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -6326,13 +6577,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="125" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6344,14 +6595,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="130" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="133"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -6361,12 +6612,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="131"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="133"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -6376,42 +6627,42 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="126"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="5" t="s">
         <v>706</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="113" t="s">
         <v>707</v>
       </c>
-      <c r="G6" s="130"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="127"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="5" t="s">
         <v>708</v>
       </c>
       <c r="E7" s="4">
         <v>43831</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="G7" s="131"/>
+      <c r="G7" s="136"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="132" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="125" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -6423,14 +6674,14 @@
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="130" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="126"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="5" t="s">
         <v>533</v>
       </c>
@@ -6440,12 +6691,12 @@
       <c r="F9" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="130"/>
+      <c r="G9" s="137"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="5" t="s">
         <v>535</v>
       </c>
@@ -6455,12 +6706,12 @@
       <c r="F10" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G10" s="130"/>
+      <c r="G10" s="137"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="126"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="5" t="s">
         <v>536</v>
       </c>
@@ -6470,89 +6721,89 @@
       <c r="F11" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G11" s="130"/>
+      <c r="G11" s="137"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="124"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="80" t="s">
         <v>537</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="137"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="80" t="s">
         <v>538</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="130"/>
+      <c r="G13" s="137"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="80" t="s">
         <v>539</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="137"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="126"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="80" t="s">
         <v>540</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="137"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="80" t="s">
         <v>541</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="137"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="126"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="80" t="s">
         <v>542</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="137"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="80" t="s">
         <v>543</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="131"/>
+      <c r="G18" s="136"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="123" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="138" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -6564,14 +6815,14 @@
       <c r="F19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="130" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="124"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="5" t="s">
         <v>170</v>
       </c>
@@ -6581,11 +6832,11 @@
       <c r="F20" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="132"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="91"/>
       <c r="D21" s="5" t="s">
         <v>588</v>
@@ -6599,9 +6850,9 @@
       <c r="G21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="123" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="138" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -6613,14 +6864,14 @@
       <c r="F22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="137" t="s">
+      <c r="G22" s="130" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="5" t="s">
         <v>222</v>
       </c>
@@ -6630,12 +6881,12 @@
       <c r="F23" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="130"/>
+      <c r="G23" s="137"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="5" t="s">
         <v>527</v>
       </c>
@@ -6645,12 +6896,12 @@
       <c r="F24" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G24" s="130"/>
+      <c r="G24" s="137"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="5" t="s">
         <v>565</v>
       </c>
@@ -6660,12 +6911,12 @@
       <c r="F25" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="130"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="5" t="s">
         <v>566</v>
       </c>
@@ -6675,12 +6926,12 @@
       <c r="F26" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="130"/>
+      <c r="G26" s="137"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="5" t="s">
         <v>567</v>
       </c>
@@ -6690,12 +6941,12 @@
       <c r="F27" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G27" s="130"/>
+      <c r="G27" s="137"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="5" t="s">
         <v>568</v>
       </c>
@@ -6705,12 +6956,12 @@
       <c r="F28" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G28" s="131"/>
+      <c r="G28" s="136"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="123" t="s">
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="138" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6727,9 +6978,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="5" t="s">
         <v>236</v>
       </c>
@@ -6738,9 +6989,9 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="126"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="132" t="s">
+      <c r="A31" s="128"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="125" t="s">
         <v>239</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -6752,14 +7003,14 @@
       <c r="F31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="137" t="s">
+      <c r="G31" s="130" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="126"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="5" t="s">
         <v>242</v>
       </c>
@@ -6769,12 +7020,12 @@
       <c r="F32" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="138"/>
+      <c r="G32" s="131"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="126"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="5" t="s">
         <v>244</v>
       </c>
@@ -6784,12 +7035,12 @@
       <c r="F33" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="138"/>
+      <c r="G33" s="131"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
       <c r="D34" s="5" t="s">
         <v>245</v>
       </c>
@@ -6799,12 +7050,12 @@
       <c r="F34" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="138"/>
+      <c r="G34" s="131"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="5" t="s">
         <v>246</v>
       </c>
@@ -6814,12 +7065,12 @@
       <c r="F35" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="138"/>
+      <c r="G35" s="131"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="126"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="5" t="s">
         <v>368</v>
       </c>
@@ -6829,12 +7080,12 @@
       <c r="F36" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="G36" s="130"/>
+      <c r="G36" s="137"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="126"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
       <c r="D37" s="5" t="s">
         <v>497</v>
       </c>
@@ -6844,12 +7095,12 @@
       <c r="F37" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G37" s="130"/>
+      <c r="G37" s="137"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="5" t="s">
         <v>499</v>
       </c>
@@ -6859,12 +7110,12 @@
       <c r="F38" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="130"/>
+      <c r="G38" s="137"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="126"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="5" t="s">
         <v>500</v>
       </c>
@@ -6874,12 +7125,12 @@
       <c r="F39" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="130"/>
+      <c r="G39" s="137"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="5" t="s">
         <v>502</v>
       </c>
@@ -6889,12 +7140,12 @@
       <c r="F40" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="130"/>
+      <c r="G40" s="137"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="5" t="s">
         <v>504</v>
       </c>
@@ -6904,12 +7155,12 @@
       <c r="F41" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="130"/>
+      <c r="G41" s="137"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="5" t="s">
         <v>503</v>
       </c>
@@ -6919,12 +7170,12 @@
       <c r="F42" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="130"/>
+      <c r="G42" s="137"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
       <c r="D43" s="5" t="s">
         <v>505</v>
       </c>
@@ -6934,12 +7185,12 @@
       <c r="F43" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G43" s="130"/>
+      <c r="G43" s="137"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="126"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
       <c r="D44" s="5" t="s">
         <v>506</v>
       </c>
@@ -6949,12 +7200,12 @@
       <c r="F44" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="G44" s="130"/>
+      <c r="G44" s="137"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="126"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="132" t="s">
+      <c r="A45" s="128"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="125" t="s">
         <v>638</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -6966,14 +7217,14 @@
       <c r="F45" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G45" s="137" t="s">
+      <c r="G45" s="130" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="126"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="5" t="s">
         <v>641</v>
       </c>
@@ -6983,12 +7234,12 @@
       <c r="F46" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G46" s="130"/>
+      <c r="G46" s="137"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="126"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="5" t="s">
         <v>642</v>
       </c>
@@ -6998,12 +7249,12 @@
       <c r="F47" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G47" s="131"/>
+      <c r="G47" s="136"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="126"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="132" t="s">
+      <c r="A48" s="128"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="125" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -7015,14 +7266,14 @@
       <c r="F48" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G48" s="137" t="s">
+      <c r="G48" s="130" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="133"/>
+      <c r="A49" s="128"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="5" t="s">
         <v>264</v>
       </c>
@@ -7032,12 +7283,12 @@
       <c r="F49" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G49" s="138"/>
+      <c r="G49" s="131"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="126"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
+      <c r="A50" s="128"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
       <c r="D50" s="5" t="s">
         <v>276</v>
       </c>
@@ -7047,12 +7298,12 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="138"/>
+      <c r="G50" s="131"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="127"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="5" t="s">
         <v>277</v>
       </c>
@@ -7062,12 +7313,12 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="139"/>
+      <c r="G51" s="132"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="132" t="s">
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="125" t="s">
         <v>280</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -7079,14 +7330,14 @@
       <c r="F52" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="137" t="s">
+      <c r="G52" s="130" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="133"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="126"/>
       <c r="D53" s="5" t="s">
         <v>279</v>
       </c>
@@ -7096,12 +7347,12 @@
       <c r="F53" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="138"/>
+      <c r="G53" s="131"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="127"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="5" t="s">
         <v>283</v>
       </c>
@@ -7111,12 +7362,12 @@
       <c r="F54" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="131"/>
+      <c r="G54" s="136"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="132" t="s">
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="125" t="s">
         <v>284</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -7128,14 +7379,14 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="137" t="s">
+      <c r="G55" s="130" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="127"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="5" t="s">
         <v>592</v>
       </c>
@@ -7145,12 +7396,12 @@
       <c r="F56" s="90" t="s">
         <v>593</v>
       </c>
-      <c r="G56" s="131"/>
+      <c r="G56" s="136"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="132" t="s">
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="125" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -7162,14 +7413,14 @@
       <c r="F57" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="144" t="s">
+      <c r="G57" s="150" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="127"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="5" t="s">
         <v>289</v>
       </c>
@@ -7179,12 +7430,12 @@
       <c r="F58" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G58" s="145"/>
+      <c r="G58" s="151"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="126"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="132" t="s">
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="125" t="s">
         <v>334</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -7196,14 +7447,14 @@
       <c r="F59" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G59" s="137" t="s">
+      <c r="G59" s="130" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="126"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="134"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="5" t="s">
         <v>337</v>
       </c>
@@ -7213,12 +7464,12 @@
       <c r="F60" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G60" s="139"/>
+      <c r="G60" s="132"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="126"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="132" t="s">
+      <c r="A61" s="128"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="125" t="s">
         <v>354</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -7230,14 +7481,14 @@
       <c r="F61" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="137" t="s">
+      <c r="G61" s="130" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="133"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="5" t="s">
         <v>356</v>
       </c>
@@ -7247,12 +7498,12 @@
       <c r="F62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="138"/>
+      <c r="G62" s="131"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="126"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="133"/>
+      <c r="A63" s="128"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="5" t="s">
         <v>357</v>
       </c>
@@ -7262,12 +7513,12 @@
       <c r="F63" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G63" s="138"/>
+      <c r="G63" s="131"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
+      <c r="A64" s="128"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="128"/>
       <c r="D64" s="5" t="s">
         <v>365</v>
       </c>
@@ -7277,12 +7528,12 @@
       <c r="F64" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G64" s="130"/>
+      <c r="G64" s="137"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="126"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="127"/>
+      <c r="A65" s="128"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="5" t="s">
         <v>377</v>
       </c>
@@ -7292,12 +7543,12 @@
       <c r="F65" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G65" s="131"/>
+      <c r="G65" s="136"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="126"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="147" t="s">
+      <c r="A66" s="128"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="146" t="s">
         <v>434</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7309,14 +7560,14 @@
       <c r="F66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="137" t="s">
+      <c r="G66" s="130" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="126"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="148"/>
+      <c r="A67" s="128"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="147"/>
       <c r="D67" s="5" t="s">
         <v>441</v>
       </c>
@@ -7326,12 +7577,12 @@
       <c r="F67" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="139"/>
+      <c r="G67" s="132"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="126"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="147" t="s">
+      <c r="A68" s="128"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="146" t="s">
         <v>445</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -7343,14 +7594,14 @@
       <c r="F68" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G68" s="137" t="s">
+      <c r="G68" s="130" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="126"/>
-      <c r="B69" s="126"/>
-      <c r="C69" s="148"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="163"/>
       <c r="D69" s="5" t="s">
         <v>444</v>
       </c>
@@ -7360,741 +7611,741 @@
       <c r="F69" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="G69" s="139"/>
+      <c r="G69" s="131"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="126"/>
-      <c r="B70" s="126"/>
-      <c r="C70" s="149" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F70" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G70" s="137"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="128"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F71" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G71" s="137"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="128"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E72" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F72" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G72" s="137"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="128"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F73" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G73" s="136"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="128"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="144" t="s">
         <v>487</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E74" s="4">
         <v>43817</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F74" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G70" s="137" t="s">
+      <c r="G74" s="130" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="126"/>
-      <c r="B71" s="126"/>
-      <c r="C71" s="150"/>
-      <c r="D71" s="5" t="s">
+    <row r="75" spans="1:7">
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E75" s="4">
         <v>43817</v>
       </c>
-      <c r="F71" s="66" t="s">
+      <c r="F75" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G71" s="138"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="126"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="5" t="s">
+      <c r="G75" s="131"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="128"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E76" s="4">
         <v>43817</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F76" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G72" s="131"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="126"/>
-      <c r="B73" s="126"/>
-      <c r="C73" s="146" t="s">
+      <c r="G76" s="136"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="128"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="138" t="s">
         <v>596</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E77" s="4">
         <v>43821</v>
       </c>
-      <c r="F73" s="90" t="s">
+      <c r="F77" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G73" s="143" t="s">
+      <c r="G77" s="140" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="127"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="5" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E78" s="4">
         <v>43821</v>
       </c>
-      <c r="F74" s="90" t="s">
+      <c r="F78" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G74" s="131"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="123" t="s">
+      <c r="G78" s="143"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="123" t="s">
+      <c r="B80" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="133" t="s">
+      <c r="C80" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E80" s="7">
         <v>43812</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F80" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="124"/>
-      <c r="B77" s="124"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="3" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="139"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E81" s="4">
         <v>43802</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="137" t="s">
+      <c r="G81" s="130" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="124"/>
-      <c r="B78" s="124"/>
-      <c r="C78" s="132" t="s">
+    <row r="82" spans="1:7">
+      <c r="A82" s="139"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E82" s="4">
         <v>43777</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F82" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="G78" s="138"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="126"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="5" t="s">
+      <c r="G82" s="131"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="128"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E83" s="4">
         <v>43777</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="F83" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G79" s="130"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="126"/>
-      <c r="B80" s="126"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="5" t="s">
+      <c r="G83" s="137"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="128"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E84" s="4">
         <v>43817</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F84" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="130"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="126"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="5" t="s">
+      <c r="G84" s="137"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="128"/>
+      <c r="B85" s="128"/>
+      <c r="C85" s="128"/>
+      <c r="D85" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E85" s="4">
         <v>43817</v>
       </c>
-      <c r="F81" s="66" t="s">
+      <c r="F85" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="130"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="126"/>
-      <c r="B82" s="126"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="5" t="s">
+      <c r="G85" s="137"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="128"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E86" s="4">
         <v>43817</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F86" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="131"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="126"/>
-      <c r="B83" s="126"/>
-      <c r="C83" s="66" t="s">
+      <c r="G86" s="136"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="128"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="64"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="127"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="63" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="64"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="128"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E88" s="4">
         <v>43815</v>
       </c>
-      <c r="F84" s="63" t="s">
+      <c r="F88" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="102"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="103" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="129"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="102" t="s">
         <v>654</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E89" s="4">
         <v>43823</v>
       </c>
-      <c r="F85" s="103" t="s">
+      <c r="F89" s="102" t="s">
         <v>653</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="123" t="s">
+    <row r="90" spans="1:7">
+      <c r="A90" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="123" t="s">
+      <c r="B90" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
-      <c r="D87" s="3" t="s">
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="139"/>
+      <c r="B91" s="139"/>
+      <c r="D91" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E91" s="4">
         <v>43782</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="126"/>
-      <c r="B88" s="126"/>
-      <c r="D88" s="3" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="128"/>
+      <c r="B92" s="128"/>
+      <c r="D92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E92" s="4">
         <v>43797</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="126"/>
-      <c r="B89" s="126"/>
-      <c r="D89" s="3" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="128"/>
+      <c r="B93" s="128"/>
+      <c r="D93" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E93" s="4">
         <v>43797</v>
       </c>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="126"/>
-      <c r="B90" s="126"/>
-      <c r="C90" s="132" t="s">
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="128"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="125" t="s">
         <v>544</v>
       </c>
-      <c r="D90" s="81" t="s">
+      <c r="D94" s="81" t="s">
         <v>545</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="137" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="126"/>
-      <c r="B91" s="126"/>
-      <c r="C91" s="133"/>
-      <c r="D91" s="81" t="s">
-        <v>546</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="138"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="126"/>
-      <c r="B92" s="126"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="138"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="126"/>
-      <c r="B93" s="126"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="138"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="126"/>
-      <c r="B94" s="126"/>
-      <c r="C94" s="133"/>
-      <c r="D94" s="81" t="s">
-        <v>549</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="76"/>
-      <c r="G94" s="138"/>
+      <c r="G94" s="130" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="127"/>
-      <c r="B95" s="127"/>
-      <c r="C95" s="134"/>
+      <c r="A95" s="128"/>
+      <c r="B95" s="128"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="81" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="76"/>
-      <c r="G95" s="139"/>
+      <c r="G95" s="131"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="123" t="s">
+      <c r="A96" s="128"/>
+      <c r="B96" s="128"/>
+      <c r="C96" s="126"/>
+      <c r="D96" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="131"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="128"/>
+      <c r="B97" s="128"/>
+      <c r="C97" s="126"/>
+      <c r="D97" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="131"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="128"/>
+      <c r="B98" s="128"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="131"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="129"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="132"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="132" t="s">
+      <c r="B100" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="132" t="s">
+      <c r="C100" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E100" s="7">
         <v>43788</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G96" s="137" t="s">
+      <c r="G100" s="130" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="126"/>
-      <c r="B97" s="133"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="5" t="s">
+    <row r="101" spans="1:7">
+      <c r="A101" s="128"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="128"/>
+      <c r="D101" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E101" s="7">
         <v>43788</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G97" s="138"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="126"/>
-      <c r="B98" s="133"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="5" t="s">
+      <c r="G101" s="131"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="128"/>
+      <c r="B102" s="126"/>
+      <c r="C102" s="128"/>
+      <c r="D102" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E102" s="7">
         <v>43788</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F102" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G98" s="138"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="126"/>
-      <c r="B99" s="133"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="5" t="s">
+      <c r="G102" s="131"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="128"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E103" s="7">
         <v>43794</v>
       </c>
-      <c r="F99" s="76" t="s">
+      <c r="F103" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G99" s="139"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="126"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="127"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="126"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="1"/>
-      <c r="G101" s="128" t="s">
+      <c r="G103" s="132"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="128"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="129"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="128"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="140" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="126"/>
-      <c r="B102" s="126"/>
-      <c r="C102" s="123" t="s">
+    <row r="106" spans="1:7">
+      <c r="A106" s="128"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E106" s="4">
         <v>43787</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G102" s="129"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="126"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="3" t="s">
+      <c r="G106" s="141"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="128"/>
+      <c r="B107" s="128"/>
+      <c r="C107" s="139"/>
+      <c r="D107" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E107" s="4">
         <v>43787</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G103" s="129"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="126"/>
-      <c r="B104" s="126"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="3" t="s">
+      <c r="G107" s="141"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="128"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="139"/>
+      <c r="D108" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E108" s="4">
         <v>43787</v>
       </c>
-      <c r="G104" s="129"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="126"/>
-      <c r="B105" s="126"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="5" t="s">
+      <c r="G108" s="141"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="128"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="139"/>
+      <c r="D109" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="G105" s="129"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="126"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="3" t="s">
+      <c r="E109" s="4"/>
+      <c r="G109" s="141"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="128"/>
+      <c r="B110" s="128"/>
+      <c r="C110" s="139"/>
+      <c r="D110" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="2" t="s">
+      <c r="E110" s="4"/>
+      <c r="F110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="129"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="126"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="124"/>
-      <c r="D107" s="3" t="s">
+      <c r="G110" s="141"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="128"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="139"/>
+      <c r="D111" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E111" s="4">
         <v>43788</v>
       </c>
-      <c r="G107" s="129"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="126"/>
-      <c r="B108" s="126"/>
-      <c r="C108" s="124"/>
-      <c r="D108" s="3" t="s">
+      <c r="G111" s="141"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="128"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="139"/>
+      <c r="D112" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="1" t="s">
+      <c r="E112" s="4"/>
+      <c r="F112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="141"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="126"/>
-      <c r="B109" s="126"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="5" t="s">
+      <c r="G112" s="143"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="128"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E113" s="4">
         <v>43788</v>
       </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="126"/>
-      <c r="B110" s="126"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="137" t="s">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="128"/>
+      <c r="B114" s="128"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="130" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="126"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="123" t="s">
+    <row r="115" spans="1:7">
+      <c r="A115" s="128"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="33" t="s">
+      <c r="E115" s="4"/>
+      <c r="F115" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G111" s="130"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="126"/>
-      <c r="B112" s="126"/>
-      <c r="C112" s="126"/>
-      <c r="D112" s="5" t="s">
+      <c r="G115" s="137"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="128"/>
+      <c r="B116" s="128"/>
+      <c r="C116" s="128"/>
+      <c r="D116" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E116" s="4">
         <v>43802</v>
       </c>
-      <c r="F112" s="33" t="s">
+      <c r="F116" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="130"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="126"/>
-      <c r="B113" s="126"/>
-      <c r="C113" s="126"/>
-      <c r="D113" s="5" t="s">
+      <c r="G116" s="137"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="128"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="128"/>
+      <c r="D117" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E117" s="4">
         <v>43802</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F117" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G113" s="130"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="126"/>
-      <c r="B114" s="126"/>
-      <c r="C114" s="126"/>
-      <c r="D114" s="5" t="s">
+      <c r="G117" s="137"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="128"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E118" s="4">
         <v>43802</v>
       </c>
-      <c r="F114" s="42" t="s">
+      <c r="F118" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G114" s="131"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="126"/>
-      <c r="B115" s="126"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="5" t="s">
+      <c r="G118" s="136"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="128"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="129"/>
+      <c r="D119" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E119" s="4">
         <v>43804</v>
       </c>
-      <c r="F115" s="71" t="s">
+      <c r="F119" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G115" s="36"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="126"/>
-      <c r="B116" s="126"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="128" t="s">
+      <c r="G119" s="36"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="128"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="140" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="126"/>
-      <c r="B117" s="126"/>
-      <c r="C117" s="132" t="s">
+    <row r="121" spans="1:7">
+      <c r="A121" s="128"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E117" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G117" s="129"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="126"/>
-      <c r="B118" s="126"/>
-      <c r="C118" s="133"/>
-      <c r="D118" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E118" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G118" s="129"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="126"/>
-      <c r="B119" s="126"/>
-      <c r="C119" s="133"/>
-      <c r="D119" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E119" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G119" s="129"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="126"/>
-      <c r="B120" s="126"/>
-      <c r="C120" s="133"/>
-      <c r="D120" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E120" s="4">
-        <v>43801</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G120" s="129"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="126"/>
-      <c r="B121" s="126"/>
-      <c r="C121" s="133"/>
-      <c r="D121" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="E121" s="4">
         <v>43801</v>
@@ -8102,14 +8353,14 @@
       <c r="F121" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G121" s="129"/>
+      <c r="G121" s="141"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="126"/>
-      <c r="B122" s="126"/>
-      <c r="C122" s="133"/>
+      <c r="A122" s="128"/>
+      <c r="B122" s="128"/>
+      <c r="C122" s="126"/>
       <c r="D122" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E122" s="4">
         <v>43801</v>
@@ -8117,532 +8368,532 @@
       <c r="F122" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G122" s="129"/>
+      <c r="G122" s="141"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="126"/>
-      <c r="B123" s="126"/>
+      <c r="A123" s="128"/>
+      <c r="B123" s="128"/>
       <c r="C123" s="126"/>
       <c r="D123" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E123" s="4">
         <v>43801</v>
       </c>
-      <c r="F123" s="31" t="s">
-        <v>5</v>
+      <c r="F123" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="G123" s="141"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="126"/>
-      <c r="B124" s="126"/>
-      <c r="C124" s="127"/>
+      <c r="A124" s="128"/>
+      <c r="B124" s="128"/>
+      <c r="C124" s="126"/>
       <c r="D124" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E124" s="4">
         <v>43801</v>
       </c>
-      <c r="F124" s="71" t="s">
+      <c r="F124" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G124" s="141"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="128"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="141"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="128"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="126"/>
+      <c r="D126" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E126" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="141"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="128"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="128"/>
+      <c r="D127" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="143"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="128"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" s="4">
+        <v>43801</v>
+      </c>
+      <c r="F128" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="G124" s="38"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="126"/>
-      <c r="B125" s="126"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="79"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="126"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="2" t="s">
+      <c r="G128" s="38"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="128"/>
+      <c r="B129" s="128"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="79"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="128"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="126"/>
-      <c r="B127" s="126"/>
-      <c r="C127" s="2" t="s">
+      <c r="E130" s="4"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="128"/>
+      <c r="B131" s="128"/>
+      <c r="C131" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E131" s="4">
         <v>43819</v>
       </c>
-      <c r="F127" s="82" t="s">
+      <c r="F131" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G131" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="126"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="98" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="128"/>
+      <c r="B132" s="128"/>
+      <c r="C132" s="98" t="s">
         <v>619</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E132" s="4">
         <v>43822</v>
       </c>
-      <c r="F128" s="98" t="s">
+      <c r="F132" s="98" t="s">
         <v>611</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G132" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="126"/>
-      <c r="B129" s="126"/>
-      <c r="C129" s="132" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="128"/>
+      <c r="B133" s="128"/>
+      <c r="C133" s="125" t="s">
         <v>659</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E133" s="4">
         <v>43824</v>
       </c>
-      <c r="F129" s="105" t="s">
+      <c r="F133" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="G129" s="137" t="s">
+      <c r="G133" s="130" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="126"/>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="5" t="s">
+    <row r="134" spans="1:7">
+      <c r="A134" s="128"/>
+      <c r="B134" s="128"/>
+      <c r="C134" s="128"/>
+      <c r="D134" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E134" s="4">
         <v>43824</v>
       </c>
-      <c r="F130" s="105" t="s">
+      <c r="F134" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="G130" s="130"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="127"/>
-      <c r="B131" s="126"/>
-      <c r="C131" s="126"/>
-      <c r="D131" s="5" t="s">
+      <c r="G134" s="137"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="128"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="128"/>
+      <c r="D135" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E135" s="4">
         <v>43824</v>
       </c>
-      <c r="F131" s="105" t="s">
+      <c r="F135" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="G131" s="131"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="118"/>
-      <c r="B132" s="126"/>
-      <c r="C132" s="126"/>
-      <c r="D132" s="96" t="s">
+      <c r="G135" s="136"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="128"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="96" t="s">
         <v>715</v>
       </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="119"/>
-      <c r="G132" s="120"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="118"/>
-      <c r="B133" s="126"/>
-      <c r="C133" s="126"/>
-      <c r="D133" s="96" t="s">
+      <c r="E136" s="4"/>
+      <c r="F136" s="117"/>
+      <c r="G136" s="118"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="128"/>
+      <c r="B137" s="128"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="96" t="s">
         <v>716</v>
       </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="119"/>
-      <c r="G133" s="120"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="118"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="126"/>
-      <c r="D134" s="96" t="s">
+      <c r="E137" s="4"/>
+      <c r="F137" s="117"/>
+      <c r="G137" s="118"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="128"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="96" t="s">
         <v>717</v>
       </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="119"/>
-      <c r="G134" s="120"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="118"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="126"/>
-      <c r="D135" s="96" t="s">
+      <c r="E138" s="4"/>
+      <c r="F138" s="117"/>
+      <c r="G138" s="118"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="128"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="96" t="s">
         <v>718</v>
       </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="119"/>
-      <c r="G135" s="120"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="118"/>
-      <c r="B136" s="127"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="96" t="s">
+      <c r="E139" s="4"/>
+      <c r="F139" s="117"/>
+      <c r="G139" s="118"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="129"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="129"/>
+      <c r="D140" s="96" t="s">
         <v>719</v>
       </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="119"/>
-      <c r="G136" s="120"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="132" t="s">
+      <c r="E140" s="4"/>
+      <c r="F140" s="117"/>
+      <c r="G140" s="118"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="121"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="123" t="s">
+        <v>760</v>
+      </c>
+      <c r="D141" s="162" t="s">
+        <v>761</v>
+      </c>
+      <c r="E141" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F141" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G141" s="122" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="132" t="s">
+      <c r="B142" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="132" t="s">
+      <c r="C142" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E142" s="7">
         <v>43805</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F142" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G137" s="137" t="s">
+      <c r="G142" s="130" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="126"/>
-      <c r="B138" s="126"/>
-      <c r="C138" s="134"/>
-      <c r="D138" s="5" t="s">
+    <row r="143" spans="1:7">
+      <c r="A143" s="128"/>
+      <c r="B143" s="128"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E143" s="7">
         <v>43805</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G138" s="131"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="126"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="132" t="s">
+      <c r="G143" s="136"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="128"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E144" s="4">
         <v>43788</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="128" t="s">
+      <c r="G144" s="140" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="126"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="133" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="128"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E145" s="4">
         <v>43788</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="130"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="126"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="126"/>
-      <c r="D141" s="3" t="s">
+      <c r="G145" s="137"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="128"/>
+      <c r="B146" s="128"/>
+      <c r="C146" s="128"/>
+      <c r="D146" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E146" s="4">
         <v>43818</v>
       </c>
-      <c r="F141" s="71" t="s">
+      <c r="F146" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G141" s="130"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="126"/>
-      <c r="D142" s="3" t="s">
+      <c r="G146" s="137"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="128"/>
+      <c r="B147" s="128"/>
+      <c r="C147" s="128"/>
+      <c r="D147" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E147" s="4">
         <v>43818</v>
       </c>
-      <c r="F142" s="71" t="s">
+      <c r="F147" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G142" s="130"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="126"/>
-      <c r="B143" s="126"/>
-      <c r="C143" s="126"/>
-      <c r="D143" s="3" t="s">
+      <c r="G147" s="137"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="128"/>
+      <c r="B148" s="128"/>
+      <c r="C148" s="128"/>
+      <c r="D148" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E148" s="4">
         <v>43818</v>
       </c>
-      <c r="F143" s="71" t="s">
+      <c r="F148" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="G143" s="130"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="126"/>
-      <c r="B144" s="126"/>
-      <c r="C144" s="126"/>
-      <c r="D144" s="50" t="s">
+      <c r="G148" s="137"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="128"/>
+      <c r="B149" s="128"/>
+      <c r="C149" s="128"/>
+      <c r="D149" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="130"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="126"/>
-      <c r="B145" s="126"/>
-      <c r="C145" s="126"/>
-      <c r="D145" s="50" t="s">
+      <c r="E149" s="4"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="137"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="128"/>
+      <c r="B150" s="128"/>
+      <c r="C150" s="128"/>
+      <c r="D150" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="130"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="126"/>
-      <c r="B146" s="126"/>
-      <c r="C146" s="126"/>
-      <c r="D146" s="50" t="s">
+      <c r="E150" s="4"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="137"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="128"/>
+      <c r="B151" s="128"/>
+      <c r="C151" s="128"/>
+      <c r="D151" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="130"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="126"/>
-      <c r="B147" s="126"/>
-      <c r="C147" s="126"/>
-      <c r="D147" s="50" t="s">
+      <c r="E151" s="4"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="137"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="128"/>
+      <c r="B152" s="128"/>
+      <c r="C152" s="128"/>
+      <c r="D152" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="130"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="126"/>
-      <c r="B148" s="126"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="50" t="s">
+      <c r="E152" s="4"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="137"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="128"/>
+      <c r="B153" s="128"/>
+      <c r="C153" s="129"/>
+      <c r="D153" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="130"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="126"/>
-      <c r="B149" s="126"/>
-      <c r="C149" s="70"/>
-      <c r="E149" s="4"/>
-      <c r="G149" s="72"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="126"/>
-      <c r="B150" s="126"/>
-      <c r="C150" s="123" t="s">
+      <c r="E153" s="4"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="137"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="128"/>
+      <c r="B154" s="128"/>
+      <c r="C154" s="70"/>
+      <c r="E154" s="4"/>
+      <c r="G154" s="72"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="128"/>
+      <c r="B155" s="128"/>
+      <c r="C155" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E155" s="4">
         <v>43789</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="128" t="s">
+      <c r="G155" s="140" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="126"/>
-      <c r="B151" s="126"/>
-      <c r="C151" s="124"/>
-      <c r="D151" s="3" t="s">
+    <row r="156" spans="1:7">
+      <c r="A156" s="128"/>
+      <c r="B156" s="128"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E156" s="4">
         <v>43789</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="130"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="126"/>
-      <c r="B152" s="126"/>
-      <c r="C152" s="124"/>
-      <c r="D152" s="3" t="s">
+      <c r="G156" s="137"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="128"/>
+      <c r="B157" s="128"/>
+      <c r="C157" s="139"/>
+      <c r="D157" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E157" s="4">
         <v>43818</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G152" s="130"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="126"/>
-      <c r="B153" s="126"/>
-      <c r="C153" s="124"/>
-      <c r="D153" s="3" t="s">
+      <c r="G157" s="137"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="128"/>
+      <c r="B158" s="128"/>
+      <c r="C158" s="139"/>
+      <c r="D158" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E158" s="4">
         <v>43789</v>
       </c>
-      <c r="F153" s="46" t="s">
+      <c r="F158" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="G153" s="130"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="126"/>
-      <c r="B154" s="126"/>
-      <c r="C154" s="124"/>
-      <c r="D154" s="3" t="s">
+      <c r="G158" s="137"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="128"/>
+      <c r="B159" s="128"/>
+      <c r="C159" s="139"/>
+      <c r="D159" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="E154" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F154" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="G154" s="130"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="126"/>
-      <c r="B155" s="126"/>
-      <c r="C155" s="126"/>
-      <c r="D155" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E155" s="4">
-        <v>43805</v>
-      </c>
-      <c r="F155" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G155" s="130"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="126"/>
-      <c r="B156" s="126"/>
-      <c r="C156" s="126"/>
-      <c r="D156" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E156" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F156" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G156" s="130"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="126"/>
-      <c r="B157" s="126"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E157" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F157" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="G157" s="131"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="126"/>
-      <c r="B158" s="126"/>
-      <c r="C158" s="132" t="s">
-        <v>528</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E158" s="4">
-        <v>43818</v>
-      </c>
-      <c r="F158" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="G158" s="128" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="126"/>
-      <c r="B159" s="126"/>
-      <c r="C159" s="133"/>
-      <c r="D159" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="E159" s="4">
         <v>43818</v>
@@ -8650,1582 +8901,1701 @@
       <c r="F159" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G159" s="129"/>
+      <c r="G159" s="137"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="127"/>
-      <c r="B160" s="127"/>
-      <c r="C160" s="127"/>
+      <c r="A160" s="128"/>
+      <c r="B160" s="128"/>
+      <c r="C160" s="128"/>
       <c r="D160" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E160" s="4">
+        <v>43805</v>
+      </c>
+      <c r="F160" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G160" s="137"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="128"/>
+      <c r="B161" s="128"/>
+      <c r="C161" s="128"/>
+      <c r="D161" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E161" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F161" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G161" s="137"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="128"/>
+      <c r="B162" s="128"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E162" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F162" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G162" s="136"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="128"/>
+      <c r="B163" s="128"/>
+      <c r="C163" s="125" t="s">
+        <v>528</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E163" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F163" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G163" s="140" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="128"/>
+      <c r="B164" s="128"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E164" s="4">
+        <v>43818</v>
+      </c>
+      <c r="F164" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G164" s="141"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="129"/>
+      <c r="B165" s="129"/>
+      <c r="C165" s="129"/>
+      <c r="D165" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E165" s="4">
         <v>43818</v>
       </c>
-      <c r="F160" s="73" t="s">
+      <c r="F165" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G160" s="131"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="C161" s="62"/>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="123" t="s">
+      <c r="G165" s="136"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="C166" s="62"/>
+      <c r="D166" s="62"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="123" t="s">
+      <c r="B167" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="C162" s="123" t="s">
+      <c r="C167" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E167" s="4">
         <v>43788</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G162" s="128" t="s">
+      <c r="G167" s="140" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="126"/>
-      <c r="B163" s="126"/>
-      <c r="C163" s="124"/>
-      <c r="D163" s="5" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="128"/>
+      <c r="B168" s="128"/>
+      <c r="C168" s="139"/>
+      <c r="D168" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E168" s="4">
         <v>43788</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G163" s="130"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="126"/>
-      <c r="B164" s="126"/>
-      <c r="C164" s="124"/>
-      <c r="D164" s="5" t="s">
+      <c r="G168" s="137"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="128"/>
+      <c r="B169" s="128"/>
+      <c r="C169" s="139"/>
+      <c r="D169" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E169" s="4">
         <v>43788</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G164" s="130"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="126"/>
-      <c r="B165" s="126"/>
-      <c r="C165" s="124"/>
-      <c r="D165" s="5" t="s">
+      <c r="G169" s="137"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="128"/>
+      <c r="B170" s="128"/>
+      <c r="C170" s="139"/>
+      <c r="D170" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E170" s="4">
         <v>43788</v>
       </c>
-      <c r="F165" s="26" t="s">
+      <c r="F170" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G165" s="131"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="126"/>
-      <c r="B166" s="126"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="5" t="s">
+      <c r="G170" s="136"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="128"/>
+      <c r="B171" s="128"/>
+      <c r="C171" s="129"/>
+      <c r="D171" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E171" s="4">
         <v>43800</v>
       </c>
-      <c r="F166" s="48" t="s">
+      <c r="F171" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="126"/>
-      <c r="B167" s="126"/>
-      <c r="C167" s="33" t="s">
+    <row r="172" spans="1:7">
+      <c r="A172" s="128"/>
+      <c r="B172" s="128"/>
+      <c r="C172" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E172" s="4">
         <v>43797</v>
       </c>
-      <c r="F167" s="26"/>
-      <c r="G167" s="128" t="s">
+      <c r="F172" s="26"/>
+      <c r="G172" s="140" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="126"/>
-      <c r="B168" s="126"/>
-      <c r="C168" s="132" t="s">
+    <row r="173" spans="1:7">
+      <c r="A173" s="128"/>
+      <c r="B173" s="128"/>
+      <c r="C173" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F168" s="54" t="s">
+      <c r="F173" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G168" s="129"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="126"/>
-      <c r="B169" s="126"/>
-      <c r="C169" s="126"/>
-      <c r="D169" s="3" t="s">
+      <c r="G173" s="141"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="128"/>
+      <c r="B174" s="128"/>
+      <c r="C174" s="128"/>
+      <c r="D174" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E174" s="4">
         <v>43808</v>
       </c>
-      <c r="F169" s="54" t="s">
+      <c r="F174" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="G169" s="130"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="126"/>
-      <c r="B170" s="126"/>
-      <c r="C170" s="126"/>
-      <c r="D170" s="3" t="s">
+      <c r="G174" s="137"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="128"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="128"/>
+      <c r="D175" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E175" s="4">
         <v>43808</v>
       </c>
-      <c r="F170" s="59" t="s">
+      <c r="F175" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="G170" s="130"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="126"/>
-      <c r="B171" s="126"/>
-      <c r="C171" s="126"/>
-      <c r="D171" s="5" t="s">
+      <c r="G175" s="137"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="128"/>
+      <c r="B176" s="128"/>
+      <c r="C176" s="128"/>
+      <c r="D176" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E176" s="4">
         <v>43808</v>
       </c>
-      <c r="F171" s="59" t="s">
+      <c r="F176" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="G171" s="131"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="126"/>
-      <c r="B172" s="126"/>
-      <c r="C172" s="127"/>
-      <c r="D172" s="5" t="s">
+      <c r="G176" s="136"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="128"/>
+      <c r="B177" s="128"/>
+      <c r="C177" s="129"/>
+      <c r="D177" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E177" s="4">
         <v>43811</v>
       </c>
-      <c r="F172" s="59"/>
-      <c r="G172" s="74"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="126"/>
-      <c r="B173" s="126"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="48" t="s">
+      <c r="F177" s="59"/>
+      <c r="G177" s="74"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="128"/>
+      <c r="B178" s="128"/>
+      <c r="C178" s="75"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="126"/>
-      <c r="B174" s="126"/>
-      <c r="C174" s="48" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" s="128"/>
+      <c r="B179" s="128"/>
+      <c r="C179" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E179" s="4">
         <v>43806</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="126"/>
-      <c r="B175" s="126"/>
-      <c r="C175" s="132" t="s">
+    <row r="180" spans="1:7">
+      <c r="A180" s="128"/>
+      <c r="B180" s="128"/>
+      <c r="C180" s="125" t="s">
         <v>627</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E180" s="4">
         <v>43822</v>
       </c>
-      <c r="F175" s="99" t="s">
+      <c r="F180" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="G175" s="128" t="s">
+      <c r="G180" s="140" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="126"/>
-      <c r="B176" s="126"/>
-      <c r="C176" s="133"/>
-      <c r="D176" s="3" t="s">
+    <row r="181" spans="1:7">
+      <c r="A181" s="128"/>
+      <c r="B181" s="128"/>
+      <c r="C181" s="126"/>
+      <c r="D181" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E181" s="4">
         <v>43822</v>
       </c>
-      <c r="F176" s="99" t="s">
+      <c r="F181" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="G176" s="129"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="126"/>
-      <c r="B177" s="126"/>
-      <c r="C177" s="133"/>
-      <c r="D177" s="3" t="s">
+      <c r="G181" s="141"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="128"/>
+      <c r="B182" s="128"/>
+      <c r="C182" s="126"/>
+      <c r="D182" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E182" s="4">
         <v>43822</v>
-      </c>
-      <c r="F177" s="101" t="s">
-        <v>636</v>
-      </c>
-      <c r="G177" s="129"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="126"/>
-      <c r="B178" s="126"/>
-      <c r="C178" s="126"/>
-      <c r="D178" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E178" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F178" s="101" t="s">
-        <v>636</v>
-      </c>
-      <c r="G178" s="130"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="126"/>
-      <c r="B179" s="126"/>
-      <c r="C179" s="126"/>
-      <c r="D179" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E179" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F179" s="101" t="s">
-        <v>646</v>
-      </c>
-      <c r="G179" s="130"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="126"/>
-      <c r="B180" s="126"/>
-      <c r="C180" s="126"/>
-      <c r="D180" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E180" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F180" s="101" t="s">
-        <v>636</v>
-      </c>
-      <c r="G180" s="130"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="127"/>
-      <c r="B181" s="127"/>
-      <c r="C181" s="127"/>
-      <c r="D181" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E181" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F181" s="101" t="s">
-        <v>636</v>
-      </c>
-      <c r="G181" s="131"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="100"/>
-      <c r="B182" s="100"/>
-      <c r="C182" s="142" t="s">
-        <v>649</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E182" s="4">
-        <v>43823</v>
       </c>
       <c r="F182" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="G182" s="143" t="s">
+      <c r="G182" s="141"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="128"/>
+      <c r="B183" s="128"/>
+      <c r="C183" s="128"/>
+      <c r="D183" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F183" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G183" s="137"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="128"/>
+      <c r="B184" s="128"/>
+      <c r="C184" s="128"/>
+      <c r="D184" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F184" s="101" t="s">
+        <v>646</v>
+      </c>
+      <c r="G184" s="137"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="128"/>
+      <c r="B185" s="128"/>
+      <c r="C185" s="128"/>
+      <c r="D185" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F185" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G185" s="137"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="129"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="129"/>
+      <c r="D186" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F186" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G186" s="136"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="100"/>
+      <c r="B187" s="100"/>
+      <c r="C187" s="149" t="s">
+        <v>649</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E187" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F187" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G187" s="148" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="104"/>
-      <c r="B183" s="104"/>
-      <c r="C183" s="127"/>
-      <c r="D183" s="5" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" s="103"/>
+      <c r="B188" s="103"/>
+      <c r="C188" s="129"/>
+      <c r="D188" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E188" s="4">
         <v>43824</v>
       </c>
-      <c r="F183" s="105" t="s">
+      <c r="F188" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="G183" s="131"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="104"/>
-      <c r="B184" s="104"/>
-      <c r="C184" s="104"/>
-      <c r="D184" s="5" t="s">
+      <c r="G188" s="136"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="103"/>
+      <c r="B189" s="103"/>
+      <c r="C189" s="103"/>
+      <c r="D189" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E189" s="4">
         <v>43824</v>
       </c>
-      <c r="F184" s="105" t="s">
+      <c r="F189" s="104" t="s">
         <v>657</v>
       </c>
-      <c r="G184" s="106"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="123" t="s">
+      <c r="G189" s="105"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="123" t="s">
+      <c r="B190" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="132" t="s">
+      <c r="C190" s="125" t="s">
         <v>470</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D190" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E190" s="4">
         <v>43817</v>
       </c>
-      <c r="F185" s="66" t="s">
+      <c r="F190" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="G185" s="128" t="s">
+      <c r="G190" s="140" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="126"/>
-      <c r="B186" s="126"/>
-      <c r="C186" s="133"/>
-      <c r="D186" s="5" t="s">
+    <row r="191" spans="1:7">
+      <c r="A191" s="128"/>
+      <c r="B191" s="128"/>
+      <c r="C191" s="126"/>
+      <c r="D191" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E191" s="4">
         <v>43820</v>
       </c>
-      <c r="F186" s="87" t="s">
+      <c r="F191" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="G186" s="130"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="126"/>
-      <c r="B187" s="126"/>
-      <c r="C187" s="126"/>
-      <c r="D187" s="5" t="s">
+      <c r="G191" s="137"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="128"/>
+      <c r="B192" s="128"/>
+      <c r="C192" s="128"/>
+      <c r="D192" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E192" s="4">
         <v>43821</v>
       </c>
-      <c r="F187" s="90" t="s">
+      <c r="F192" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G187" s="130"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="126"/>
-      <c r="B188" s="126"/>
-      <c r="C188" s="126"/>
-      <c r="D188" s="96" t="s">
+      <c r="G192" s="137"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="128"/>
+      <c r="B193" s="128"/>
+      <c r="C193" s="128"/>
+      <c r="D193" s="96" t="s">
         <v>581</v>
       </c>
-      <c r="E188" s="4"/>
-      <c r="F188" s="88"/>
-      <c r="G188" s="130"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="126"/>
-      <c r="B189" s="126"/>
-      <c r="C189" s="126"/>
-      <c r="D189" s="96" t="s">
+      <c r="E193" s="4"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="137"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="128"/>
+      <c r="B194" s="128"/>
+      <c r="C194" s="128"/>
+      <c r="D194" s="96" t="s">
         <v>582</v>
       </c>
-      <c r="E189" s="4"/>
-      <c r="F189" s="88"/>
-      <c r="G189" s="130"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="126"/>
-      <c r="B190" s="126"/>
-      <c r="C190" s="126"/>
-      <c r="D190" s="96" t="s">
+      <c r="E194" s="4"/>
+      <c r="F194" s="88"/>
+      <c r="G194" s="137"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="128"/>
+      <c r="B195" s="128"/>
+      <c r="C195" s="128"/>
+      <c r="D195" s="96" t="s">
         <v>583</v>
       </c>
-      <c r="E190" s="4"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="130"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="126"/>
-      <c r="B191" s="126"/>
-      <c r="C191" s="126"/>
-      <c r="D191" s="96" t="s">
+      <c r="E195" s="4"/>
+      <c r="F195" s="88"/>
+      <c r="G195" s="137"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="128"/>
+      <c r="B196" s="128"/>
+      <c r="C196" s="128"/>
+      <c r="D196" s="96" t="s">
         <v>584</v>
       </c>
-      <c r="E191" s="4"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="130"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="126"/>
-      <c r="B192" s="126"/>
-      <c r="C192" s="89"/>
-      <c r="D192" s="96"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="90"/>
-      <c r="G192" s="92"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="126"/>
-      <c r="B193" s="126"/>
-      <c r="C193" s="123" t="s">
+      <c r="E196" s="4"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="137"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="128"/>
+      <c r="B197" s="128"/>
+      <c r="C197" s="89"/>
+      <c r="D197" s="96"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="90"/>
+      <c r="G197" s="92"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="128"/>
+      <c r="B198" s="128"/>
+      <c r="C198" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E198" s="4">
         <v>43797</v>
       </c>
-      <c r="F193" s="37" t="s">
+      <c r="F198" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="G193" s="128" t="s">
+      <c r="G198" s="140" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="126"/>
-      <c r="B194" s="126"/>
-      <c r="C194" s="126"/>
-      <c r="D194" s="3" t="s">
+    <row r="199" spans="1:7">
+      <c r="A199" s="128"/>
+      <c r="B199" s="128"/>
+      <c r="C199" s="128"/>
+      <c r="D199" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E199" s="4">
         <v>43803</v>
       </c>
-      <c r="F194" s="39" t="s">
+      <c r="F199" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G194" s="130"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="126"/>
-      <c r="B195" s="126"/>
-      <c r="C195" s="126"/>
-      <c r="D195" s="3" t="s">
+      <c r="G199" s="137"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="128"/>
+      <c r="B200" s="128"/>
+      <c r="C200" s="128"/>
+      <c r="D200" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E200" s="4">
         <v>43804</v>
       </c>
-      <c r="F195" s="39" t="s">
+      <c r="F200" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G195" s="130"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="126"/>
-      <c r="B196" s="126"/>
-      <c r="C196" s="126"/>
-      <c r="D196" s="3" t="s">
+      <c r="G200" s="137"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="128"/>
+      <c r="B201" s="128"/>
+      <c r="C201" s="128"/>
+      <c r="D201" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E201" s="4">
         <v>43804</v>
       </c>
-      <c r="F196" s="39" t="s">
+      <c r="F201" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G196" s="130"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="126"/>
-      <c r="B197" s="126"/>
-      <c r="C197" s="127"/>
-      <c r="D197" s="3" t="s">
+      <c r="G201" s="137"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="128"/>
+      <c r="B202" s="128"/>
+      <c r="C202" s="129"/>
+      <c r="D202" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E202" s="4">
         <v>43804</v>
       </c>
-      <c r="F197" s="78" t="s">
+      <c r="F202" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G197" s="130"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="126"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="77"/>
-      <c r="D198" s="3" t="s">
+      <c r="G202" s="137"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="128"/>
+      <c r="B203" s="128"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E203" s="4">
         <v>43819</v>
       </c>
-      <c r="F198" s="78" t="s">
+      <c r="F203" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="G198" s="130"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="126"/>
-      <c r="B199" s="126"/>
-      <c r="C199" s="113"/>
-      <c r="D199" s="3" t="s">
+      <c r="G203" s="137"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="128"/>
+      <c r="B204" s="128"/>
+      <c r="C204" s="112"/>
+      <c r="D204" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E204" s="4">
         <v>43831</v>
       </c>
-      <c r="F199" s="114" t="s">
+      <c r="F204" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="G199" s="115"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="126"/>
-      <c r="B200" s="126"/>
-      <c r="C200" s="113"/>
-      <c r="D200" s="3" t="s">
+      <c r="G204" s="114"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="128"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="112"/>
+      <c r="D205" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E205" s="4">
         <v>43831</v>
       </c>
-      <c r="F200" s="114" t="s">
+      <c r="F205" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="G200" s="115"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="126"/>
-      <c r="B201" s="126"/>
-      <c r="C201" s="84"/>
-      <c r="D201" s="97"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="82"/>
-      <c r="G201" s="85"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="126"/>
-      <c r="B202" s="126"/>
-      <c r="C202" s="86" t="s">
+      <c r="G205" s="114"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="128"/>
+      <c r="B206" s="128"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="97"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="82"/>
+      <c r="G206" s="85"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="128"/>
+      <c r="B207" s="128"/>
+      <c r="C207" s="86" t="s">
         <v>576</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E207" s="4">
         <v>43819</v>
       </c>
-      <c r="F202" s="82" t="s">
+      <c r="F207" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="G202" s="85" t="s">
+      <c r="G207" s="85" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="126"/>
-      <c r="B203" s="126"/>
-      <c r="C203" s="39" t="s">
+    <row r="208" spans="1:7">
+      <c r="A208" s="128"/>
+      <c r="B208" s="128"/>
+      <c r="C208" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E203" s="4"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="85"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="126"/>
-      <c r="B204" s="126"/>
-      <c r="C204" s="43" t="s">
+      <c r="E208" s="4"/>
+      <c r="F208" s="39"/>
+      <c r="G208" s="85"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="128"/>
+      <c r="B209" s="128"/>
+      <c r="C209" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="E204" s="4"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="41"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="126"/>
-      <c r="B205" s="126"/>
-      <c r="C205" s="43" t="s">
+      <c r="E209" s="4"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="41"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="128"/>
+      <c r="B210" s="128"/>
+      <c r="C210" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="E205" s="4"/>
-      <c r="F205" s="2" t="s">
+      <c r="E210" s="4"/>
+      <c r="F210" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G205" s="123" t="s">
+      <c r="G210" s="138" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="126"/>
-      <c r="B206" s="126"/>
-      <c r="C206" s="123" t="s">
+    <row r="211" spans="1:7">
+      <c r="A211" s="128"/>
+      <c r="B211" s="128"/>
+      <c r="C211" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E206" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G206" s="124"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="126"/>
-      <c r="B207" s="126"/>
-      <c r="C207" s="124"/>
-      <c r="D207" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E207" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G207" s="124"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="126"/>
-      <c r="B208" s="126"/>
-      <c r="C208" s="124"/>
-      <c r="D208" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E208" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G208" s="123" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="126"/>
-      <c r="B209" s="126"/>
-      <c r="C209" s="123" t="s">
-        <v>212</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E209" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G209" s="124"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="126"/>
-      <c r="B210" s="126"/>
-      <c r="C210" s="124"/>
-      <c r="D210" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E210" s="4">
-        <v>43799</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G210" s="124"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="126"/>
-      <c r="B211" s="126"/>
-      <c r="C211" s="124"/>
-      <c r="D211" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E211" s="4">
         <v>43799</v>
       </c>
       <c r="F211" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G211" s="139"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="128"/>
+      <c r="B212" s="128"/>
+      <c r="C212" s="139"/>
+      <c r="D212" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G212" s="139"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="128"/>
+      <c r="B213" s="128"/>
+      <c r="C213" s="139"/>
+      <c r="D213" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="127"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="126"/>
-      <c r="B212" s="126"/>
-      <c r="C212" s="126"/>
-      <c r="D212" s="3" t="s">
+      <c r="G213" s="138" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="128"/>
+      <c r="B214" s="128"/>
+      <c r="C214" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E214" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="139"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="128"/>
+      <c r="B215" s="128"/>
+      <c r="C215" s="139"/>
+      <c r="D215" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E215" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G215" s="139"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="128"/>
+      <c r="B216" s="128"/>
+      <c r="C216" s="139"/>
+      <c r="D216" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E216" s="4">
+        <v>43799</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G216" s="129"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="128"/>
+      <c r="B217" s="128"/>
+      <c r="C217" s="128"/>
+      <c r="D217" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E217" s="4">
         <v>43800</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F217" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="126"/>
-      <c r="B213" s="126"/>
-      <c r="C213" s="126"/>
-      <c r="D213" s="3" t="s">
+    <row r="218" spans="1:7">
+      <c r="A218" s="128"/>
+      <c r="B218" s="128"/>
+      <c r="C218" s="128"/>
+      <c r="D218" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E218" s="4">
         <v>43800</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="F218" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="126"/>
-      <c r="B214" s="126"/>
-      <c r="C214" s="127"/>
-      <c r="D214" s="3" t="s">
+    <row r="219" spans="1:7">
+      <c r="A219" s="128"/>
+      <c r="B219" s="128"/>
+      <c r="C219" s="129"/>
+      <c r="D219" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E219" s="4">
         <v>43800</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="126"/>
-      <c r="B215" s="126"/>
-      <c r="C215" s="123" t="s">
+    <row r="220" spans="1:7">
+      <c r="A220" s="128"/>
+      <c r="B220" s="128"/>
+      <c r="C220" s="138" t="s">
         <v>318</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="126"/>
-      <c r="B216" s="126"/>
-      <c r="C216" s="125"/>
-      <c r="D216" s="3" t="s">
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="128"/>
+      <c r="B221" s="128"/>
+      <c r="C221" s="142"/>
+      <c r="D221" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E216" s="4"/>
-      <c r="F216" s="2" t="s">
+      <c r="E221" s="4"/>
+      <c r="F221" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="G221" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="126"/>
-      <c r="B217" s="126"/>
-      <c r="C217" s="40" t="s">
+    <row r="222" spans="1:7">
+      <c r="A222" s="128"/>
+      <c r="B222" s="128"/>
+      <c r="C222" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D222" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E222" s="4">
         <v>43804</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="126"/>
-      <c r="B218" s="126"/>
-      <c r="C218" s="132" t="s">
+    <row r="223" spans="1:7">
+      <c r="A223" s="128"/>
+      <c r="B223" s="128"/>
+      <c r="C223" s="125" t="s">
         <v>433</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D223" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E223" s="7">
         <v>43812</v>
       </c>
-      <c r="F218" s="62" t="s">
+      <c r="F223" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="G218" s="128" t="s">
+      <c r="G223" s="140" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="126"/>
-      <c r="B219" s="126"/>
-      <c r="C219" s="126"/>
-      <c r="D219" s="5" t="s">
+    <row r="224" spans="1:7">
+      <c r="A224" s="128"/>
+      <c r="B224" s="128"/>
+      <c r="C224" s="128"/>
+      <c r="D224" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="E219" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F219" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G219" s="130"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="126"/>
-      <c r="B220" s="126"/>
-      <c r="C220" s="127"/>
-      <c r="D220" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E220" s="7">
-        <v>43821</v>
-      </c>
-      <c r="F220" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="G220" s="131"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="126"/>
-      <c r="B221" s="126"/>
-      <c r="C221" s="132" t="s">
-        <v>463</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E221" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F221" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="G221" s="137" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="126"/>
-      <c r="B222" s="126"/>
-      <c r="C222" s="133"/>
-      <c r="D222" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E222" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F222" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="G222" s="138"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="126"/>
-      <c r="B223" s="126"/>
-      <c r="C223" s="127"/>
-      <c r="D223" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E223" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F223" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="G223" s="131"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="127"/>
-      <c r="B224" s="127"/>
-      <c r="C224" s="95" t="s">
-        <v>589</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E224" s="4">
+      <c r="E224" s="7">
         <v>43821</v>
       </c>
       <c r="F224" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="G224" s="93" t="s">
+      <c r="G224" s="137"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="128"/>
+      <c r="B225" s="128"/>
+      <c r="C225" s="129"/>
+      <c r="D225" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E225" s="7">
+        <v>43821</v>
+      </c>
+      <c r="F225" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G225" s="136"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="128"/>
+      <c r="B226" s="128"/>
+      <c r="C226" s="125" t="s">
+        <v>463</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E226" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G226" s="130" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="128"/>
+      <c r="B227" s="128"/>
+      <c r="C227" s="126"/>
+      <c r="D227" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E227" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F227" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G227" s="131"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="128"/>
+      <c r="B228" s="128"/>
+      <c r="C228" s="129"/>
+      <c r="D228" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E228" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F228" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G228" s="136"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="129"/>
+      <c r="B229" s="129"/>
+      <c r="C229" s="95" t="s">
+        <v>589</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E229" s="4">
+        <v>43821</v>
+      </c>
+      <c r="F229" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G229" s="93" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="132" t="s">
+    <row r="230" spans="1:7">
+      <c r="A230" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="B225" s="132" t="s">
+      <c r="B230" s="125" t="s">
         <v>644</v>
       </c>
-      <c r="C225" s="33" t="s">
+      <c r="C230" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E230" s="4">
         <v>43802</v>
       </c>
-      <c r="F225" s="33" t="s">
+      <c r="F230" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G230" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="127"/>
-      <c r="B226" s="127"/>
-      <c r="C226" s="33" t="s">
+    <row r="231" spans="1:7">
+      <c r="A231" s="129"/>
+      <c r="B231" s="129"/>
+      <c r="C231" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D231" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E231" s="4">
         <v>43802</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="132" t="s">
+    <row r="232" spans="1:7">
+      <c r="A232" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B227" s="123" t="s">
+      <c r="B232" s="138" t="s">
         <v>306</v>
       </c>
-      <c r="C227" s="123" t="s">
+      <c r="C232" s="138" t="s">
         <v>307</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D232" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="E227" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F227" s="98" t="s">
-        <v>618</v>
-      </c>
-      <c r="G227" s="128" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="126"/>
-      <c r="B228" s="126"/>
-      <c r="C228" s="124"/>
-      <c r="D228" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E228" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F228" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G228" s="129"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="126"/>
-      <c r="B229" s="126"/>
-      <c r="C229" s="126"/>
-      <c r="D229" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E229" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F229" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G229" s="129"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="126"/>
-      <c r="B230" s="126"/>
-      <c r="C230" s="127"/>
-      <c r="D230" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E230" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F230" s="99" t="s">
-        <v>625</v>
-      </c>
-      <c r="G230" s="131"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="126"/>
-      <c r="B231" s="126"/>
-      <c r="C231" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E231" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F231" s="99" t="s">
-        <v>629</v>
-      </c>
-      <c r="G231" s="128" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="126"/>
-      <c r="B232" s="126"/>
-      <c r="C232" s="125"/>
-      <c r="D232" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="E232" s="4">
         <v>43822</v>
       </c>
-      <c r="F232" s="99" t="s">
+      <c r="F232" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="G232" s="140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="128"/>
+      <c r="B233" s="128"/>
+      <c r="C233" s="139"/>
+      <c r="D233" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E233" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F233" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G233" s="141"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="128"/>
+      <c r="B234" s="128"/>
+      <c r="C234" s="128"/>
+      <c r="D234" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E234" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F234" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G234" s="141"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="128"/>
+      <c r="B235" s="128"/>
+      <c r="C235" s="129"/>
+      <c r="D235" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E235" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F235" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="G235" s="136"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="128"/>
+      <c r="B236" s="128"/>
+      <c r="C236" s="138" t="s">
+        <v>309</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E236" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F236" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="G232" s="141"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="126"/>
-      <c r="B233" s="126"/>
-      <c r="C233" s="123" t="s">
+      <c r="G236" s="140" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="128"/>
+      <c r="B237" s="128"/>
+      <c r="C237" s="142"/>
+      <c r="D237" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E237" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F237" s="99" t="s">
+        <v>629</v>
+      </c>
+      <c r="G237" s="143"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="128"/>
+      <c r="B238" s="128"/>
+      <c r="C238" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="126"/>
-      <c r="B234" s="126"/>
-      <c r="C234" s="125"/>
-      <c r="D234" s="3" t="s">
+    <row r="239" spans="1:7">
+      <c r="A239" s="128"/>
+      <c r="B239" s="128"/>
+      <c r="C239" s="142"/>
+      <c r="D239" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="126"/>
-      <c r="B235" s="126"/>
-      <c r="C235" s="2" t="s">
+    <row r="240" spans="1:7">
+      <c r="A240" s="128"/>
+      <c r="B240" s="128"/>
+      <c r="C240" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D240" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E240" s="4">
         <v>43819</v>
       </c>
-      <c r="F235" s="82" t="s">
+      <c r="F240" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="126"/>
-      <c r="B236" s="126"/>
-      <c r="C236" s="132" t="s">
+    <row r="241" spans="1:7">
+      <c r="A241" s="128"/>
+      <c r="B241" s="128"/>
+      <c r="C241" s="125" t="s">
         <v>664</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D241" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E241" s="4">
         <v>43825</v>
       </c>
-      <c r="F236" s="107" t="s">
+      <c r="F241" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G236" s="128" t="s">
+      <c r="G241" s="140" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="126"/>
-      <c r="B237" s="126"/>
-      <c r="C237" s="126"/>
-      <c r="D237" s="5" t="s">
+    <row r="242" spans="1:7">
+      <c r="A242" s="128"/>
+      <c r="B242" s="128"/>
+      <c r="C242" s="128"/>
+      <c r="D242" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E242" s="4">
         <v>43825</v>
       </c>
-      <c r="F237" s="108" t="s">
+      <c r="F242" s="107" t="s">
         <v>667</v>
       </c>
-      <c r="G237" s="129"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="126"/>
-      <c r="B238" s="126"/>
-      <c r="C238" s="126"/>
-      <c r="D238" s="5" t="s">
+      <c r="G242" s="141"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="128"/>
+      <c r="B243" s="128"/>
+      <c r="C243" s="128"/>
+      <c r="D243" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E243" s="4">
         <v>43825</v>
       </c>
-      <c r="F238" s="108" t="s">
+      <c r="F243" s="107" t="s">
         <v>667</v>
       </c>
-      <c r="G238" s="129"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="126"/>
-      <c r="B239" s="126"/>
-      <c r="C239" s="126"/>
-      <c r="D239" s="5" t="s">
+      <c r="G243" s="141"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="128"/>
+      <c r="B244" s="128"/>
+      <c r="C244" s="128"/>
+      <c r="D244" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E244" s="4">
         <v>43829</v>
       </c>
-      <c r="F239" s="109" t="s">
+      <c r="F244" s="108" t="s">
         <v>701</v>
       </c>
-      <c r="G239" s="129"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="127"/>
-      <c r="B240" s="127"/>
-      <c r="C240" s="127"/>
-      <c r="D240" s="5" t="s">
+      <c r="G244" s="141"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="129"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="129"/>
+      <c r="D245" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E245" s="4">
         <v>43829</v>
       </c>
-      <c r="F240" s="109" t="s">
+      <c r="F245" s="108" t="s">
         <v>701</v>
       </c>
-      <c r="G240" s="141"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="63" t="s">
+      <c r="G245" s="143"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B241" s="48" t="s">
+      <c r="B246" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="C241" s="48" t="s">
+      <c r="C246" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D241" s="50" t="s">
+      <c r="D246" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E241" s="49" t="s">
+      <c r="E246" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="123" t="s">
+    <row r="248" spans="1:7">
+      <c r="A248" s="138" t="s">
         <v>448</v>
       </c>
-      <c r="B243" s="123" t="s">
+      <c r="B248" s="138" t="s">
         <v>454</v>
       </c>
-      <c r="C243" s="123" t="s">
+      <c r="C248" s="138" t="s">
         <v>449</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="E243" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G243" s="128" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="124"/>
-      <c r="B244" s="124"/>
-      <c r="C244" s="124"/>
-      <c r="D244" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E244" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G244" s="129"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="124"/>
-      <c r="B245" s="124"/>
-      <c r="C245" s="124"/>
-      <c r="D245" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E245" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G245" s="129"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="124"/>
-      <c r="B246" s="124"/>
-      <c r="C246" s="126"/>
-      <c r="D246" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E246" s="4">
-        <v>43815</v>
-      </c>
-      <c r="F246" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G246" s="130"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="124"/>
-      <c r="B247" s="124"/>
-      <c r="C247" s="127"/>
-      <c r="D247" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E247" s="4">
-        <v>43819</v>
-      </c>
-      <c r="F247" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G247" s="131"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="126"/>
-      <c r="B248" s="126"/>
-      <c r="C248" s="132" t="s">
-        <v>456</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="E248" s="4">
         <v>43815</v>
       </c>
-      <c r="F248" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G248" s="128" t="s">
-        <v>459</v>
+      <c r="F248" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G248" s="140" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="126"/>
-      <c r="B249" s="126"/>
-      <c r="C249" s="126"/>
+      <c r="A249" s="139"/>
+      <c r="B249" s="139"/>
+      <c r="C249" s="139"/>
       <c r="D249" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E249" s="4">
         <v>43815</v>
       </c>
-      <c r="F249" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="G249" s="129"/>
+      <c r="F249" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G249" s="141"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="126"/>
-      <c r="B250" s="126"/>
-      <c r="C250" s="126"/>
+      <c r="A250" s="139"/>
+      <c r="B250" s="139"/>
+      <c r="C250" s="139"/>
       <c r="D250" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E250" s="4">
         <v>43815</v>
       </c>
-      <c r="F250" s="63" t="s">
+      <c r="F250" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G250" s="141"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="139"/>
+      <c r="B251" s="139"/>
+      <c r="C251" s="128"/>
+      <c r="D251" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E251" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F251" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G250" s="129"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="127"/>
-      <c r="B251" s="127"/>
-      <c r="C251" s="127"/>
-      <c r="D251" s="3" t="s">
+      <c r="G251" s="137"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="139"/>
+      <c r="B252" s="139"/>
+      <c r="C252" s="129"/>
+      <c r="D252" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E252" s="4">
+        <v>43819</v>
+      </c>
+      <c r="F252" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="G252" s="136"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="128"/>
+      <c r="B253" s="128"/>
+      <c r="C253" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E253" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F253" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G253" s="140" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="128"/>
+      <c r="B254" s="128"/>
+      <c r="C254" s="128"/>
+      <c r="D254" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E254" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F254" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G254" s="141"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="128"/>
+      <c r="B255" s="128"/>
+      <c r="C255" s="128"/>
+      <c r="D255" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E255" s="4">
+        <v>43815</v>
+      </c>
+      <c r="F255" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G255" s="141"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="128"/>
+      <c r="B256" s="128"/>
+      <c r="C256" s="129"/>
+      <c r="D256" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E256" s="4">
         <v>43819</v>
       </c>
-      <c r="F251" s="82" t="s">
+      <c r="F256" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="G251" s="131"/>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E252" s="4">
-        <v>43822</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="121" t="s">
-        <v>753</v>
-      </c>
-      <c r="B253" s="121" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="132" t="s">
-        <v>753</v>
-      </c>
-      <c r="B254" s="132" t="s">
-        <v>750</v>
-      </c>
-      <c r="C254" s="132" t="s">
-        <v>752</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="E254" s="4">
-        <v>43836</v>
-      </c>
-      <c r="F254" s="121" t="s">
-        <v>754</v>
-      </c>
-      <c r="G254" s="128" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="126"/>
-      <c r="B255" s="126"/>
-      <c r="C255" s="126"/>
-      <c r="D255" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E255" s="4">
-        <v>43836</v>
-      </c>
-      <c r="F255" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G255" s="129"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="126"/>
-      <c r="B256" s="126"/>
-      <c r="C256" s="126"/>
-      <c r="D256" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="E256" s="4">
-        <v>43836</v>
-      </c>
-      <c r="F256" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" s="129"/>
+      <c r="G256" s="136"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="126"/>
-      <c r="B257" s="126"/>
-      <c r="C257" s="126"/>
+      <c r="A257" s="128"/>
+      <c r="B257" s="128"/>
+      <c r="C257" s="125" t="s">
+        <v>772</v>
+      </c>
       <c r="D257" s="3" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="E257" s="4">
-        <v>43836</v>
-      </c>
-      <c r="F257" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G257" s="129"/>
+        <v>43837</v>
+      </c>
+      <c r="F257" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G257" s="140" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="127"/>
-      <c r="B258" s="127"/>
+      <c r="A258" s="129"/>
+      <c r="B258" s="129"/>
       <c r="C258" s="127"/>
       <c r="D258" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E258" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F258" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G258" s="143"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E259" s="4">
+        <v>43822</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="119" t="s">
+        <v>753</v>
+      </c>
+      <c r="B260" s="119" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="125" t="s">
+        <v>753</v>
+      </c>
+      <c r="B261" s="125" t="s">
+        <v>750</v>
+      </c>
+      <c r="C261" s="125" t="s">
+        <v>752</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E261" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F261" s="119" t="s">
+        <v>754</v>
+      </c>
+      <c r="G261" s="140" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="128"/>
+      <c r="B262" s="128"/>
+      <c r="C262" s="128"/>
+      <c r="D262" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E262" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F262" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G262" s="141"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="128"/>
+      <c r="B263" s="128"/>
+      <c r="C263" s="128"/>
+      <c r="D263" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="E263" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F263" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G263" s="141"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="128"/>
+      <c r="B264" s="128"/>
+      <c r="C264" s="128"/>
+      <c r="D264" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E264" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F264" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G264" s="141"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="128"/>
+      <c r="B265" s="128"/>
+      <c r="C265" s="128"/>
+      <c r="D265" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E265" s="4">
         <v>43836</v>
       </c>
-      <c r="F258" s="122" t="s">
+      <c r="F265" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G258" s="141"/>
+      <c r="G265" s="141"/>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="128"/>
+      <c r="B266" s="128"/>
+      <c r="C266" s="128"/>
+      <c r="D266" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E266" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F266" s="124" t="s">
+        <v>767</v>
+      </c>
+      <c r="G266" s="137"/>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="129"/>
+      <c r="B267" s="129"/>
+      <c r="C267" s="129"/>
+      <c r="D267" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E267" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F267" s="124" t="s">
+        <v>767</v>
+      </c>
+      <c r="G267" s="136"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="D268" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E268" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F268" s="124" t="s">
+        <v>767</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="G254:G258"/>
-    <mergeCell ref="A254:A258"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B243:B251"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="A243:A251"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="G243:G247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="A76:A84"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A185:A224"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="B162:B181"/>
-    <mergeCell ref="A162:A181"/>
-    <mergeCell ref="C185:C191"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C168:C172"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C129:C136"/>
-    <mergeCell ref="B96:B136"/>
-    <mergeCell ref="G221:G223"/>
-    <mergeCell ref="C209:C214"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="B185:B224"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="C117:C124"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="C193:C197"/>
-    <mergeCell ref="G116:G123"/>
-    <mergeCell ref="G158:G160"/>
-    <mergeCell ref="G205:G207"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="G175:G181"/>
-    <mergeCell ref="G218:G220"/>
-    <mergeCell ref="G185:G191"/>
-    <mergeCell ref="G193:G198"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="G167:G171"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="G90:G95"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="C150:C157"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="G101:G108"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G77:G82"/>
+  <mergeCells count="115">
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A100:A140"/>
+    <mergeCell ref="B100:B141"/>
+    <mergeCell ref="C261:C267"/>
+    <mergeCell ref="B261:B267"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="G261:G267"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="G68:G73"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="B248:B258"/>
+    <mergeCell ref="A248:A258"/>
+    <mergeCell ref="G257:G258"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C31:C44"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="B232:B245"/>
+    <mergeCell ref="A232:A245"/>
+    <mergeCell ref="G241:G245"/>
+    <mergeCell ref="G167:G170"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="B3:B78"/>
+    <mergeCell ref="A3:A78"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="B142:B165"/>
+    <mergeCell ref="A142:A165"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="G155:G162"/>
+    <mergeCell ref="G144:G153"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="C57:C58"/>
@@ -10243,30 +10613,67 @@
     <mergeCell ref="G31:G44"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C31:C44"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="B227:B240"/>
-    <mergeCell ref="A227:A240"/>
-    <mergeCell ref="G236:G240"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="B3:B74"/>
-    <mergeCell ref="A3:A74"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="B137:B160"/>
-    <mergeCell ref="A137:A160"/>
-    <mergeCell ref="A96:A131"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G150:G157"/>
-    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="G105:G112"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="G226:G228"/>
+    <mergeCell ref="C214:C219"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="B190:B229"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="C121:C128"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="G120:G127"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="G180:G186"/>
+    <mergeCell ref="G223:G225"/>
+    <mergeCell ref="G190:G196"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="G213:G216"/>
+    <mergeCell ref="G172:G176"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="C106:C113"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A190:A229"/>
+    <mergeCell ref="C180:C186"/>
+    <mergeCell ref="B167:B186"/>
+    <mergeCell ref="A167:A186"/>
+    <mergeCell ref="C190:C196"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="C144:C153"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="C155:C162"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="G253:G256"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="G248:G252"/>
+    <mergeCell ref="C248:C252"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="C236:C237"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10302,10 +10709,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="149" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="152" t="s">
         <v>608</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -10317,13 +10724,13 @@
       <c r="E2" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="153" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="18" t="s">
         <v>677</v>
       </c>
@@ -10333,11 +10740,11 @@
       <c r="E3" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F3" s="152"/>
+      <c r="F3" s="154"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="18" t="s">
         <v>679</v>
       </c>
@@ -10347,11 +10754,11 @@
       <c r="E4" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F4" s="152"/>
+      <c r="F4" s="154"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="18" t="s">
         <v>681</v>
       </c>
@@ -10361,11 +10768,11 @@
       <c r="E5" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F5" s="152"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="29" t="s">
         <v>680</v>
       </c>
@@ -10375,7 +10782,7 @@
       <c r="E6" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F6" s="153"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="158" t="s">
@@ -10440,10 +10847,10 @@
       <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="149" t="s">
         <v>675</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="149" t="s">
         <v>720</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -10455,21 +10862,21 @@
       <c r="E11" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="148" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="110" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="109" t="s">
         <v>721</v>
       </c>
-      <c r="F12" s="130"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="29" t="s">
         <v>727</v>
       </c>
@@ -10479,11 +10886,11 @@
       <c r="E13" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F13" s="130"/>
+      <c r="F13" s="137"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="29" t="s">
         <v>730</v>
       </c>
@@ -10493,11 +10900,11 @@
       <c r="E14" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F14" s="130"/>
+      <c r="F14" s="137"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="29" t="s">
         <v>728</v>
       </c>
@@ -10507,11 +10914,11 @@
       <c r="E15" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F15" s="130"/>
+      <c r="F15" s="137"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="29" t="s">
         <v>729</v>
       </c>
@@ -10521,29 +10928,29 @@
       <c r="E16" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="F16" s="130"/>
+      <c r="F16" s="137"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="110" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="109" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="130"/>
+      <c r="F17" s="137"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="110" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="109" t="s">
         <v>723</v>
       </c>
-      <c r="F18" s="131"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="152" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="152" t="s">
         <v>609</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -10555,13 +10962,13 @@
       <c r="E19" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="F19" s="153" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="18" t="s">
         <v>614</v>
       </c>
@@ -10571,11 +10978,11 @@
       <c r="E20" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F20" s="152"/>
+      <c r="F20" s="154"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="18" t="s">
         <v>615</v>
       </c>
@@ -10585,11 +10992,11 @@
       <c r="E21" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F21" s="152"/>
+      <c r="F21" s="154"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="18" t="s">
         <v>616</v>
       </c>
@@ -10599,11 +11006,11 @@
       <c r="E22" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="152"/>
+      <c r="F22" s="154"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="18" t="s">
         <v>617</v>
       </c>
@@ -10613,13 +11020,13 @@
       <c r="E23" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="F23" s="153"/>
+      <c r="F23" s="155"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="149" t="s">
         <v>675</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="152" t="s">
         <v>670</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -10631,13 +11038,13 @@
       <c r="E24" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="F24" s="151" t="s">
+      <c r="F24" s="153" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="18" t="s">
         <v>673</v>
       </c>
@@ -10647,13 +11054,13 @@
       <c r="E25" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="F25" s="153"/>
+      <c r="F25" s="155"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="149" t="s">
         <v>675</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="149" t="s">
         <v>683</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -10665,13 +11072,13 @@
       <c r="E26" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="F26" s="143" t="s">
+      <c r="F26" s="148" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="155"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="18" t="s">
         <v>688</v>
       </c>
@@ -10681,11 +11088,11 @@
       <c r="E27" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F27" s="130"/>
+      <c r="F27" s="137"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="155"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="18" t="s">
         <v>689</v>
       </c>
@@ -10695,11 +11102,11 @@
       <c r="E28" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F28" s="130"/>
+      <c r="F28" s="137"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="155"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="18" t="s">
         <v>690</v>
       </c>
@@ -10709,21 +11116,21 @@
       <c r="E29" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="F29" s="130"/>
+      <c r="F29" s="137"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="155"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="110" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="109" t="s">
         <v>691</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="130"/>
+      <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="18" t="s">
         <v>739</v>
       </c>
@@ -10733,13 +11140,13 @@
       <c r="E31" s="28" t="s">
         <v>738</v>
       </c>
-      <c r="F31" s="131"/>
+      <c r="F31" s="136"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="149" t="s">
         <v>675</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="149" t="s">
         <v>684</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -10751,13 +11158,13 @@
       <c r="E32" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F32" s="151" t="s">
+      <c r="F32" s="153" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="154"/>
-      <c r="B33" s="154"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="18" t="s">
         <v>695</v>
       </c>
@@ -10767,11 +11174,11 @@
       <c r="E33" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F33" s="153"/>
+      <c r="F33" s="155"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="18" t="s">
         <v>703</v>
       </c>
@@ -10781,11 +11188,11 @@
       <c r="E34" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="F34" s="112"/>
+      <c r="F34" s="111"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="18" t="s">
         <v>705</v>
       </c>
@@ -10795,11 +11202,11 @@
       <c r="E35" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="F35" s="112"/>
+      <c r="F35" s="111"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="18" t="s">
         <v>710</v>
       </c>
@@ -10809,11 +11216,11 @@
       <c r="E36" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="F36" s="116"/>
+      <c r="F36" s="115"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="18" t="s">
         <v>712</v>
       </c>
@@ -10823,7 +11230,7 @@
       <c r="E37" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="F37" s="116"/>
+      <c r="F37" s="115"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
@@ -10855,15 +11262,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="F19:F23"/>
@@ -10876,6 +11274,15 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10904,13 +11311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="152" t="s">
         <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -10923,13 +11330,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="129" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -10959,7 +11366,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="149" t="s">
         <v>427</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -10967,13 +11374,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="155"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="154"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="16" t="s">
         <v>430</v>
       </c>
@@ -11027,7 +11434,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="149" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -11037,7 +11444,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="155"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
@@ -11045,7 +11452,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="154"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="16" t="s">
         <v>158</v>
       </c>
@@ -11059,10 +11466,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="152" t="s">
         <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -11082,8 +11489,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="15" t="s">
         <v>273</v>
       </c>

--- a/PlanB/PlanB.xlsx
+++ b/PlanB/PlanB.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="软件技术" sheetId="3" r:id="rId1"/>
     <sheet name="硬件技术" sheetId="1" r:id="rId2"/>
     <sheet name="项目产品" sheetId="4" r:id="rId3"/>
-    <sheet name="日常行为" sheetId="2" r:id="rId4"/>
+    <sheet name="商业思维" sheetId="5" r:id="rId4"/>
+    <sheet name="日常行为" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="801">
   <si>
     <t>书籍名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3571,16 +3572,7 @@
     <t>MQTT communication protocol.pdf</t>
   </si>
   <si>
-    <t>MQTT connecting the Internet of Things - GUIDE Share France.pdf</t>
-  </si>
-  <si>
     <t>MQTT Essentials - A Lightweight IoT Protocol.pdf</t>
-  </si>
-  <si>
-    <t>MQTT MQ Telemetry Transport indigoo.com MQTT.pdf</t>
-  </si>
-  <si>
-    <t>MQTT, Adafruit IO &amp; You!.pdf</t>
   </si>
   <si>
     <r>
@@ -3607,6 +3599,101 @@
   </si>
   <si>
     <t>D:\A-超级智库\PlanB\1-软件技术\7-通信协议\MQTT</t>
+  </si>
+  <si>
+    <t>Orchestration of smart objects with MQTT for the Internet of Things.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MQTT connecting the Internet of Things - GUIDE Share France.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MQTT MQ Telemetry Transport indigoo.com MQTT.pdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-蓝牙音频BLE数传芯片选型对比总结.pdf</t>
+  </si>
+  <si>
+    <t>RD-从概念到业务来看 To B 和 To C 产品区别在哪.pdf</t>
+  </si>
+  <si>
+    <t>商业思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\A-超级智库\PlanB\100-商业思维\基本概念</t>
+  </si>
+  <si>
+    <t>期权股权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融洗钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD-MQTT, Adafruit IO &amp; You!.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raspberry Pi IoT Projects.pdf</t>
+  </si>
+  <si>
+    <t>Explore and learn about Internet of Things with the help of engaging and enlightening tutorials designed for Raspberry Pi.pdf</t>
+  </si>
+  <si>
+    <t>2016_IoT_Automation_Solutions.pdf</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3831,9 +3918,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3867,16 +3951,100 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3885,11 +4053,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3899,132 +4076,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4042,161 +4093,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4492,10 +4543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:B122"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4511,15 +4562,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -4545,13 +4596,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="125" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4568,9 +4619,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4585,22 +4636,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="125" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4617,9 +4668,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="135"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -4634,9 +4685,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="135"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
@@ -4651,9 +4702,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="135"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -4668,9 +4719,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="135"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -4685,18 +4736,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="82"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="125" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="120" t="s">
         <v>570</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4705,66 +4756,66 @@
       <c r="E12" s="4">
         <v>43819</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="117" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="126"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="5" t="s">
         <v>573</v>
       </c>
       <c r="E13" s="4">
         <v>43819</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G13" s="131"/>
+      <c r="G13" s="118"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="5" t="s">
         <v>574</v>
       </c>
       <c r="E14" s="7">
         <v>43819</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="131"/>
+      <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="127"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="5" t="s">
         <v>575</v>
       </c>
       <c r="E15" s="4">
         <v>43819</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="132"/>
+      <c r="G15" s="119"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -4799,13 +4850,13 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="120" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="120" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4814,236 +4865,236 @@
       <c r="E19" s="4">
         <v>43810</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="117" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="131"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="118"/>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="5" t="s">
         <v>403</v>
       </c>
       <c r="E21" s="4">
         <v>43810</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="131"/>
+      <c r="G21" s="118"/>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="5" t="s">
         <v>404</v>
       </c>
       <c r="E22" s="4">
         <v>43810</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G22" s="131"/>
+      <c r="G22" s="118"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="5" t="s">
         <v>407</v>
       </c>
       <c r="E23" s="4">
         <v>43810</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G23" s="137"/>
+      <c r="G23" s="127"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="5" t="s">
         <v>406</v>
       </c>
       <c r="E24" s="4">
         <v>43810</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="128"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="5" t="s">
         <v>408</v>
       </c>
       <c r="E25" s="4">
         <v>43810</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="127"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="5" t="s">
         <v>409</v>
       </c>
       <c r="E26" s="4">
         <v>43810</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E27" s="4">
         <v>43810</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="137"/>
+      <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="5" t="s">
         <v>411</v>
       </c>
       <c r="E28" s="4">
         <v>43810</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="5" t="s">
         <v>412</v>
       </c>
       <c r="E29" s="4">
         <v>43810</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E30" s="4">
         <v>43810</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="127"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="5" t="s">
         <v>414</v>
       </c>
       <c r="E31" s="4">
         <v>43810</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G31" s="137"/>
+      <c r="G31" s="127"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="5" t="s">
         <v>415</v>
       </c>
       <c r="E32" s="4">
         <v>43810</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="137"/>
+      <c r="G32" s="127"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="129"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="5" t="s">
         <v>416</v>
       </c>
       <c r="E33" s="4">
         <v>43810</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G33" s="136"/>
+      <c r="G33" s="124"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="125" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -5055,14 +5106,14 @@
       <c r="F35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="130" t="s">
+      <c r="G35" s="117" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -5072,12 +5123,12 @@
       <c r="F36" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="131"/>
+      <c r="G36" s="118"/>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="135"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="5" t="s">
         <v>119</v>
       </c>
@@ -5087,12 +5138,12 @@
       <c r="F37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="131"/>
+      <c r="G37" s="118"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="135"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
@@ -5102,22 +5153,22 @@
       <c r="F38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="131"/>
+      <c r="G38" s="118"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="5" t="s">
         <v>422</v>
       </c>
       <c r="E39" s="4">
         <v>43811</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="132"/>
+      <c r="G39" s="119"/>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="11"/>
@@ -5129,13 +5180,13 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="120" t="s">
         <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5147,14 +5198,14 @@
       <c r="F41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="130" t="s">
+      <c r="G41" s="117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
@@ -5164,22 +5215,22 @@
       <c r="F42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="131"/>
+      <c r="G42" s="118"/>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="5" t="s">
         <v>431</v>
       </c>
       <c r="E43" s="4">
         <v>43810</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="132"/>
+      <c r="G43" s="119"/>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1">
       <c r="A44" s="12"/>
@@ -5191,13 +5242,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="125" t="s">
+      <c r="C45" s="120" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -5209,14 +5260,14 @@
       <c r="F45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="130" t="s">
+      <c r="G45" s="117" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="126"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="128"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
@@ -5226,66 +5277,66 @@
       <c r="F46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="131"/>
+      <c r="G46" s="118"/>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1">
-      <c r="A47" s="128"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="131"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="118"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
-      <c r="A48" s="128"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
       <c r="D48" s="5" t="s">
         <v>419</v>
       </c>
       <c r="E48" s="4">
         <v>43810</v>
       </c>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="G48" s="131"/>
+      <c r="G48" s="118"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="129"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="5" t="s">
         <v>420</v>
       </c>
       <c r="E49" s="4">
         <v>43810</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="136"/>
+      <c r="G49" s="124"/>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="134"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="43" t="s">
         <v>339</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -5294,7 +5345,7 @@
       <c r="E51" s="7">
         <v>43805</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="43" t="s">
         <v>341</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -5302,18 +5353,18 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="128"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1">
-      <c r="A53" s="128"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="125" t="s">
+      <c r="A53" s="122"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="120" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5325,14 +5376,14 @@
       <c r="F53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="135" t="s">
+      <c r="G53" s="125" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
-      <c r="A54" s="128"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="126"/>
+      <c r="A54" s="122"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
@@ -5342,12 +5393,12 @@
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="135"/>
+      <c r="G54" s="125"/>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1">
-      <c r="A55" s="128"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="126"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="5" t="s">
         <v>106</v>
       </c>
@@ -5357,12 +5408,12 @@
       <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="135"/>
+      <c r="G55" s="125"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1">
-      <c r="A56" s="128"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="126"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
@@ -5372,12 +5423,12 @@
       <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="135"/>
+      <c r="G56" s="125"/>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="126"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="5" t="s">
         <v>108</v>
       </c>
@@ -5387,12 +5438,12 @@
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="135"/>
+      <c r="G57" s="125"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="126"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
@@ -5402,12 +5453,12 @@
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="135"/>
+      <c r="G58" s="125"/>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="128"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="5" t="s">
         <v>113</v>
       </c>
@@ -5416,9 +5467,9 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="129"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="5" t="s">
         <v>114</v>
       </c>
@@ -5427,18 +5478,18 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="128"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1">
-      <c r="A62" s="128"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="125" t="s">
+      <c r="A62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="120" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5447,104 +5498,104 @@
       <c r="E62" s="7">
         <v>43805</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="130" t="s">
+      <c r="G62" s="117" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="128"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="126"/>
+      <c r="A63" s="122"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="131"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="118"/>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1">
-      <c r="A64" s="128"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="128"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E64" s="7">
         <v>43805</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="G64" s="131"/>
+      <c r="G64" s="118"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1">
-      <c r="A65" s="128"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="128"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
       <c r="D65" s="5" t="s">
         <v>352</v>
       </c>
       <c r="E65" s="7">
         <v>43805</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="131"/>
+      <c r="G65" s="118"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="129"/>
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="5" t="s">
         <v>353</v>
       </c>
       <c r="E66" s="7">
         <v>43805</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="132"/>
+      <c r="G66" s="119"/>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="128"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="45"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="128"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="45" t="s">
+      <c r="A68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="44" t="s">
         <v>343</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>344</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="128"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="122"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="50"/>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="128"/>
-      <c r="B70" s="128"/>
-      <c r="C70" s="125" t="s">
+      <c r="A70" s="122"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="120" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -5553,87 +5604,87 @@
       <c r="E70" s="7">
         <v>43807</v>
       </c>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="130" t="s">
+      <c r="G70" s="117" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="128"/>
-      <c r="B71" s="128"/>
-      <c r="C71" s="126"/>
+      <c r="A71" s="122"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="121"/>
       <c r="D71" s="5" t="s">
         <v>387</v>
       </c>
       <c r="E71" s="7">
         <v>43807</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F71" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="131"/>
+      <c r="G71" s="118"/>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="128"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="128"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="5" t="s">
         <v>390</v>
       </c>
       <c r="E72" s="7">
         <v>43807</v>
       </c>
-      <c r="F72" s="52" t="s">
+      <c r="F72" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="131"/>
+      <c r="G72" s="118"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="128"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
+      <c r="A73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="5" t="s">
         <v>389</v>
       </c>
       <c r="E73" s="7">
         <v>43807</v>
       </c>
-      <c r="F73" s="52" t="s">
+      <c r="F73" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="137"/>
+      <c r="G73" s="127"/>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="128"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="5" t="s">
         <v>391</v>
       </c>
       <c r="E74" s="7">
         <v>43807</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="137"/>
+      <c r="G74" s="127"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="129"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="5" t="s">
         <v>392</v>
       </c>
       <c r="E75" s="7">
         <v>43807</v>
       </c>
-      <c r="F75" s="52" t="s">
+      <c r="F75" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="136"/>
+      <c r="G75" s="124"/>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1">
       <c r="A76" s="12"/>
@@ -5645,10 +5696,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1">
-      <c r="A77" s="125" t="s">
+      <c r="A77" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="120" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -5668,9 +5719,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1">
-      <c r="A78" s="128"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="125" t="s">
+      <c r="A78" s="122"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="120" t="s">
         <v>471</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5679,32 +5730,32 @@
       <c r="E78" s="4">
         <v>43816</v>
       </c>
-      <c r="F78" s="65" t="s">
+      <c r="F78" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="G78" s="130" t="s">
+      <c r="G78" s="117" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1">
-      <c r="A79" s="128"/>
-      <c r="B79" s="128"/>
-      <c r="C79" s="129"/>
+      <c r="A79" s="122"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E79" s="4">
         <v>43816</v>
       </c>
-      <c r="F79" s="65" t="s">
+      <c r="F79" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="G79" s="132"/>
+      <c r="G79" s="119"/>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1">
-      <c r="A80" s="128"/>
-      <c r="B80" s="128"/>
-      <c r="C80" s="125" t="s">
+      <c r="A80" s="122"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="120" t="s">
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5713,103 +5764,103 @@
       <c r="E80" s="4">
         <v>43817</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="130" t="s">
+      <c r="G80" s="117" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1">
-      <c r="A81" s="128"/>
-      <c r="B81" s="128"/>
-      <c r="C81" s="126"/>
+      <c r="A81" s="122"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="5" t="s">
         <v>480</v>
       </c>
       <c r="E81" s="4">
         <v>43817</v>
       </c>
-      <c r="F81" s="66" t="s">
+      <c r="F81" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="131"/>
+      <c r="G81" s="118"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1">
-      <c r="A82" s="128"/>
-      <c r="B82" s="128"/>
-      <c r="C82" s="128"/>
+      <c r="A82" s="122"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="122"/>
       <c r="D82" s="5" t="s">
         <v>479</v>
       </c>
       <c r="E82" s="4">
         <v>43817</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="131"/>
+      <c r="G82" s="118"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="128"/>
-      <c r="B83" s="128"/>
-      <c r="C83" s="129"/>
+      <c r="A83" s="122"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="5" t="s">
         <v>481</v>
       </c>
       <c r="E83" s="4">
         <v>43817</v>
       </c>
-      <c r="F83" s="66" t="s">
+      <c r="F83" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="136"/>
+      <c r="G83" s="124"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="129"/>
-      <c r="B84" s="128"/>
-      <c r="C84" s="125" t="s">
+      <c r="A84" s="122"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="120" t="s">
         <v>397</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E84" s="69" t="s">
+      <c r="E84" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="F84" s="66"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
-      <c r="A85" s="55"/>
-      <c r="B85" s="129"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="68" t="s">
+      <c r="A85" s="123"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="E85" s="69" t="s">
+      <c r="E85" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="F85" s="55"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="134"/>
-      <c r="B86" s="134"/>
-      <c r="C86" s="134"/>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="134"/>
-      <c r="G86" s="134"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="125" t="s">
+      <c r="A87" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="125" t="s">
+      <c r="B87" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="138" t="s">
+      <c r="C87" s="128" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5821,14 +5872,14 @@
       <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="140" t="s">
+      <c r="G87" s="130" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1">
-      <c r="A88" s="126"/>
-      <c r="B88" s="126"/>
-      <c r="C88" s="139"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="3" t="s">
         <v>508</v>
       </c>
@@ -5838,12 +5889,12 @@
       <c r="F88" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="141"/>
+      <c r="G88" s="131"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1">
-      <c r="A89" s="126"/>
-      <c r="B89" s="126"/>
-      <c r="C89" s="139"/>
+      <c r="A89" s="121"/>
+      <c r="B89" s="121"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="5" t="s">
         <v>511</v>
       </c>
@@ -5853,71 +5904,71 @@
       <c r="F89" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="141"/>
+      <c r="G89" s="131"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="126"/>
-      <c r="B90" s="126"/>
-      <c r="C90" s="128"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="122"/>
       <c r="D90" s="3" t="s">
         <v>507</v>
       </c>
       <c r="E90" s="4">
         <v>43817</v>
       </c>
-      <c r="F90" s="67" t="s">
+      <c r="F90" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="137"/>
+      <c r="G90" s="127"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="126"/>
-      <c r="B91" s="126"/>
-      <c r="C91" s="128"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="3" t="s">
         <v>510</v>
       </c>
       <c r="E91" s="4">
         <v>43818</v>
       </c>
-      <c r="F91" s="71" t="s">
+      <c r="F91" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="137"/>
+      <c r="G91" s="127"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="126"/>
-      <c r="B92" s="126"/>
-      <c r="C92" s="128"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="121"/>
+      <c r="C92" s="122"/>
       <c r="D92" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E92" s="4">
         <v>43818</v>
       </c>
-      <c r="F92" s="71" t="s">
+      <c r="F92" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="G92" s="137"/>
+      <c r="G92" s="127"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="126"/>
-      <c r="B93" s="126"/>
-      <c r="C93" s="129"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="3" t="s">
         <v>513</v>
       </c>
       <c r="E93" s="4">
         <v>43818</v>
       </c>
-      <c r="F93" s="71" t="s">
+      <c r="F93" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="136"/>
+      <c r="G93" s="124"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
-      <c r="A94" s="126"/>
-      <c r="B94" s="126"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="121"/>
       <c r="C94" s="13" t="s">
         <v>124</v>
       </c>
@@ -5935,9 +5986,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="126"/>
-      <c r="B95" s="126"/>
-      <c r="C95" s="125" t="s">
+      <c r="A95" s="121"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="120" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5954,9 +6005,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="126"/>
-      <c r="B96" s="126"/>
-      <c r="C96" s="127"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="121"/>
+      <c r="C96" s="126"/>
       <c r="D96" s="3" t="s">
         <v>184</v>
       </c>
@@ -5965,8 +6016,8 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="126"/>
-      <c r="B97" s="126"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="121"/>
       <c r="C97" s="23" t="s">
         <v>196</v>
       </c>
@@ -5984,9 +6035,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1">
-      <c r="A98" s="128"/>
-      <c r="B98" s="128"/>
-      <c r="C98" s="125" t="s">
+      <c r="A98" s="122"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="120" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5997,9 +6048,9 @@
       <c r="G98" s="25"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1">
-      <c r="A99" s="128"/>
-      <c r="B99" s="128"/>
-      <c r="C99" s="126"/>
+      <c r="A99" s="122"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="121"/>
       <c r="D99" s="5" t="s">
         <v>201</v>
       </c>
@@ -6008,9 +6059,9 @@
       <c r="G99" s="25"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
-      <c r="A100" s="128"/>
-      <c r="B100" s="128"/>
-      <c r="C100" s="127"/>
+      <c r="A100" s="122"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="126"/>
       <c r="D100" s="5" t="s">
         <v>202</v>
       </c>
@@ -6019,8 +6070,8 @@
       <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
-      <c r="A101" s="129"/>
-      <c r="B101" s="129"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="123"/>
       <c r="C101" s="34" t="s">
         <v>300</v>
       </c>
@@ -6038,19 +6089,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
-      <c r="A102" s="134"/>
-      <c r="B102" s="134"/>
-      <c r="C102" s="134"/>
-      <c r="D102" s="134"/>
-      <c r="E102" s="134"/>
-      <c r="F102" s="134"/>
-      <c r="G102" s="134"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1">
-      <c r="A103" s="125" t="s">
+      <c r="A103" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="125" t="s">
+      <c r="B103" s="120" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="2"/>
@@ -6068,8 +6119,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1">
-      <c r="A104" s="126"/>
-      <c r="B104" s="126"/>
+      <c r="A104" s="121"/>
+      <c r="B104" s="121"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>47</v>
@@ -6085,8 +6136,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1">
-      <c r="A105" s="126"/>
-      <c r="B105" s="126"/>
+      <c r="A105" s="121"/>
+      <c r="B105" s="121"/>
       <c r="C105" s="12" t="s">
         <v>48</v>
       </c>
@@ -6104,9 +6155,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1">
-      <c r="A106" s="126"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="135" t="s">
+      <c r="A106" s="121"/>
+      <c r="B106" s="121"/>
+      <c r="C106" s="125" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -6119,9 +6170,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1">
-      <c r="A107" s="126"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="135"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="125"/>
       <c r="D107" s="5" t="s">
         <v>192</v>
       </c>
@@ -6130,13 +6181,13 @@
       <c r="G107" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="125" t="s">
+      <c r="A109" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="125" t="s">
+      <c r="B109" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="125" t="s">
+      <c r="C109" s="120" t="s">
         <v>173</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -6148,14 +6199,14 @@
       <c r="F109" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G109" s="130" t="s">
+      <c r="G109" s="117" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="128"/>
-      <c r="B110" s="128"/>
-      <c r="C110" s="126"/>
+      <c r="A110" s="122"/>
+      <c r="B110" s="122"/>
+      <c r="C110" s="121"/>
       <c r="D110" s="21" t="s">
         <v>179</v>
       </c>
@@ -6165,12 +6216,12 @@
       <c r="F110" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G110" s="137"/>
+      <c r="G110" s="127"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="128"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="126"/>
+      <c r="A111" s="122"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="121"/>
       <c r="D111" s="6" t="s">
         <v>177</v>
       </c>
@@ -6180,12 +6231,12 @@
       <c r="F111" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G111" s="137"/>
+      <c r="G111" s="127"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="128"/>
-      <c r="B112" s="128"/>
-      <c r="C112" s="126"/>
+      <c r="A112" s="122"/>
+      <c r="B112" s="122"/>
+      <c r="C112" s="121"/>
       <c r="D112" s="6" t="s">
         <v>178</v>
       </c>
@@ -6195,170 +6246,178 @@
       <c r="F112" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G112" s="136"/>
+      <c r="G112" s="124"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="128"/>
-      <c r="B113" s="128"/>
-      <c r="C113" s="125" t="s">
+      <c r="A113" s="122"/>
+      <c r="B113" s="122"/>
+      <c r="C113" s="120" t="s">
         <v>777</v>
       </c>
-      <c r="D113" s="109" t="s">
+      <c r="D113" s="97" t="s">
         <v>776</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="124"/>
-      <c r="G113" s="140" t="s">
+      <c r="F113" s="110"/>
+      <c r="G113" s="130" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="122"/>
+      <c r="B114" s="122"/>
+      <c r="C114" s="122"/>
+      <c r="D114" s="97" t="s">
+        <v>778</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="131"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="122"/>
+      <c r="B115" s="122"/>
+      <c r="C115" s="122"/>
+      <c r="D115" s="97" t="s">
+        <v>779</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="131"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="122"/>
+      <c r="B116" s="122"/>
+      <c r="C116" s="122"/>
+      <c r="D116" s="97" t="s">
+        <v>780</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="131"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="122"/>
+      <c r="B117" s="122"/>
+      <c r="C117" s="122"/>
+      <c r="D117" s="97" t="s">
+        <v>781</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="131"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="122"/>
+      <c r="B118" s="122"/>
+      <c r="C118" s="122"/>
+      <c r="D118" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F118" s="110" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="128"/>
-      <c r="B114" s="128"/>
-      <c r="C114" s="128"/>
-      <c r="D114" s="109" t="s">
-        <v>778</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="124"/>
-      <c r="G114" s="141"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="128"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="128"/>
-      <c r="D115" s="109" t="s">
-        <v>779</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="124"/>
-      <c r="G115" s="141"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="128"/>
-      <c r="B116" s="128"/>
-      <c r="C116" s="128"/>
-      <c r="D116" s="109" t="s">
-        <v>780</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="141"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="128"/>
-      <c r="B117" s="128"/>
-      <c r="C117" s="128"/>
-      <c r="D117" s="109" t="s">
-        <v>781</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="124"/>
-      <c r="G117" s="141"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="128"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="128"/>
-      <c r="D118" s="109" t="s">
+      <c r="G118" s="131"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="122"/>
+      <c r="B119" s="122"/>
+      <c r="C119" s="122"/>
+      <c r="D119" s="97" t="s">
         <v>782</v>
       </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="124"/>
-      <c r="G118" s="141"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="128"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="128"/>
-      <c r="D119" s="109" t="s">
+      <c r="E119" s="4"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="131"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="122"/>
+      <c r="B120" s="122"/>
+      <c r="C120" s="122"/>
+      <c r="D120" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43837</v>
+      </c>
+      <c r="F120" s="110" t="s">
+        <v>762</v>
+      </c>
+      <c r="G120" s="131"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="122"/>
+      <c r="B121" s="122"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="E121" s="4">
+        <v>43838</v>
+      </c>
+      <c r="F121" s="114" t="s">
+        <v>797</v>
+      </c>
+      <c r="G121" s="131"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="122"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="122"/>
+      <c r="D122" s="113" t="s">
         <v>783</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="124"/>
-      <c r="G119" s="141"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="128"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="128"/>
-      <c r="D120" s="109" t="s">
-        <v>784</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="124"/>
-      <c r="G120" s="141"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="128"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="128"/>
-      <c r="D121" s="109" t="s">
-        <v>785</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="124"/>
-      <c r="G121" s="141"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="164" t="s">
-        <v>786</v>
       </c>
       <c r="E122" s="4">
         <v>43837</v>
       </c>
-      <c r="F122" s="124" t="s">
+      <c r="F122" s="110" t="s">
         <v>762</v>
       </c>
-      <c r="G122" s="143"/>
+      <c r="G122" s="132"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="138" t="s">
+      <c r="A123" s="123"/>
+      <c r="B123" s="123"/>
+      <c r="C123" s="123"/>
+      <c r="D123" s="113" t="s">
+        <v>785</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="107"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="128" t="s">
         <v>732</v>
       </c>
-      <c r="B123" s="138" t="s">
+      <c r="B124" s="128" t="s">
         <v>731</v>
       </c>
-      <c r="C123" s="138" t="s">
+      <c r="C124" s="128" t="s">
         <v>734</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="E123" s="4">
-        <v>43836</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="G123" s="140" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="139"/>
-      <c r="B124" s="139"/>
-      <c r="C124" s="139"/>
-      <c r="D124" s="6" t="s">
-        <v>737</v>
       </c>
       <c r="E124" s="4">
         <v>43836</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="G124" s="141"/>
+        <v>735</v>
+      </c>
+      <c r="G124" s="130" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="139"/>
-      <c r="B125" s="139"/>
-      <c r="C125" s="139"/>
+      <c r="A125" s="129"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="129"/>
       <c r="D125" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E125" s="4">
         <v>43836</v>
@@ -6366,99 +6425,122 @@
       <c r="F125" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G125" s="141"/>
+      <c r="G125" s="131"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="139"/>
-      <c r="B126" s="139"/>
-      <c r="C126" s="128"/>
+      <c r="A126" s="129"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="129"/>
       <c r="D126" s="6" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E126" s="4">
         <v>43836</v>
       </c>
-      <c r="F126" s="119" t="s">
-        <v>743</v>
-      </c>
-      <c r="G126" s="141"/>
+      <c r="F126" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G126" s="131"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="139"/>
-      <c r="B127" s="139"/>
-      <c r="C127" s="128"/>
+      <c r="A127" s="129"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="122"/>
       <c r="D127" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E127" s="4">
         <v>43836</v>
       </c>
-      <c r="F127" s="119" t="s">
-        <v>738</v>
-      </c>
-      <c r="G127" s="137"/>
+      <c r="F127" s="104" t="s">
+        <v>743</v>
+      </c>
+      <c r="G127" s="131"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="139"/>
-      <c r="B128" s="139"/>
-      <c r="C128" s="128"/>
+      <c r="A128" s="129"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="122"/>
       <c r="D128" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E128" s="4">
         <v>43836</v>
       </c>
-      <c r="F128" s="119" t="s">
+      <c r="F128" s="104" t="s">
         <v>738</v>
       </c>
-      <c r="G128" s="137"/>
+      <c r="G128" s="127"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="139"/>
-      <c r="B129" s="139"/>
-      <c r="C129" s="129"/>
+      <c r="A129" s="129"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="122"/>
       <c r="D129" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E129" s="4">
         <v>43836</v>
       </c>
-      <c r="F129" s="119" t="s">
+      <c r="F129" s="104" t="s">
         <v>738</v>
       </c>
-      <c r="G129" s="136"/>
+      <c r="G129" s="127"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="142"/>
-      <c r="B130" s="142"/>
-      <c r="C130" s="119" t="s">
-        <v>741</v>
-      </c>
+      <c r="A130" s="129"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="6" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E130" s="4">
         <v>43836</v>
       </c>
-      <c r="F130" s="119" t="s">
+      <c r="F130" s="104" t="s">
+        <v>738</v>
+      </c>
+      <c r="G130" s="124"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="133"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F131" s="104" t="s">
         <v>743</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>744</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="A109:A123"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="C124:C130"/>
+    <mergeCell ref="G124:G130"/>
     <mergeCell ref="C109:C112"/>
     <mergeCell ref="G109:G112"/>
-    <mergeCell ref="C113:C122"/>
     <mergeCell ref="G113:G122"/>
-    <mergeCell ref="A109:A122"/>
-    <mergeCell ref="B109:B122"/>
+    <mergeCell ref="C113:C123"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="A87:A101"/>
@@ -6469,50 +6551,42 @@
     <mergeCell ref="B87:B101"/>
     <mergeCell ref="C87:C93"/>
     <mergeCell ref="G87:G93"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="G62:G66"/>
     <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A51:A74"/>
-    <mergeCell ref="B51:B74"/>
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="C53:C60"/>
     <mergeCell ref="A50:G50"/>
+    <mergeCell ref="B51:B75"/>
+    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="G45:G49"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="G19:G33"/>
     <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6524,10 +6598,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6535,7 +6609,7 @@
     <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88" style="3" customWidth="1"/>
+    <col min="4" max="4" width="77" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="90.75" style="3" customWidth="1"/>
@@ -6543,15 +6617,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
@@ -6577,13 +6651,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="120" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6595,14 +6669,14 @@
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="117" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="126"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="5" t="s">
         <v>258</v>
       </c>
@@ -6612,12 +6686,12 @@
       <c r="F4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="131"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="126"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="5" t="s">
         <v>260</v>
       </c>
@@ -6627,42 +6701,42 @@
       <c r="F5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="131"/>
+      <c r="G5" s="118"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="128"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="5" t="s">
         <v>706</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="100" t="s">
         <v>707</v>
       </c>
-      <c r="G6" s="137"/>
+      <c r="G6" s="127"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="129"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="5" t="s">
         <v>708</v>
       </c>
       <c r="E7" s="4">
         <v>43831</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="100" t="s">
         <v>709</v>
       </c>
-      <c r="G7" s="136"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="125" t="s">
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -6674,136 +6748,136 @@
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="117" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="128"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="5" t="s">
         <v>533</v>
       </c>
       <c r="E9" s="4">
         <v>43818</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="128"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="5" t="s">
         <v>535</v>
       </c>
       <c r="E10" s="4">
         <v>43818</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="127"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="139"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="128"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="5" t="s">
         <v>536</v>
       </c>
       <c r="E11" s="4">
         <v>43818</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="G11" s="137"/>
+      <c r="G11" s="127"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="139"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="80" t="s">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="78" t="s">
         <v>537</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="137"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="80" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="78" t="s">
         <v>538</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="137"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="80" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="78" t="s">
         <v>539</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="137"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="127"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="80" t="s">
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="78" t="s">
         <v>540</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="137"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="127"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="80" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="78" t="s">
         <v>541</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="137"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="139"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="80" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="78" t="s">
         <v>542</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="137"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="127"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="139"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="80" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="78" t="s">
         <v>543</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="136"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="138" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="128" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -6815,14 +6889,14 @@
       <c r="F19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="117" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="128"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="139"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="5" t="s">
         <v>170</v>
       </c>
@@ -6832,27 +6906,27 @@
       <c r="F20" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="132"/>
+      <c r="G20" s="119"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="128"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="5" t="s">
         <v>588</v>
       </c>
       <c r="E21" s="4">
         <v>43821</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="138" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="128" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -6864,14 +6938,14 @@
       <c r="F22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="130" t="s">
+      <c r="G22" s="117" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="5" t="s">
         <v>222</v>
       </c>
@@ -6881,87 +6955,87 @@
       <c r="F23" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="137"/>
+      <c r="G23" s="127"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="5" t="s">
         <v>527</v>
       </c>
       <c r="E24" s="4">
         <v>43818</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="71" t="s">
         <v>525</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="128"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="5" t="s">
         <v>565</v>
       </c>
       <c r="E25" s="4">
         <v>43819</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="127"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="128"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="5" t="s">
         <v>566</v>
       </c>
       <c r="E26" s="4">
         <v>43819</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="5" t="s">
         <v>567</v>
       </c>
       <c r="E27" s="4">
         <v>43819</v>
       </c>
-      <c r="F27" s="82" t="s">
+      <c r="F27" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G27" s="137"/>
+      <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="5" t="s">
         <v>568</v>
       </c>
       <c r="E28" s="4">
         <v>43819</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G28" s="136"/>
+      <c r="G28" s="124"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="128"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="138" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="128" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6978,9 +7052,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="128"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="5" t="s">
         <v>236</v>
       </c>
@@ -6989,9 +7063,9 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="125" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="120" t="s">
         <v>239</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -7003,14 +7077,14 @@
       <c r="F31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="130" t="s">
+      <c r="G31" s="117" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="128"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="5" t="s">
         <v>242</v>
       </c>
@@ -7020,12 +7094,12 @@
       <c r="F32" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="131"/>
+      <c r="G32" s="118"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="5" t="s">
         <v>244</v>
       </c>
@@ -7035,177 +7109,177 @@
       <c r="F33" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="131"/>
+      <c r="G33" s="118"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="128"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E34" s="4">
         <v>43801</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="131"/>
+      <c r="G34" s="118"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="128"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E35" s="4">
         <v>43801</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="128"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
       <c r="D36" s="5" t="s">
         <v>368</v>
       </c>
       <c r="E36" s="4">
         <v>43805</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="G36" s="137"/>
+      <c r="G36" s="127"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="128"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
       <c r="D37" s="5" t="s">
         <v>497</v>
       </c>
       <c r="E37" s="4">
         <v>43817</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G37" s="137"/>
+      <c r="G37" s="127"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="5" t="s">
         <v>499</v>
       </c>
       <c r="E38" s="4">
         <v>43817</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G38" s="137"/>
+      <c r="G38" s="127"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="5" t="s">
         <v>500</v>
       </c>
       <c r="E39" s="4">
         <v>43817</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="137"/>
+      <c r="G39" s="127"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="5" t="s">
         <v>502</v>
       </c>
       <c r="E40" s="4">
         <v>43817</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G40" s="137"/>
+      <c r="G40" s="127"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="5" t="s">
         <v>504</v>
       </c>
       <c r="E41" s="4">
         <v>43817</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G41" s="137"/>
+      <c r="G41" s="127"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="5" t="s">
         <v>503</v>
       </c>
       <c r="E42" s="4">
         <v>43817</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="137"/>
+      <c r="G42" s="127"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
       <c r="D43" s="5" t="s">
         <v>505</v>
       </c>
       <c r="E43" s="4">
         <v>43817</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G43" s="137"/>
+      <c r="G43" s="127"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="128"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="5" t="s">
         <v>506</v>
       </c>
       <c r="E44" s="4">
         <v>43817</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G44" s="137"/>
+      <c r="G44" s="127"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="128"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="125" t="s">
+      <c r="A45" s="122"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="120" t="s">
         <v>638</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -7214,47 +7288,47 @@
       <c r="E45" s="4">
         <v>43823</v>
       </c>
-      <c r="F45" s="101" t="s">
+      <c r="F45" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="G45" s="130" t="s">
+      <c r="G45" s="117" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="128"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="5" t="s">
         <v>641</v>
       </c>
       <c r="E46" s="4">
         <v>43823</v>
       </c>
-      <c r="F46" s="101" t="s">
+      <c r="F46" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="G46" s="137"/>
+      <c r="G46" s="127"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="128"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="129"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="5" t="s">
         <v>642</v>
       </c>
       <c r="E47" s="4">
         <v>43823</v>
       </c>
-      <c r="F47" s="101" t="s">
+      <c r="F47" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="G47" s="136"/>
+      <c r="G47" s="124"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="128"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="125" t="s">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="120" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -7266,14 +7340,14 @@
       <c r="F48" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G48" s="130" t="s">
+      <c r="G48" s="117" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="128"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="126"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="5" t="s">
         <v>264</v>
       </c>
@@ -7283,12 +7357,12 @@
       <c r="F49" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G49" s="131"/>
+      <c r="G49" s="118"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="128"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
       <c r="D50" s="5" t="s">
         <v>276</v>
       </c>
@@ -7298,12 +7372,12 @@
       <c r="F50" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="131"/>
+      <c r="G50" s="118"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="128"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="5" t="s">
         <v>277</v>
       </c>
@@ -7313,12 +7387,12 @@
       <c r="F51" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="132"/>
+      <c r="G51" s="119"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="128"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="125" t="s">
+      <c r="A52" s="122"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="120" t="s">
         <v>280</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -7330,14 +7404,14 @@
       <c r="F52" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="130" t="s">
+      <c r="G52" s="117" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="128"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="126"/>
+      <c r="A53" s="122"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="5" t="s">
         <v>279</v>
       </c>
@@ -7347,12 +7421,12 @@
       <c r="F53" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="131"/>
+      <c r="G53" s="118"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="128"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="129"/>
+      <c r="A54" s="122"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="5" t="s">
         <v>283</v>
       </c>
@@ -7362,12 +7436,12 @@
       <c r="F54" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="136"/>
+      <c r="G54" s="124"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="128"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="125" t="s">
+      <c r="A55" s="122"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="120" t="s">
         <v>284</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -7379,29 +7453,29 @@
       <c r="F55" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="130" t="s">
+      <c r="G55" s="117" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="128"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="129"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="5" t="s">
         <v>592</v>
       </c>
       <c r="E56" s="4">
         <v>43821</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="85" t="s">
         <v>593</v>
       </c>
-      <c r="G56" s="136"/>
+      <c r="G56" s="124"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="128"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="125" t="s">
+      <c r="A57" s="122"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="120" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -7413,14 +7487,14 @@
       <c r="F57" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="150" t="s">
+      <c r="G57" s="138" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="129"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="5" t="s">
         <v>289</v>
       </c>
@@ -7430,12 +7504,12 @@
       <c r="F58" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G58" s="151"/>
+      <c r="G58" s="139"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="125" t="s">
+      <c r="A59" s="122"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -7444,32 +7518,32 @@
       <c r="E59" s="4">
         <v>43804</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="G59" s="130" t="s">
+      <c r="G59" s="117" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="127"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="5" t="s">
         <v>337</v>
       </c>
       <c r="E60" s="4">
         <v>43804</v>
       </c>
-      <c r="F60" s="42" t="s">
+      <c r="F60" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="G60" s="132"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="128"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="125" t="s">
+      <c r="A61" s="122"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="120" t="s">
         <v>354</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -7478,77 +7552,77 @@
       <c r="E61" s="4">
         <v>43805</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="130" t="s">
+      <c r="G61" s="117" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="128"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="126"/>
+      <c r="A62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="121"/>
       <c r="D62" s="5" t="s">
         <v>356</v>
       </c>
       <c r="E62" s="4">
         <v>43805</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="131"/>
+      <c r="G62" s="118"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="128"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="126"/>
+      <c r="A63" s="122"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="5" t="s">
         <v>357</v>
       </c>
       <c r="E63" s="4">
         <v>43805</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="G63" s="131"/>
+      <c r="G63" s="118"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="128"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="128"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="5" t="s">
         <v>365</v>
       </c>
       <c r="E64" s="4">
         <v>43805</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="G64" s="137"/>
+      <c r="G64" s="127"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="128"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="129"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="5" t="s">
         <v>377</v>
       </c>
       <c r="E65" s="4">
         <v>43806</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="G65" s="136"/>
+      <c r="G65" s="124"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="128"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="146" t="s">
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="136" t="s">
         <v>434</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7557,32 +7631,32 @@
       <c r="E66" s="4">
         <v>43812</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="F66" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="130" t="s">
+      <c r="G66" s="117" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="128"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="147"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="137"/>
       <c r="D67" s="5" t="s">
         <v>441</v>
       </c>
       <c r="E67" s="4">
         <v>43812</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="G67" s="132"/>
+      <c r="G67" s="119"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="128"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="146" t="s">
+      <c r="A68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="136" t="s">
         <v>445</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -7591,92 +7665,92 @@
       <c r="E68" s="4">
         <v>43812</v>
       </c>
-      <c r="F68" s="62" t="s">
+      <c r="F68" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="G68" s="130" t="s">
+      <c r="G68" s="117" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="128"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="163"/>
+      <c r="A69" s="122"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="140"/>
       <c r="D69" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E69" s="4">
         <v>43812</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F69" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="G69" s="131"/>
+      <c r="G69" s="118"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="128"/>
-      <c r="B70" s="128"/>
-      <c r="C70" s="128"/>
+      <c r="A70" s="122"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="5" t="s">
         <v>764</v>
       </c>
       <c r="E70" s="4">
         <v>43837</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="110" t="s">
         <v>762</v>
       </c>
-      <c r="G70" s="137"/>
+      <c r="G70" s="127"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="128"/>
-      <c r="B71" s="128"/>
-      <c r="C71" s="128"/>
+      <c r="A71" s="122"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="5" t="s">
         <v>765</v>
       </c>
       <c r="E71" s="4">
         <v>43837</v>
       </c>
-      <c r="F71" s="124" t="s">
+      <c r="F71" s="110" t="s">
         <v>762</v>
       </c>
-      <c r="G71" s="137"/>
+      <c r="G71" s="127"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="128"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="128"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="5" t="s">
         <v>770</v>
       </c>
       <c r="E72" s="4">
         <v>43837</v>
       </c>
-      <c r="F72" s="124" t="s">
+      <c r="F72" s="110" t="s">
         <v>762</v>
       </c>
-      <c r="G72" s="137"/>
+      <c r="G72" s="127"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="128"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="129"/>
+      <c r="A73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="5" t="s">
         <v>771</v>
       </c>
       <c r="E73" s="4">
         <v>43837</v>
       </c>
-      <c r="F73" s="124" t="s">
+      <c r="F73" s="110" t="s">
         <v>762</v>
       </c>
-      <c r="G73" s="136"/>
+      <c r="G73" s="124"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="128"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="144" t="s">
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="134" t="s">
         <v>487</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -7685,47 +7759,47 @@
       <c r="E74" s="4">
         <v>43817</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G74" s="130" t="s">
+      <c r="G74" s="117" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="145"/>
+      <c r="A75" s="122"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="5" t="s">
         <v>490</v>
       </c>
       <c r="E75" s="4">
         <v>43817</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G75" s="131"/>
+      <c r="G75" s="118"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="128"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="129"/>
+      <c r="A76" s="122"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E76" s="4">
         <v>43817</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G76" s="136"/>
+      <c r="G76" s="124"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="128"/>
-      <c r="B77" s="128"/>
-      <c r="C77" s="138" t="s">
+      <c r="A77" s="122"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="128" t="s">
         <v>596</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -7734,27 +7808,27 @@
       <c r="E77" s="4">
         <v>43821</v>
       </c>
-      <c r="F77" s="90" t="s">
+      <c r="F77" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="G77" s="140" t="s">
+      <c r="G77" s="130" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="129"/>
-      <c r="B78" s="129"/>
-      <c r="C78" s="142"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="5" t="s">
         <v>599</v>
       </c>
       <c r="E78" s="4">
         <v>43821</v>
       </c>
-      <c r="F78" s="90" t="s">
+      <c r="F78" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="G78" s="143"/>
+      <c r="G78" s="132"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="30"/>
@@ -7766,13 +7840,13 @@
       <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="138" t="s">
+      <c r="B80" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="126" t="s">
+      <c r="C80" s="121" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -7789,9 +7863,9 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="139"/>
-      <c r="B81" s="139"/>
-      <c r="C81" s="129"/>
+      <c r="A81" s="129"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
@@ -7801,14 +7875,14 @@
       <c r="F81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="130" t="s">
+      <c r="G81" s="117" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="139"/>
-      <c r="B82" s="139"/>
-      <c r="C82" s="125" t="s">
+      <c r="A82" s="129"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -7817,86 +7891,86 @@
       <c r="E82" s="4">
         <v>43777</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="G82" s="131"/>
+      <c r="G82" s="118"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="128"/>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
+      <c r="A83" s="122"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="122"/>
       <c r="D83" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E83" s="4">
         <v>43777</v>
       </c>
-      <c r="F83" s="66" t="s">
+      <c r="F83" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="137"/>
+      <c r="G83" s="127"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="128"/>
-      <c r="B84" s="128"/>
-      <c r="C84" s="128"/>
+      <c r="A84" s="122"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
       <c r="D84" s="5" t="s">
         <v>492</v>
       </c>
       <c r="E84" s="4">
         <v>43817</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F84" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G84" s="137"/>
+      <c r="G84" s="127"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="128"/>
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
+      <c r="A85" s="122"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
       <c r="D85" s="5" t="s">
         <v>493</v>
       </c>
       <c r="E85" s="4">
         <v>43817</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G85" s="137"/>
+      <c r="G85" s="127"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="128"/>
-      <c r="B86" s="128"/>
-      <c r="C86" s="129"/>
+      <c r="A86" s="122"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="5" t="s">
         <v>494</v>
       </c>
       <c r="E86" s="4">
         <v>43817</v>
       </c>
-      <c r="F86" s="66" t="s">
+      <c r="F86" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G86" s="136"/>
+      <c r="G86" s="124"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="128"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="66" t="s">
+      <c r="A87" s="122"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="64" t="s">
         <v>446</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="64"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="62"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="128"/>
-      <c r="B88" s="128"/>
-      <c r="C88" s="63" t="s">
+      <c r="A88" s="122"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="61" t="s">
         <v>447</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -7905,7 +7979,7 @@
       <c r="E88" s="4">
         <v>43815</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="61" t="s">
         <v>451</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -7913,9 +7987,9 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="129"/>
-      <c r="B89" s="129"/>
-      <c r="C89" s="102" t="s">
+      <c r="A89" s="123"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="92" t="s">
         <v>654</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -7924,7 +7998,7 @@
       <c r="E89" s="4">
         <v>43823</v>
       </c>
-      <c r="F89" s="102" t="s">
+      <c r="F89" s="92" t="s">
         <v>653</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -7932,19 +8006,19 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="138" t="s">
+      <c r="A90" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="138" t="s">
+      <c r="B90" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="139"/>
-      <c r="B91" s="139"/>
+      <c r="A91" s="129"/>
+      <c r="B91" s="129"/>
       <c r="D91" s="3" t="s">
         <v>41</v>
       </c>
@@ -7959,8 +8033,8 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="128"/>
-      <c r="B92" s="128"/>
+      <c r="A92" s="122"/>
+      <c r="B92" s="122"/>
       <c r="D92" s="3" t="s">
         <v>159</v>
       </c>
@@ -7972,95 +8046,95 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="128"/>
-      <c r="B93" s="128"/>
+      <c r="A93" s="122"/>
+      <c r="B93" s="122"/>
       <c r="D93" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E93" s="4">
         <v>43797</v>
       </c>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="128"/>
-      <c r="B94" s="128"/>
-      <c r="C94" s="125" t="s">
+      <c r="A94" s="122"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="120" t="s">
         <v>544</v>
       </c>
-      <c r="D94" s="81" t="s">
+      <c r="D94" s="79" t="s">
         <v>545</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="130" t="s">
+      <c r="F94" s="74"/>
+      <c r="G94" s="117" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="128"/>
-      <c r="B95" s="128"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="81" t="s">
+      <c r="A95" s="122"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="79" t="s">
         <v>546</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="131"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="118"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="128"/>
-      <c r="B96" s="128"/>
-      <c r="C96" s="126"/>
-      <c r="D96" s="81" t="s">
+      <c r="A96" s="122"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="79" t="s">
         <v>547</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="131"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="118"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="128"/>
-      <c r="B97" s="128"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="81" t="s">
+      <c r="A97" s="122"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="79" t="s">
         <v>548</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="131"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="118"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="128"/>
-      <c r="B98" s="128"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="81" t="s">
+      <c r="A98" s="122"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="79" t="s">
         <v>549</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="131"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="118"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="129"/>
-      <c r="B99" s="129"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="81" t="s">
+      <c r="A99" s="123"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="79" t="s">
         <v>550</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="132"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="119"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="138" t="s">
+      <c r="A100" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="125" t="s">
+      <c r="B100" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="125" t="s">
+      <c r="C100" s="120" t="s">
         <v>90</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -8072,14 +8146,14 @@
       <c r="F100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G100" s="130" t="s">
+      <c r="G100" s="117" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="128"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="128"/>
+      <c r="A101" s="122"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="122"/>
       <c r="D101" s="5" t="s">
         <v>96</v>
       </c>
@@ -8089,12 +8163,12 @@
       <c r="F101" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G101" s="131"/>
+      <c r="G101" s="118"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="128"/>
-      <c r="B102" s="126"/>
-      <c r="C102" s="128"/>
+      <c r="A102" s="122"/>
+      <c r="B102" s="121"/>
+      <c r="C102" s="122"/>
       <c r="D102" s="5" t="s">
         <v>92</v>
       </c>
@@ -8104,44 +8178,44 @@
       <c r="F102" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G102" s="131"/>
+      <c r="G102" s="118"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="128"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="128"/>
+      <c r="A103" s="122"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="122"/>
       <c r="D103" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="7">
         <v>43794</v>
       </c>
-      <c r="F103" s="76" t="s">
+      <c r="F103" s="74" t="s">
         <v>552</v>
       </c>
-      <c r="G103" s="132"/>
+      <c r="G103" s="119"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="128"/>
-      <c r="B104" s="128"/>
-      <c r="C104" s="129"/>
+      <c r="A104" s="122"/>
+      <c r="B104" s="122"/>
+      <c r="C104" s="123"/>
       <c r="F104" s="1"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="128"/>
-      <c r="B105" s="128"/>
+      <c r="A105" s="122"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="33"/>
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
-      <c r="G105" s="140" t="s">
+      <c r="G105" s="130" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="128"/>
-      <c r="B106" s="128"/>
-      <c r="C106" s="138" t="s">
+      <c r="A106" s="122"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="128" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -8153,12 +8227,12 @@
       <c r="F106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="141"/>
+      <c r="G106" s="131"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="128"/>
-      <c r="B107" s="128"/>
-      <c r="C107" s="139"/>
+      <c r="A107" s="122"/>
+      <c r="B107" s="122"/>
+      <c r="C107" s="129"/>
       <c r="D107" s="3" t="s">
         <v>55</v>
       </c>
@@ -8168,34 +8242,34 @@
       <c r="F107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G107" s="141"/>
+      <c r="G107" s="131"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="128"/>
-      <c r="B108" s="128"/>
-      <c r="C108" s="139"/>
+      <c r="A108" s="122"/>
+      <c r="B108" s="122"/>
+      <c r="C108" s="129"/>
       <c r="D108" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="4">
         <v>43787</v>
       </c>
-      <c r="G108" s="141"/>
+      <c r="G108" s="131"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="128"/>
-      <c r="B109" s="128"/>
-      <c r="C109" s="139"/>
+      <c r="A109" s="122"/>
+      <c r="B109" s="122"/>
+      <c r="C109" s="129"/>
       <c r="D109" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="G109" s="141"/>
+      <c r="G109" s="131"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="128"/>
-      <c r="B110" s="128"/>
-      <c r="C110" s="139"/>
+      <c r="A110" s="122"/>
+      <c r="B110" s="122"/>
+      <c r="C110" s="129"/>
       <c r="D110" s="3" t="s">
         <v>63</v>
       </c>
@@ -8203,24 +8277,24 @@
       <c r="F110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G110" s="141"/>
+      <c r="G110" s="131"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="128"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="139"/>
+      <c r="A111" s="122"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="129"/>
       <c r="D111" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E111" s="4">
         <v>43788</v>
       </c>
-      <c r="G111" s="141"/>
+      <c r="G111" s="131"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="128"/>
-      <c r="B112" s="128"/>
-      <c r="C112" s="139"/>
+      <c r="A112" s="122"/>
+      <c r="B112" s="122"/>
+      <c r="C112" s="129"/>
       <c r="D112" s="3" t="s">
         <v>78</v>
       </c>
@@ -8228,12 +8302,12 @@
       <c r="F112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G112" s="143"/>
+      <c r="G112" s="132"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="128"/>
-      <c r="B113" s="128"/>
-      <c r="C113" s="142"/>
+      <c r="A113" s="122"/>
+      <c r="B113" s="122"/>
+      <c r="C113" s="133"/>
       <c r="D113" s="5" t="s">
         <v>76</v>
       </c>
@@ -8243,19 +8317,19 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="128"/>
-      <c r="B114" s="128"/>
+      <c r="A114" s="122"/>
+      <c r="B114" s="122"/>
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="130" t="s">
+      <c r="G114" s="117" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="128"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="138" t="s">
+      <c r="A115" s="122"/>
+      <c r="B115" s="122"/>
+      <c r="C115" s="128" t="s">
         <v>135</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -8265,12 +8339,12 @@
       <c r="F115" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G115" s="137"/>
+      <c r="G115" s="127"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="128"/>
-      <c r="B116" s="128"/>
-      <c r="C116" s="128"/>
+      <c r="A116" s="122"/>
+      <c r="B116" s="122"/>
+      <c r="C116" s="122"/>
       <c r="D116" s="5" t="s">
         <v>296</v>
       </c>
@@ -8280,12 +8354,12 @@
       <c r="F116" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G116" s="137"/>
+      <c r="G116" s="127"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="128"/>
-      <c r="B117" s="128"/>
-      <c r="C117" s="128"/>
+      <c r="A117" s="122"/>
+      <c r="B117" s="122"/>
+      <c r="C117" s="122"/>
       <c r="D117" s="5" t="s">
         <v>298</v>
       </c>
@@ -8295,53 +8369,53 @@
       <c r="F117" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G117" s="137"/>
+      <c r="G117" s="127"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="128"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="128"/>
+      <c r="A118" s="122"/>
+      <c r="B118" s="122"/>
+      <c r="C118" s="122"/>
       <c r="D118" s="5" t="s">
         <v>299</v>
       </c>
       <c r="E118" s="4">
         <v>43802</v>
       </c>
-      <c r="F118" s="42" t="s">
+      <c r="F118" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="G118" s="136"/>
+      <c r="G118" s="124"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="128"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="129"/>
+      <c r="A119" s="122"/>
+      <c r="B119" s="122"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E119" s="4">
         <v>43804</v>
       </c>
-      <c r="F119" s="71" t="s">
+      <c r="F119" s="69" t="s">
         <v>514</v>
       </c>
       <c r="G119" s="36"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="128"/>
-      <c r="B120" s="128"/>
+      <c r="A120" s="122"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="35"/>
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
       <c r="F120" s="27"/>
-      <c r="G120" s="140" t="s">
+      <c r="G120" s="130" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="128"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="125" t="s">
+      <c r="A121" s="122"/>
+      <c r="B121" s="122"/>
+      <c r="C121" s="120" t="s">
         <v>248</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -8353,12 +8427,12 @@
       <c r="F121" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G121" s="141"/>
+      <c r="G121" s="131"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="128"/>
-      <c r="B122" s="128"/>
-      <c r="C122" s="126"/>
+      <c r="A122" s="122"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="121"/>
       <c r="D122" s="5" t="s">
         <v>249</v>
       </c>
@@ -8368,12 +8442,12 @@
       <c r="F122" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G122" s="141"/>
+      <c r="G122" s="131"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="128"/>
-      <c r="B123" s="128"/>
-      <c r="C123" s="126"/>
+      <c r="A123" s="122"/>
+      <c r="B123" s="122"/>
+      <c r="C123" s="121"/>
       <c r="D123" s="5" t="s">
         <v>251</v>
       </c>
@@ -8383,12 +8457,12 @@
       <c r="F123" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G123" s="141"/>
+      <c r="G123" s="131"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="128"/>
-      <c r="B124" s="128"/>
-      <c r="C124" s="126"/>
+      <c r="A124" s="122"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="121"/>
       <c r="D124" s="5" t="s">
         <v>252</v>
       </c>
@@ -8398,12 +8472,12 @@
       <c r="F124" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G124" s="141"/>
+      <c r="G124" s="131"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="128"/>
-      <c r="B125" s="128"/>
-      <c r="C125" s="126"/>
+      <c r="A125" s="122"/>
+      <c r="B125" s="122"/>
+      <c r="C125" s="121"/>
       <c r="D125" s="5" t="s">
         <v>253</v>
       </c>
@@ -8413,12 +8487,12 @@
       <c r="F125" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G125" s="141"/>
+      <c r="G125" s="131"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="128"/>
-      <c r="B126" s="128"/>
-      <c r="C126" s="126"/>
+      <c r="A126" s="122"/>
+      <c r="B126" s="122"/>
+      <c r="C126" s="121"/>
       <c r="D126" s="5" t="s">
         <v>254</v>
       </c>
@@ -8428,12 +8502,12 @@
       <c r="F126" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G126" s="141"/>
+      <c r="G126" s="131"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="128"/>
-      <c r="B127" s="128"/>
-      <c r="C127" s="128"/>
+      <c r="A127" s="122"/>
+      <c r="B127" s="122"/>
+      <c r="C127" s="122"/>
       <c r="D127" s="5" t="s">
         <v>255</v>
       </c>
@@ -8443,35 +8517,35 @@
       <c r="F127" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="143"/>
+      <c r="G127" s="132"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="128"/>
-      <c r="B128" s="128"/>
-      <c r="C128" s="129"/>
+      <c r="A128" s="122"/>
+      <c r="B128" s="122"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E128" s="4">
         <v>43801</v>
       </c>
-      <c r="F128" s="71" t="s">
+      <c r="F128" s="69" t="s">
         <v>514</v>
       </c>
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="128"/>
-      <c r="B129" s="128"/>
-      <c r="C129" s="77"/>
+      <c r="A129" s="122"/>
+      <c r="B129" s="122"/>
+      <c r="C129" s="75"/>
       <c r="D129" s="5"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="79"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="77"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="128"/>
-      <c r="B130" s="128"/>
+      <c r="A130" s="122"/>
+      <c r="B130" s="122"/>
       <c r="C130" s="2" t="s">
         <v>311</v>
       </c>
@@ -8479,12 +8553,12 @@
         <v>312</v>
       </c>
       <c r="E130" s="4"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="128"/>
-      <c r="B131" s="128"/>
+      <c r="A131" s="122"/>
+      <c r="B131" s="122"/>
       <c r="C131" s="2" t="s">
         <v>557</v>
       </c>
@@ -8494,7 +8568,7 @@
       <c r="E131" s="4">
